--- a/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
+++ b/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneblessing/Desktop/DHBW Horb Informatik/Semester 4/Software Engineering Project/d6/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B99453E-CC23-F445-A7C0-4650DAA4E4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FDC45-A5D4-AE43-B6D8-C2EEBB90492B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13920" activeTab="3" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="271">
   <si>
     <t>Punkt</t>
   </si>
@@ -2356,6 +2356,6916 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>993707</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1176587</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>590006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Pfeil nach unten 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6E9D1BE-9630-6843-A6E4-9AE87C2B1303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320278" y="3655786"/>
+          <a:ext cx="182880" cy="1188720"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>982328</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1165208</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12454</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Pfeil nach unten 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26311F82-3920-F441-B982-8F55A48EA6A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1308899" y="5482525"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>990325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1173205</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Pfeil nach unten 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D41209-1D96-2E48-8F68-16547C8C7082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1316896" y="6694713"/>
+          <a:ext cx="182880" cy="616858"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1009543</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1192423</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>590258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Pfeil nach unten 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5787A161-A918-7946-9B43-74DA730B5EB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1336114" y="7910286"/>
+          <a:ext cx="182880" cy="581186"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1006929</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1189809</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>590258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Pfeil nach unten 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7725096D-69E3-5148-91FB-BB5B45996CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="9125858"/>
+          <a:ext cx="182880" cy="581186"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>997858</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1180738</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>590258</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Pfeil nach unten 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D8D2A30-0E65-3E4C-876D-821D47C5582F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1324429" y="10341429"/>
+          <a:ext cx="182880" cy="581186"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1070428</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1253308</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Pfeil nach unten 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52086B57-D64A-1E4E-B4AB-F6EFCDC02D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8445499" y="6694715"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1262380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Pfeil nach unten 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F99F70F-90E7-2E4D-89D5-40701A43477A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8454571" y="7901214"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1070428</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1253308</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Pfeil nach unten 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEED6153-A38F-3B4C-B8CE-B5DB3398EF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8445499" y="11547929"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1070429</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1253309</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Pfeil nach unten 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A182AC4-E77E-944B-A38F-5DC4B33E74E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8445500" y="12763500"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1043214</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1226094</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Pfeil nach unten 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DEE57ED-F91A-914C-AFDF-5BE8B8E96C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8418285" y="16410214"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1025072</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1207952</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Pfeil nach unten 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A46E5BAC-5CD4-BE4E-BF5B-8DD0222FB673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6050643" y="18841357"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1262380</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Pfeil nach unten 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25F163A-9A08-0A49-958D-8EC84459904C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8454571" y="21272500"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1070429</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1253309</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Pfeil nach unten 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DE8199-6235-2D4D-85EF-B45EB0635BB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8445500" y="24919214"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1088571</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1271451</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Pfeil nach unten 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564961E2-263F-9346-B65F-0F2DA5D04773}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8463642" y="26143858"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1097643</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>598715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1280523</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>598715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Pfeil nach unten 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2C81E5-5941-724E-A2B6-E44290B7E2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8472714" y="27341286"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1061357</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1244237</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Pfeil nach unten 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524C8F54-5090-084E-B58D-DC6C477BD99D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8436428" y="31006142"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1052285</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1235165</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Pfeil nach unten 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC88152-93B9-9A4E-B768-873056DBD3A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8427356" y="32212643"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1070429</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1253309</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Pfeil nach unten 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83CC21AD-23E6-7B4C-9941-D997E4B2CFB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8445500" y="33437285"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1106714</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1289594</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9073</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Pfeil nach unten 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99BED5EE-1523-F64D-AE3A-BD66C22BD450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8481785" y="34652858"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1052286</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1235166</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Pfeil nach unten 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B98D7B2-1C05-5E44-9F29-F83584D028B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8427357" y="38290500"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1070428</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>607785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1253308</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Pfeil nach unten 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEEB2E63-93B4-314D-BACC-1662180BD508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8445499" y="39506071"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1262380</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Pfeil nach unten 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC357DFC-6B07-9048-80D1-9EE9BDFF0D84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8454571" y="40730714"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1097643</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1280523</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Pfeil nach unten 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9D5441-C3BB-2440-8ACE-E6909F6AEBA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8472714" y="41937214"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1016000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1198880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Pfeil nach unten 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3569F203-0DC5-164B-A203-8E4481B0C3F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13090071" y="6685643"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1025072</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1207952</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Pfeil nach unten 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BA6C91-DD1F-4347-BB2C-66ABB7473BF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13099143" y="10341428"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1052286</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>598715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1235166</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>598715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Pfeil nach unten 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF2AEB62-AFF9-124D-ACEA-6F681D2DA624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13126357" y="11538858"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>988786</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>598715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1171666</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>598715</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Pfeil nach unten 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F082C0-AE3D-914B-8F25-D8A83B31DAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17761857" y="6676572"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1034143</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1217023</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Pfeil nach unten 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCFD149-DE99-F345-8550-05D95181A63A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17807214" y="7901214"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1034143</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1217023</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Pfeil nach unten 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{411213A0-8C1A-0445-8C40-F61CD3F9B701}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17807214" y="9116786"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1043215</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1226095</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Pfeil nach unten 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58671E75-FAA7-9740-940F-224B414F688D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17816286" y="10341429"/>
+          <a:ext cx="182880" cy="607786"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1087731</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>605601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1270611</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>605602</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Pfeil nach unten 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981AD4B5-D7FD-DF44-87B3-A82B66AF5F6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17879953" y="11612268"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1052454</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1235334</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Pfeil nach unten 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8214225B-AF77-3249-AC7A-B35D1605EE84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17844676" y="15287037"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1075972</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1258852</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5881</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Pfeil nach unten 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18635113-CC94-5748-9C27-DE50165E8B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17868194" y="16515880"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1064213</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1247093</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Pfeil nach unten 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A65EC31-A597-3F4E-BC55-18D4B9BF5434}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17856435" y="20178889"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1093611</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>5879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1276491</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>5880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Pfeil nach unten 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70ED8C4D-D3BD-254E-AE51-E965377DE2D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17885833" y="21407731"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1070093</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1252973</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Pfeil nach unten 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3D284B-AD2F-0B4A-9631-9781F418C301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17862315" y="22624815"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1081852</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1264732</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Pfeil nach unten 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8537869F-C03A-A541-B144-5E3DCBFE68DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17874074" y="23847778"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1081852</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1264732</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Pfeil nach unten 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517F0623-2A23-A04B-AA9D-4EAD04674A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17874074" y="27516667"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1117130</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1300010</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Pfeil nach unten 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A893250-38C0-1F42-9922-3A5722F7ACC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17909352" y="28739630"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1058333</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1241213</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Pfeil nach unten 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69306443-7A40-9E46-9EE4-DC79528C07C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17850555" y="32408519"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1046575</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>5880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1229455</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>5880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Pfeil nach unten 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4BBF26F-8951-414C-9607-9ED26789623C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17838797" y="33637361"/>
+          <a:ext cx="182880" cy="611482"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>991491</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1174371</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>592074</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Pfeil nach unten 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60910ADB-7891-AA48-A6E2-867529606DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6026930" y="3687456"/>
+          <a:ext cx="182880" cy="1193653"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1036053</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1218933</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>592075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Pfeil nach unten 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7F09EC-E328-9C4E-839F-002E84233A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772720" y="3687457"/>
+          <a:ext cx="182880" cy="1193653"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1058334</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>11141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1241214</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>592075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Pfeil nach unten 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2651C200-CD84-CE43-A795-6BED4373CBCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15496229" y="3687457"/>
+          <a:ext cx="182880" cy="1193653"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1036051</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>612719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2317190</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>445617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Nach oben gebogener Pfeil 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27D886BC-EC59-1B44-ACD4-5AA4AE7ECA43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6182891" y="5403072"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1058334</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2339473</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>445618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Nach oben gebogener Pfeil 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A366F6C3-7C03-164E-80D6-3232FB745C8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6205174" y="10304827"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1058333</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2339472</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>456757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Nach oben gebogener Pfeil 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFCBB0ED-F53A-D34C-939D-827356819ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6205173" y="15217721"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1069474</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>601580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2350613</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>434478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Nach oben gebogener Pfeil 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215A414B-FE84-964C-8055-665D441B6AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6216314" y="23773512"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1069473</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>601579</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2350612</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>434477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Nach oben gebogener Pfeil 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89905783-0C06-E64B-993D-26959E7C6541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6216313" y="29900704"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1036052</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2317191</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>445618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Nach oben gebogener Pfeil 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB38E79-3C92-DF4F-ADF5-CF1C91B4B187}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6182892" y="37264476"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1036053</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2317192</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>456758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Nach oben gebogener Pfeil 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83421523-0B45-BF48-B200-112ADAAC5657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10884121" y="9090529"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1058333</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>601580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2339472</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>434478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Nach oben gebogener Pfeil 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE2B6AE3-D1AC-164F-A8A5-7B84E732366C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15607629" y="5391933"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1047193</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2328332</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>445618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Nach oben gebogener Pfeil 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5963551E-7C95-724C-B1D3-941AB6B1CBCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15596489" y="13981143"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1058333</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>11141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2339472</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>456758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Nach oben gebogener Pfeil 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF2D640-7ADB-284C-8810-3BF73399821C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15607629" y="18894038"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1036052</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2317191</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>456759</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Nach oben gebogener Pfeil 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B64E9B79-DF3D-C545-A675-8DC5C565397A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15585348" y="26246670"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1080614</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>11140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11139</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>456757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Nach oben gebogener Pfeil 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98FCE45C-FF9C-5845-940E-F9F2A6DF7D8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15629910" y="31148423"/>
+          <a:ext cx="1058337" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>996461</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1289541</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>594751</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="Gruppieren 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB15E6F7-489A-5E43-B882-427DAFECB492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6025661" y="9153768"/>
+          <a:ext cx="2642580" cy="584983"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="Nach oben gebogener Pfeil 76">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A0AD3B-AB54-B346-ACCA-7FFC344C23BC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="L-Form 77">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D8E4D8-07BE-B241-AD11-638579304684}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>976924</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1270004</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>584983</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="80" name="Gruppieren 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501B7161-589D-0449-AC11-189EADE1228B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6006124" y="14020800"/>
+          <a:ext cx="2642580" cy="584983"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="Nach oben gebogener Pfeil 80">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F070CA-EB91-2643-A8AA-CFA4250EA06A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="L-Form 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D90524-B730-6B43-8515-092913F9257F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>947615</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1240695</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>584983</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="83" name="Gruppieren 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EC48D0A-30E0-8F43-AED6-93F55201EEB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5976815" y="17678400"/>
+          <a:ext cx="2642580" cy="584983"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="Nach oben gebogener Pfeil 83">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D4A6D8-F7C1-A94F-9DFC-49831DB64AEA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="L-Form 84">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0DF1094-E5EC-344F-8A3B-153FD157548D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>967154</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1260234</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>584983</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="Gruppieren 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F98E71-8D10-5C40-99C5-D55EC6174300}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5996354" y="22555200"/>
+          <a:ext cx="2642580" cy="584983"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="Nach oben gebogener Pfeil 86">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6501E62E-55F6-D046-B5DB-4E8791DB66E6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="L-Form 87">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AC08272-04BA-154D-AF8E-0B7B3B6E9607}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1045308</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2326447</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>448360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Nach oben gebogener Pfeil 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA4FA5A-4303-A64B-AD39-AA45DB1D7800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6204660" y="19879187"/>
+          <a:ext cx="1044282" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>928077</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>605692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1221157</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>584983</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="90" name="Gruppieren 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E28AD5-C49F-7A4A-BB0B-3A7AE8A6726B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5957277" y="28647292"/>
+          <a:ext cx="2642580" cy="588891"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="Nach oben gebogener Pfeil 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596B9E0B-11C4-5246-9EC0-49AD287C7619}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="L-Form 91">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CD4E3E-BD02-3D4E-AD70-4C9A36669EEF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>947616</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1240696</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>594753</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="Gruppieren 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C464AE-2A0F-2442-8681-86ACC6B629FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5976816" y="35976170"/>
+          <a:ext cx="2642580" cy="584983"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="Nach oben gebogener Pfeil 93">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B189B22-BF73-4041-B609-FE95A5CFAF37}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="L-Form 94">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3E0162-0C67-8B45-8F8A-EC99FD7D541B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1055077</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2336216</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>448361</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Nach oben gebogener Pfeil 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4987F3E-549C-3C41-8F71-64A317A5655B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10923197" y="5342573"/>
+          <a:ext cx="1044283" cy="1281139"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentUpArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 9348"/>
+            <a:gd name="adj2" fmla="val 10655"/>
+            <a:gd name="adj3" fmla="val 40652"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="de-DE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>898769</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1191849</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>594753</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="97" name="Gruppieren 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABB89FDC-E95C-7546-9392-6994349216C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10626969" y="7934570"/>
+          <a:ext cx="2642580" cy="584983"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="Nach oben gebogener Pfeil 97">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85830BB-23F6-0F4F-8C54-09FCFB9679DD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="L-Form 98">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAA91267-431D-C049-B8FA-FACA98762DEC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>908538</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1201619</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>594753</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="Gruppieren 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B929BCD4-E5CA-9C4C-B11A-F977D71AAB70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15335738" y="12811370"/>
+          <a:ext cx="2642581" cy="584983"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="Nach oben gebogener Pfeil 100">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08CCBDA8-88B7-F943-9505-82C0D98C47FE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="L-Form 101">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02B60F0-E242-6A4B-8EDA-95CD022C69DC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>918307</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1211388</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>594752</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="103" name="Gruppieren 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35DD67F-37D8-A640-BE8F-8E98AA807D63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15345507" y="17688169"/>
+          <a:ext cx="2642581" cy="584983"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="Nach oben gebogener Pfeil 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{168C20DC-1030-5D45-A900-F47E1AFE9F55}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="L-Form 104">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD9AE21-5A94-4F4B-B258-022D0ABE1B8F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>908538</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1201619</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>584983</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="106" name="Gruppieren 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5C3E80-72D7-4045-A033-7F129FF50E94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15335738" y="24993600"/>
+          <a:ext cx="2642581" cy="584983"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="Nach oben gebogener Pfeil 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAEE0618-F0B6-C64F-8DC5-1A9EBDD8FE07}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="L-Form 107">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8382D1C4-91C3-0644-B2A1-5BD256CD530D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>937846</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1230927</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>594752</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="Gruppieren 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6EF68EC-8DCF-B74A-9BAC-1F5AF2F21724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15365046" y="29880169"/>
+          <a:ext cx="2642581" cy="584983"/>
+          <a:chOff x="6037384" y="9095153"/>
+          <a:chExt cx="2647465" cy="584983"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="Nach oben gebogener Pfeil 109">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA861FC-A0E3-C743-B80D-4ECD86362D56}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="6037384" y="9368692"/>
+            <a:ext cx="849922" cy="311444"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="L-Form 110">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDB594E-6A9B-5E42-B8DF-71F096A620E7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="16200000">
+            <a:off x="7541848" y="8313613"/>
+            <a:ext cx="361462" cy="1924541"/>
+          </a:xfrm>
+          <a:prstGeom prst="corner">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 20213"/>
+              <a:gd name="adj2" fmla="val 22340"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>546100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="123" name="Gruppieren 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0885AC94-2139-F04A-AFB8-8B74F9786680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="469900" y="1765300"/>
+          <a:ext cx="16370300" cy="1295400"/>
+          <a:chOff x="469900" y="1765300"/>
+          <a:chExt cx="16370300" cy="1295400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="Minus 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23B723A3-5553-004A-898D-AFDE7D6A1DAE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="469900" y="2044700"/>
+            <a:ext cx="16370300" cy="365760"/>
+          </a:xfrm>
+          <a:prstGeom prst="mathMinus">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 27091"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="Minus 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF68857F-436E-324A-824B-3DAB20EEAF1F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000">
+            <a:off x="8286750" y="1746250"/>
+            <a:ext cx="482600" cy="520700"/>
+          </a:xfrm>
+          <a:prstGeom prst="mathMinus">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="Nach oben gebogener Pfeil 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEEAEB77-E264-0342-BC96-6A01C9E11096}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="1257300" y="2171700"/>
+            <a:ext cx="1384300" cy="889000"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentUpArrow">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 12143"/>
+              <a:gd name="adj2" fmla="val 18571"/>
+              <a:gd name="adj3" fmla="val 25000"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="Pfeil nach unten 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90BEFBEF-3CC8-914B-9D20-F6B2B15F04CD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5994400" y="2286000"/>
+            <a:ext cx="203200" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="Pfeil nach unten 117">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E4D060-605C-0049-BE70-37649332736A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10731500" y="2286000"/>
+            <a:ext cx="203200" cy="762000"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="Minus 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85777FFB-93CD-DC41-95F2-445B14992F66}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14465300" y="2019300"/>
+            <a:ext cx="1333500" cy="431800"/>
+          </a:xfrm>
+          <a:prstGeom prst="mathMinus">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="Pfeil nach unten 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48A4B5EF-93B5-BE44-8860-93D38626D07B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15481300" y="2184400"/>
+            <a:ext cx="215900" cy="838200"/>
+          </a:xfrm>
+          <a:prstGeom prst="downArrow">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent6">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="de-DE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1288021</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>324925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89928</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>17974</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Gruppieren 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964FFC56-29ED-244D-A388-E4C553AE2CEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7638021" y="1544125"/>
+          <a:ext cx="3564407" cy="2741049"/>
+          <a:chOff x="7638021" y="1544125"/>
+          <a:chExt cx="3564407" cy="2741049"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Freihandform 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68A4248-5541-1A46-BA89-E26FDAEBBCC9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9420225" y="2065237"/>
+            <a:ext cx="109433" cy="1219402"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="1219402"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="109433" y="1219402"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Freihandform 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7A6CC6-C537-CF42-86DA-702401C72937}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9310791" y="2065237"/>
+            <a:ext cx="109433" cy="1219402"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="109433" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="109433" y="1219402"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="1219402"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Freihandform 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2139BC31-F552-6C48-A492-3C340FFCC5E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9420225" y="2065237"/>
+            <a:ext cx="109433" cy="479423"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="479423"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="109433" y="479423"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Freihandform 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6170855C-CF48-CA46-9435-A4A03B35DDFD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9310791" y="2065237"/>
+            <a:ext cx="109433" cy="479423"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="109433" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="109433" y="479423"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="479423"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Freihandform 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409D7C07-5ABE-7C4C-9972-1390F932A7E5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9420225" y="2065237"/>
+            <a:ext cx="1261091" cy="1698825"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="0" y="1589391"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1261091" y="1589391"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1261091" y="1698825"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Freihandform 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5D482E-9121-794A-A5B9-E0F700AA6B98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9374505" y="2065237"/>
+            <a:ext cx="91440" cy="1698825"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="45720" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="45720" y="1698825"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Freihandform 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0084C5F-BB72-6F42-9274-867FFB67FD26}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8159133" y="2065237"/>
+            <a:ext cx="1261091" cy="1698825"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst/>
+            <a:ahLst/>
+            <a:cxnLst/>
+            <a:rect l="0" t="0" r="0" b="0"/>
+            <a:pathLst>
+              <a:path>
+                <a:moveTo>
+                  <a:pt x="1261091" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1261091" y="1589391"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="1589391"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="1698825"/>
+                </a:lnTo>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="60000"/>
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Freihandform 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB8FE90-6F25-1A40-A1AD-BDB9B7EB0C4A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8899112" y="1544125"/>
+            <a:ext cx="1042224" cy="521112"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1042224" h="521112">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800" kern="1200"/>
+              <a:t>Erstellung MUD Service </a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Freihandform 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB644992-877A-E94D-87DD-F16C85B8DB19}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7638021" y="3764062"/>
+            <a:ext cx="1042224" cy="521112"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1042224" h="521112">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE" sz="800" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Freihandform 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFA069C-234E-0841-9CD2-7CE2154E0C94}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8899112" y="3764062"/>
+            <a:ext cx="1042224" cy="521112"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1042224" h="521112">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE" sz="800" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Freihandform 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD7A8D5-081D-4C47-8F66-28DC3CE9C5E4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10160204" y="3764062"/>
+            <a:ext cx="1042224" cy="521112"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1042224" h="521112">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE" sz="800" kern="1200"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Freihandform 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725B606F-D056-C248-A670-7000E8BF66A4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8268567" y="2284104"/>
+            <a:ext cx="1042224" cy="521112"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1042224" h="521112">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800" kern="1200"/>
+              <a:t>Projektvorbereitung</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Freihandform 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18B0F46-4C82-094D-AFF8-DB953FD6875C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9529658" y="2284104"/>
+            <a:ext cx="1042224" cy="521112"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1042224" h="521112">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800" kern="1200"/>
+              <a:t>Anforderungsermittlung</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Freihandform 16">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B3E488-9062-8D49-8127-AAB0F815C4BA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8268567" y="3024083"/>
+            <a:ext cx="1042224" cy="521112"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1042224" h="521112">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800" kern="1200"/>
+              <a:t>Prototyp</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Freihandform 17">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86476F4B-5485-9543-AB59-F6C8548C6406}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9529658" y="3024083"/>
+            <a:ext cx="1042224" cy="521112"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
+              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
+              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
+              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1042224" h="521112">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="1042224" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="521112"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="0"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="lt1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
+              <a:lnSpc>
+                <a:spcPct val="90000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPct val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPct val="35000"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="800" kern="1200"/>
+              <a:t>Implementierung</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46FC5A7D-7D56-E84F-95CA-A245A9FDF478}" name="Tabelle1" displayName="Tabelle1" ref="A9:N110" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A9:N110" xr:uid="{109ED2A2-0E09-0744-9F44-72DD29D2292E}"/>
@@ -5626,13 +12536,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A2138E-F872-8E4F-9A11-024E0A082E3F}">
   <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="30.83203125" style="81"/>
+    <col min="1" max="1" width="4.33203125" style="81" customWidth="1"/>
+    <col min="2" max="16384" width="30.83203125" style="81"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5688,6 +12599,9 @@
     </row>
     <row r="12" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="72" t="s">
+        <v>251</v>
+      </c>
       <c r="E13" s="72" t="s">
         <v>214</v>
       </c>
@@ -5700,6 +12614,9 @@
     </row>
     <row r="14" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="72" t="s">
+        <v>252</v>
+      </c>
       <c r="E15" s="72" t="s">
         <v>248</v>
       </c>
@@ -5713,7 +12630,7 @@
     <row r="16" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="72" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D17" s="72" t="s">
         <v>257</v>
@@ -5728,7 +12645,7 @@
     <row r="18" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="72" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E19" s="72" t="s">
         <v>204</v>
@@ -5742,26 +12659,23 @@
     </row>
     <row r="20" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="72" t="s">
-        <v>253</v>
-      </c>
       <c r="E21" s="72" t="s">
         <v>205</v>
       </c>
       <c r="G21" s="72" t="s">
         <v>225</v>
       </c>
+      <c r="I21" s="72" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="72" t="s">
-        <v>254</v>
-      </c>
       <c r="E23" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="I23" s="72" t="s">
-        <v>234</v>
+      <c r="H23" s="72" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5769,8 +12683,8 @@
       <c r="D25" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="H25" s="72" t="s">
-        <v>172</v>
+      <c r="I25" s="72" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5779,7 +12693,7 @@
         <v>207</v>
       </c>
       <c r="I27" s="72" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5788,7 +12702,7 @@
         <v>208</v>
       </c>
       <c r="I29" s="72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5796,8 +12710,8 @@
       <c r="D31" s="72" t="s">
         <v>259</v>
       </c>
-      <c r="I31" s="72" t="s">
-        <v>237</v>
+      <c r="H31" s="72" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5805,8 +12719,9 @@
       <c r="D33" s="72" t="s">
         <v>260</v>
       </c>
-      <c r="H33" s="72" t="s">
-        <v>211</v>
+      <c r="H33" s="73"/>
+      <c r="I33" s="72" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5815,9 +12730,8 @@
         <v>209</v>
       </c>
       <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
       <c r="I35" s="72" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5826,7 +12740,7 @@
         <v>210</v>
       </c>
       <c r="I37" s="72" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5835,7 +12749,7 @@
         <v>267</v>
       </c>
       <c r="I39" s="72" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5844,7 +12758,7 @@
         <v>268</v>
       </c>
       <c r="I41" s="72" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5852,8 +12766,8 @@
       <c r="E43" s="72" t="s">
         <v>269</v>
       </c>
-      <c r="I43" s="72" t="s">
-        <v>213</v>
+      <c r="H43" s="72" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5861,8 +12775,8 @@
       <c r="E45" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="H45" s="72" t="s">
-        <v>240</v>
+      <c r="I45" s="72" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5871,7 +12785,7 @@
         <v>266</v>
       </c>
       <c r="I47" s="72" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5880,7 +12794,7 @@
         <v>261</v>
       </c>
       <c r="I49" s="72" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5888,8 +12802,8 @@
       <c r="E51" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="I51" s="72" t="s">
-        <v>243</v>
+      <c r="H51" s="72" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5897,8 +12811,8 @@
       <c r="E53" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="H53" s="72" t="s">
-        <v>244</v>
+      <c r="I53" s="72" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="54" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5907,7 +12821,7 @@
         <v>217</v>
       </c>
       <c r="I55" s="72" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5916,7 +12830,7 @@
         <v>218</v>
       </c>
       <c r="I57" s="72" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5924,9 +12838,6 @@
       <c r="E59" s="72" t="s">
         <v>219</v>
       </c>
-      <c r="I59" s="72" t="s">
-        <v>247</v>
-      </c>
     </row>
     <row r="60" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5966,6 +12877,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7165,11 +14077,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="80" t="s">
-        <v>201</v>
-      </c>
+      <c r="E1" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
+++ b/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneblessing/Desktop/DHBW Horb Informatik/Semester 4/Software Engineering Project/d6/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3FDC45-A5D4-AE43-B6D8-C2EEBB90492B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780EE5C-6C15-2248-9962-64929A64C735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13920" activeTab="3" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13920" activeTab="5" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Projektstrukturplan" sheetId="4" r:id="rId4"/>
     <sheet name="Kapazitätsplan" sheetId="6" r:id="rId5"/>
     <sheet name="Projektablaufplan" sheetId="5" r:id="rId6"/>
-    <sheet name="Projektstrukturplan mit AP" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="413">
   <si>
     <t>Punkt</t>
   </si>
@@ -852,6 +851,432 @@
   </si>
   <si>
     <t>Protokollant bestimmen (AP 10)</t>
+  </si>
+  <si>
+    <t>nicht verfügbar</t>
+  </si>
+  <si>
+    <t>maximal 4h verfügbar</t>
+  </si>
+  <si>
+    <t>8+h verfügbar</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>084</t>
+  </si>
+  <si>
+    <t>085</t>
+  </si>
+  <si>
+    <t>086</t>
+  </si>
+  <si>
+    <t>087</t>
+  </si>
+  <si>
+    <t>088</t>
+  </si>
+  <si>
+    <t>089</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Erstellen von User Stories, Vorgangsbeschreibung iteratives Konzept, iterative Entwicklung der Anwendung</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Erstellen von User Stories</t>
+  </si>
+  <si>
+    <t>Festlegung der Gestaltung der iterativen Zyklen</t>
+  </si>
+  <si>
+    <t>Implementieren der Anwendung</t>
+  </si>
+  <si>
+    <t>Überprüfung der Einhaltung der Testkonzepte</t>
+  </si>
+  <si>
+    <t>Überprüfung der Einhaltung der  Qualität</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontrolle der Funktionalität </t>
+  </si>
+  <si>
+    <t>Kontrolle, ob alle Anforderungen erfüllt sind</t>
+  </si>
+  <si>
+    <t>Abschlussbericht schreiben</t>
+  </si>
+  <si>
+    <t>Projekt in .zip-Datei zur Verfügung stellen</t>
+  </si>
+  <si>
+    <t>README.md mit Ordnerstruktur schreiben</t>
+  </si>
+  <si>
+    <t>Installations- und Anwendungshinweise schreiben</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>Zur Verfügung stellen des Projektes, abschließende Kontrolle der Funktionalität und der Einhaltung von Dokumentationsstandards und Anforderungen, Schreiben eines Abschlussberichtes, Senden der Projektabgabe an Betreuer</t>
+  </si>
+  <si>
+    <t>Kontrolle der Dokumentationsstandards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW </t>
   </si>
 </sst>
 </file>
@@ -912,7 +1337,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -976,6 +1401,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1280,7 +1711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1477,9 +1908,17 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5876,8 +6315,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6025661" y="9153768"/>
-          <a:ext cx="2642580" cy="584983"/>
+          <a:off x="6051061" y="9153768"/>
+          <a:ext cx="2655280" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6004,8 +6443,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6006124" y="14020800"/>
-          <a:ext cx="2642580" cy="584983"/>
+          <a:off x="6031524" y="14020800"/>
+          <a:ext cx="2655280" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6132,8 +6571,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5976815" y="17678400"/>
-          <a:ext cx="2642580" cy="584983"/>
+          <a:off x="6002215" y="17678400"/>
+          <a:ext cx="2655280" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6260,8 +6699,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5996354" y="22555200"/>
-          <a:ext cx="2642580" cy="584983"/>
+          <a:off x="6021754" y="22555200"/>
+          <a:ext cx="2655280" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6454,8 +6893,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5957277" y="28647292"/>
-          <a:ext cx="2642580" cy="588891"/>
+          <a:off x="5982677" y="28647292"/>
+          <a:ext cx="2655280" cy="588891"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6582,8 +7021,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5976816" y="35976170"/>
-          <a:ext cx="2642580" cy="584983"/>
+          <a:off x="6002216" y="35976170"/>
+          <a:ext cx="2655280" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6776,8 +7215,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10626969" y="7934570"/>
-          <a:ext cx="2642580" cy="584983"/>
+          <a:off x="10677769" y="7934570"/>
+          <a:ext cx="2655280" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6904,8 +7343,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15335738" y="12811370"/>
-          <a:ext cx="2642581" cy="584983"/>
+          <a:off x="15411938" y="12811370"/>
+          <a:ext cx="2655281" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7032,8 +7471,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15345507" y="17688169"/>
-          <a:ext cx="2642581" cy="584983"/>
+          <a:off x="15421707" y="17688169"/>
+          <a:ext cx="2655281" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7160,8 +7599,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15335738" y="24993600"/>
-          <a:ext cx="2642581" cy="584983"/>
+          <a:off x="15411938" y="24993600"/>
+          <a:ext cx="2655281" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7288,8 +7727,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15365046" y="29880169"/>
-          <a:ext cx="2642581" cy="584983"/>
+          <a:off x="15441246" y="29880169"/>
+          <a:ext cx="2655281" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7417,7 +7856,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="469900" y="1765300"/>
-          <a:ext cx="16370300" cy="1295400"/>
+          <a:ext cx="16459200" cy="1295400"/>
           <a:chOff x="469900" y="1765300"/>
           <a:chExt cx="16370300" cy="1295400"/>
         </a:xfrm>
@@ -7753,1522 +8192,1299 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1288021</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>324925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>89928</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>17974</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="Gruppieren 2">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Textfeld 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{964FFC56-29ED-244D-A388-E4C553AE2CEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56EC1156-17FB-244A-BBB0-6A261BCC8934}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="7638021" y="1544125"/>
-          <a:ext cx="3564407" cy="2741049"/>
-          <a:chOff x="7638021" y="1544125"/>
-          <a:chExt cx="3564407" cy="2741049"/>
+          <a:off x="2070100" y="787400"/>
+          <a:ext cx="1612900" cy="800100"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Freihandform 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68A4248-5541-1A46-BA89-E26FDAEBBCC9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9420225" y="2065237"/>
-            <a:ext cx="109433" cy="1219402"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst/>
-            <a:ahLst/>
-            <a:cxnLst/>
-            <a:rect l="0" t="0" r="0" b="0"/>
-            <a:pathLst>
-              <a:path>
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="0" y="1219402"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="109433" y="1219402"/>
-                </a:lnTo>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Freihandform 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7A6CC6-C537-CF42-86DA-702401C72937}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9310791" y="2065237"/>
-            <a:ext cx="109433" cy="1219402"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst/>
-            <a:ahLst/>
-            <a:cxnLst/>
-            <a:rect l="0" t="0" r="0" b="0"/>
-            <a:pathLst>
-              <a:path>
-                <a:moveTo>
-                  <a:pt x="109433" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="109433" y="1219402"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="1219402"/>
-                </a:lnTo>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Freihandform 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2139BC31-F552-6C48-A492-3C340FFCC5E4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9420225" y="2065237"/>
-            <a:ext cx="109433" cy="479423"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst/>
-            <a:ahLst/>
-            <a:cxnLst/>
-            <a:rect l="0" t="0" r="0" b="0"/>
-            <a:pathLst>
-              <a:path>
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="0" y="479423"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="109433" y="479423"/>
-                </a:lnTo>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Freihandform 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6170855C-CF48-CA46-9435-A4A03B35DDFD}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9310791" y="2065237"/>
-            <a:ext cx="109433" cy="479423"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst/>
-            <a:ahLst/>
-            <a:cxnLst/>
-            <a:rect l="0" t="0" r="0" b="0"/>
-            <a:pathLst>
-              <a:path>
-                <a:moveTo>
-                  <a:pt x="109433" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="109433" y="479423"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="479423"/>
-                </a:lnTo>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Freihandform 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{409D7C07-5ABE-7C4C-9972-1390F932A7E5}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9420225" y="2065237"/>
-            <a:ext cx="1261091" cy="1698825"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst/>
-            <a:ahLst/>
-            <a:cxnLst/>
-            <a:rect l="0" t="0" r="0" b="0"/>
-            <a:pathLst>
-              <a:path>
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="0" y="1589391"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="1261091" y="1589391"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="1261091" y="1698825"/>
-                </a:lnTo>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Freihandform 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5D482E-9121-794A-A5B9-E0F700AA6B98}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9374505" y="2065237"/>
-            <a:ext cx="91440" cy="1698825"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst/>
-            <a:ahLst/>
-            <a:cxnLst/>
-            <a:rect l="0" t="0" r="0" b="0"/>
-            <a:pathLst>
-              <a:path>
-                <a:moveTo>
-                  <a:pt x="45720" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="45720" y="1698825"/>
-                </a:lnTo>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Freihandform 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0084C5F-BB72-6F42-9274-867FFB67FD26}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8159133" y="2065237"/>
-            <a:ext cx="1261091" cy="1698825"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst/>
-            <a:ahLst/>
-            <a:cxnLst/>
-            <a:rect l="0" t="0" r="0" b="0"/>
-            <a:pathLst>
-              <a:path>
-                <a:moveTo>
-                  <a:pt x="1261091" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="1261091" y="1589391"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="1589391"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="1698825"/>
-                </a:lnTo>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="60000"/>
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Freihandform 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB8FE90-6F25-1A40-A1AD-BDB9B7EB0C4A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8899112" y="1544125"/>
-            <a:ext cx="1042224" cy="521112"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX2" y="connsiteY2"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX3" y="connsiteY3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX4" y="connsiteY4"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="1042224" h="521112">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="0"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="0"/>
-                </a:lnTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="800" kern="1200"/>
-              <a:t>Erstellung MUD Service </a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Freihandform 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB644992-877A-E94D-87DD-F16C85B8DB19}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7638021" y="3764062"/>
-            <a:ext cx="1042224" cy="521112"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX2" y="connsiteY2"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX3" y="connsiteY3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX4" y="connsiteY4"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="1042224" h="521112">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="0"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="0"/>
-                </a:lnTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE" sz="800" kern="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="Freihandform 12">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBFA069C-234E-0841-9CD2-7CE2154E0C94}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8899112" y="3764062"/>
-            <a:ext cx="1042224" cy="521112"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX2" y="connsiteY2"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX3" y="connsiteY3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX4" y="connsiteY4"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="1042224" h="521112">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="0"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="0"/>
-                </a:lnTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE" sz="800" kern="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="Freihandform 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBD7A8D5-081D-4C47-8F66-28DC3CE9C5E4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10160204" y="3764062"/>
-            <a:ext cx="1042224" cy="521112"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX2" y="connsiteY2"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX3" y="connsiteY3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX4" y="connsiteY4"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="1042224" h="521112">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="0"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="0"/>
-                </a:lnTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE" sz="800" kern="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Freihandform 14">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725B606F-D056-C248-A670-7000E8BF66A4}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8268567" y="2284104"/>
-            <a:ext cx="1042224" cy="521112"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX2" y="connsiteY2"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX3" y="connsiteY3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX4" y="connsiteY4"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="1042224" h="521112">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="0"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="0"/>
-                </a:lnTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="800" kern="1200"/>
-              <a:t>Projektvorbereitung</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Freihandform 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F18B0F46-4C82-094D-AFF8-DB953FD6875C}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9529658" y="2284104"/>
-            <a:ext cx="1042224" cy="521112"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX2" y="connsiteY2"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX3" y="connsiteY3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX4" y="connsiteY4"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="1042224" h="521112">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="0"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="0"/>
-                </a:lnTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="800" kern="1200"/>
-              <a:t>Anforderungsermittlung</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="Freihandform 16">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75B3E488-9062-8D49-8127-AAB0F815C4BA}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8268567" y="3024083"/>
-            <a:ext cx="1042224" cy="521112"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX2" y="connsiteY2"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX3" y="connsiteY3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX4" y="connsiteY4"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="1042224" h="521112">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="0"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="0"/>
-                </a:lnTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="800" kern="1200"/>
-              <a:t>Prototyp</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="Freihandform 17">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86476F4B-5485-9543-AB59-F6C8548C6406}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9529658" y="3024083"/>
-            <a:ext cx="1042224" cy="521112"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="connsiteX0" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY0" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX1" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY1" fmla="*/ 0 h 521112"/>
-              <a:gd name="connsiteX2" fmla="*/ 1042224 w 1042224"/>
-              <a:gd name="connsiteY2" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX3" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY3" fmla="*/ 521112 h 521112"/>
-              <a:gd name="connsiteX4" fmla="*/ 0 w 1042224"/>
-              <a:gd name="connsiteY4" fmla="*/ 0 h 521112"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX0" y="connsiteY0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX1" y="connsiteY1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX2" y="connsiteY2"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX3" y="connsiteY3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="connsiteX4" y="connsiteY4"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="l" t="t" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="1042224" h="521112">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="0"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="1042224" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="521112"/>
-                </a:lnTo>
-                <a:lnTo>
-                  <a:pt x="0" y="0"/>
-                </a:lnTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="lt1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1">
-              <a:hueOff val="0"/>
-              <a:satOff val="0"/>
-              <a:lumOff val="0"/>
-              <a:alphaOff val="0"/>
-            </a:schemeClr>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="5080" tIns="5080" rIns="5080" bIns="5080" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="355600">
-              <a:lnSpc>
-                <a:spcPct val="90000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPct val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPct val="35000"/>
-              </a:spcAft>
-              <a:buNone/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="800" kern="1200"/>
-              <a:t>Implementierung</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 00</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Textfeld 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDDE579-08AA-3944-9885-225829B07CFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="901700" y="787400"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 15</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Textfeld 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{892A7EE9-A9AF-E647-B362-02B97D4DD9E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="889000" y="1435100"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 14</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Textfeld 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8630D91D-D898-E042-A790-150A4B30F6F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="2032000"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Textfeld 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C7F7FB-8E06-1549-BB3E-95783D5C8FC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="2730500"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Textfeld 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C11EE4F-26BB-D54F-AC18-FD9B2A663654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="3302000"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> 11</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1600" b="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Textfeld 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D27B3F9C-FBA2-F647-85BE-BB0CE527BFAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="3911600"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Textfeld 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6D380F-66B9-554E-8921-394AC8B45A46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="4610100"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 09</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Textfeld 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE31026B-C98B-5445-B9CB-6DF5272BBE6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="5257800"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 08</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Textfeld 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02065A64-7B06-9A49-8A6B-763CDA8A7076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="520700" y="5753100"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 07</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Textfeld 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8361B332-A0B7-3A43-A23F-EF7B02A216CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6121400"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 06</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Textfeld 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BF6E0E3-DE6D-FE4C-A268-A1CAE8E24FE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="787400" y="6527800"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 05</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Textfeld 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F637D93-72CB-FA48-8425-EEDE43D56A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622300" y="7112000"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 04</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Textfeld 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A4C2516-5CD4-AD4A-9543-120353D7BAF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="673100" y="7493000"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 03</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Textfeld 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A220550-E83A-5645-9A8A-9EED58CC574D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="7747000"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 02</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Textfeld 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47C6861-EA21-5F48-96E7-4E3D65AA6297}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1930400" y="5156200"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 01</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Textfeld 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA8CC9A-323A-A749-BB09-182C5BE95E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="889000" y="355600"/>
+          <a:ext cx="1612900" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1600" b="1">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>AP 16</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46FC5A7D-7D56-E84F-95CA-A245A9FDF478}" name="Tabelle1" displayName="Tabelle1" ref="A9:N110" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A9:N110" xr:uid="{109ED2A2-0E09-0744-9F44-72DD29D2292E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46FC5A7D-7D56-E84F-95CA-A245A9FDF478}" name="Tabelle1" displayName="Tabelle1" ref="A9:N145" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A9:N145" xr:uid="{109ED2A2-0E09-0744-9F44-72DD29D2292E}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{34A5A00D-E502-DA4D-A634-229AA03E811F}" name="Punkt" dataDxfId="31"/>
     <tableColumn id="2" xr3:uid="{B74C8400-C1A2-F240-BE82-AE2D61297B9B}" name="Arbeitspaket" dataDxfId="30"/>
@@ -9612,10 +9828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B665E9DA-39F6-D247-ABB9-2DB3926674E9}">
-  <dimension ref="A1:AH110"/>
+  <dimension ref="A1:AH145"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9727,7 +9943,9 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="19"/>
+      <c r="A10" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="B10" s="19" t="s">
         <v>55</v>
       </c>
@@ -9756,7 +9974,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>55</v>
@@ -9774,8 +9992,12 @@
       <c r="G11" s="21">
         <v>43906</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I11" s="21">
+        <v>43905</v>
+      </c>
       <c r="J11" s="14"/>
       <c r="K11" s="11"/>
       <c r="L11" s="22"/>
@@ -9783,7 +10005,9 @@
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
+      <c r="A12" s="19" t="s">
+        <v>274</v>
+      </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="20" t="s">
@@ -9796,8 +10020,12 @@
       <c r="G12" s="21">
         <v>43906</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="H12" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I12" s="21">
+        <v>43905</v>
+      </c>
       <c r="J12" s="14"/>
       <c r="K12" s="9"/>
       <c r="L12" s="11"/>
@@ -9805,7 +10033,9 @@
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
+      <c r="A13" s="19" t="s">
+        <v>275</v>
+      </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="20" t="s">
@@ -9818,8 +10048,12 @@
       <c r="G13" s="21">
         <v>43906</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
+      <c r="H13" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I13" s="21">
+        <v>43905</v>
+      </c>
       <c r="J13" s="14"/>
       <c r="K13" s="11"/>
       <c r="L13" s="10"/>
@@ -9827,7 +10061,9 @@
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
+      <c r="A14" s="19" t="s">
+        <v>276</v>
+      </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20" t="s">
@@ -9840,8 +10076,12 @@
       <c r="G14" s="21">
         <v>43906</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I14" s="21">
+        <v>43905</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="9"/>
       <c r="L14" s="11"/>
@@ -9849,7 +10089,9 @@
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="19" t="s">
+        <v>277</v>
+      </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="20" t="s">
@@ -9862,8 +10104,12 @@
       <c r="G15" s="21">
         <v>43906</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I15" s="21">
+        <v>43905</v>
+      </c>
       <c r="J15" s="14"/>
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
@@ -9871,7 +10117,9 @@
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
+      <c r="A16" s="19" t="s">
+        <v>278</v>
+      </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="20" t="s">
@@ -9884,8 +10132,12 @@
       <c r="G16" s="21">
         <v>43906</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I16" s="21">
+        <v>43905</v>
+      </c>
       <c r="J16" s="14"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -9894,7 +10146,7 @@
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>9</v>
+        <v>279</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>55</v>
@@ -9912,8 +10164,12 @@
       <c r="G17" s="21">
         <v>43906</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I17" s="21">
+        <v>43905</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -9921,7 +10177,9 @@
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
+      <c r="A18" s="19" t="s">
+        <v>280</v>
+      </c>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="20" t="s">
@@ -9934,8 +10192,12 @@
       <c r="G18" s="21">
         <v>43906</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I18" s="21">
+        <v>43905</v>
+      </c>
       <c r="J18" s="14"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
@@ -9943,7 +10205,9 @@
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
+      <c r="A19" s="19" t="s">
+        <v>281</v>
+      </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="20" t="s">
@@ -9956,8 +10220,12 @@
       <c r="G19" s="21">
         <v>43906</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I19" s="21">
+        <v>43905</v>
+      </c>
       <c r="J19" s="14"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -9965,7 +10233,9 @@
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="19" t="s">
+        <v>282</v>
+      </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="20" t="s">
@@ -9978,8 +10248,12 @@
       <c r="G20" s="21">
         <v>43906</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I20" s="21">
+        <v>43905</v>
+      </c>
       <c r="J20" s="14"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -9987,7 +10261,9 @@
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="19" t="s">
+        <v>283</v>
+      </c>
       <c r="B21" s="19" t="s">
         <v>55</v>
       </c>
@@ -10004,8 +10280,12 @@
       <c r="G21" s="21">
         <v>43906</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I21" s="21">
+        <v>43905</v>
+      </c>
       <c r="J21" s="14"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
@@ -10013,7 +10293,9 @@
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
+      <c r="A22" s="19" t="s">
+        <v>284</v>
+      </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="20" t="s">
@@ -10026,8 +10308,12 @@
       <c r="G22" s="21">
         <v>43903</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
+      <c r="H22" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I22" s="21">
+        <v>43905</v>
+      </c>
       <c r="J22" s="14"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -10035,7 +10321,9 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+      <c r="A23" s="19" t="s">
+        <v>285</v>
+      </c>
       <c r="B23" s="19" t="s">
         <v>55</v>
       </c>
@@ -10050,8 +10338,12 @@
       <c r="G23" s="21">
         <v>43906</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
+      <c r="H23" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I23" s="21">
+        <v>43905</v>
+      </c>
       <c r="J23" s="14"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
@@ -10059,7 +10351,9 @@
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
+      <c r="A24" s="19" t="s">
+        <v>286</v>
+      </c>
       <c r="B24" s="19" t="s">
         <v>55</v>
       </c>
@@ -10076,8 +10370,12 @@
       <c r="G24" s="21">
         <v>43906</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
+      <c r="H24" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I24" s="21">
+        <v>43905</v>
+      </c>
       <c r="J24" s="14"/>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
@@ -10085,7 +10383,9 @@
       <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+      <c r="A25" s="19" t="s">
+        <v>287</v>
+      </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="20" t="s">
@@ -10098,8 +10398,12 @@
       <c r="G25" s="21">
         <v>43906</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
+      <c r="H25" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I25" s="21">
+        <v>43905</v>
+      </c>
       <c r="J25" s="14"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11"/>
@@ -10107,7 +10411,9 @@
       <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+      <c r="A26" s="19" t="s">
+        <v>288</v>
+      </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="20" t="s">
@@ -10120,8 +10426,12 @@
       <c r="G26" s="21">
         <v>43906</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
+      <c r="H26" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I26" s="21">
+        <v>43905</v>
+      </c>
       <c r="J26" s="14"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -10129,7 +10439,9 @@
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+      <c r="A27" s="19" t="s">
+        <v>289</v>
+      </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="20" t="s">
@@ -10142,8 +10454,12 @@
       <c r="G27" s="21">
         <v>43906</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
+      <c r="H27" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I27" s="21">
+        <v>43905</v>
+      </c>
       <c r="J27" s="14"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -10151,7 +10467,9 @@
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+      <c r="A28" s="19" t="s">
+        <v>290</v>
+      </c>
       <c r="B28" s="19" t="s">
         <v>55</v>
       </c>
@@ -10168,8 +10486,12 @@
       <c r="G28" s="21">
         <v>43904</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
+      <c r="H28" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I28" s="21">
+        <v>43905</v>
+      </c>
       <c r="J28" s="14"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
@@ -10197,7 +10519,9 @@
       <c r="AH28" s="14"/>
     </row>
     <row r="29" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="B29" s="19" t="s">
         <v>69</v>
       </c>
@@ -10214,8 +10538,12 @@
       <c r="G29" s="21">
         <v>43905</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
+      <c r="H29" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I29" s="21">
+        <v>43905</v>
+      </c>
       <c r="J29" s="14"/>
       <c r="K29" s="9"/>
       <c r="L29" s="11"/>
@@ -10223,7 +10551,9 @@
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="19" t="s">
+        <v>292</v>
+      </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="20" t="s">
@@ -10236,8 +10566,12 @@
       <c r="G30" s="21">
         <v>43905</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
+      <c r="H30" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I30" s="21">
+        <v>43905</v>
+      </c>
       <c r="J30" s="14"/>
       <c r="K30" s="9"/>
       <c r="L30" s="11"/>
@@ -10245,7 +10579,9 @@
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+      <c r="A31" s="19" t="s">
+        <v>293</v>
+      </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="20" t="s">
@@ -10258,8 +10594,12 @@
       <c r="G31" s="21">
         <v>43905</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
+      <c r="H31" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I31" s="21">
+        <v>43905</v>
+      </c>
       <c r="J31" s="14"/>
       <c r="K31" s="9"/>
       <c r="L31" s="11"/>
@@ -10267,7 +10607,9 @@
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+      <c r="A32" s="19" t="s">
+        <v>294</v>
+      </c>
       <c r="B32" s="19" t="s">
         <v>55</v>
       </c>
@@ -10284,8 +10626,12 @@
       <c r="G32" s="21">
         <v>43905</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
+      <c r="H32" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I32" s="21">
+        <v>43905</v>
+      </c>
       <c r="J32" s="14"/>
       <c r="K32" s="9"/>
       <c r="L32" s="11"/>
@@ -10293,7 +10639,9 @@
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
+      <c r="A33" s="19" t="s">
+        <v>295</v>
+      </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="20" t="s">
@@ -10306,8 +10654,12 @@
       <c r="G33" s="21">
         <v>43905</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
+      <c r="H33" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I33" s="21">
+        <v>43905</v>
+      </c>
       <c r="J33" s="14"/>
       <c r="K33" s="9"/>
       <c r="L33" s="11"/>
@@ -10315,7 +10667,9 @@
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
+      <c r="A34" s="19" t="s">
+        <v>296</v>
+      </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20" t="s">
@@ -10328,8 +10682,12 @@
       <c r="G34" s="21">
         <v>43905</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="H34" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I34" s="21">
+        <v>43905</v>
+      </c>
       <c r="J34" s="14"/>
       <c r="K34" s="9"/>
       <c r="L34" s="11"/>
@@ -10337,7 +10695,9 @@
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
+      <c r="A35" s="19" t="s">
+        <v>297</v>
+      </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="20" t="s">
@@ -10350,8 +10710,12 @@
       <c r="G35" s="21">
         <v>43905</v>
       </c>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="H35" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I35" s="21">
+        <v>43905</v>
+      </c>
       <c r="J35" s="14"/>
       <c r="K35" s="9"/>
       <c r="L35" s="11"/>
@@ -10359,7 +10723,9 @@
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
+      <c r="A36" s="19" t="s">
+        <v>298</v>
+      </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="20" t="s">
@@ -10372,8 +10738,12 @@
       <c r="G36" s="21">
         <v>43905</v>
       </c>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="H36" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I36" s="21">
+        <v>43905</v>
+      </c>
       <c r="J36" s="14"/>
       <c r="K36" s="9"/>
       <c r="L36" s="11"/>
@@ -10381,7 +10751,9 @@
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
+      <c r="A37" s="19" t="s">
+        <v>299</v>
+      </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="20" t="s">
@@ -10394,8 +10766,12 @@
       <c r="G37" s="21">
         <v>43905</v>
       </c>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="H37" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I37" s="21">
+        <v>43905</v>
+      </c>
       <c r="J37" s="14"/>
       <c r="K37" s="9"/>
       <c r="L37" s="11"/>
@@ -10403,7 +10779,9 @@
       <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
+      <c r="A38" s="19" t="s">
+        <v>300</v>
+      </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="20" t="s">
@@ -10416,8 +10794,12 @@
       <c r="G38" s="21">
         <v>43905</v>
       </c>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="H38" s="21">
+        <v>43902</v>
+      </c>
+      <c r="I38" s="21">
+        <v>43905</v>
+      </c>
       <c r="J38" s="14"/>
       <c r="K38" s="9"/>
       <c r="L38" s="11"/>
@@ -10425,7 +10807,9 @@
       <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
+      <c r="A39" s="19" t="s">
+        <v>301</v>
+      </c>
       <c r="B39" s="19" t="s">
         <v>67</v>
       </c>
@@ -10451,7 +10835,9 @@
       <c r="N39" s="14"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
+      <c r="A40" s="19" t="s">
+        <v>302</v>
+      </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="20" t="s">
@@ -10473,7 +10859,9 @@
       <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="19"/>
+      <c r="A41" s="19" t="s">
+        <v>303</v>
+      </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20" t="s">
@@ -10497,7 +10885,9 @@
       <c r="N41" s="14"/>
     </row>
     <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
+      <c r="A42" s="19" t="s">
+        <v>304</v>
+      </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="20" t="s">
@@ -10519,7 +10909,9 @@
       <c r="N42" s="14"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
+      <c r="A43" s="19" t="s">
+        <v>305</v>
+      </c>
       <c r="B43" s="19" t="s">
         <v>82</v>
       </c>
@@ -10545,7 +10937,9 @@
       <c r="N43" s="14"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
+      <c r="A44" s="19" t="s">
+        <v>306</v>
+      </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="20" t="s">
@@ -10567,7 +10961,9 @@
       <c r="N44" s="14"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
+      <c r="A45" s="19" t="s">
+        <v>307</v>
+      </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="20" t="s">
@@ -10589,7 +10985,9 @@
       <c r="N45" s="14"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
+      <c r="A46" s="19" t="s">
+        <v>308</v>
+      </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="20" t="s">
@@ -10611,7 +11009,9 @@
       <c r="N46" s="14"/>
     </row>
     <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
+      <c r="A47" s="19" t="s">
+        <v>309</v>
+      </c>
       <c r="B47" s="19" t="s">
         <v>69</v>
       </c>
@@ -10637,7 +11037,9 @@
       <c r="N47" s="14"/>
     </row>
     <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
+      <c r="A48" s="19" t="s">
+        <v>310</v>
+      </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="20" t="s">
@@ -10659,7 +11061,9 @@
       <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
+      <c r="A49" s="19" t="s">
+        <v>311</v>
+      </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="20" t="s">
@@ -10681,7 +11085,9 @@
       <c r="N49" s="14"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
+      <c r="A50" s="19" t="s">
+        <v>312</v>
+      </c>
       <c r="B50" s="19" t="s">
         <v>88</v>
       </c>
@@ -10709,7 +11115,9 @@
       <c r="N50" s="14"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
+      <c r="A51" s="19" t="s">
+        <v>313</v>
+      </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="20" t="s">
@@ -10733,7 +11141,9 @@
       <c r="N51" s="14"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
+      <c r="A52" s="19" t="s">
+        <v>314</v>
+      </c>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="20" t="s">
@@ -10755,7 +11165,9 @@
       <c r="N52" s="14"/>
     </row>
     <row r="53" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
+      <c r="A53" s="19" t="s">
+        <v>315</v>
+      </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="20" t="s">
@@ -10779,7 +11191,9 @@
       <c r="N53" s="14"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
+      <c r="A54" s="19" t="s">
+        <v>316</v>
+      </c>
       <c r="B54" s="19" t="s">
         <v>106</v>
       </c>
@@ -10805,7 +11219,9 @@
       <c r="N54" s="14"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
+      <c r="A55" s="19" t="s">
+        <v>317</v>
+      </c>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="20" t="s">
@@ -10827,7 +11243,9 @@
       <c r="N55" s="14"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
+      <c r="A56" s="19" t="s">
+        <v>318</v>
+      </c>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="20" t="s">
@@ -10851,7 +11269,9 @@
       <c r="N56" s="14"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
+      <c r="A57" s="19" t="s">
+        <v>319</v>
+      </c>
       <c r="B57" s="19" t="s">
         <v>112</v>
       </c>
@@ -10877,7 +11297,9 @@
       <c r="N57" s="14"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
+      <c r="A58" s="19" t="s">
+        <v>320</v>
+      </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="20" t="s">
@@ -10899,7 +11321,9 @@
       <c r="N58" s="14"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
+      <c r="A59" s="19" t="s">
+        <v>321</v>
+      </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="20" t="s">
@@ -10921,9 +11345,11 @@
       <c r="N59" s="14"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+      <c r="A60" s="19" t="s">
+        <v>322</v>
+      </c>
       <c r="B60" s="19" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C60" s="19" t="s">
         <v>118</v>
@@ -10949,7 +11375,9 @@
       <c r="N60" s="14"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
+      <c r="A61" s="19" t="s">
+        <v>323</v>
+      </c>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="20" t="s">
@@ -10971,7 +11399,9 @@
       <c r="N61" s="14"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
+      <c r="A62" s="19" t="s">
+        <v>324</v>
+      </c>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="20" t="s">
@@ -10995,9 +11425,15 @@
       <c r="N62" s="14"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
+      <c r="A63" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>220</v>
+      </c>
       <c r="D63" s="20" t="s">
         <v>122</v>
       </c>
@@ -11019,7 +11455,9 @@
       <c r="N63" s="14"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
+      <c r="A64" s="19" t="s">
+        <v>326</v>
+      </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="20" t="s">
@@ -11043,7 +11481,9 @@
       <c r="N64" s="14"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
+      <c r="A65" s="19" t="s">
+        <v>327</v>
+      </c>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="20" t="s">
@@ -11067,7 +11507,9 @@
       <c r="N65" s="14"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
+      <c r="A66" s="19" t="s">
+        <v>328</v>
+      </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="20" t="s">
@@ -11091,7 +11533,9 @@
       <c r="N66" s="14"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
+      <c r="A67" s="19" t="s">
+        <v>329</v>
+      </c>
       <c r="B67" s="19" t="s">
         <v>69</v>
       </c>
@@ -11117,7 +11561,9 @@
       <c r="N67" s="14"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
+      <c r="A68" s="19" t="s">
+        <v>330</v>
+      </c>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="20" t="s">
@@ -11139,7 +11585,9 @@
       <c r="N68" s="14"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
+      <c r="A69" s="19" t="s">
+        <v>331</v>
+      </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="20" t="s">
@@ -11161,9 +11609,11 @@
       <c r="N69" s="14"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
+      <c r="A70" s="19" t="s">
+        <v>332</v>
+      </c>
       <c r="B70" s="19" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C70" s="19" t="s">
         <v>128</v>
@@ -11187,7 +11637,9 @@
       <c r="N70" s="14"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
+      <c r="A71" s="19" t="s">
+        <v>333</v>
+      </c>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="20" t="s">
@@ -11209,7 +11661,9 @@
       <c r="N71" s="14"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
+      <c r="A72" s="19" t="s">
+        <v>334</v>
+      </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="20" t="s">
@@ -11231,7 +11685,9 @@
       <c r="N72" s="14"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
+      <c r="A73" s="19" t="s">
+        <v>335</v>
+      </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="20" t="s">
@@ -11253,7 +11709,9 @@
       <c r="N73" s="14"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
+      <c r="A74" s="19" t="s">
+        <v>336</v>
+      </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="20" t="s">
@@ -11275,7 +11733,9 @@
       <c r="N74" s="14"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="19"/>
+      <c r="A75" s="19" t="s">
+        <v>337</v>
+      </c>
       <c r="B75" s="19" t="s">
         <v>140</v>
       </c>
@@ -11303,9 +11763,11 @@
       <c r="N75" s="14"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
+      <c r="A76" s="19" t="s">
+        <v>338</v>
+      </c>
       <c r="B76" s="19" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>137</v>
@@ -11329,7 +11791,9 @@
       <c r="N76" s="14"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
+      <c r="A77" s="19" t="s">
+        <v>339</v>
+      </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="20" t="s">
@@ -11351,7 +11815,9 @@
       <c r="N77" s="14"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
+      <c r="A78" s="19" t="s">
+        <v>340</v>
+      </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="20" t="s">
@@ -11373,7 +11839,9 @@
       <c r="N78" s="14"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
+      <c r="A79" s="19" t="s">
+        <v>341</v>
+      </c>
       <c r="B79" s="19"/>
       <c r="C79" s="19"/>
       <c r="D79" s="20" t="s">
@@ -11395,9 +11863,11 @@
       <c r="N79" s="14"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="19"/>
+      <c r="A80" s="19" t="s">
+        <v>342</v>
+      </c>
       <c r="B80" s="19" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C80" s="19" t="s">
         <v>158</v>
@@ -11421,7 +11891,9 @@
       <c r="N80" s="14"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A81" s="19"/>
+      <c r="A81" s="19" t="s">
+        <v>343</v>
+      </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="20" t="s">
@@ -11443,7 +11915,9 @@
       <c r="N81" s="14"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A82" s="19"/>
+      <c r="A82" s="19" t="s">
+        <v>344</v>
+      </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="20" t="s">
@@ -11465,7 +11939,9 @@
       <c r="N82" s="14"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="19"/>
+      <c r="A83" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="B83" s="19"/>
       <c r="C83" s="19"/>
       <c r="D83" s="20" t="s">
@@ -11489,7 +11965,9 @@
       <c r="N83" s="14"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
+      <c r="A84" s="19" t="s">
+        <v>346</v>
+      </c>
       <c r="B84" s="19" t="s">
         <v>69</v>
       </c>
@@ -11515,7 +11993,9 @@
       <c r="N84" s="14"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A85" s="19"/>
+      <c r="A85" s="19" t="s">
+        <v>347</v>
+      </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="20" t="s">
@@ -11537,7 +12017,9 @@
       <c r="N85" s="14"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A86" s="19"/>
+      <c r="A86" s="19" t="s">
+        <v>348</v>
+      </c>
       <c r="B86" s="19"/>
       <c r="C86" s="19"/>
       <c r="D86" s="20" t="s">
@@ -11553,15 +12035,17 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
       <c r="N86" s="14"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A87" s="19"/>
+      <c r="A87" s="19" t="s">
+        <v>349</v>
+      </c>
       <c r="B87" s="19" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C87" s="19" t="s">
         <v>169</v>
@@ -11573,13 +12057,15 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
       <c r="N87" s="14"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A88" s="19"/>
+      <c r="A88" s="19" t="s">
+        <v>350</v>
+      </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="20" t="s">
@@ -11593,13 +12079,15 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
       <c r="N88" s="14"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="19"/>
+      <c r="A89" s="19" t="s">
+        <v>351</v>
+      </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="20" t="s">
@@ -11613,13 +12101,15 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="14"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
       <c r="N89" s="14"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
+      <c r="A90" s="19" t="s">
+        <v>352</v>
+      </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="20" t="s">
@@ -11633,13 +12123,15 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="14"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
       <c r="N90" s="14"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
+      <c r="A91" s="19" t="s">
+        <v>353</v>
+      </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="20" t="s">
@@ -11653,13 +12145,15 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
       <c r="N91" s="14"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="19"/>
+      <c r="A92" s="19" t="s">
+        <v>354</v>
+      </c>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="20" t="s">
@@ -11673,13 +12167,15 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="14"/>
-      <c r="M92" s="14"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
       <c r="N92" s="14"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="19"/>
+      <c r="A93" s="19" t="s">
+        <v>355</v>
+      </c>
       <c r="B93" s="19"/>
       <c r="C93" s="19"/>
       <c r="D93" s="20" t="s">
@@ -11693,15 +12189,17 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
       <c r="N93" s="14"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="19"/>
+      <c r="A94" s="19" t="s">
+        <v>356</v>
+      </c>
       <c r="B94" s="19" t="s">
-        <v>171</v>
+        <v>394</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>172</v>
@@ -11717,13 +12215,15 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="14"/>
-      <c r="M94" s="14"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
       <c r="N94" s="14"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="19"/>
+      <c r="A95" s="19" t="s">
+        <v>357</v>
+      </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="20" t="s">
@@ -11737,13 +12237,15 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
       <c r="N95" s="14"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A96" s="19"/>
+      <c r="A96" s="19" t="s">
+        <v>358</v>
+      </c>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="20" t="s">
@@ -11757,13 +12259,15 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="14"/>
-      <c r="M96" s="14"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
       <c r="N96" s="14"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A97" s="19"/>
+      <c r="A97" s="19" t="s">
+        <v>359</v>
+      </c>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="20" t="s">
@@ -11777,13 +12281,15 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
       <c r="N97" s="14"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A98" s="19"/>
+      <c r="A98" s="19" t="s">
+        <v>360</v>
+      </c>
       <c r="B98" s="19"/>
       <c r="C98" s="19"/>
       <c r="D98" s="20" t="s">
@@ -11799,13 +12305,15 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
-      <c r="K98" s="14"/>
-      <c r="L98" s="14"/>
-      <c r="M98" s="14"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
       <c r="N98" s="14"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
+      <c r="A99" s="19" t="s">
+        <v>361</v>
+      </c>
       <c r="B99" s="19" t="s">
         <v>69</v>
       </c>
@@ -11825,13 +12333,15 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
       <c r="N99" s="14"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A100" s="19"/>
+      <c r="A100" s="19" t="s">
+        <v>362</v>
+      </c>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
       <c r="D100" s="20" t="s">
@@ -11847,13 +12357,15 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
-      <c r="K100" s="14"/>
-      <c r="L100" s="14"/>
-      <c r="M100" s="14"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
       <c r="N100" s="14"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A101" s="19"/>
+      <c r="A101" s="19" t="s">
+        <v>363</v>
+      </c>
       <c r="B101" s="19"/>
       <c r="C101" s="19"/>
       <c r="D101" s="20" t="s">
@@ -11869,15 +12381,17 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
       <c r="N101" s="14"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A102" s="19"/>
+      <c r="A102" s="19" t="s">
+        <v>364</v>
+      </c>
       <c r="B102" s="19" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>128</v>
@@ -11895,13 +12409,15 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
-      <c r="K102" s="14"/>
-      <c r="L102" s="14"/>
-      <c r="M102" s="14"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
       <c r="N102" s="14"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A103" s="19"/>
+      <c r="A103" s="19" t="s">
+        <v>365</v>
+      </c>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
       <c r="D103" s="20" t="s">
@@ -11917,13 +12433,15 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
       <c r="N103" s="14"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A104" s="19"/>
+      <c r="A104" s="19" t="s">
+        <v>366</v>
+      </c>
       <c r="B104" s="19"/>
       <c r="C104" s="19"/>
       <c r="D104" s="20" t="s">
@@ -11939,13 +12457,15 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
-      <c r="K104" s="14"/>
-      <c r="L104" s="14"/>
-      <c r="M104" s="14"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
       <c r="N104" s="14"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
+      <c r="A105" s="19" t="s">
+        <v>367</v>
+      </c>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
       <c r="D105" s="20" t="s">
@@ -11961,13 +12481,15 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
-      <c r="K105" s="14"/>
-      <c r="L105" s="14"/>
-      <c r="M105" s="14"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
       <c r="N105" s="14"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A106" s="19"/>
+      <c r="A106" s="19" t="s">
+        <v>368</v>
+      </c>
       <c r="B106" s="19" t="s">
         <v>179</v>
       </c>
@@ -11989,15 +12511,17 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
-      <c r="K106" s="14"/>
-      <c r="L106" s="14"/>
-      <c r="M106" s="14"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
       <c r="N106" s="14"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A107" s="19"/>
+      <c r="A107" s="19" t="s">
+        <v>369</v>
+      </c>
       <c r="B107" s="19" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C107" s="19" t="s">
         <v>137</v>
@@ -12015,13 +12539,15 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="14"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
       <c r="N107" s="14"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A108" s="19"/>
+      <c r="A108" s="19" t="s">
+        <v>370</v>
+      </c>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
       <c r="D108" s="20" t="s">
@@ -12037,13 +12563,15 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
-      <c r="K108" s="14"/>
-      <c r="L108" s="14"/>
-      <c r="M108" s="14"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
       <c r="N108" s="14"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A109" s="19"/>
+      <c r="A109" s="19" t="s">
+        <v>371</v>
+      </c>
       <c r="B109" s="19"/>
       <c r="C109" s="19"/>
       <c r="D109" s="20" t="s">
@@ -12059,13 +12587,15 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
       <c r="N109" s="14"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="19"/>
+      <c r="A110" s="19" t="s">
+        <v>372</v>
+      </c>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
       <c r="D110" s="20" t="s">
@@ -12081,10 +12611,744 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
-      <c r="K110" s="14"/>
-      <c r="L110" s="14"/>
-      <c r="M110" s="14"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
       <c r="N110" s="14"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="C111" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="14"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="11"/>
+      <c r="M112" s="11"/>
+      <c r="N112" s="14"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="20" t="s">
+        <v>399</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G113" s="14"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="14"/>
+      <c r="J113" s="14"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="14"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="14"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="14"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="14"/>
+      <c r="J116" s="14"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="14"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="14"/>
+      <c r="J117" s="14"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="14"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B118" s="19"/>
+      <c r="C118" s="19"/>
+      <c r="D118" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="14"/>
+      <c r="J118" s="14"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="14"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="14"/>
+      <c r="J119" s="14"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="14"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G120" s="14"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="14"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D121" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="14"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B122" s="19"/>
+      <c r="C122" s="19"/>
+      <c r="D122" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="14"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="14"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="14"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="14"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="14"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="14"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F125" s="14"/>
+      <c r="G125" s="21">
+        <v>43973</v>
+      </c>
+      <c r="H125" s="14"/>
+      <c r="I125" s="14"/>
+      <c r="J125" s="14"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="14"/>
+    </row>
+    <row r="126" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F126" s="14"/>
+      <c r="G126" s="21">
+        <v>43973</v>
+      </c>
+      <c r="H126" s="14"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="14"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="14"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" s="14"/>
+      <c r="G127" s="21">
+        <v>43973</v>
+      </c>
+      <c r="H127" s="14"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="14"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="14"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="14"/>
+      <c r="G128" s="21">
+        <v>43973</v>
+      </c>
+      <c r="H128" s="14"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="14"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="14"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F129" s="14"/>
+      <c r="G129" s="21">
+        <v>43973</v>
+      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="14"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="19"/>
+      <c r="D130" s="20" t="s">
+        <v>407</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F130" s="14"/>
+      <c r="G130" s="21">
+        <v>43973</v>
+      </c>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="14"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F131" s="14"/>
+      <c r="G131" s="21">
+        <v>43973</v>
+      </c>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="14"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F132" s="14"/>
+      <c r="G132" s="21">
+        <v>43973</v>
+      </c>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="M132" s="11"/>
+      <c r="N132" s="14"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="19"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="14"/>
+      <c r="J134" s="14"/>
+      <c r="K134" s="14"/>
+      <c r="L134" s="14"/>
+      <c r="M134" s="14"/>
+      <c r="N134" s="14"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="19"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="20"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="14"/>
+      <c r="J135" s="14"/>
+      <c r="K135" s="14"/>
+      <c r="L135" s="14"/>
+      <c r="M135" s="14"/>
+      <c r="N135" s="14"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="20"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="14"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="14"/>
+      <c r="L136" s="14"/>
+      <c r="M136" s="14"/>
+      <c r="N136" s="14"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="19"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="20"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="14"/>
+      <c r="J137" s="14"/>
+      <c r="K137" s="14"/>
+      <c r="L137" s="14"/>
+      <c r="M137" s="14"/>
+      <c r="N137" s="14"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="19"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="19"/>
+      <c r="D138" s="20"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="19"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="20"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="20"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="19"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+      <c r="H141" s="14"/>
+      <c r="I141" s="14"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="14"/>
+      <c r="L141" s="14"/>
+      <c r="M141" s="14"/>
+      <c r="N141" s="14"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="19"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="20"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+      <c r="H142" s="14"/>
+      <c r="I142" s="14"/>
+      <c r="J142" s="14"/>
+      <c r="K142" s="14"/>
+      <c r="L142" s="14"/>
+      <c r="M142" s="14"/>
+      <c r="N142" s="14"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="19"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+      <c r="H143" s="14"/>
+      <c r="I143" s="14"/>
+      <c r="J143" s="14"/>
+      <c r="K143" s="14"/>
+      <c r="L143" s="14"/>
+      <c r="M143" s="14"/>
+      <c r="N143" s="14"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="20"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+      <c r="H144" s="14"/>
+      <c r="I144" s="14"/>
+      <c r="J144" s="14"/>
+      <c r="K144" s="14"/>
+      <c r="L144" s="14"/>
+      <c r="M144" s="14"/>
+      <c r="N144" s="14"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A145" s="19"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+      <c r="H145" s="14"/>
+      <c r="I145" s="14"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="14"/>
+      <c r="L145" s="14"/>
+      <c r="M145" s="14"/>
+      <c r="N145" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12103,8 +13367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AFD6F-0D1B-F346-A025-C4EDD3D59A1D}">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12347,22 +13611,28 @@
       </c>
       <c r="E21" s="68"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="34" x14ac:dyDescent="0.2">
       <c r="B22" s="65">
         <v>15</v>
       </c>
       <c r="C22" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="66"/>
+      <c r="D22" s="67" t="s">
+        <v>395</v>
+      </c>
       <c r="E22" s="68"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="68" x14ac:dyDescent="0.2">
       <c r="B23" s="65">
         <v>16</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
+      <c r="C23" s="66" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>410</v>
+      </c>
       <c r="E23" s="68"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
@@ -12412,7 +13682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0BDA92-640B-BC49-960A-223EB672CB17}">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -12536,14 +13806,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A2138E-F872-8E4F-9A11-024E0A082E3F}">
   <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A62" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="81" customWidth="1"/>
-    <col min="2" max="16384" width="30.83203125" style="81"/>
+    <col min="1" max="1" width="4.33203125" style="80" customWidth="1"/>
+    <col min="2" max="16384" width="30.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -12886,7 +14156,7 @@
   <dimension ref="B1:AY24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12935,6 +14205,22 @@
       <c r="F3" s="76"/>
       <c r="G3" s="76"/>
       <c r="H3" s="76"/>
+      <c r="AM3" s="81"/>
+      <c r="AN3" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="23" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AM5" s="83"/>
+      <c r="AN5" s="23" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="6" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -14053,31 +15339,90 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDA24D6-9A8A-D24D-8AC4-FE20A3CDFEAA}">
-  <dimension ref="A1"/>
+  <dimension ref="K4:Y10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4038687-AE97-C645-A74C-C2E6A04EE382}">
-  <dimension ref="E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="20.83203125" style="5"/>
+    <col min="7" max="7" width="1.1640625" customWidth="1"/>
+    <col min="8" max="8" width="1.33203125" customWidth="1"/>
+    <col min="9" max="9" width="1.1640625" customWidth="1"/>
+    <col min="10" max="10" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E1" s="80"/>
+    <row r="4" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="5" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>13</v>
+      </c>
+      <c r="P5">
+        <v>14</v>
+      </c>
+      <c r="Q5">
+        <v>15</v>
+      </c>
+      <c r="R5">
+        <v>16</v>
+      </c>
+      <c r="S5">
+        <v>17</v>
+      </c>
+      <c r="T5">
+        <v>18</v>
+      </c>
+      <c r="U5">
+        <v>19</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+      <c r="W5">
+        <v>21</v>
+      </c>
+      <c r="X5">
+        <v>22</v>
+      </c>
+      <c r="Y5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="11:25" x14ac:dyDescent="0.2">
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
+++ b/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneblessing/Desktop/DHBW Horb Informatik/Semester 4/Software Engineering Project/d6/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gotz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780EE5C-6C15-2248-9962-64929A64C735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30EEF19-CEC1-464F-A7B3-3138D2D454C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13920" activeTab="5" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="410">
   <si>
     <t>Punkt</t>
   </si>
@@ -142,9 +140,6 @@
     <t>Literatur/Internet-Recherche</t>
   </si>
   <si>
-    <t>Information der Gruppe über die Ergebnisse der Recherche</t>
-  </si>
-  <si>
     <t>Berichterstellung mit Rechercheergebnissen</t>
   </si>
   <si>
@@ -367,9 +362,6 @@
     <t>Wiki für Coding Standards festlegen</t>
   </si>
   <si>
-    <t>Dokument für Best Practice der Programmiersprache erstellem</t>
-  </si>
-  <si>
     <t>Festlegung der unterstützenden Werkzeuge</t>
   </si>
   <si>
@@ -475,9 +467,6 @@
     <t>Protokoll ins Reine schreiben</t>
   </si>
   <si>
-    <t>Protokollant</t>
-  </si>
-  <si>
     <t>Meilensteine</t>
   </si>
   <si>
@@ -1045,9 +1034,6 @@
     <t>063</t>
   </si>
   <si>
-    <t>064</t>
-  </si>
-  <si>
     <t>065</t>
   </si>
   <si>
@@ -1141,9 +1127,6 @@
     <t>095</t>
   </si>
   <si>
-    <t>096</t>
-  </si>
-  <si>
     <t>097</t>
   </si>
   <si>
@@ -1183,9 +1166,6 @@
     <t>109</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>111</t>
   </si>
   <si>
@@ -1243,9 +1223,6 @@
     <t>Überprüfung der Einhaltung der Testkonzepte</t>
   </si>
   <si>
-    <t>Überprüfung der Einhaltung der  Qualität</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -1277,6 +1254,18 @@
   </si>
   <si>
     <t xml:space="preserve">KW </t>
+  </si>
+  <si>
+    <t>Sütö, Götz</t>
+  </si>
+  <si>
+    <t>Informieren der Gruppe über die Ergebnisse der Recherche</t>
+  </si>
+  <si>
+    <t>Dokument für Best Practice der Programmiersprache erstellen</t>
+  </si>
+  <si>
+    <t>Überprüfung der Einhaltung der Qualität</t>
   </si>
 </sst>
 </file>
@@ -1890,24 +1879,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1920,11 +1891,53 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2018,7 +2031,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2393,30 +2406,6 @@
           <color auto="1"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -9499,40 +9488,40 @@
     <tableColumn id="11" xr3:uid="{3D8E58E6-3EE7-0A46-A8E2-806C6F4F1AF7}" name="Status" dataDxfId="21"/>
     <tableColumn id="12" xr3:uid="{CC06DC0F-C0FB-D34C-BE80-C7ECB04B5663}" name="Spalte2" dataDxfId="20"/>
     <tableColumn id="13" xr3:uid="{A477A699-A71F-334A-B5A7-62B074EAE70F}" name="Spalte3" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{5CC08B67-559B-1A41-BD21-D2517B184A93}" name="Dokumente" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{5CC08B67-559B-1A41-BD21-D2517B184A93}" name="Dokumente" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42DD71D9-189E-E546-A545-D7FF9EB2CC2F}" name="Tabelle3" displayName="Tabelle3" ref="B6:E27" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42DD71D9-189E-E546-A545-D7FF9EB2CC2F}" name="Tabelle3" displayName="Tabelle3" ref="B6:E27" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
   <autoFilter ref="B6:E27" xr:uid="{7F489A80-9A3A-0C45-B2C8-702A6880DB2C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5E8A3C14-C169-5D43-ACA4-13275C654EA7}" name="Arbeitspaket Nr. " dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{1F779AF2-0BD1-1F47-B5D4-B00A67C22C6D}" name="Name" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{198A5293-5881-414C-8ED2-AAF8AFA72B57}" name="Beschreibung" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{2E2FCC62-ED75-E548-83D9-9C68732D1839}" name="Zeitumfang [in h]" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{5E8A3C14-C169-5D43-ACA4-13275C654EA7}" name="Arbeitspaket Nr. " dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{1F779AF2-0BD1-1F47-B5D4-B00A67C22C6D}" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{198A5293-5881-414C-8ED2-AAF8AFA72B57}" name="Beschreibung" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{2E2FCC62-ED75-E548-83D9-9C68732D1839}" name="Zeitumfang [in h]" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CDB463C-5A80-434B-B618-CDD133BFB09B}" name="Tabelle2" displayName="Tabelle2" ref="B5:E9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CDB463C-5A80-434B-B618-CDD133BFB09B}" name="Tabelle2" displayName="Tabelle2" ref="B5:E9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="B5:E9" xr:uid="{47CCC85B-3FDE-0044-BB7B-C7473962CE06}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{387E64BD-18A5-064A-A78C-9A47C6B9027C}" name="Kürzel" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{AC85B4AB-70A4-7440-A4B2-896B9EB1D780}" name="Wann?" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{5EF2DE9E-43B9-D64B-8A60-8FB51717CC17}" name="Was?" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{395417A9-73AD-C84D-BD83-A155DCD95A27}" name="Beschreibung" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{387E64BD-18A5-064A-A78C-9A47C6B9027C}" name="Kürzel" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AC85B4AB-70A4-7440-A4B2-896B9EB1D780}" name="Wann?" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5EF2DE9E-43B9-D64B-8A60-8FB51717CC17}" name="Was?" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{395417A9-73AD-C84D-BD83-A155DCD95A27}" name="Beschreibung" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9830,11 +9819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B665E9DA-39F6-D247-ABB9-2DB3926674E9}">
   <dimension ref="A1:AH145"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
@@ -9849,61 +9838,61 @@
     <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" s="75"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="79"/>
+    </row>
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+    </row>
+    <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-    </row>
-    <row r="4" spans="1:14" ht="20" x14ac:dyDescent="0.2">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+    </row>
+    <row r="4" spans="1:14" ht="20" x14ac:dyDescent="0.4">
       <c r="C4" s="2"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-    </row>
-    <row r="8" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+    </row>
+    <row r="8" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>1</v>
@@ -9924,41 +9913,43 @@
         <v>5</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>6</v>
       </c>
       <c r="L9" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>75</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="G10" s="14"/>
       <c r="H10" s="21">
         <v>43902</v>
@@ -9972,12 +9963,12 @@
       <c r="M10" s="12"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>10</v>
@@ -9986,9 +9977,11 @@
         <v>12</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G11" s="21">
         <v>43906</v>
       </c>
@@ -10004,9 +9997,9 @@
       <c r="M11" s="12"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -10014,9 +10007,11 @@
         <v>13</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G12" s="21">
         <v>43906</v>
       </c>
@@ -10032,9 +10027,9 @@
       <c r="M12" s="11"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -10042,9 +10037,11 @@
         <v>14</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G13" s="21">
         <v>43906</v>
       </c>
@@ -10060,9 +10057,9 @@
       <c r="M13" s="11"/>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -10070,9 +10067,11 @@
         <v>15</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G14" s="21">
         <v>43906</v>
       </c>
@@ -10088,9 +10087,9 @@
       <c r="M14" s="11"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -10098,9 +10097,11 @@
         <v>16</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G15" s="21">
         <v>43906</v>
       </c>
@@ -10116,9 +10117,9 @@
       <c r="M15" s="11"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -10126,9 +10127,11 @@
         <v>17</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G16" s="21">
         <v>43906</v>
       </c>
@@ -10144,12 +10147,12 @@
       <c r="M16" s="12"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>18</v>
@@ -10160,7 +10163,9 @@
       <c r="E17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G17" s="21">
         <v>43906</v>
       </c>
@@ -10176,9 +10181,9 @@
       <c r="M17" s="12"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -10186,9 +10191,11 @@
         <v>20</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G18" s="21">
         <v>43906</v>
       </c>
@@ -10204,9 +10211,9 @@
       <c r="M18" s="11"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -10216,7 +10223,9 @@
       <c r="E19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G19" s="21">
         <v>43906</v>
       </c>
@@ -10232,9 +10241,9 @@
       <c r="M19" s="11"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -10242,9 +10251,11 @@
         <v>22</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G20" s="21">
         <v>43906</v>
       </c>
@@ -10260,12 +10271,12 @@
       <c r="M20" s="11"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>23</v>
@@ -10274,9 +10285,11 @@
         <v>24</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="G21" s="21">
         <v>43906</v>
       </c>
@@ -10292,9 +10305,9 @@
       <c r="M21" s="12"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
@@ -10302,9 +10315,11 @@
         <v>25</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G22" s="21">
         <v>43903</v>
       </c>
@@ -10320,12 +10335,12 @@
       <c r="M22" s="12"/>
       <c r="N22" s="14"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>26</v>
@@ -10350,12 +10365,12 @@
       <c r="M23" s="12"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>28</v>
@@ -10364,9 +10379,11 @@
         <v>29</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>406</v>
+      </c>
       <c r="G24" s="21">
         <v>43906</v>
       </c>
@@ -10382,9 +10399,9 @@
       <c r="M24" s="12"/>
       <c r="N24" s="14"/>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -10392,9 +10409,11 @@
         <v>30</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>406</v>
+      </c>
       <c r="G25" s="21">
         <v>43906</v>
       </c>
@@ -10410,9 +10429,9 @@
       <c r="M25" s="12"/>
       <c r="N25" s="14"/>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -10420,9 +10439,11 @@
         <v>31</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>406</v>
+      </c>
       <c r="G26" s="21">
         <v>43906</v>
       </c>
@@ -10438,9 +10459,9 @@
       <c r="M26" s="12"/>
       <c r="N26" s="14"/>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -10448,9 +10469,11 @@
         <v>32</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G27" s="21">
         <v>43906</v>
       </c>
@@ -10466,23 +10489,25 @@
       <c r="M27" s="12"/>
       <c r="N27" s="14"/>
     </row>
-    <row r="28" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C28" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>73</v>
-      </c>
       <c r="E28" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G28" s="21">
         <v>43904</v>
       </c>
@@ -10518,23 +10543,25 @@
       <c r="AG28" s="14"/>
       <c r="AH28" s="14"/>
     </row>
-    <row r="29" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B29" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E29" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G29" s="21">
         <v>43905</v>
       </c>
@@ -10550,19 +10577,21 @@
       <c r="M29" s="11"/>
       <c r="N29" s="14"/>
     </row>
-    <row r="30" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B30" s="19"/>
       <c r="C30" s="19"/>
       <c r="D30" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G30" s="21">
         <v>43905</v>
       </c>
@@ -10578,19 +10607,21 @@
       <c r="M30" s="11"/>
       <c r="N30" s="14"/>
     </row>
-    <row r="31" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B31" s="19"/>
       <c r="C31" s="19"/>
       <c r="D31" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G31" s="21">
         <v>43905</v>
       </c>
@@ -10606,23 +10637,25 @@
       <c r="M31" s="11"/>
       <c r="N31" s="14"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A32" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="G32" s="21">
         <v>43905</v>
       </c>
@@ -10638,19 +10671,21 @@
       <c r="M32" s="11"/>
       <c r="N32" s="14"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G33" s="21">
         <v>43905</v>
       </c>
@@ -10666,19 +10701,21 @@
       <c r="M33" s="11"/>
       <c r="N33" s="14"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B34" s="19"/>
       <c r="C34" s="19"/>
       <c r="D34" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="G34" s="21">
         <v>43905</v>
       </c>
@@ -10694,19 +10731,21 @@
       <c r="M34" s="11"/>
       <c r="N34" s="14"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="G35" s="21">
         <v>43905</v>
       </c>
@@ -10722,19 +10761,21 @@
       <c r="M35" s="11"/>
       <c r="N35" s="14"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B36" s="19"/>
       <c r="C36" s="19"/>
       <c r="D36" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G36" s="21">
         <v>43905</v>
       </c>
@@ -10750,19 +10791,21 @@
       <c r="M36" s="11"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
       <c r="D37" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G37" s="21">
         <v>43905</v>
       </c>
@@ -10778,19 +10821,21 @@
       <c r="M37" s="11"/>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="19"/>
       <c r="D38" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G38" s="21">
         <v>43905</v>
       </c>
@@ -10806,23 +10851,25 @@
       <c r="M38" s="11"/>
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C39" s="19" t="s">
         <v>33</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>406</v>
+      </c>
       <c r="G39" s="21">
         <v>43909</v>
       </c>
@@ -10834,19 +10881,21 @@
       <c r="M39" s="11"/>
       <c r="N39" s="14"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="20" t="s">
-        <v>34</v>
+        <v>407</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G40" s="21">
         <v>43909</v>
       </c>
@@ -10858,17 +10907,17 @@
       <c r="M40" s="11"/>
       <c r="N40" s="14"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>63</v>
@@ -10884,19 +10933,21 @@
       <c r="M41" s="11"/>
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F42" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G42" s="21">
         <v>43912</v>
       </c>
@@ -10908,23 +10959,25 @@
       <c r="M42" s="11"/>
       <c r="N42" s="14"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B43" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>83</v>
-      </c>
       <c r="D43" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F43" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G43" s="21">
         <v>43907</v>
       </c>
@@ -10936,19 +10989,21 @@
       <c r="M43" s="11"/>
       <c r="N43" s="14"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
       <c r="D44" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F44" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G44" s="21">
         <v>43911</v>
       </c>
@@ -10960,19 +11015,21 @@
       <c r="M44" s="11"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B45" s="19"/>
       <c r="C45" s="19"/>
       <c r="D45" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="G45" s="21">
         <v>43912</v>
       </c>
@@ -10984,19 +11041,21 @@
       <c r="M45" s="11"/>
       <c r="N45" s="14"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F46" s="14"/>
+        <v>63</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G46" s="21">
         <v>43912</v>
       </c>
@@ -11008,23 +11067,25 @@
       <c r="M46" s="11"/>
       <c r="N46" s="14"/>
     </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E47" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F47" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G47" s="21">
         <v>43912</v>
       </c>
@@ -11036,19 +11097,21 @@
       <c r="M47" s="11"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
       <c r="D48" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F48" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="G48" s="21">
         <v>43912</v>
       </c>
@@ -11060,19 +11123,21 @@
       <c r="M48" s="11"/>
       <c r="N48" s="14"/>
     </row>
-    <row r="49" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
       <c r="D49" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F49" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>406</v>
+      </c>
       <c r="G49" s="21">
         <v>43912</v>
       </c>
@@ -11084,24 +11149,24 @@
       <c r="M49" s="11"/>
       <c r="N49" s="14"/>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="D50" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>90</v>
-      </c>
       <c r="E50" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G50" s="21">
         <v>43914</v>
@@ -11114,20 +11179,20 @@
       <c r="M50" s="11"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B51" s="19"/>
       <c r="C51" s="19"/>
       <c r="D51" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="G51" s="21">
         <v>43914</v>
@@ -11140,17 +11205,17 @@
       <c r="M51" s="11"/>
       <c r="N51" s="14"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="19"/>
       <c r="D52" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E52" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F52" s="14"/>
       <c r="G52" s="21">
@@ -11164,20 +11229,20 @@
       <c r="M52" s="11"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
       <c r="D53" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="21">
         <v>43915</v>
@@ -11190,21 +11255,21 @@
       <c r="M53" s="11"/>
       <c r="N53" s="14"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B54" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="D54" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>108</v>
-      </c>
       <c r="E54" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F54" s="14"/>
       <c r="G54" s="21">
@@ -11218,17 +11283,17 @@
       <c r="M54" s="11"/>
       <c r="N54" s="14"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="20" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F55" s="14"/>
       <c r="G55" s="21">
@@ -11242,20 +11307,20 @@
       <c r="M55" s="11"/>
       <c r="N55" s="14"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E56" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G56" s="21">
         <v>43918</v>
@@ -11268,21 +11333,21 @@
       <c r="M56" s="11"/>
       <c r="N56" s="14"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B57" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>114</v>
-      </c>
       <c r="E57" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="21">
@@ -11296,17 +11361,17 @@
       <c r="M57" s="11"/>
       <c r="N57" s="14"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B58" s="19"/>
       <c r="C58" s="19"/>
       <c r="D58" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E58" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F58" s="14"/>
       <c r="G58" s="21">
@@ -11320,17 +11385,17 @@
       <c r="M58" s="11"/>
       <c r="N58" s="14"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B59" s="19"/>
       <c r="C59" s="19"/>
       <c r="D59" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="21">
@@ -11344,24 +11409,24 @@
       <c r="M59" s="11"/>
       <c r="N59" s="14"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D60" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E60" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G60" s="21">
         <v>43913</v>
@@ -11374,17 +11439,17 @@
       <c r="M60" s="11"/>
       <c r="N60" s="14"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
       <c r="D61" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="21">
@@ -11398,20 +11463,20 @@
       <c r="M61" s="11"/>
       <c r="N61" s="14"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B62" s="19"/>
       <c r="C62" s="19"/>
       <c r="D62" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E62" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G62" s="21">
         <v>43914</v>
@@ -11424,24 +11489,24 @@
       <c r="M62" s="11"/>
       <c r="N62" s="14"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D63" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G63" s="21">
         <v>43915</v>
@@ -11454,20 +11519,20 @@
       <c r="M63" s="11"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="19" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B64" s="19"/>
       <c r="C64" s="19"/>
       <c r="D64" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G64" s="21">
         <v>43918</v>
@@ -11480,20 +11545,20 @@
       <c r="M64" s="11"/>
       <c r="N64" s="14"/>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
       <c r="D65" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G65" s="21">
         <v>43919</v>
@@ -11506,20 +11571,20 @@
       <c r="M65" s="11"/>
       <c r="N65" s="14"/>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" s="19" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="19"/>
       <c r="D66" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E66" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G66" s="21">
         <v>43919</v>
@@ -11532,21 +11597,21 @@
       <c r="M66" s="11"/>
       <c r="N66" s="14"/>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B67" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C67" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>70</v>
-      </c>
       <c r="E67" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F67" s="14"/>
       <c r="G67" s="21">
@@ -11560,17 +11625,17 @@
       <c r="M67" s="11"/>
       <c r="N67" s="14"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" s="19" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
       <c r="D68" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F68" s="14"/>
       <c r="G68" s="21">
@@ -11584,17 +11649,17 @@
       <c r="M68" s="11"/>
       <c r="N68" s="14"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" s="19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B69" s="19"/>
       <c r="C69" s="19"/>
       <c r="D69" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" s="14"/>
       <c r="G69" s="21">
@@ -11608,21 +11673,21 @@
       <c r="M69" s="11"/>
       <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D70" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F70" s="14"/>
       <c r="G70" s="21">
@@ -11636,19 +11701,21 @@
       <c r="M70" s="11"/>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71" s="19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B71" s="19"/>
       <c r="C71" s="19"/>
       <c r="D71" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F71" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G71" s="21">
         <v>43922</v>
       </c>
@@ -11660,19 +11727,21 @@
       <c r="M71" s="11"/>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B72" s="19"/>
       <c r="C72" s="19"/>
       <c r="D72" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F72" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G72" s="21">
         <v>43920</v>
       </c>
@@ -11684,17 +11753,17 @@
       <c r="M72" s="11"/>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F73" s="14"/>
       <c r="G73" s="21">
@@ -11708,21 +11777,27 @@
       <c r="M73" s="11"/>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
+        <v>333</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="D74" s="20" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F74" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G74" s="21">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
@@ -11732,25 +11807,23 @@
       <c r="M74" s="11"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" s="19" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D75" s="20" t="s">
         <v>139</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>111</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F75" s="14"/>
       <c r="G75" s="21">
         <v>43923</v>
       </c>
@@ -11762,21 +11835,17 @@
       <c r="M75" s="11"/>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>137</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
       <c r="D76" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F76" s="14"/>
       <c r="G76" s="21">
@@ -11790,21 +11859,21 @@
       <c r="M76" s="11"/>
       <c r="N76" s="14"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" s="19" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
       <c r="D77" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="21">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
@@ -11814,17 +11883,17 @@
       <c r="M77" s="11"/>
       <c r="N77" s="14"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B78" s="19"/>
       <c r="C78" s="19"/>
       <c r="D78" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="21">
@@ -11838,45 +11907,45 @@
       <c r="M78" s="11"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" s="19" t="s">
-        <v>341</v>
-      </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
+        <v>338</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>155</v>
+      </c>
       <c r="D79" s="20" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="21">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
-      <c r="K79" s="9"/>
+      <c r="K79" s="11"/>
       <c r="L79" s="11"/>
       <c r="M79" s="11"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" s="19" t="s">
-        <v>158</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
       <c r="D80" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F80" s="14"/>
       <c r="G80" s="21">
@@ -11890,21 +11959,21 @@
       <c r="M80" s="11"/>
       <c r="N80" s="14"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B81" s="19"/>
       <c r="C81" s="19"/>
       <c r="D81" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F81" s="14"/>
       <c r="G81" s="21">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
@@ -11914,19 +11983,21 @@
       <c r="M81" s="11"/>
       <c r="N81" s="14"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B82" s="19"/>
       <c r="C82" s="19"/>
       <c r="D82" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E82" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="F82" s="14"/>
       <c r="G82" s="21">
         <v>43926</v>
       </c>
@@ -11938,21 +12009,23 @@
       <c r="M82" s="11"/>
       <c r="N82" s="14"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" s="19" t="s">
-        <v>345</v>
-      </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="19"/>
+        <v>342</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C83" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="D83" s="20" t="s">
-        <v>162</v>
+        <v>69</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>64</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F83" s="14"/>
       <c r="G83" s="21">
         <v>43926</v>
       </c>
@@ -11964,21 +12037,17 @@
       <c r="M83" s="11"/>
       <c r="N83" s="14"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="B84" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" s="19" t="s">
-        <v>68</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
       <c r="D84" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="21">
@@ -11992,17 +12061,17 @@
       <c r="M84" s="11"/>
       <c r="N84" s="14"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B85" s="19"/>
       <c r="C85" s="19"/>
       <c r="D85" s="20" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="21">
@@ -12011,27 +12080,25 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
-      <c r="K85" s="11"/>
+      <c r="K85" s="9"/>
       <c r="L85" s="11"/>
       <c r="M85" s="11"/>
       <c r="N85" s="14"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>65</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D86" s="20"/>
+      <c r="E86" s="14"/>
       <c r="F86" s="14"/>
-      <c r="G86" s="21">
-        <v>43926</v>
-      </c>
+      <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
@@ -12040,18 +12107,18 @@
       <c r="M86" s="11"/>
       <c r="N86" s="14"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87" s="19" t="s">
-        <v>349</v>
-      </c>
-      <c r="B87" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="D87" s="20"/>
-      <c r="E87" s="14"/>
+        <v>346</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
       <c r="H87" s="14"/>
@@ -12062,17 +12129,17 @@
       <c r="M87" s="11"/>
       <c r="N87" s="14"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88" s="19" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B88" s="19"/>
       <c r="C88" s="19"/>
       <c r="D88" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F88" s="14"/>
       <c r="G88" s="14"/>
@@ -12084,17 +12151,17 @@
       <c r="M88" s="11"/>
       <c r="N88" s="14"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" s="19" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B89" s="19"/>
       <c r="C89" s="19"/>
       <c r="D89" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F89" s="14"/>
       <c r="G89" s="14"/>
@@ -12106,39 +12173,39 @@
       <c r="M89" s="11"/>
       <c r="N89" s="14"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" s="19" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B90" s="19"/>
       <c r="C90" s="19"/>
       <c r="D90" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
-      <c r="K90" s="9"/>
+      <c r="K90" s="11"/>
       <c r="L90" s="11"/>
       <c r="M90" s="11"/>
       <c r="N90" s="14"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
       <c r="D91" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
@@ -12150,20 +12217,20 @@
       <c r="M91" s="11"/>
       <c r="N91" s="14"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B92" s="19"/>
       <c r="C92" s="19"/>
       <c r="D92" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E92" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
+      <c r="G92" s="21"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -12172,12 +12239,16 @@
       <c r="M92" s="11"/>
       <c r="N92" s="14"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
+        <v>352</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>169</v>
+      </c>
       <c r="D93" s="20" t="s">
         <v>170</v>
       </c>
@@ -12194,21 +12265,17 @@
       <c r="M93" s="11"/>
       <c r="N93" s="14"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="B94" s="19" t="s">
-        <v>394</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>172</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E94" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F94" s="14"/>
       <c r="G94" s="21"/>
@@ -12220,20 +12287,20 @@
       <c r="M94" s="11"/>
       <c r="N94" s="14"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95" s="19" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B95" s="19"/>
       <c r="C95" s="19"/>
       <c r="D95" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F95" s="14"/>
-      <c r="G95" s="21"/>
+      <c r="G95" s="14"/>
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
@@ -12242,41 +12309,43 @@
       <c r="M95" s="11"/>
       <c r="N95" s="14"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B96" s="19"/>
       <c r="C96" s="19"/>
       <c r="D96" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E96" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F96" s="14"/>
       <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
-      <c r="K96" s="11"/>
+      <c r="K96" s="9"/>
       <c r="L96" s="11"/>
       <c r="M96" s="11"/>
       <c r="N96" s="14"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97" s="19" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B97" s="19"/>
       <c r="C97" s="19"/>
       <c r="D97" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" s="14"/>
+        <v>65</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
@@ -12286,22 +12355,26 @@
       <c r="M97" s="11"/>
       <c r="N97" s="14"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
+        <v>357</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="D98" s="20" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="E98" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G98" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F98" s="14"/>
+      <c r="G98" s="21">
+        <v>43943</v>
+      </c>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
@@ -12310,21 +12383,17 @@
       <c r="M98" s="11"/>
       <c r="N98" s="14"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="B99" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C99" s="19" t="s">
-        <v>68</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
       <c r="D99" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F99" s="14"/>
       <c r="G99" s="21">
@@ -12338,17 +12407,17 @@
       <c r="M99" s="11"/>
       <c r="N99" s="14"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B100" s="19"/>
       <c r="C100" s="19"/>
       <c r="D100" s="20" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E100" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F100" s="14"/>
       <c r="G100" s="21">
@@ -12362,49 +12431,49 @@
       <c r="M100" s="11"/>
       <c r="N100" s="14"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
+        <v>360</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="D101" s="20" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F101" s="14"/>
       <c r="G101" s="21">
-        <v>43943</v>
+        <v>43935</v>
       </c>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
-      <c r="K101" s="9"/>
+      <c r="K101" s="11"/>
       <c r="L101" s="11"/>
       <c r="M101" s="11"/>
       <c r="N101" s="14"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
-        <v>364</v>
-      </c>
-      <c r="B102" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>128</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
       <c r="D102" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E102" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F102" s="14"/>
       <c r="G102" s="21">
-        <v>43935</v>
+        <v>43941</v>
       </c>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
@@ -12414,17 +12483,17 @@
       <c r="M102" s="11"/>
       <c r="N102" s="14"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B103" s="19"/>
       <c r="C103" s="19"/>
       <c r="D103" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="21">
@@ -12438,21 +12507,27 @@
       <c r="M103" s="11"/>
       <c r="N103" s="14"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" s="19" t="s">
-        <v>366</v>
-      </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="19"/>
+        <v>363</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="D104" s="20" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F104" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G104" s="21">
-        <v>43941</v>
+        <v>43944</v>
       </c>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
@@ -12462,21 +12537,25 @@
       <c r="M104" s="11"/>
       <c r="N104" s="14"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
+        <v>364</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="D105" s="20" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="21">
-        <v>43941</v>
+        <v>43944</v>
       </c>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
@@ -12486,51 +12565,41 @@
       <c r="M105" s="11"/>
       <c r="N105" s="14"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="B106" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" s="19" t="s">
-        <v>138</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="19"/>
       <c r="D106" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E106" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>111</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F106" s="14"/>
       <c r="G106" s="21">
         <v>43944</v>
       </c>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
-      <c r="K106" s="11"/>
+      <c r="K106" s="9"/>
       <c r="L106" s="11"/>
       <c r="M106" s="11"/>
       <c r="N106" s="14"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="B107" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="19" t="s">
-        <v>137</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
       <c r="D107" s="20" t="s">
         <v>141</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="21">
@@ -12539,14 +12608,14 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
-      <c r="K107" s="11"/>
+      <c r="K107" s="9"/>
       <c r="L107" s="11"/>
       <c r="M107" s="11"/>
       <c r="N107" s="14"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B108" s="19"/>
       <c r="C108" s="19"/>
@@ -12554,7 +12623,7 @@
         <v>142</v>
       </c>
       <c r="E108" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F108" s="14"/>
       <c r="G108" s="21">
@@ -12568,22 +12637,24 @@
       <c r="M108" s="11"/>
       <c r="N108" s="14"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
+        <v>368</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>175</v>
+      </c>
       <c r="D109" s="20" t="s">
-        <v>143</v>
+        <v>391</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F109" s="14"/>
-      <c r="G109" s="21">
-        <v>43944</v>
-      </c>
+      <c r="G109" s="14"/>
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
@@ -12592,22 +12663,20 @@
       <c r="M109" s="11"/>
       <c r="N109" s="14"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B110" s="19"/>
       <c r="C110" s="19"/>
       <c r="D110" s="20" t="s">
-        <v>144</v>
+        <v>392</v>
       </c>
       <c r="E110" s="14" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="F110" s="14"/>
-      <c r="G110" s="21">
-        <v>43944</v>
-      </c>
+      <c r="G110" s="14"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
@@ -12616,68 +12685,68 @@
       <c r="M110" s="11"/>
       <c r="N110" s="14"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="B111" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="C111" s="19" t="s">
-        <v>178</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
       <c r="D111" s="20" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E111" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F111" s="14"/>
+        <v>64</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
-      <c r="K111" s="9"/>
+      <c r="K111" s="11"/>
       <c r="L111" s="11"/>
       <c r="M111" s="11"/>
       <c r="N111" s="14"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B112" s="19"/>
       <c r="C112" s="19"/>
       <c r="D112" s="20" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="E112" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F112" s="14"/>
+        <v>61</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
-      <c r="K112" s="9"/>
+      <c r="K112" s="11"/>
       <c r="L112" s="11"/>
       <c r="M112" s="11"/>
       <c r="N112" s="14"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113" s="19" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B113" s="19"/>
       <c r="C113" s="19"/>
       <c r="D113" s="20" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E113" s="14" t="s">
         <v>65</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
@@ -12688,21 +12757,23 @@
       <c r="M113" s="11"/>
       <c r="N113" s="14"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
+        <v>373</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="19" t="s">
+        <v>126</v>
+      </c>
       <c r="D114" s="20" t="s">
-        <v>401</v>
+        <v>129</v>
       </c>
       <c r="E114" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="F114" s="14" t="s">
-        <v>111</v>
-      </c>
+      <c r="F114" s="14"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
@@ -12712,21 +12783,19 @@
       <c r="M114" s="11"/>
       <c r="N114" s="14"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B115" s="19"/>
       <c r="C115" s="19"/>
       <c r="D115" s="20" t="s">
-        <v>400</v>
+        <v>127</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F115" s="14" t="s">
-        <v>111</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F115" s="14"/>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
@@ -12736,21 +12805,17 @@
       <c r="M115" s="11"/>
       <c r="N115" s="14"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="B116" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C116" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="D116" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="E116" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
@@ -12762,61 +12827,71 @@
       <c r="M116" s="11"/>
       <c r="N116" s="14"/>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117" s="19" t="s">
-        <v>379</v>
-      </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
+        <v>376</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C117" s="19" t="s">
+        <v>136</v>
+      </c>
       <c r="D117" s="20" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F117" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
-      <c r="K117" s="11"/>
+      <c r="K117" s="9"/>
       <c r="L117" s="11"/>
       <c r="M117" s="11"/>
       <c r="N117" s="14"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="19"/>
+        <v>377</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>135</v>
+      </c>
       <c r="D118" s="20" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E118" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
-      <c r="K118" s="11"/>
+      <c r="K118" s="9"/>
       <c r="L118" s="11"/>
       <c r="M118" s="11"/>
       <c r="N118" s="14"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119" s="19" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B119" s="19"/>
       <c r="C119" s="19"/>
       <c r="D119" s="20" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
@@ -12828,25 +12903,19 @@
       <c r="M119" s="11"/>
       <c r="N119" s="14"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>138</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
       <c r="D120" s="20" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>111</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
@@ -12856,90 +12925,96 @@
       <c r="M120" s="11"/>
       <c r="N120" s="14"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>137</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B121" s="19"/>
+      <c r="C121" s="19"/>
       <c r="D121" s="20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
-      <c r="K121" s="9"/>
+      <c r="K121" s="11"/>
       <c r="L121" s="11"/>
       <c r="M121" s="11"/>
       <c r="N121" s="14"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="19"/>
+        <v>381</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>196</v>
+      </c>
       <c r="D122" s="20" t="s">
-        <v>142</v>
+        <v>396</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
+      <c r="G122" s="21">
+        <v>43973</v>
+      </c>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
-      <c r="K122" s="9"/>
+      <c r="K122" s="11"/>
       <c r="L122" s="11"/>
       <c r="M122" s="11"/>
       <c r="N122" s="14"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123" s="19" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
       <c r="D123" s="20" t="s">
-        <v>143</v>
+        <v>404</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
+      <c r="G123" s="21">
+        <v>43973</v>
+      </c>
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
-      <c r="K123" s="9"/>
+      <c r="K123" s="11"/>
       <c r="L123" s="11"/>
       <c r="M123" s="11"/>
       <c r="N123" s="14"/>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B124" s="19"/>
       <c r="C124" s="19"/>
       <c r="D124" s="20" t="s">
-        <v>144</v>
+        <v>397</v>
       </c>
       <c r="E124" s="14" t="s">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
+      <c r="G124" s="21">
+        <v>43973</v>
+      </c>
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
@@ -12948,21 +13023,17 @@
       <c r="M124" s="11"/>
       <c r="N124" s="14"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="B125" s="19" t="s">
-        <v>402</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>199</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B125" s="19"/>
+      <c r="C125" s="19"/>
       <c r="D125" s="20" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="21">
@@ -12976,17 +13047,17 @@
       <c r="M125" s="11"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
       <c r="D126" s="20" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E126" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="21">
@@ -13000,17 +13071,17 @@
       <c r="M126" s="11"/>
       <c r="N126" s="14"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B127" s="19"/>
       <c r="C127" s="19"/>
       <c r="D127" s="20" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="21">
@@ -13024,17 +13095,17 @@
       <c r="M127" s="11"/>
       <c r="N127" s="14"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128" s="19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B128" s="19"/>
       <c r="C128" s="19"/>
       <c r="D128" s="20" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E128" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F128" s="14"/>
       <c r="G128" s="21">
@@ -13048,17 +13119,15 @@
       <c r="M128" s="11"/>
       <c r="N128" s="14"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A129" s="19" t="s">
-        <v>391</v>
-      </c>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A129" s="19"/>
       <c r="B129" s="19"/>
       <c r="C129" s="19"/>
       <c r="D129" s="20" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="21">
@@ -13072,77 +13141,55 @@
       <c r="M129" s="11"/>
       <c r="N129" s="14"/>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A130" s="19" t="s">
-        <v>392</v>
-      </c>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="19"/>
-      <c r="D130" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>66</v>
-      </c>
+      <c r="D130" s="20"/>
+      <c r="E130" s="14"/>
       <c r="F130" s="14"/>
-      <c r="G130" s="21">
-        <v>43973</v>
-      </c>
+      <c r="G130" s="14"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
-      <c r="K130" s="11"/>
-      <c r="L130" s="11"/>
-      <c r="M130" s="11"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
       <c r="N130" s="14"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A131" s="19" t="s">
-        <v>393</v>
-      </c>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A131" s="19"/>
       <c r="B131" s="19"/>
       <c r="C131" s="19"/>
-      <c r="D131" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>62</v>
-      </c>
+      <c r="D131" s="20"/>
+      <c r="E131" s="14"/>
       <c r="F131" s="14"/>
-      <c r="G131" s="21">
-        <v>43973</v>
-      </c>
+      <c r="G131" s="14"/>
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="14"/>
-      <c r="K131" s="11"/>
-      <c r="L131" s="11"/>
-      <c r="M131" s="11"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
       <c r="N131" s="14"/>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="19"/>
-      <c r="D132" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="D132" s="20"/>
+      <c r="E132" s="14"/>
       <c r="F132" s="14"/>
-      <c r="G132" s="21">
-        <v>43973</v>
-      </c>
+      <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
       <c r="N132" s="14"/>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="19"/>
@@ -13158,7 +13205,7 @@
       <c r="M133" s="14"/>
       <c r="N133" s="14"/>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="19"/>
@@ -13174,7 +13221,7 @@
       <c r="M134" s="14"/>
       <c r="N134" s="14"/>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="19"/>
@@ -13190,7 +13237,7 @@
       <c r="M135" s="14"/>
       <c r="N135" s="14"/>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="19"/>
@@ -13206,7 +13253,7 @@
       <c r="M136" s="14"/>
       <c r="N136" s="14"/>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="19"/>
@@ -13222,7 +13269,7 @@
       <c r="M137" s="14"/>
       <c r="N137" s="14"/>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="19"/>
@@ -13238,7 +13285,7 @@
       <c r="M138" s="14"/>
       <c r="N138" s="14"/>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="19"/>
@@ -13254,7 +13301,7 @@
       <c r="M139" s="14"/>
       <c r="N139" s="14"/>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="19"/>
@@ -13270,7 +13317,7 @@
       <c r="M140" s="14"/>
       <c r="N140" s="14"/>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="19"/>
@@ -13286,7 +13333,7 @@
       <c r="M141" s="14"/>
       <c r="N141" s="14"/>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="19"/>
@@ -13302,7 +13349,7 @@
       <c r="M142" s="14"/>
       <c r="N142" s="14"/>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="19"/>
@@ -13318,7 +13365,7 @@
       <c r="M143" s="14"/>
       <c r="N143" s="14"/>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="19"/>
@@ -13334,7 +13381,7 @@
       <c r="M144" s="14"/>
       <c r="N144" s="14"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="19"/>
@@ -13357,8 +13404,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13371,7 +13419,7 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="8"/>
     <col min="2" max="2" width="19.6640625" style="8" customWidth="1"/>
@@ -13381,261 +13429,261 @@
     <col min="6" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-    </row>
-    <row r="4" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B1" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+    </row>
+    <row r="4" spans="2:7" ht="20" x14ac:dyDescent="0.35">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.35">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="D6" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>51</v>
-      </c>
       <c r="E6" s="64" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="85" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="77.5" x14ac:dyDescent="0.35">
       <c r="B7" s="65">
         <v>0</v>
       </c>
       <c r="C7" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="67" t="s">
         <v>77</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>78</v>
       </c>
       <c r="E7" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="108.5" x14ac:dyDescent="0.35">
       <c r="B8" s="65">
         <v>1</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" s="67" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="68">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B9" s="65">
         <v>2</v>
       </c>
       <c r="C9" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="67" t="s">
         <v>56</v>
-      </c>
-      <c r="D9" s="67" t="s">
-        <v>57</v>
       </c>
       <c r="E9" s="68">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="93" x14ac:dyDescent="0.35">
       <c r="B10" s="65">
         <v>3</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="68"/>
     </row>
-    <row r="11" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="62" x14ac:dyDescent="0.35">
       <c r="B11" s="65">
         <v>4</v>
       </c>
       <c r="C11" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>79</v>
-      </c>
-      <c r="D11" s="67" t="s">
-        <v>80</v>
       </c>
       <c r="E11" s="68"/>
       <c r="G11" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="62" x14ac:dyDescent="0.35">
       <c r="B12" s="65">
         <v>5</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="68"/>
     </row>
-    <row r="13" spans="2:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="77.5" x14ac:dyDescent="0.35">
       <c r="B13" s="65">
         <v>6</v>
       </c>
       <c r="C13" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="67" t="s">
-        <v>100</v>
-      </c>
       <c r="E13" s="68"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B14" s="65">
         <v>7</v>
       </c>
       <c r="C14" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="66" t="s">
-        <v>102</v>
-      </c>
       <c r="E14" s="68"/>
     </row>
-    <row r="15" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="31" x14ac:dyDescent="0.35">
       <c r="B15" s="65">
         <v>8</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E15" s="68"/>
     </row>
-    <row r="16" spans="2:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B16" s="65">
         <v>9</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E16" s="68"/>
     </row>
-    <row r="17" spans="2:5" ht="119" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" ht="108.5" x14ac:dyDescent="0.35">
       <c r="B17" s="65">
         <v>10</v>
       </c>
       <c r="C17" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="67" t="s">
-        <v>105</v>
-      </c>
       <c r="E17" s="68"/>
     </row>
-    <row r="18" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="31" x14ac:dyDescent="0.35">
       <c r="B18" s="65">
         <v>11</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18" s="68"/>
     </row>
-    <row r="19" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="31" x14ac:dyDescent="0.35">
       <c r="B19" s="65">
         <v>12</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D19" s="67" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E19" s="68"/>
     </row>
-    <row r="20" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" ht="62" x14ac:dyDescent="0.35">
       <c r="B20" s="65">
         <v>13</v>
       </c>
       <c r="C20" s="66" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D20" s="67" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E20" s="68"/>
     </row>
-    <row r="21" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B21" s="65">
         <v>14</v>
       </c>
       <c r="C21" s="66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D21" s="67" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E21" s="68"/>
     </row>
-    <row r="22" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" ht="31" x14ac:dyDescent="0.35">
       <c r="B22" s="65">
         <v>15</v>
       </c>
       <c r="C22" s="66" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D22" s="67" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E22" s="68"/>
     </row>
-    <row r="23" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" ht="62" x14ac:dyDescent="0.35">
       <c r="B23" s="65">
         <v>16</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E23" s="68"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="65">
         <v>16</v>
       </c>
@@ -13643,7 +13691,7 @@
       <c r="D24" s="66"/>
       <c r="E24" s="68"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B25" s="65">
         <v>17</v>
       </c>
@@ -13651,7 +13699,7 @@
       <c r="D25" s="66"/>
       <c r="E25" s="68"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B26" s="65">
         <v>18</v>
       </c>
@@ -13659,7 +13707,7 @@
       <c r="D26" s="66"/>
       <c r="E26" s="68"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B27" s="69">
         <v>19</v>
       </c>
@@ -13672,8 +13720,9 @@
     <mergeCell ref="B1:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13686,7 +13735,7 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="23"/>
     <col min="2" max="2" width="10.83203125" style="25"/>
@@ -13696,99 +13745,99 @@
     <col min="6" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24"/>
-      <c r="C1" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-    </row>
-    <row r="2" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+    </row>
+    <row r="2" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="24"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-    </row>
-    <row r="3" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+    </row>
+    <row r="3" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="24"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-    </row>
-    <row r="4" spans="2:5" ht="20" x14ac:dyDescent="0.2">
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+    </row>
+    <row r="4" spans="2:5" ht="20" x14ac:dyDescent="0.35">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5" s="52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D5" s="53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="56">
         <v>43923</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6" s="57" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="71" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="55" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C7" s="56">
         <v>43944</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="98" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="55" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C8" s="56">
         <v>43958</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" s="59">
         <v>43973</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E9" s="61" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -13796,8 +13845,9 @@
     <mergeCell ref="C1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13810,344 +13860,345 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.83203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="80" customWidth="1"/>
-    <col min="2" max="16384" width="30.83203125" style="80"/>
+    <col min="1" max="1" width="4.33203125" style="74" customWidth="1"/>
+    <col min="2" max="16384" width="30.83203125" style="74"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="72" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="72" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="72" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="72" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="72" t="s">
+        <v>211</v>
+      </c>
+      <c r="G13" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="I13" s="72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="I15" s="72" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="I17" s="72" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="72" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="72" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="72" t="s">
+      <c r="G19" s="72" t="s">
+        <v>221</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E21" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" s="72" t="s">
+        <v>222</v>
+      </c>
+      <c r="I21" s="72" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E23" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="72" t="s">
-        <v>202</v>
-      </c>
-      <c r="H6" s="72" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="72" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="72" t="s">
+      <c r="H23" s="72" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D25" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="F9" s="72" t="s">
-        <v>262</v>
-      </c>
-      <c r="H9" s="72" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="72" t="s">
-        <v>250</v>
-      </c>
-      <c r="E11" s="72" t="s">
+      <c r="I25" s="72" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E27" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" s="72" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="29" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E29" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" s="72" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D31" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="72" t="s">
-        <v>221</v>
-      </c>
-      <c r="I11" s="72" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="72" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" s="72" t="s">
-        <v>214</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="I13" s="72" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="72" t="s">
-        <v>252</v>
-      </c>
-      <c r="E15" s="72" t="s">
-        <v>248</v>
-      </c>
-      <c r="F15" s="72" t="s">
-        <v>264</v>
-      </c>
-      <c r="I15" s="72" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="72" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="72" t="s">
+      <c r="H31" s="72" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D33" s="72" t="s">
         <v>257</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="I17" s="72" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="72" t="s">
-        <v>254</v>
-      </c>
-      <c r="E19" s="72" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>224</v>
-      </c>
-      <c r="I19" s="72" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="72" t="s">
-        <v>205</v>
-      </c>
-      <c r="G21" s="72" t="s">
-        <v>225</v>
-      </c>
-      <c r="I21" s="72" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="72" t="s">
-        <v>206</v>
-      </c>
-      <c r="H23" s="72" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="72" t="s">
-        <v>258</v>
-      </c>
-      <c r="I25" s="72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="72" t="s">
-        <v>207</v>
-      </c>
-      <c r="I27" s="72" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="72" t="s">
-        <v>208</v>
-      </c>
-      <c r="I29" s="72" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="H31" s="72" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="72" t="s">
-        <v>260</v>
       </c>
       <c r="H33" s="73"/>
       <c r="I33" s="72" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E35" s="72" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G35" s="73"/>
       <c r="I35" s="72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E37" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" s="72" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="I39" s="72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="I41" s="72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="43" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E43" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="H43" s="72" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="I45" s="72" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="I47" s="72" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="36" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="72" t="s">
-        <v>210</v>
-      </c>
-      <c r="I37" s="72" t="s">
+    <row r="48" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="49" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="I49" s="72" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E51" s="72" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="38" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="72" t="s">
-        <v>267</v>
-      </c>
-      <c r="I39" s="72" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="72" t="s">
-        <v>268</v>
-      </c>
-      <c r="I41" s="72" t="s">
+      <c r="H51" s="72" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="53" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E53" s="72" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="42" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="72" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="72" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="72" t="s">
-        <v>270</v>
-      </c>
-      <c r="I45" s="72" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="72" t="s">
-        <v>266</v>
-      </c>
-      <c r="I47" s="72" t="s">
+      <c r="I53" s="72" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="72" t="s">
-        <v>261</v>
-      </c>
-      <c r="I49" s="72" t="s">
+    <row r="54" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E55" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="I55" s="72" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="72" t="s">
+    <row r="56" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E57" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="H51" s="72" t="s">
+      <c r="I57" s="72" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="52" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="72" t="s">
+    <row r="58" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E59" s="72" t="s">
         <v>216</v>
       </c>
-      <c r="I53" s="72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="I55" s="72" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="56" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="I57" s="72" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="58" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="72" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D61" s="72" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="62" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="62" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E63" s="72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="65" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E65" s="72" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="67" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E67" s="72" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="69" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E69" s="72" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="71" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E71" s="72" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14156,10 +14207,10 @@
   <dimension ref="B1:AY24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.83203125" style="23" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="23"/>
@@ -14177,327 +14228,327 @@
     <col min="52" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B1" s="76" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-    </row>
-    <row r="2" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-    </row>
-    <row r="3" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="AM3" s="81"/>
+    <row r="1" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="B1" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+    </row>
+    <row r="2" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="AM3" s="75"/>
       <c r="AN3" s="23" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="4" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="AM4" s="82"/>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="AM4" s="76"/>
       <c r="AN4" s="23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="AM5" s="83"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="AM5" s="77"/>
       <c r="AN5" s="23" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="6" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="77"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AJ7" s="77"/>
-      <c r="AK7" s="77"/>
-      <c r="AL7" s="77"/>
-      <c r="AM7" s="77"/>
-      <c r="AN7" s="77"/>
-      <c r="AO7" s="77"/>
-      <c r="AP7" s="77"/>
-      <c r="AQ7" s="77"/>
-      <c r="AR7" s="77"/>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77"/>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="77"/>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="77"/>
-      <c r="AY7" s="78"/>
-    </row>
-    <row r="8" spans="2:51" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
+      <c r="Q7" s="82"/>
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="82"/>
+      <c r="AF7" s="82"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="82"/>
+      <c r="AJ7" s="82"/>
+      <c r="AK7" s="82"/>
+      <c r="AL7" s="82"/>
+      <c r="AM7" s="82"/>
+      <c r="AN7" s="82"/>
+      <c r="AO7" s="82"/>
+      <c r="AP7" s="82"/>
+      <c r="AQ7" s="82"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="82"/>
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="82"/>
+      <c r="AV7" s="82"/>
+      <c r="AW7" s="82"/>
+      <c r="AX7" s="82"/>
+      <c r="AY7" s="83"/>
+    </row>
+    <row r="8" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B8" s="29"/>
-      <c r="C8" s="79">
+      <c r="C8" s="81">
         <v>11</v>
       </c>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79">
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81">
         <v>12</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79">
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81">
         <v>13</v>
       </c>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79">
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81"/>
+      <c r="U8" s="81"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="81"/>
+      <c r="X8" s="81">
         <v>14</v>
       </c>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79">
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="81"/>
+      <c r="AD8" s="81"/>
+      <c r="AE8" s="81">
         <v>15</v>
       </c>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="79">
+      <c r="AF8" s="81"/>
+      <c r="AG8" s="81"/>
+      <c r="AH8" s="81"/>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="81"/>
+      <c r="AK8" s="81"/>
+      <c r="AL8" s="81">
         <v>16</v>
       </c>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="79"/>
-      <c r="AQ8" s="79"/>
-      <c r="AR8" s="79"/>
-      <c r="AS8" s="79">
+      <c r="AM8" s="81"/>
+      <c r="AN8" s="81"/>
+      <c r="AO8" s="81"/>
+      <c r="AP8" s="81"/>
+      <c r="AQ8" s="81"/>
+      <c r="AR8" s="81"/>
+      <c r="AS8" s="81">
         <v>17</v>
       </c>
-      <c r="AT8" s="79"/>
-      <c r="AU8" s="79"/>
-      <c r="AV8" s="79"/>
-      <c r="AW8" s="79"/>
-      <c r="AX8" s="79"/>
-      <c r="AY8" s="79"/>
-    </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AT8" s="81"/>
+      <c r="AU8" s="81"/>
+      <c r="AV8" s="81"/>
+      <c r="AW8" s="81"/>
+      <c r="AX8" s="81"/>
+      <c r="AY8" s="81"/>
+    </row>
+    <row r="9" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B9" s="29"/>
       <c r="C9" s="45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F9" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="I9" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="J9" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="K9" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="L9" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="J9" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>191</v>
-      </c>
       <c r="M9" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="P9" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="Q9" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="R9" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="S9" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="Q9" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="R9" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="S9" s="46" t="s">
-        <v>191</v>
-      </c>
       <c r="T9" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="U9" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="V9" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="W9" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="U9" s="46" t="s">
+      <c r="X9" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="V9" s="46" t="s">
+      <c r="Y9" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="Z9" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="X9" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y9" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z9" s="50" t="s">
-        <v>191</v>
-      </c>
       <c r="AA9" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB9" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC9" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD9" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="AB9" s="50" t="s">
+      <c r="AE9" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="AC9" s="50" t="s">
+      <c r="AF9" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="AD9" s="51" t="s">
+      <c r="AG9" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="AE9" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF9" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG9" s="50" t="s">
-        <v>191</v>
-      </c>
       <c r="AH9" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI9" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ9" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK9" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="AI9" s="50" t="s">
+      <c r="AL9" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="AJ9" s="50" t="s">
+      <c r="AM9" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="AK9" s="51" t="s">
+      <c r="AN9" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="AL9" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM9" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN9" s="50" t="s">
-        <v>191</v>
-      </c>
       <c r="AO9" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP9" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ9" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR9" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="AP9" s="50" t="s">
+      <c r="AS9" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="AQ9" s="50" t="s">
+      <c r="AT9" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="AR9" s="51" t="s">
+      <c r="AU9" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="AS9" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT9" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="AU9" s="50" t="s">
-        <v>191</v>
-      </c>
       <c r="AV9" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="AW9" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX9" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY9" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="AW9" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="AX9" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY9" s="51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B10" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="28"/>
@@ -14549,9 +14600,9 @@
       <c r="AX10" s="27"/>
       <c r="AY10" s="33"/>
     </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B11" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="32"/>
       <c r="D11" s="28"/>
@@ -14603,63 +14654,63 @@
       <c r="AX11" s="27"/>
       <c r="AY11" s="33"/>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="27"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="26"/>
-      <c r="AG12" s="26"/>
-      <c r="AH12" s="27"/>
-      <c r="AI12" s="27"/>
-      <c r="AJ12" s="27"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="26"/>
-      <c r="AO12" s="26"/>
-      <c r="AP12" s="26"/>
-      <c r="AQ12" s="27"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="26"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="26"/>
-      <c r="AW12" s="26"/>
-      <c r="AX12" s="27"/>
-      <c r="AY12" s="33"/>
-    </row>
-    <row r="13" spans="2:51" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="77"/>
+      <c r="AF12" s="77"/>
+      <c r="AG12" s="77"/>
+      <c r="AH12" s="77"/>
+      <c r="AI12" s="77"/>
+      <c r="AJ12" s="77"/>
+      <c r="AK12" s="77"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="77"/>
+      <c r="AN12" s="77"/>
+      <c r="AO12" s="77"/>
+      <c r="AP12" s="77"/>
+      <c r="AQ12" s="77"/>
+      <c r="AR12" s="77"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="77"/>
+      <c r="AV12" s="77"/>
+      <c r="AW12" s="77"/>
+      <c r="AX12" s="77"/>
+      <c r="AY12" s="77"/>
+    </row>
+    <row r="13" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B13" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="28"/>
@@ -14711,9 +14762,9 @@
       <c r="AX13" s="27"/>
       <c r="AY13" s="33"/>
     </row>
-    <row r="14" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="34"/>
       <c r="D14" s="35"/>
@@ -14765,287 +14816,287 @@
       <c r="AX14" s="37"/>
       <c r="AY14" s="38"/>
     </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B15" s="25"/>
     </row>
-    <row r="16" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="25"/>
     </row>
-    <row r="17" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
-      <c r="X17" s="77"/>
-      <c r="Y17" s="77"/>
-      <c r="Z17" s="77"/>
-      <c r="AA17" s="77"/>
-      <c r="AB17" s="77"/>
-      <c r="AC17" s="77"/>
-      <c r="AD17" s="77"/>
-      <c r="AE17" s="77"/>
-      <c r="AF17" s="77"/>
-      <c r="AG17" s="77"/>
-      <c r="AH17" s="77"/>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="77"/>
-      <c r="AK17" s="77"/>
-      <c r="AL17" s="77"/>
-      <c r="AM17" s="77"/>
-      <c r="AN17" s="77"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="77"/>
-      <c r="AT17" s="77"/>
-      <c r="AU17" s="77"/>
-      <c r="AV17" s="77"/>
-      <c r="AW17" s="77"/>
-      <c r="AX17" s="77"/>
-      <c r="AY17" s="78"/>
-    </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="82"/>
+      <c r="W17" s="82"/>
+      <c r="X17" s="82"/>
+      <c r="Y17" s="82"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="82"/>
+      <c r="AB17" s="82"/>
+      <c r="AC17" s="82"/>
+      <c r="AD17" s="82"/>
+      <c r="AE17" s="82"/>
+      <c r="AF17" s="82"/>
+      <c r="AG17" s="82"/>
+      <c r="AH17" s="82"/>
+      <c r="AI17" s="82"/>
+      <c r="AJ17" s="82"/>
+      <c r="AK17" s="82"/>
+      <c r="AL17" s="82"/>
+      <c r="AM17" s="82"/>
+      <c r="AN17" s="82"/>
+      <c r="AO17" s="82"/>
+      <c r="AP17" s="82"/>
+      <c r="AQ17" s="82"/>
+      <c r="AR17" s="82"/>
+      <c r="AS17" s="82"/>
+      <c r="AT17" s="82"/>
+      <c r="AU17" s="82"/>
+      <c r="AV17" s="82"/>
+      <c r="AW17" s="82"/>
+      <c r="AX17" s="82"/>
+      <c r="AY17" s="83"/>
+    </row>
+    <row r="18" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B18" s="29"/>
-      <c r="C18" s="79">
+      <c r="C18" s="81">
         <v>17</v>
       </c>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79">
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81">
         <v>18</v>
       </c>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79">
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81">
         <v>19</v>
       </c>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79">
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81">
         <v>20</v>
       </c>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="79"/>
-      <c r="AE18" s="79">
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
+      <c r="AB18" s="81"/>
+      <c r="AC18" s="81"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="81">
         <v>21</v>
       </c>
-      <c r="AF18" s="79"/>
-      <c r="AG18" s="79"/>
-      <c r="AH18" s="79"/>
-      <c r="AI18" s="79"/>
-      <c r="AJ18" s="79"/>
-      <c r="AK18" s="79"/>
-      <c r="AL18" s="79">
+      <c r="AF18" s="81"/>
+      <c r="AG18" s="81"/>
+      <c r="AH18" s="81"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="81"/>
+      <c r="AK18" s="81"/>
+      <c r="AL18" s="81">
         <v>22</v>
       </c>
-      <c r="AM18" s="79"/>
-      <c r="AN18" s="79"/>
-      <c r="AO18" s="79"/>
-      <c r="AP18" s="79"/>
-      <c r="AQ18" s="79"/>
-      <c r="AR18" s="79"/>
-      <c r="AS18" s="79">
+      <c r="AM18" s="81"/>
+      <c r="AN18" s="81"/>
+      <c r="AO18" s="81"/>
+      <c r="AP18" s="81"/>
+      <c r="AQ18" s="81"/>
+      <c r="AR18" s="81"/>
+      <c r="AS18" s="81">
         <v>23</v>
       </c>
-      <c r="AT18" s="79"/>
-      <c r="AU18" s="79"/>
-      <c r="AV18" s="79"/>
-      <c r="AW18" s="79"/>
-      <c r="AX18" s="79"/>
-      <c r="AY18" s="79"/>
-    </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="AT18" s="81"/>
+      <c r="AU18" s="81"/>
+      <c r="AV18" s="81"/>
+      <c r="AW18" s="81"/>
+      <c r="AX18" s="81"/>
+      <c r="AY18" s="81"/>
+    </row>
+    <row r="19" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B19" s="29"/>
       <c r="C19" s="45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F19" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="H19" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="I19" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="J19" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="K19" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="L19" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="J19" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="L19" s="46" t="s">
-        <v>191</v>
-      </c>
       <c r="M19" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="N19" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="P19" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="N19" s="46" t="s">
+      <c r="Q19" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="O19" s="46" t="s">
+      <c r="R19" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="P19" s="47" t="s">
+      <c r="S19" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="Q19" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="R19" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="S19" s="46" t="s">
-        <v>191</v>
-      </c>
       <c r="T19" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="U19" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="V19" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="W19" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="U19" s="46" t="s">
+      <c r="X19" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="V19" s="46" t="s">
+      <c r="Y19" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="W19" s="47" t="s">
+      <c r="Z19" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="X19" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="Y19" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="Z19" s="50" t="s">
-        <v>191</v>
-      </c>
       <c r="AA19" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB19" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AC19" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AD19" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="AB19" s="50" t="s">
+      <c r="AE19" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="AC19" s="50" t="s">
+      <c r="AF19" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="AD19" s="51" t="s">
+      <c r="AG19" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="AE19" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF19" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG19" s="50" t="s">
-        <v>191</v>
-      </c>
       <c r="AH19" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI19" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ19" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK19" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="AI19" s="50" t="s">
+      <c r="AL19" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="AJ19" s="50" t="s">
+      <c r="AM19" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="AK19" s="51" t="s">
+      <c r="AN19" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="AL19" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="AM19" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN19" s="50" t="s">
-        <v>191</v>
-      </c>
       <c r="AO19" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP19" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AQ19" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AR19" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="AP19" s="50" t="s">
+      <c r="AS19" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="AQ19" s="50" t="s">
+      <c r="AT19" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="AR19" s="51" t="s">
+      <c r="AU19" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="AS19" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT19" s="50" t="s">
-        <v>190</v>
-      </c>
-      <c r="AU19" s="50" t="s">
-        <v>191</v>
-      </c>
       <c r="AV19" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="AW19" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="AX19" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY19" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="AW19" s="50" t="s">
-        <v>186</v>
-      </c>
-      <c r="AX19" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY19" s="51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="2:51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B20" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="26"/>
@@ -15097,9 +15148,9 @@
       <c r="AX20" s="27"/>
       <c r="AY20" s="33"/>
     </row>
-    <row r="21" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B21" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="26"/>
@@ -15151,63 +15202,63 @@
       <c r="AX21" s="27"/>
       <c r="AY21" s="33"/>
     </row>
-    <row r="22" spans="2:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B22" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26"/>
-      <c r="AH22" s="27"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="27"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="26"/>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26"/>
-      <c r="AQ22" s="27"/>
-      <c r="AR22" s="33"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="27"/>
-      <c r="AY22" s="33"/>
-    </row>
-    <row r="23" spans="2:51" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="77"/>
+      <c r="AE22" s="77"/>
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="77"/>
+      <c r="AI22" s="77"/>
+      <c r="AJ22" s="77"/>
+      <c r="AK22" s="77"/>
+      <c r="AL22" s="77"/>
+      <c r="AM22" s="77"/>
+      <c r="AN22" s="77"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="77"/>
+      <c r="AT22" s="77"/>
+      <c r="AU22" s="77"/>
+      <c r="AV22" s="77"/>
+      <c r="AW22" s="77"/>
+      <c r="AX22" s="77"/>
+      <c r="AY22" s="77"/>
+    </row>
+    <row r="23" spans="2:51" x14ac:dyDescent="0.35">
       <c r="B23" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="26"/>
@@ -15259,9 +15310,9 @@
       <c r="AX23" s="27"/>
       <c r="AY23" s="33"/>
     </row>
-    <row r="24" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="41"/>
       <c r="D24" s="36"/>
@@ -15315,13 +15366,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AS18:AY18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AK18"/>
-    <mergeCell ref="AL18:AR18"/>
     <mergeCell ref="B1:H3"/>
     <mergeCell ref="C17:AY17"/>
     <mergeCell ref="C7:AY7"/>
@@ -15332,8 +15376,16 @@
     <mergeCell ref="AE8:AK8"/>
     <mergeCell ref="AL8:AR8"/>
     <mergeCell ref="AS8:AY8"/>
+    <mergeCell ref="AS18:AY18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AK18"/>
+    <mergeCell ref="AL18:AR18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15341,11 +15393,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDA24D6-9A8A-D24D-8AC4-FE20A3CDFEAA}">
   <dimension ref="K4:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="1.1640625" customWidth="1"/>
     <col min="8" max="8" width="1.33203125" customWidth="1"/>
@@ -15353,12 +15405,12 @@
     <col min="10" max="10" width="1.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="11:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="11:25" x14ac:dyDescent="0.35">
       <c r="M4" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="5" spans="11:25" x14ac:dyDescent="0.2">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="5" spans="11:25" x14ac:dyDescent="0.35">
       <c r="M5">
         <v>11</v>
       </c>
@@ -15399,33 +15451,34 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="11:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="11:25" x14ac:dyDescent="0.35">
       <c r="K6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="11:25" x14ac:dyDescent="0.2">
-      <c r="K7" t="s">
+    <row r="8" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="11:25" x14ac:dyDescent="0.2">
-      <c r="K8" t="s">
+    <row r="9" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="11:25" x14ac:dyDescent="0.35">
+      <c r="K10" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="11:25" x14ac:dyDescent="0.2">
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="11:25" x14ac:dyDescent="0.2">
-      <c r="K10" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
+++ b/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gotz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils Becker\Desktop\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30EEF19-CEC1-464F-A7B3-3138D2D454C6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722F54C3-C017-470A-944F-801838BA0BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="4" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -1900,44 +1900,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2406,6 +2382,30 @@
           <color auto="1"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -6304,8 +6304,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6051061" y="9153768"/>
-          <a:ext cx="2655280" cy="584983"/>
+          <a:off x="6036547" y="9153768"/>
+          <a:ext cx="2644394" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6432,8 +6432,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6031524" y="14020800"/>
-          <a:ext cx="2655280" cy="584983"/>
+          <a:off x="6017010" y="14020800"/>
+          <a:ext cx="2644394" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6560,8 +6560,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6002215" y="17678400"/>
-          <a:ext cx="2655280" cy="584983"/>
+          <a:off x="5987701" y="17678400"/>
+          <a:ext cx="2644394" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6688,8 +6688,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6021754" y="22555200"/>
-          <a:ext cx="2655280" cy="584983"/>
+          <a:off x="6007240" y="22555200"/>
+          <a:ext cx="2644394" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -6882,8 +6882,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5982677" y="28647292"/>
-          <a:ext cx="2655280" cy="588891"/>
+          <a:off x="5968163" y="28647292"/>
+          <a:ext cx="2644394" cy="588891"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7010,8 +7010,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6002216" y="35976170"/>
-          <a:ext cx="2655280" cy="584983"/>
+          <a:off x="5987702" y="35976170"/>
+          <a:ext cx="2644394" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7204,8 +7204,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10677769" y="7934570"/>
-          <a:ext cx="2655280" cy="584983"/>
+          <a:off x="10641483" y="7934570"/>
+          <a:ext cx="2644394" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7332,8 +7332,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15411938" y="12811370"/>
-          <a:ext cx="2655281" cy="584983"/>
+          <a:off x="15353880" y="12811370"/>
+          <a:ext cx="2644397" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7460,8 +7460,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15421707" y="17688169"/>
-          <a:ext cx="2655281" cy="584983"/>
+          <a:off x="15363649" y="17688169"/>
+          <a:ext cx="2644397" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7588,8 +7588,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15411938" y="24993600"/>
-          <a:ext cx="2655281" cy="584983"/>
+          <a:off x="15353880" y="24993600"/>
+          <a:ext cx="2644397" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7716,8 +7716,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15441246" y="29880169"/>
-          <a:ext cx="2655281" cy="584983"/>
+          <a:off x="15383188" y="29880169"/>
+          <a:ext cx="2644397" cy="584983"/>
           <a:chOff x="6037384" y="9095153"/>
           <a:chExt cx="2647465" cy="584983"/>
         </a:xfrm>
@@ -7844,8 +7844,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="469900" y="1765300"/>
-          <a:ext cx="16459200" cy="1295400"/>
+          <a:off x="477158" y="1765300"/>
+          <a:ext cx="16383000" cy="1295400"/>
           <a:chOff x="469900" y="1765300"/>
           <a:chExt cx="16370300" cy="1295400"/>
         </a:xfrm>
@@ -9488,40 +9488,40 @@
     <tableColumn id="11" xr3:uid="{3D8E58E6-3EE7-0A46-A8E2-806C6F4F1AF7}" name="Status" dataDxfId="21"/>
     <tableColumn id="12" xr3:uid="{CC06DC0F-C0FB-D34C-BE80-C7ECB04B5663}" name="Spalte2" dataDxfId="20"/>
     <tableColumn id="13" xr3:uid="{A477A699-A71F-334A-B5A7-62B074EAE70F}" name="Spalte3" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{5CC08B67-559B-1A41-BD21-D2517B184A93}" name="Dokumente" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{5CC08B67-559B-1A41-BD21-D2517B184A93}" name="Dokumente" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42DD71D9-189E-E546-A545-D7FF9EB2CC2F}" name="Tabelle3" displayName="Tabelle3" ref="B6:E27" totalsRowShown="0" headerRowDxfId="18" dataDxfId="16" headerRowBorderDxfId="17" tableBorderDxfId="15" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42DD71D9-189E-E546-A545-D7FF9EB2CC2F}" name="Tabelle3" displayName="Tabelle3" ref="B6:E27" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="B6:E27" xr:uid="{7F489A80-9A3A-0C45-B2C8-702A6880DB2C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5E8A3C14-C169-5D43-ACA4-13275C654EA7}" name="Arbeitspaket Nr. " dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{1F779AF2-0BD1-1F47-B5D4-B00A67C22C6D}" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{198A5293-5881-414C-8ED2-AAF8AFA72B57}" name="Beschreibung" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{2E2FCC62-ED75-E548-83D9-9C68732D1839}" name="Zeitumfang [in h]" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{5E8A3C14-C169-5D43-ACA4-13275C654EA7}" name="Arbeitspaket Nr. " dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1F779AF2-0BD1-1F47-B5D4-B00A67C22C6D}" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{198A5293-5881-414C-8ED2-AAF8AFA72B57}" name="Beschreibung" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{2E2FCC62-ED75-E548-83D9-9C68732D1839}" name="Zeitumfang [in h]" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CDB463C-5A80-434B-B618-CDD133BFB09B}" name="Tabelle2" displayName="Tabelle2" ref="B5:E9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CDB463C-5A80-434B-B618-CDD133BFB09B}" name="Tabelle2" displayName="Tabelle2" ref="B5:E9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="B5:E9" xr:uid="{47CCC85B-3FDE-0044-BB7B-C7473962CE06}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{387E64BD-18A5-064A-A78C-9A47C6B9027C}" name="Kürzel" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{AC85B4AB-70A4-7440-A4B2-896B9EB1D780}" name="Wann?" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5EF2DE9E-43B9-D64B-8A60-8FB51717CC17}" name="Was?" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{395417A9-73AD-C84D-BD83-A155DCD95A27}" name="Beschreibung" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{387E64BD-18A5-064A-A78C-9A47C6B9027C}" name="Kürzel" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{AC85B4AB-70A4-7440-A4B2-896B9EB1D780}" name="Wann?" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{5EF2DE9E-43B9-D64B-8A60-8FB51717CC17}" name="Was?" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{395417A9-73AD-C84D-BD83-A155DCD95A27}" name="Beschreibung" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9819,23 +9819,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B665E9DA-39F6-D247-ABB9-2DB3926674E9}">
   <dimension ref="A1:AH145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="66.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="17.35546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="10.85546875" style="2"/>
     <col min="10" max="10" width="16" style="5" customWidth="1"/>
-    <col min="11" max="13" width="3.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.1640625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="2"/>
+    <col min="11" max="13" width="3.35546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -9858,11 +9858,11 @@
       <c r="C3" s="79"/>
       <c r="D3" s="79"/>
     </row>
-    <row r="4" spans="1:14" ht="20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="20.149999999999999" x14ac:dyDescent="0.5">
       <c r="C4" s="2"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="16.3" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>46</v>
       </c>
@@ -13415,48 +13415,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AFD6F-0D1B-F346-A025-C4EDD3D59A1D}">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="8"/>
-    <col min="2" max="2" width="19.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="8"/>
+    <col min="2" max="2" width="19.640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="31.35546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="61" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="8"/>
+    <col min="5" max="5" width="21.85546875" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B1" s="80" t="s">
         <v>47</v>
       </c>
       <c r="C1" s="80"/>
       <c r="D1" s="80"/>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
     </row>
-    <row r="4" spans="2:7" ht="20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="20.149999999999999" x14ac:dyDescent="0.45">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="20.149999999999999" x14ac:dyDescent="0.45">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B6" s="62" t="s">
         <v>48</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="75" x14ac:dyDescent="0.45">
       <c r="B7" s="65">
         <v>0</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="105" x14ac:dyDescent="0.45">
       <c r="B8" s="65">
         <v>1</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="45" x14ac:dyDescent="0.45">
       <c r="B9" s="65">
         <v>2</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="93" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="90" x14ac:dyDescent="0.45">
       <c r="B10" s="65">
         <v>3</v>
       </c>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="E10" s="68"/>
     </row>
-    <row r="11" spans="2:7" ht="62" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="60" x14ac:dyDescent="0.45">
       <c r="B11" s="65">
         <v>4</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="62" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" ht="60" x14ac:dyDescent="0.45">
       <c r="B12" s="65">
         <v>5</v>
       </c>
@@ -13551,7 +13551,7 @@
       </c>
       <c r="E12" s="68"/>
     </row>
-    <row r="13" spans="2:7" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" ht="75" x14ac:dyDescent="0.45">
       <c r="B13" s="65">
         <v>6</v>
       </c>
@@ -13563,7 +13563,7 @@
       </c>
       <c r="E13" s="68"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B14" s="65">
         <v>7</v>
       </c>
@@ -13575,7 +13575,7 @@
       </c>
       <c r="E14" s="68"/>
     </row>
-    <row r="15" spans="2:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.45">
       <c r="B15" s="65">
         <v>8</v>
       </c>
@@ -13587,7 +13587,7 @@
       </c>
       <c r="E15" s="68"/>
     </row>
-    <row r="16" spans="2:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.45">
       <c r="B16" s="65">
         <v>9</v>
       </c>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="E16" s="68"/>
     </row>
-    <row r="17" spans="2:5" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" ht="105" x14ac:dyDescent="0.45">
       <c r="B17" s="65">
         <v>10</v>
       </c>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="E17" s="68"/>
     </row>
-    <row r="18" spans="2:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.45">
       <c r="B18" s="65">
         <v>11</v>
       </c>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="E18" s="68"/>
     </row>
-    <row r="19" spans="2:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.45">
       <c r="B19" s="65">
         <v>12</v>
       </c>
@@ -13635,7 +13635,7 @@
       </c>
       <c r="E19" s="68"/>
     </row>
-    <row r="20" spans="2:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="60" x14ac:dyDescent="0.45">
       <c r="B20" s="65">
         <v>13</v>
       </c>
@@ -13647,7 +13647,7 @@
       </c>
       <c r="E20" s="68"/>
     </row>
-    <row r="21" spans="2:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.45">
       <c r="B21" s="65">
         <v>14</v>
       </c>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="E21" s="68"/>
     </row>
-    <row r="22" spans="2:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.45">
       <c r="B22" s="65">
         <v>15</v>
       </c>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="E22" s="68"/>
     </row>
-    <row r="23" spans="2:5" ht="62" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" ht="60" x14ac:dyDescent="0.45">
       <c r="B23" s="65">
         <v>16</v>
       </c>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="E23" s="68"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="65">
         <v>16</v>
       </c>
@@ -13691,7 +13691,7 @@
       <c r="D24" s="66"/>
       <c r="E24" s="68"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="65">
         <v>17</v>
       </c>
@@ -13699,7 +13699,7 @@
       <c r="D25" s="66"/>
       <c r="E25" s="68"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="65">
         <v>18</v>
       </c>
@@ -13707,7 +13707,7 @@
       <c r="D26" s="66"/>
       <c r="E26" s="68"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="69">
         <v>19</v>
       </c>
@@ -13731,21 +13731,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0BDA92-640B-BC49-960A-223EB672CB17}">
   <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15.45" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="23"/>
-    <col min="2" max="2" width="10.83203125" style="25"/>
-    <col min="3" max="3" width="24.83203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="23"/>
+    <col min="2" max="2" width="10.85546875" style="25"/>
+    <col min="3" max="3" width="24.85546875" style="23" customWidth="1"/>
     <col min="4" max="4" width="17" style="23" customWidth="1"/>
-    <col min="5" max="5" width="91.6640625" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="23"/>
+    <col min="5" max="5" width="91.640625" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="10.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="24"/>
       <c r="C1" s="80" t="s">
         <v>143</v>
@@ -13753,24 +13753,24 @@
       <c r="D1" s="80"/>
       <c r="E1" s="80"/>
     </row>
-    <row r="2" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
     </row>
-    <row r="3" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="24"/>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
       <c r="E3" s="80"/>
     </row>
-    <row r="4" spans="2:5" ht="20" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="20.149999999999999" x14ac:dyDescent="0.45">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="52" t="s">
         <v>144</v>
       </c>
@@ -13784,7 +13784,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="55" t="s">
         <v>138</v>
       </c>
@@ -13798,7 +13798,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="71" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" ht="71.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="55" t="s">
         <v>176</v>
       </c>
@@ -13812,7 +13812,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="98" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" ht="98.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="55" t="s">
         <v>177</v>
       </c>
@@ -13826,7 +13826,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:5" ht="99" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="58" t="s">
         <v>178</v>
       </c>
@@ -13856,24 +13856,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A2138E-F872-8E4F-9A11-024E0A082E3F}">
   <dimension ref="B2:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.83203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.85546875" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="74" customWidth="1"/>
-    <col min="2" max="16384" width="30.83203125" style="74"/>
+    <col min="1" max="1" width="4.35546875" style="74" customWidth="1"/>
+    <col min="2" max="16384" width="30.85546875" style="74"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E3" s="72" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="6" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="72" t="s">
         <v>197</v>
       </c>
@@ -13887,8 +13887,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="72" t="s">
         <v>246</v>
       </c>
@@ -13902,8 +13902,8 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="11" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="72" t="s">
         <v>247</v>
       </c>
@@ -13917,8 +13917,8 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="13" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="72" t="s">
         <v>248</v>
       </c>
@@ -13932,8 +13932,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="72" t="s">
         <v>249</v>
       </c>
@@ -13947,8 +13947,8 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="17" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="72" t="s">
         <v>250</v>
       </c>
@@ -13962,8 +13962,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="19" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="72" t="s">
         <v>251</v>
       </c>
@@ -13977,8 +13977,8 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="21" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E21" s="72" t="s">
         <v>202</v>
       </c>
@@ -13989,8 +13989,8 @@
         <v>231</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="23" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E23" s="72" t="s">
         <v>203</v>
       </c>
@@ -13998,8 +13998,8 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="25" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D25" s="72" t="s">
         <v>255</v>
       </c>
@@ -14007,8 +14007,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="27" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E27" s="72" t="s">
         <v>204</v>
       </c>
@@ -14016,8 +14016,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="29" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="29" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E29" s="72" t="s">
         <v>205</v>
       </c>
@@ -14025,8 +14025,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="31" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D31" s="72" t="s">
         <v>256</v>
       </c>
@@ -14034,8 +14034,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="33" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="33" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D33" s="72" t="s">
         <v>257</v>
       </c>
@@ -14044,8 +14044,8 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="35" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="35" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="72" t="s">
         <v>206</v>
       </c>
@@ -14054,8 +14054,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="37" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="37" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="72" t="s">
         <v>207</v>
       </c>
@@ -14063,8 +14063,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="39" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D39" s="72" t="s">
         <v>264</v>
       </c>
@@ -14072,8 +14072,8 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="41" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E41" s="72" t="s">
         <v>265</v>
       </c>
@@ -14081,8 +14081,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="43" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="43" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E43" s="72" t="s">
         <v>266</v>
       </c>
@@ -14090,8 +14090,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="44" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="45" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="45" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E45" s="72" t="s">
         <v>267</v>
       </c>
@@ -14099,8 +14099,8 @@
         <v>238</v>
       </c>
     </row>
-    <row r="46" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="47" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="47" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E47" s="72" t="s">
         <v>263</v>
       </c>
@@ -14108,8 +14108,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="48" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="49" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="49" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D49" s="72" t="s">
         <v>258</v>
       </c>
@@ -14117,8 +14117,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="51" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="51" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E51" s="72" t="s">
         <v>212</v>
       </c>
@@ -14126,8 +14126,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="52" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="53" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="53" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E53" s="72" t="s">
         <v>213</v>
       </c>
@@ -14135,8 +14135,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="55" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E55" s="72" t="s">
         <v>214</v>
       </c>
@@ -14144,8 +14144,8 @@
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="57" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="57" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="72" t="s">
         <v>215</v>
       </c>
@@ -14153,44 +14153,44 @@
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="59" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E59" s="72" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="61" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D61" s="72" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="62" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="63" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E63" s="72" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="64" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="65" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="65" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E65" s="72" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="67" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="67" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E67" s="72" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="68" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="69" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="69" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E69" s="72" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="70" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="71" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="71" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E71" s="72" t="s">
         <v>225</v>
       </c>
@@ -14206,29 +14206,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE9744-0809-4941-A5CB-16561D601F32}">
   <dimension ref="B1:AY24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="23"/>
-    <col min="3" max="3" width="3.33203125" style="23" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="23"/>
+    <col min="3" max="3" width="3.35546875" style="23" customWidth="1"/>
     <col min="4" max="4" width="3.5" style="23" customWidth="1"/>
-    <col min="5" max="20" width="3.33203125" style="23" customWidth="1"/>
-    <col min="21" max="21" width="3.1640625" style="23" customWidth="1"/>
-    <col min="22" max="28" width="3.33203125" style="23" customWidth="1"/>
-    <col min="29" max="29" width="3.1640625" style="23" customWidth="1"/>
-    <col min="30" max="31" width="3.33203125" style="23" customWidth="1"/>
+    <col min="5" max="20" width="3.35546875" style="23" customWidth="1"/>
+    <col min="21" max="21" width="3.140625" style="23" customWidth="1"/>
+    <col min="22" max="28" width="3.35546875" style="23" customWidth="1"/>
+    <col min="29" max="29" width="3.140625" style="23" customWidth="1"/>
+    <col min="30" max="31" width="3.35546875" style="23" customWidth="1"/>
     <col min="32" max="33" width="3.5" style="23" customWidth="1"/>
-    <col min="34" max="35" width="3.33203125" style="23" customWidth="1"/>
+    <col min="34" max="35" width="3.35546875" style="23" customWidth="1"/>
     <col min="36" max="36" width="3.5" style="23" customWidth="1"/>
-    <col min="37" max="51" width="3.33203125" style="23" customWidth="1"/>
-    <col min="52" max="16384" width="10.83203125" style="23"/>
+    <col min="37" max="51" width="3.35546875" style="23" customWidth="1"/>
+    <col min="52" max="16384" width="10.85546875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B1" s="80" t="s">
         <v>180</v>
       </c>
@@ -14239,7 +14239,7 @@
       <c r="G1" s="80"/>
       <c r="H1" s="80"/>
     </row>
-    <row r="2" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
@@ -14248,7 +14248,7 @@
       <c r="G2" s="80"/>
       <c r="H2" s="80"/>
     </row>
-    <row r="3" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:51" x14ac:dyDescent="0.45">
       <c r="B3" s="80"/>
       <c r="C3" s="80"/>
       <c r="D3" s="80"/>
@@ -14261,142 +14261,142 @@
         <v>268</v>
       </c>
     </row>
-    <row r="4" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:51" x14ac:dyDescent="0.45">
       <c r="AM4" s="76"/>
       <c r="AN4" s="23" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="5" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:51" x14ac:dyDescent="0.45">
       <c r="AM5" s="77"/>
       <c r="AN5" s="23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:51" ht="15.45" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="7" spans="2:51" ht="15.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82"/>
-      <c r="AK7" s="82"/>
-      <c r="AL7" s="82"/>
-      <c r="AM7" s="82"/>
-      <c r="AN7" s="82"/>
-      <c r="AO7" s="82"/>
-      <c r="AP7" s="82"/>
-      <c r="AQ7" s="82"/>
-      <c r="AR7" s="82"/>
-      <c r="AS7" s="82"/>
-      <c r="AT7" s="82"/>
-      <c r="AU7" s="82"/>
-      <c r="AV7" s="82"/>
-      <c r="AW7" s="82"/>
-      <c r="AX7" s="82"/>
-      <c r="AY7" s="83"/>
-    </row>
-    <row r="8" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="81"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="81"/>
+      <c r="AU7" s="81"/>
+      <c r="AV7" s="81"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="82"/>
+    </row>
+    <row r="8" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B8" s="29"/>
-      <c r="C8" s="81">
+      <c r="C8" s="83">
         <v>11</v>
       </c>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81">
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83">
         <v>12</v>
       </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81">
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83">
         <v>13</v>
       </c>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81">
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83">
         <v>14</v>
       </c>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81">
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83">
         <v>15</v>
       </c>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="81"/>
-      <c r="AJ8" s="81"/>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="81">
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83">
         <v>16</v>
       </c>
-      <c r="AM8" s="81"/>
-      <c r="AN8" s="81"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="81"/>
-      <c r="AQ8" s="81"/>
-      <c r="AR8" s="81"/>
-      <c r="AS8" s="81">
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="83">
         <v>17</v>
       </c>
-      <c r="AT8" s="81"/>
-      <c r="AU8" s="81"/>
-      <c r="AV8" s="81"/>
-      <c r="AW8" s="81"/>
-      <c r="AX8" s="81"/>
-      <c r="AY8" s="81"/>
-    </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="AT8" s="83"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+    </row>
+    <row r="9" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B9" s="29"/>
       <c r="C9" s="45" t="s">
         <v>186</v>
@@ -14546,61 +14546,61 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B10" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="43"/>
-      <c r="AM10" s="26"/>
-      <c r="AN10" s="26"/>
-      <c r="AO10" s="26"/>
-      <c r="AP10" s="26"/>
-      <c r="AQ10" s="27"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="26"/>
-      <c r="AU10" s="26"/>
-      <c r="AV10" s="26"/>
-      <c r="AW10" s="26"/>
-      <c r="AX10" s="27"/>
-      <c r="AY10" s="33"/>
-    </row>
-    <row r="11" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="77"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
+      <c r="AJ10" s="77"/>
+      <c r="AK10" s="77"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="77"/>
+      <c r="AN10" s="77"/>
+      <c r="AO10" s="77"/>
+      <c r="AP10" s="77"/>
+      <c r="AQ10" s="77"/>
+      <c r="AR10" s="77"/>
+      <c r="AS10" s="77"/>
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="77"/>
+      <c r="AV10" s="77"/>
+      <c r="AW10" s="77"/>
+      <c r="AX10" s="77"/>
+      <c r="AY10" s="77"/>
+    </row>
+    <row r="11" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
         <v>62</v>
       </c>
@@ -14654,7 +14654,7 @@
       <c r="AX11" s="27"/>
       <c r="AY11" s="33"/>
     </row>
-    <row r="12" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B12" s="29" t="s">
         <v>63</v>
       </c>
@@ -14708,7 +14708,7 @@
       <c r="AX12" s="77"/>
       <c r="AY12" s="77"/>
     </row>
-    <row r="13" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
         <v>65</v>
       </c>
@@ -14762,7 +14762,7 @@
       <c r="AX13" s="27"/>
       <c r="AY13" s="33"/>
     </row>
-    <row r="14" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:51" ht="15.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="30" t="s">
         <v>64</v>
       </c>
@@ -14816,135 +14816,135 @@
       <c r="AX14" s="37"/>
       <c r="AY14" s="38"/>
     </row>
-    <row r="15" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B15" s="25"/>
     </row>
-    <row r="16" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:51" ht="15.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="25"/>
     </row>
-    <row r="17" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:51" ht="15.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-      <c r="X17" s="82"/>
-      <c r="Y17" s="82"/>
-      <c r="Z17" s="82"/>
-      <c r="AA17" s="82"/>
-      <c r="AB17" s="82"/>
-      <c r="AC17" s="82"/>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="82"/>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="82"/>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="82"/>
-      <c r="AJ17" s="82"/>
-      <c r="AK17" s="82"/>
-      <c r="AL17" s="82"/>
-      <c r="AM17" s="82"/>
-      <c r="AN17" s="82"/>
-      <c r="AO17" s="82"/>
-      <c r="AP17" s="82"/>
-      <c r="AQ17" s="82"/>
-      <c r="AR17" s="82"/>
-      <c r="AS17" s="82"/>
-      <c r="AT17" s="82"/>
-      <c r="AU17" s="82"/>
-      <c r="AV17" s="82"/>
-      <c r="AW17" s="82"/>
-      <c r="AX17" s="82"/>
-      <c r="AY17" s="83"/>
-    </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
+      <c r="AK17" s="81"/>
+      <c r="AL17" s="81"/>
+      <c r="AM17" s="81"/>
+      <c r="AN17" s="81"/>
+      <c r="AO17" s="81"/>
+      <c r="AP17" s="81"/>
+      <c r="AQ17" s="81"/>
+      <c r="AR17" s="81"/>
+      <c r="AS17" s="81"/>
+      <c r="AT17" s="81"/>
+      <c r="AU17" s="81"/>
+      <c r="AV17" s="81"/>
+      <c r="AW17" s="81"/>
+      <c r="AX17" s="81"/>
+      <c r="AY17" s="82"/>
+    </row>
+    <row r="18" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B18" s="29"/>
-      <c r="C18" s="81">
+      <c r="C18" s="83">
         <v>17</v>
       </c>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81">
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83">
         <v>18</v>
       </c>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81">
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83">
         <v>19</v>
       </c>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81">
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83">
         <v>20</v>
       </c>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
-      <c r="AB18" s="81"/>
-      <c r="AC18" s="81"/>
-      <c r="AD18" s="81"/>
-      <c r="AE18" s="81">
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83">
         <v>21</v>
       </c>
-      <c r="AF18" s="81"/>
-      <c r="AG18" s="81"/>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="81"/>
-      <c r="AK18" s="81"/>
-      <c r="AL18" s="81">
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83">
         <v>22</v>
       </c>
-      <c r="AM18" s="81"/>
-      <c r="AN18" s="81"/>
-      <c r="AO18" s="81"/>
-      <c r="AP18" s="81"/>
-      <c r="AQ18" s="81"/>
-      <c r="AR18" s="81"/>
-      <c r="AS18" s="81">
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="83"/>
+      <c r="AO18" s="83"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="83">
         <v>23</v>
       </c>
-      <c r="AT18" s="81"/>
-      <c r="AU18" s="81"/>
-      <c r="AV18" s="81"/>
-      <c r="AW18" s="81"/>
-      <c r="AX18" s="81"/>
-      <c r="AY18" s="81"/>
-    </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="83"/>
+    </row>
+    <row r="19" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B19" s="29"/>
       <c r="C19" s="45" t="s">
         <v>186</v>
@@ -15094,61 +15094,61 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="27"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="27"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="27"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="27"/>
-      <c r="AR20" s="33"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="27"/>
-      <c r="AY20" s="33"/>
-    </row>
-    <row r="21" spans="2:51" x14ac:dyDescent="0.35">
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="77"/>
+      <c r="AG20" s="77"/>
+      <c r="AH20" s="77"/>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="77"/>
+      <c r="AK20" s="77"/>
+      <c r="AL20" s="77"/>
+      <c r="AM20" s="77"/>
+      <c r="AN20" s="77"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="77"/>
+      <c r="AT20" s="77"/>
+      <c r="AU20" s="77"/>
+      <c r="AV20" s="77"/>
+      <c r="AW20" s="77"/>
+      <c r="AX20" s="77"/>
+      <c r="AY20" s="77"/>
+    </row>
+    <row r="21" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B21" s="29" t="s">
         <v>62</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="AX21" s="27"/>
       <c r="AY21" s="33"/>
     </row>
-    <row r="22" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B22" s="29" t="s">
         <v>63</v>
       </c>
@@ -15256,7 +15256,7 @@
       <c r="AX22" s="77"/>
       <c r="AY22" s="77"/>
     </row>
-    <row r="23" spans="2:51" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B23" s="29" t="s">
         <v>65</v>
       </c>
@@ -15310,7 +15310,7 @@
       <c r="AX23" s="27"/>
       <c r="AY23" s="33"/>
     </row>
-    <row r="24" spans="2:51" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:51" ht="15.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="30" t="s">
         <v>64</v>
       </c>
@@ -15366,6 +15366,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AS18:AY18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AK18"/>
+    <mergeCell ref="AL18:AR18"/>
     <mergeCell ref="B1:H3"/>
     <mergeCell ref="C17:AY17"/>
     <mergeCell ref="C7:AY7"/>
@@ -15376,13 +15383,6 @@
     <mergeCell ref="AE8:AK8"/>
     <mergeCell ref="AL8:AR8"/>
     <mergeCell ref="AS8:AY8"/>
-    <mergeCell ref="AS18:AY18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AK18"/>
-    <mergeCell ref="AL18:AR18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15393,24 +15393,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDA24D6-9A8A-D24D-8AC4-FE20A3CDFEAA}">
   <dimension ref="K4:Y10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.640625" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="1.1640625" customWidth="1"/>
-    <col min="8" max="8" width="1.33203125" customWidth="1"/>
-    <col min="9" max="9" width="1.1640625" customWidth="1"/>
-    <col min="10" max="10" width="1.33203125" customWidth="1"/>
+    <col min="7" max="7" width="1.140625" customWidth="1"/>
+    <col min="8" max="8" width="1.35546875" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" customWidth="1"/>
+    <col min="10" max="10" width="1.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="11:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="11:25" x14ac:dyDescent="0.45">
       <c r="M4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="11:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="11:25" x14ac:dyDescent="0.45">
       <c r="M5">
         <v>11</v>
       </c>
@@ -15451,27 +15451,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="11:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="11:25" x14ac:dyDescent="0.45">
       <c r="K6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="11:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="11:25" x14ac:dyDescent="0.45">
       <c r="K7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="11:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="11:25" x14ac:dyDescent="0.45">
       <c r="K8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="11:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="11:25" x14ac:dyDescent="0.45">
       <c r="K9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="11:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="11:25" x14ac:dyDescent="0.45">
       <c r="K10" t="s">
         <v>64</v>
       </c>

--- a/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
+++ b/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils Becker\Desktop\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils Becker\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722F54C3-C017-470A-944F-801838BA0BFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6247E8BA-FA9B-4FD7-A0A8-7DC5617017C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="4" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <sheet name="Kapazitätsplan" sheetId="6" r:id="rId5"/>
     <sheet name="Projektablaufplan" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1400,7 +1400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1529,51 +1529,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1581,19 +1536,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1700,7 +1642,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1759,37 +1701,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,13 +1731,13 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1828,28 +1746,28 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1861,19 +1779,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1900,13 +1818,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9819,7 +9737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B665E9DA-39F6-D247-ABB9-2DB3926674E9}">
   <dimension ref="A1:AH145"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -9841,22 +9759,22 @@
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="79"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
     </row>
     <row r="3" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
     </row>
     <row r="4" spans="1:14" ht="20.149999999999999" x14ac:dyDescent="0.5">
       <c r="C4" s="2"/>
@@ -9868,24 +9786,24 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
     </row>
     <row r="8" spans="1:14" ht="136" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
@@ -13415,8 +13333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AFD6F-0D1B-F346-A025-C4EDD3D59A1D}">
   <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -13430,21 +13348,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
     </row>
     <row r="4" spans="2:7" ht="20.149999999999999" x14ac:dyDescent="0.45">
       <c r="B4" s="24"/>
@@ -13457,263 +13375,263 @@
       <c r="D5" s="24"/>
     </row>
     <row r="6" spans="2:7" ht="15.45" x14ac:dyDescent="0.45">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="56" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="B7" s="65">
+      <c r="B7" s="57">
         <v>0</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="105" x14ac:dyDescent="0.45">
-      <c r="B8" s="65">
+      <c r="B8" s="57">
         <v>1</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="60">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="45" x14ac:dyDescent="0.45">
-      <c r="B9" s="65">
+      <c r="B9" s="57">
         <v>2</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="60">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="90" x14ac:dyDescent="0.45">
-      <c r="B10" s="65">
+      <c r="B10" s="57">
         <v>3</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="D10" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="68"/>
+      <c r="E10" s="60"/>
     </row>
     <row r="11" spans="2:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="B11" s="65">
+      <c r="B11" s="57">
         <v>4</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="68"/>
+      <c r="E11" s="60"/>
       <c r="G11" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="60" x14ac:dyDescent="0.45">
-      <c r="B12" s="65">
+      <c r="B12" s="57">
         <v>5</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="68"/>
+      <c r="E12" s="60"/>
     </row>
     <row r="13" spans="2:7" ht="75" x14ac:dyDescent="0.45">
-      <c r="B13" s="65">
+      <c r="B13" s="57">
         <v>6</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="67" t="s">
+      <c r="D13" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="68"/>
+      <c r="E13" s="60"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="65">
+      <c r="B14" s="57">
         <v>7</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="60"/>
     </row>
     <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.45">
-      <c r="B15" s="65">
+      <c r="B15" s="57">
         <v>8</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="58" t="s">
         <v>217</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="E15" s="68"/>
+      <c r="E15" s="60"/>
     </row>
     <row r="16" spans="2:7" ht="45" x14ac:dyDescent="0.45">
-      <c r="B16" s="65">
+      <c r="B16" s="57">
         <v>9</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="58" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="68"/>
+      <c r="E16" s="60"/>
     </row>
     <row r="17" spans="2:5" ht="105" x14ac:dyDescent="0.45">
-      <c r="B17" s="65">
+      <c r="B17" s="57">
         <v>10</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="67" t="s">
+      <c r="D17" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="68"/>
+      <c r="E17" s="60"/>
     </row>
     <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.45">
-      <c r="B18" s="65">
+      <c r="B18" s="57">
         <v>11</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="E18" s="68"/>
+      <c r="E18" s="60"/>
     </row>
     <row r="19" spans="2:5" ht="30" x14ac:dyDescent="0.45">
-      <c r="B19" s="65">
+      <c r="B19" s="57">
         <v>12</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="67" t="s">
+      <c r="D19" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="68"/>
+      <c r="E19" s="60"/>
     </row>
     <row r="20" spans="2:5" ht="60" x14ac:dyDescent="0.45">
-      <c r="B20" s="65">
+      <c r="B20" s="57">
         <v>13</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="E20" s="68"/>
+      <c r="E20" s="60"/>
     </row>
     <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.45">
-      <c r="B21" s="65">
+      <c r="B21" s="57">
         <v>14</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="E21" s="68"/>
+      <c r="E21" s="60"/>
     </row>
     <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.45">
-      <c r="B22" s="65">
+      <c r="B22" s="57">
         <v>15</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="67" t="s">
+      <c r="D22" s="59" t="s">
         <v>389</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="60"/>
     </row>
     <row r="23" spans="2:5" ht="60" x14ac:dyDescent="0.45">
-      <c r="B23" s="65">
+      <c r="B23" s="57">
         <v>16</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="59" t="s">
         <v>403</v>
       </c>
-      <c r="E23" s="68"/>
+      <c r="E23" s="60"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="65">
+      <c r="B24" s="57">
         <v>16</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="68"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="60"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="65">
+      <c r="B25" s="57">
         <v>17</v>
       </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="68"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="60"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="65">
+      <c r="B26" s="57">
         <v>18</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="68"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="60"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="69">
+      <c r="B27" s="61">
         <v>19</v>
       </c>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="71"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13747,23 +13665,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="24"/>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="24"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="24"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
     </row>
     <row r="4" spans="2:5" ht="20.149999999999999" x14ac:dyDescent="0.45">
       <c r="B4" s="24"/>
@@ -13771,72 +13689,72 @@
       <c r="D4" s="24"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="46" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C6" s="56">
+      <c r="C6" s="48">
         <v>43923</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="49" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="71.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="56">
+      <c r="C7" s="48">
         <v>43944</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="49" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="98.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="48">
         <v>43958</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="49" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="99" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="51">
         <v>43973</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="53" t="s">
         <v>192</v>
       </c>
     </row>
@@ -13862,336 +13780,336 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.85546875" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.35546875" style="74" customWidth="1"/>
-    <col min="2" max="16384" width="30.85546875" style="74"/>
+    <col min="1" max="1" width="4.35546875" style="66" customWidth="1"/>
+    <col min="2" max="16384" width="30.85546875" style="66"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="64" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="6" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="72" t="s">
+      <c r="D6" s="64" t="s">
         <v>200</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="64" t="s">
         <v>199</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="64" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="64" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="11" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="72" t="s">
+      <c r="B11" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="64" t="s">
         <v>218</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="64" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="13" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B13" s="72" t="s">
+      <c r="B13" s="64" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="64" t="s">
         <v>219</v>
       </c>
-      <c r="I13" s="72" t="s">
+      <c r="I13" s="64" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="64" t="s">
         <v>249</v>
       </c>
-      <c r="E15" s="72" t="s">
+      <c r="E15" s="64" t="s">
         <v>245</v>
       </c>
-      <c r="F15" s="72" t="s">
+      <c r="F15" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="I15" s="72" t="s">
+      <c r="I15" s="64" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="17" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="64" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="64" t="s">
         <v>254</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="64" t="s">
         <v>220</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="64" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="I19" s="64" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="21" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E21" s="72" t="s">
+      <c r="E21" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="I21" s="72" t="s">
+      <c r="I21" s="64" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E23" s="72" t="s">
+      <c r="E23" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="64" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="25" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="64" t="s">
         <v>255</v>
       </c>
-      <c r="I25" s="72" t="s">
+      <c r="I25" s="64" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="27" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E27" s="72" t="s">
+      <c r="E27" s="64" t="s">
         <v>204</v>
       </c>
-      <c r="I27" s="72" t="s">
+      <c r="I27" s="64" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="29" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E29" s="72" t="s">
+      <c r="E29" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="I29" s="72" t="s">
+      <c r="I29" s="64" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="31" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D31" s="72" t="s">
+      <c r="D31" s="64" t="s">
         <v>256</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="64" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="33" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D33" s="72" t="s">
+      <c r="D33" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="H33" s="73"/>
-      <c r="I33" s="72" t="s">
+      <c r="H33" s="65"/>
+      <c r="I33" s="64" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="34" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="35" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="I35" s="72" t="s">
+      <c r="G35" s="65"/>
+      <c r="I35" s="64" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="36" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="37" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E37" s="72" t="s">
+      <c r="E37" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="I37" s="72" t="s">
+      <c r="I37" s="64" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="39" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="64" t="s">
         <v>264</v>
       </c>
-      <c r="I39" s="72" t="s">
+      <c r="I39" s="64" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="41" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E41" s="72" t="s">
+      <c r="E41" s="64" t="s">
         <v>265</v>
       </c>
-      <c r="I41" s="72" t="s">
+      <c r="I41" s="64" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="42" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="43" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E43" s="72" t="s">
+      <c r="E43" s="64" t="s">
         <v>266</v>
       </c>
-      <c r="H43" s="72" t="s">
+      <c r="H43" s="64" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="44" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="45" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E45" s="72" t="s">
+      <c r="E45" s="64" t="s">
         <v>267</v>
       </c>
-      <c r="I45" s="72" t="s">
+      <c r="I45" s="64" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="46" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="47" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E47" s="72" t="s">
+      <c r="E47" s="64" t="s">
         <v>263</v>
       </c>
-      <c r="I47" s="72" t="s">
+      <c r="I47" s="64" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="48" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="49" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D49" s="72" t="s">
+      <c r="D49" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="I49" s="72" t="s">
+      <c r="I49" s="64" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="50" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="51" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E51" s="72" t="s">
+      <c r="E51" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="H51" s="72" t="s">
+      <c r="H51" s="64" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="52" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="53" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E53" s="72" t="s">
+      <c r="E53" s="64" t="s">
         <v>213</v>
       </c>
-      <c r="I53" s="72" t="s">
+      <c r="I53" s="64" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="54" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="55" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E55" s="72" t="s">
+      <c r="E55" s="64" t="s">
         <v>214</v>
       </c>
-      <c r="I55" s="72" t="s">
+      <c r="I55" s="64" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="56" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="57" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E57" s="72" t="s">
+      <c r="E57" s="64" t="s">
         <v>215</v>
       </c>
-      <c r="I57" s="72" t="s">
+      <c r="I57" s="64" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="58" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="59" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E59" s="72" t="s">
+      <c r="E59" s="64" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="60" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="61" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D61" s="72" t="s">
+      <c r="D61" s="64" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="62" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="63" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E63" s="72" t="s">
+      <c r="E63" s="64" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="64" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="65" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E65" s="72" t="s">
+      <c r="E65" s="64" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="66" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="67" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E67" s="72" t="s">
+      <c r="E67" s="64" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="68" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="69" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E69" s="72" t="s">
+      <c r="E69" s="64" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="70" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="71" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E71" s="72" t="s">
+      <c r="E71" s="64" t="s">
         <v>225</v>
       </c>
     </row>
@@ -14207,7 +14125,7 @@
   <dimension ref="B1:AY24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z15" sqref="Z15"/>
+      <selection activeCell="C24" sqref="C24:AY24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -14229,46 +14147,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="AM3" s="75"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="AM3" s="67"/>
       <c r="AN3" s="23" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="AM4" s="76"/>
+      <c r="AM4" s="68"/>
       <c r="AN4" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.45">
-      <c r="AM5" s="77"/>
+      <c r="AM5" s="69"/>
       <c r="AN5" s="23" t="s">
         <v>270</v>
       </c>
@@ -14278,271 +14196,271 @@
       <c r="B7" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81"/>
-      <c r="U7" s="81"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AH7" s="81"/>
-      <c r="AI7" s="81"/>
-      <c r="AJ7" s="81"/>
-      <c r="AK7" s="81"/>
-      <c r="AL7" s="81"/>
-      <c r="AM7" s="81"/>
-      <c r="AN7" s="81"/>
-      <c r="AO7" s="81"/>
-      <c r="AP7" s="81"/>
-      <c r="AQ7" s="81"/>
-      <c r="AR7" s="81"/>
-      <c r="AS7" s="81"/>
-      <c r="AT7" s="81"/>
-      <c r="AU7" s="81"/>
-      <c r="AV7" s="81"/>
-      <c r="AW7" s="81"/>
-      <c r="AX7" s="81"/>
-      <c r="AY7" s="82"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
+      <c r="AO7" s="74"/>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="74"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="74"/>
+      <c r="AX7" s="74"/>
+      <c r="AY7" s="75"/>
     </row>
     <row r="8" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B8" s="29"/>
-      <c r="C8" s="83">
+      <c r="C8" s="73">
         <v>11</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83">
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73">
         <v>12</v>
       </c>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="83"/>
-      <c r="N8" s="83"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83">
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73">
         <v>13</v>
       </c>
-      <c r="R8" s="83"/>
-      <c r="S8" s="83"/>
-      <c r="T8" s="83"/>
-      <c r="U8" s="83"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="83"/>
-      <c r="X8" s="83">
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73">
         <v>14</v>
       </c>
-      <c r="Y8" s="83"/>
-      <c r="Z8" s="83"/>
-      <c r="AA8" s="83"/>
-      <c r="AB8" s="83"/>
-      <c r="AC8" s="83"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83">
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73">
         <v>15</v>
       </c>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
-      <c r="AI8" s="83"/>
-      <c r="AJ8" s="83"/>
-      <c r="AK8" s="83"/>
-      <c r="AL8" s="83">
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="73">
         <v>16</v>
       </c>
-      <c r="AM8" s="83"/>
-      <c r="AN8" s="83"/>
-      <c r="AO8" s="83"/>
-      <c r="AP8" s="83"/>
-      <c r="AQ8" s="83"/>
-      <c r="AR8" s="83"/>
-      <c r="AS8" s="83">
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73">
         <v>17</v>
       </c>
-      <c r="AT8" s="83"/>
-      <c r="AU8" s="83"/>
-      <c r="AV8" s="83"/>
-      <c r="AW8" s="83"/>
-      <c r="AX8" s="83"/>
-      <c r="AY8" s="83"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="73"/>
+      <c r="AY8" s="73"/>
     </row>
     <row r="9" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B9" s="29"/>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="I9" s="47" t="s">
+      <c r="I9" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="K9" s="46" t="s">
+      <c r="K9" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="L9" s="46" t="s">
+      <c r="L9" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="O9" s="46" t="s">
+      <c r="O9" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="P9" s="47" t="s">
+      <c r="P9" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="Q9" s="48" t="s">
+      <c r="Q9" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="R9" s="46" t="s">
+      <c r="R9" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="S9" s="46" t="s">
+      <c r="S9" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="T9" s="46" t="s">
+      <c r="T9" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="U9" s="46" t="s">
+      <c r="U9" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="V9" s="46" t="s">
+      <c r="V9" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="W9" s="47" t="s">
+      <c r="W9" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="X9" s="49" t="s">
+      <c r="X9" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="Y9" s="50" t="s">
+      <c r="Y9" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="Z9" s="50" t="s">
+      <c r="Z9" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AA9" s="50" t="s">
+      <c r="AA9" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AB9" s="50" t="s">
+      <c r="AB9" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AC9" s="50" t="s">
+      <c r="AC9" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="AD9" s="51" t="s">
+      <c r="AD9" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" s="49" t="s">
+      <c r="AE9" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="AF9" s="50" t="s">
+      <c r="AF9" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="AG9" s="50" t="s">
+      <c r="AG9" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AH9" s="50" t="s">
+      <c r="AH9" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AI9" s="50" t="s">
+      <c r="AI9" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AJ9" s="50" t="s">
+      <c r="AJ9" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="AK9" s="51" t="s">
+      <c r="AK9" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AL9" s="49" t="s">
+      <c r="AL9" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="AM9" s="50" t="s">
+      <c r="AM9" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="AN9" s="50" t="s">
+      <c r="AN9" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AO9" s="50" t="s">
+      <c r="AO9" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AP9" s="50" t="s">
+      <c r="AP9" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AQ9" s="50" t="s">
+      <c r="AQ9" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="AR9" s="51" t="s">
+      <c r="AR9" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AS9" s="49" t="s">
+      <c r="AS9" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="AT9" s="50" t="s">
+      <c r="AT9" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="AU9" s="50" t="s">
+      <c r="AU9" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AV9" s="50" t="s">
+      <c r="AV9" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AW9" s="50" t="s">
+      <c r="AW9" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AX9" s="50" t="s">
+      <c r="AX9" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="AY9" s="51" t="s">
+      <c r="AY9" s="43" t="s">
         <v>185</v>
       </c>
     </row>
@@ -14550,55 +14468,55 @@
       <c r="B10" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="77"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
-      <c r="AJ10" s="77"/>
-      <c r="AK10" s="77"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="77"/>
-      <c r="AN10" s="77"/>
-      <c r="AO10" s="77"/>
-      <c r="AP10" s="77"/>
-      <c r="AQ10" s="77"/>
-      <c r="AR10" s="77"/>
-      <c r="AS10" s="77"/>
-      <c r="AT10" s="77"/>
-      <c r="AU10" s="77"/>
-      <c r="AV10" s="77"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="77"/>
-      <c r="AY10" s="77"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="69"/>
+      <c r="AF10" s="69"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="69"/>
+      <c r="AI10" s="69"/>
+      <c r="AJ10" s="69"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="68"/>
+      <c r="AM10" s="69"/>
+      <c r="AN10" s="69"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="69"/>
+      <c r="AQ10" s="69"/>
+      <c r="AR10" s="69"/>
+      <c r="AS10" s="69"/>
+      <c r="AT10" s="69"/>
+      <c r="AU10" s="69"/>
+      <c r="AV10" s="69"/>
+      <c r="AW10" s="69"/>
+      <c r="AX10" s="69"/>
+      <c r="AY10" s="69"/>
     </row>
     <row r="11" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B11" s="29" t="s">
@@ -14611,42 +14529,42 @@
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
       <c r="I11" s="33"/>
-      <c r="J11" s="39"/>
+      <c r="J11" s="34"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="27"/>
       <c r="P11" s="33"/>
-      <c r="Q11" s="39"/>
+      <c r="Q11" s="34"/>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
       <c r="T11" s="26"/>
       <c r="U11" s="26"/>
       <c r="V11" s="27"/>
       <c r="W11" s="33"/>
-      <c r="X11" s="39"/>
+      <c r="X11" s="34"/>
       <c r="Y11" s="26"/>
       <c r="Z11" s="26"/>
       <c r="AA11" s="26"/>
       <c r="AB11" s="26"/>
       <c r="AC11" s="27"/>
       <c r="AD11" s="33"/>
-      <c r="AE11" s="39"/>
+      <c r="AE11" s="34"/>
       <c r="AF11" s="26"/>
       <c r="AG11" s="26"/>
       <c r="AH11" s="27"/>
       <c r="AI11" s="27"/>
       <c r="AJ11" s="27"/>
       <c r="AK11" s="33"/>
-      <c r="AL11" s="43"/>
+      <c r="AL11" s="36"/>
       <c r="AM11" s="26"/>
       <c r="AN11" s="26"/>
       <c r="AO11" s="26"/>
       <c r="AP11" s="26"/>
       <c r="AQ11" s="27"/>
       <c r="AR11" s="33"/>
-      <c r="AS11" s="39"/>
+      <c r="AS11" s="34"/>
       <c r="AT11" s="26"/>
       <c r="AU11" s="26"/>
       <c r="AV11" s="26"/>
@@ -14658,55 +14576,55 @@
       <c r="B12" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="77"/>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="77"/>
-      <c r="AC12" s="77"/>
-      <c r="AD12" s="77"/>
-      <c r="AE12" s="77"/>
-      <c r="AF12" s="77"/>
-      <c r="AG12" s="77"/>
-      <c r="AH12" s="77"/>
-      <c r="AI12" s="77"/>
-      <c r="AJ12" s="77"/>
-      <c r="AK12" s="77"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="77"/>
-      <c r="AN12" s="77"/>
-      <c r="AO12" s="77"/>
-      <c r="AP12" s="77"/>
-      <c r="AQ12" s="77"/>
-      <c r="AR12" s="77"/>
-      <c r="AS12" s="77"/>
-      <c r="AT12" s="77"/>
-      <c r="AU12" s="77"/>
-      <c r="AV12" s="77"/>
-      <c r="AW12" s="77"/>
-      <c r="AX12" s="77"/>
-      <c r="AY12" s="77"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="69"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="69"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="69"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="69"/>
+      <c r="AB12" s="69"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="68"/>
+      <c r="AM12" s="69"/>
+      <c r="AN12" s="69"/>
+      <c r="AO12" s="69"/>
+      <c r="AP12" s="69"/>
+      <c r="AQ12" s="69"/>
+      <c r="AR12" s="69"/>
+      <c r="AS12" s="69"/>
+      <c r="AT12" s="69"/>
+      <c r="AU12" s="69"/>
+      <c r="AV12" s="69"/>
+      <c r="AW12" s="69"/>
+      <c r="AX12" s="69"/>
+      <c r="AY12" s="69"/>
     </row>
     <row r="13" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B13" s="29" t="s">
@@ -14719,42 +14637,42 @@
       <c r="G13" s="26"/>
       <c r="H13" s="27"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="39"/>
+      <c r="J13" s="34"/>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="27"/>
       <c r="P13" s="33"/>
-      <c r="Q13" s="39"/>
+      <c r="Q13" s="34"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
       <c r="V13" s="27"/>
       <c r="W13" s="33"/>
-      <c r="X13" s="39"/>
+      <c r="X13" s="34"/>
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
       <c r="AA13" s="26"/>
       <c r="AB13" s="26"/>
       <c r="AC13" s="27"/>
       <c r="AD13" s="33"/>
-      <c r="AE13" s="39"/>
+      <c r="AE13" s="34"/>
       <c r="AF13" s="26"/>
       <c r="AG13" s="26"/>
       <c r="AH13" s="27"/>
       <c r="AI13" s="27"/>
       <c r="AJ13" s="27"/>
       <c r="AK13" s="33"/>
-      <c r="AL13" s="43"/>
+      <c r="AL13" s="36"/>
       <c r="AM13" s="26"/>
       <c r="AN13" s="26"/>
       <c r="AO13" s="26"/>
       <c r="AP13" s="26"/>
       <c r="AQ13" s="27"/>
       <c r="AR13" s="33"/>
-      <c r="AS13" s="39"/>
+      <c r="AS13" s="34"/>
       <c r="AT13" s="26"/>
       <c r="AU13" s="26"/>
       <c r="AV13" s="26"/>
@@ -14766,55 +14684,55 @@
       <c r="B14" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="42"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="44"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="38"/>
-      <c r="AS14" s="42"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="37"/>
-      <c r="AY14" s="38"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="69"/>
+      <c r="Q14" s="69"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="69"/>
+      <c r="V14" s="69"/>
+      <c r="W14" s="69"/>
+      <c r="X14" s="69"/>
+      <c r="Y14" s="69"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="69"/>
+      <c r="AB14" s="69"/>
+      <c r="AC14" s="69"/>
+      <c r="AD14" s="69"/>
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="69"/>
+      <c r="AH14" s="69"/>
+      <c r="AI14" s="69"/>
+      <c r="AJ14" s="69"/>
+      <c r="AK14" s="69"/>
+      <c r="AL14" s="69"/>
+      <c r="AM14" s="69"/>
+      <c r="AN14" s="69"/>
+      <c r="AO14" s="69"/>
+      <c r="AP14" s="69"/>
+      <c r="AQ14" s="69"/>
+      <c r="AR14" s="69"/>
+      <c r="AS14" s="69"/>
+      <c r="AT14" s="69"/>
+      <c r="AU14" s="69"/>
+      <c r="AV14" s="69"/>
+      <c r="AW14" s="69"/>
+      <c r="AX14" s="69"/>
+      <c r="AY14" s="69"/>
     </row>
     <row r="15" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B15" s="25"/>
@@ -14826,271 +14744,271 @@
       <c r="B17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="74" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-      <c r="R17" s="81"/>
-      <c r="S17" s="81"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="81"/>
-      <c r="V17" s="81"/>
-      <c r="W17" s="81"/>
-      <c r="X17" s="81"/>
-      <c r="Y17" s="81"/>
-      <c r="Z17" s="81"/>
-      <c r="AA17" s="81"/>
-      <c r="AB17" s="81"/>
-      <c r="AC17" s="81"/>
-      <c r="AD17" s="81"/>
-      <c r="AE17" s="81"/>
-      <c r="AF17" s="81"/>
-      <c r="AG17" s="81"/>
-      <c r="AH17" s="81"/>
-      <c r="AI17" s="81"/>
-      <c r="AJ17" s="81"/>
-      <c r="AK17" s="81"/>
-      <c r="AL17" s="81"/>
-      <c r="AM17" s="81"/>
-      <c r="AN17" s="81"/>
-      <c r="AO17" s="81"/>
-      <c r="AP17" s="81"/>
-      <c r="AQ17" s="81"/>
-      <c r="AR17" s="81"/>
-      <c r="AS17" s="81"/>
-      <c r="AT17" s="81"/>
-      <c r="AU17" s="81"/>
-      <c r="AV17" s="81"/>
-      <c r="AW17" s="81"/>
-      <c r="AX17" s="81"/>
-      <c r="AY17" s="82"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="74"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="74"/>
+      <c r="AG17" s="74"/>
+      <c r="AH17" s="74"/>
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="74"/>
+      <c r="AK17" s="74"/>
+      <c r="AL17" s="74"/>
+      <c r="AM17" s="74"/>
+      <c r="AN17" s="74"/>
+      <c r="AO17" s="74"/>
+      <c r="AP17" s="74"/>
+      <c r="AQ17" s="74"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="74"/>
+      <c r="AX17" s="74"/>
+      <c r="AY17" s="75"/>
     </row>
     <row r="18" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B18" s="29"/>
-      <c r="C18" s="83">
+      <c r="C18" s="73">
         <v>17</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83">
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73">
         <v>18</v>
       </c>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="83">
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73">
         <v>19</v>
       </c>
-      <c r="R18" s="83"/>
-      <c r="S18" s="83"/>
-      <c r="T18" s="83"/>
-      <c r="U18" s="83"/>
-      <c r="V18" s="83"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="83">
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73">
         <v>20</v>
       </c>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
-      <c r="AA18" s="83"/>
-      <c r="AB18" s="83"/>
-      <c r="AC18" s="83"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83">
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="73"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73">
         <v>21</v>
       </c>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="83"/>
-      <c r="AI18" s="83"/>
-      <c r="AJ18" s="83"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="83">
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="73"/>
+      <c r="AK18" s="73"/>
+      <c r="AL18" s="73">
         <v>22</v>
       </c>
-      <c r="AM18" s="83"/>
-      <c r="AN18" s="83"/>
-      <c r="AO18" s="83"/>
-      <c r="AP18" s="83"/>
-      <c r="AQ18" s="83"/>
-      <c r="AR18" s="83"/>
-      <c r="AS18" s="83">
+      <c r="AM18" s="73"/>
+      <c r="AN18" s="73"/>
+      <c r="AO18" s="73"/>
+      <c r="AP18" s="73"/>
+      <c r="AQ18" s="73"/>
+      <c r="AR18" s="73"/>
+      <c r="AS18" s="73">
         <v>23</v>
       </c>
-      <c r="AT18" s="83"/>
-      <c r="AU18" s="83"/>
-      <c r="AV18" s="83"/>
-      <c r="AW18" s="83"/>
-      <c r="AX18" s="83"/>
-      <c r="AY18" s="83"/>
+      <c r="AT18" s="73"/>
+      <c r="AU18" s="73"/>
+      <c r="AV18" s="73"/>
+      <c r="AW18" s="73"/>
+      <c r="AX18" s="73"/>
+      <c r="AY18" s="73"/>
     </row>
     <row r="19" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B19" s="29"/>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="F19" s="46" t="s">
+      <c r="F19" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="H19" s="46" t="s">
+      <c r="H19" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="I19" s="47" t="s">
+      <c r="I19" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="J19" s="48" t="s">
+      <c r="J19" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="K19" s="46" t="s">
+      <c r="K19" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="L19" s="46" t="s">
+      <c r="L19" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="M19" s="46" t="s">
+      <c r="M19" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="N19" s="46" t="s">
+      <c r="N19" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="O19" s="46" t="s">
+      <c r="O19" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="P19" s="47" t="s">
+      <c r="P19" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="Q19" s="48" t="s">
+      <c r="Q19" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="R19" s="46" t="s">
+      <c r="R19" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="S19" s="46" t="s">
+      <c r="S19" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="T19" s="46" t="s">
+      <c r="T19" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="U19" s="46" t="s">
+      <c r="U19" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="V19" s="46" t="s">
+      <c r="V19" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="W19" s="47" t="s">
+      <c r="W19" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="X19" s="49" t="s">
+      <c r="X19" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="Y19" s="50" t="s">
+      <c r="Y19" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="Z19" s="50" t="s">
+      <c r="Z19" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AA19" s="50" t="s">
+      <c r="AA19" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AB19" s="50" t="s">
+      <c r="AB19" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AC19" s="50" t="s">
+      <c r="AC19" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="AD19" s="51" t="s">
+      <c r="AD19" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AE19" s="49" t="s">
+      <c r="AE19" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="AF19" s="50" t="s">
+      <c r="AF19" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="AG19" s="50" t="s">
+      <c r="AG19" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AH19" s="50" t="s">
+      <c r="AH19" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AI19" s="50" t="s">
+      <c r="AI19" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AJ19" s="50" t="s">
+      <c r="AJ19" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="AK19" s="51" t="s">
+      <c r="AK19" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AL19" s="49" t="s">
+      <c r="AL19" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="AM19" s="50" t="s">
+      <c r="AM19" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="AN19" s="50" t="s">
+      <c r="AN19" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AO19" s="50" t="s">
+      <c r="AO19" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AP19" s="50" t="s">
+      <c r="AP19" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AQ19" s="50" t="s">
+      <c r="AQ19" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="AR19" s="51" t="s">
+      <c r="AR19" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="AS19" s="49" t="s">
+      <c r="AS19" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="AT19" s="50" t="s">
+      <c r="AT19" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="AU19" s="50" t="s">
+      <c r="AU19" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="AV19" s="50" t="s">
+      <c r="AV19" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="AW19" s="50" t="s">
+      <c r="AW19" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="AX19" s="50" t="s">
+      <c r="AX19" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="AY19" s="51" t="s">
+      <c r="AY19" s="43" t="s">
         <v>185</v>
       </c>
     </row>
@@ -15098,103 +15016,103 @@
       <c r="B20" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
-      <c r="X20" s="77"/>
-      <c r="Y20" s="77"/>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="77"/>
-      <c r="AG20" s="77"/>
-      <c r="AH20" s="77"/>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="77"/>
-      <c r="AK20" s="77"/>
-      <c r="AL20" s="77"/>
-      <c r="AM20" s="77"/>
-      <c r="AN20" s="77"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="77"/>
-      <c r="AT20" s="77"/>
-      <c r="AU20" s="77"/>
-      <c r="AV20" s="77"/>
-      <c r="AW20" s="77"/>
-      <c r="AX20" s="77"/>
-      <c r="AY20" s="77"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="69"/>
+      <c r="AC20" s="69"/>
+      <c r="AD20" s="69"/>
+      <c r="AE20" s="68"/>
+      <c r="AF20" s="69"/>
+      <c r="AG20" s="69"/>
+      <c r="AH20" s="69"/>
+      <c r="AI20" s="69"/>
+      <c r="AJ20" s="69"/>
+      <c r="AK20" s="69"/>
+      <c r="AL20" s="69"/>
+      <c r="AM20" s="69"/>
+      <c r="AN20" s="69"/>
+      <c r="AO20" s="69"/>
+      <c r="AP20" s="69"/>
+      <c r="AQ20" s="69"/>
+      <c r="AR20" s="69"/>
+      <c r="AS20" s="69"/>
+      <c r="AT20" s="69"/>
+      <c r="AU20" s="69"/>
+      <c r="AV20" s="69"/>
+      <c r="AW20" s="69"/>
+      <c r="AX20" s="69"/>
+      <c r="AY20" s="69"/>
     </row>
     <row r="21" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B21" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="40"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
       <c r="H21" s="27"/>
       <c r="I21" s="33"/>
-      <c r="J21" s="39"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="26"/>
       <c r="L21" s="26"/>
       <c r="M21" s="26"/>
       <c r="N21" s="27"/>
       <c r="O21" s="27"/>
       <c r="P21" s="33"/>
-      <c r="Q21" s="39"/>
+      <c r="Q21" s="34"/>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
       <c r="T21" s="26"/>
       <c r="U21" s="26"/>
       <c r="V21" s="27"/>
       <c r="W21" s="33"/>
-      <c r="X21" s="39"/>
+      <c r="X21" s="34"/>
       <c r="Y21" s="26"/>
       <c r="Z21" s="26"/>
       <c r="AA21" s="26"/>
       <c r="AB21" s="26"/>
       <c r="AC21" s="27"/>
       <c r="AD21" s="33"/>
-      <c r="AE21" s="39"/>
+      <c r="AE21" s="34"/>
       <c r="AF21" s="26"/>
       <c r="AG21" s="26"/>
       <c r="AH21" s="27"/>
       <c r="AI21" s="26"/>
       <c r="AJ21" s="27"/>
       <c r="AK21" s="33"/>
-      <c r="AL21" s="39"/>
+      <c r="AL21" s="34"/>
       <c r="AM21" s="26"/>
       <c r="AN21" s="26"/>
       <c r="AO21" s="26"/>
       <c r="AP21" s="26"/>
       <c r="AQ21" s="27"/>
       <c r="AR21" s="33"/>
-      <c r="AS21" s="39"/>
+      <c r="AS21" s="34"/>
       <c r="AT21" s="26"/>
       <c r="AU21" s="26"/>
       <c r="AV21" s="26"/>
@@ -15206,103 +15124,103 @@
       <c r="B22" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="77"/>
-      <c r="X22" s="77"/>
-      <c r="Y22" s="77"/>
-      <c r="Z22" s="77"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="77"/>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="77"/>
-      <c r="AE22" s="77"/>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77"/>
-      <c r="AH22" s="77"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="77"/>
-      <c r="AK22" s="77"/>
-      <c r="AL22" s="77"/>
-      <c r="AM22" s="77"/>
-      <c r="AN22" s="77"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="77"/>
-      <c r="AT22" s="77"/>
-      <c r="AU22" s="77"/>
-      <c r="AV22" s="77"/>
-      <c r="AW22" s="77"/>
-      <c r="AX22" s="77"/>
-      <c r="AY22" s="77"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="69"/>
+      <c r="T22" s="69"/>
+      <c r="U22" s="69"/>
+      <c r="V22" s="69"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="69"/>
+      <c r="AC22" s="69"/>
+      <c r="AD22" s="69"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="69"/>
+      <c r="AG22" s="69"/>
+      <c r="AH22" s="69"/>
+      <c r="AI22" s="69"/>
+      <c r="AJ22" s="69"/>
+      <c r="AK22" s="69"/>
+      <c r="AL22" s="69"/>
+      <c r="AM22" s="69"/>
+      <c r="AN22" s="69"/>
+      <c r="AO22" s="69"/>
+      <c r="AP22" s="69"/>
+      <c r="AQ22" s="69"/>
+      <c r="AR22" s="69"/>
+      <c r="AS22" s="69"/>
+      <c r="AT22" s="69"/>
+      <c r="AU22" s="69"/>
+      <c r="AV22" s="69"/>
+      <c r="AW22" s="69"/>
+      <c r="AX22" s="69"/>
+      <c r="AY22" s="69"/>
     </row>
     <row r="23" spans="2:51" ht="15.45" x14ac:dyDescent="0.45">
       <c r="B23" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="40"/>
+      <c r="C23" s="35"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="27"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="39"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="26"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="27"/>
       <c r="O23" s="27"/>
       <c r="P23" s="33"/>
-      <c r="Q23" s="39"/>
+      <c r="Q23" s="34"/>
       <c r="R23" s="26"/>
       <c r="S23" s="26"/>
       <c r="T23" s="26"/>
       <c r="U23" s="26"/>
       <c r="V23" s="27"/>
       <c r="W23" s="33"/>
-      <c r="X23" s="39"/>
+      <c r="X23" s="34"/>
       <c r="Y23" s="26"/>
       <c r="Z23" s="26"/>
       <c r="AA23" s="26"/>
       <c r="AB23" s="26"/>
       <c r="AC23" s="27"/>
       <c r="AD23" s="33"/>
-      <c r="AE23" s="39"/>
+      <c r="AE23" s="34"/>
       <c r="AF23" s="26"/>
       <c r="AG23" s="26"/>
       <c r="AH23" s="27"/>
       <c r="AI23" s="26"/>
       <c r="AJ23" s="27"/>
       <c r="AK23" s="33"/>
-      <c r="AL23" s="39"/>
+      <c r="AL23" s="34"/>
       <c r="AM23" s="26"/>
       <c r="AN23" s="26"/>
       <c r="AO23" s="26"/>
       <c r="AP23" s="26"/>
       <c r="AQ23" s="27"/>
       <c r="AR23" s="33"/>
-      <c r="AS23" s="39"/>
+      <c r="AS23" s="34"/>
       <c r="AT23" s="26"/>
       <c r="AU23" s="26"/>
       <c r="AV23" s="26"/>
@@ -15314,65 +15232,58 @@
       <c r="B24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="42"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="37"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="37"/>
-      <c r="AK24" s="38"/>
-      <c r="AL24" s="42"/>
-      <c r="AM24" s="36"/>
-      <c r="AN24" s="36"/>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="37"/>
-      <c r="AR24" s="38"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="36"/>
-      <c r="AU24" s="36"/>
-      <c r="AV24" s="36"/>
-      <c r="AW24" s="36"/>
-      <c r="AX24" s="37"/>
-      <c r="AY24" s="38"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="69"/>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="69"/>
+      <c r="AC24" s="69"/>
+      <c r="AD24" s="69"/>
+      <c r="AE24" s="69"/>
+      <c r="AF24" s="69"/>
+      <c r="AG24" s="69"/>
+      <c r="AH24" s="69"/>
+      <c r="AI24" s="69"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="69"/>
+      <c r="AL24" s="69"/>
+      <c r="AM24" s="69"/>
+      <c r="AN24" s="69"/>
+      <c r="AO24" s="69"/>
+      <c r="AP24" s="69"/>
+      <c r="AQ24" s="69"/>
+      <c r="AR24" s="69"/>
+      <c r="AS24" s="69"/>
+      <c r="AT24" s="69"/>
+      <c r="AU24" s="69"/>
+      <c r="AV24" s="69"/>
+      <c r="AW24" s="69"/>
+      <c r="AX24" s="69"/>
+      <c r="AY24" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AS18:AY18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AK18"/>
-    <mergeCell ref="AL18:AR18"/>
     <mergeCell ref="B1:H3"/>
     <mergeCell ref="C17:AY17"/>
     <mergeCell ref="C7:AY7"/>
@@ -15383,6 +15294,13 @@
     <mergeCell ref="AE8:AK8"/>
     <mergeCell ref="AL8:AR8"/>
     <mergeCell ref="AS8:AY8"/>
+    <mergeCell ref="AS18:AY18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AK18"/>
+    <mergeCell ref="AL18:AR18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
+++ b/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneblessing/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456B93B-7443-7949-99F0-BAABA58CC0E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91A12B8-70C3-E04B-B664-7E322C3F2191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" activeTab="5" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="4" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -1404,12 +1404,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1432,8 +1426,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1478,19 +1478,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1671,11 +1658,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1713,52 +1720,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1767,37 +1756,34 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1809,6 +1795,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1818,10 +1807,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,12 +1819,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1848,164 +1850,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="49">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2043,48 +1916,6 @@
           <color auto="1"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2483,10 +2314,41 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2507,12 +2369,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2532,33 +2388,9 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3030,6 +2862,175 @@
           <color auto="1"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -8643,62 +8644,62 @@
     <tableColumn id="4" xr3:uid="{CAF8D40A-2FF6-4841-9AAC-F6B9DD10211D}" name="Aufgaben" dataDxfId="43"/>
     <tableColumn id="6" xr3:uid="{1EAB9F03-9E9D-AA47-B0B7-2FDD4BBC63D4}" name="Verantwortlich" dataDxfId="42"/>
     <tableColumn id="7" xr3:uid="{7551DA7C-DB18-924B-9ADC-5DC7DB658CE7}" name="Teilnehmer" dataDxfId="41"/>
-    <tableColumn id="8" xr3:uid="{CCDF5E52-0199-2F46-BA53-8CD07B2F0AAF}" name="Termin " dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{682016E0-1B68-2248-971F-6EC360F975E3}" name="Beginn" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{5142D183-0B8F-4C40-8674-26975E6CA0D5}" name="Ende" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{94B724FC-864B-1D40-9D69-53A7A6BD8593}" name="Zeitumfang [in h]" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{3D8E58E6-3EE7-0A46-A8E2-806C6F4F1AF7}" name="Status" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{CC06DC0F-C0FB-D34C-BE80-C7ECB04B5663}" name="Spalte2" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{A477A699-A71F-334A-B5A7-62B074EAE70F}" name="   " dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{CCDF5E52-0199-2F46-BA53-8CD07B2F0AAF}" name="Termin " dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{682016E0-1B68-2248-971F-6EC360F975E3}" name="Beginn" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{5142D183-0B8F-4C40-8674-26975E6CA0D5}" name="Ende" dataDxfId="38"/>
+    <tableColumn id="15" xr3:uid="{94B724FC-864B-1D40-9D69-53A7A6BD8593}" name="Zeitumfang [in h]" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{3D8E58E6-3EE7-0A46-A8E2-806C6F4F1AF7}" name="Status" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{CC06DC0F-C0FB-D34C-BE80-C7ECB04B5663}" name="Spalte2" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{A477A699-A71F-334A-B5A7-62B074EAE70F}" name="   " dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42DD71D9-189E-E546-A545-D7FF9EB2CC2F}" name="Tabelle3" displayName="Tabelle3" ref="B6:E27" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{42DD71D9-189E-E546-A545-D7FF9EB2CC2F}" name="Tabelle3" displayName="Tabelle3" ref="B6:E27" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="B6:E27" xr:uid="{7F489A80-9A3A-0C45-B2C8-702A6880DB2C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5E8A3C14-C169-5D43-ACA4-13275C654EA7}" name="Arbeitspaket Nr. " dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{1F779AF2-0BD1-1F47-B5D4-B00A67C22C6D}" name="Name" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{198A5293-5881-414C-8ED2-AAF8AFA72B57}" name="Beschreibung" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{2E2FCC62-ED75-E548-83D9-9C68732D1839}" name="Zeitumfang [in h]" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{5E8A3C14-C169-5D43-ACA4-13275C654EA7}" name="Arbeitspaket Nr. " dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{1F779AF2-0BD1-1F47-B5D4-B00A67C22C6D}" name="Name" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{198A5293-5881-414C-8ED2-AAF8AFA72B57}" name="Beschreibung" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{2E2FCC62-ED75-E548-83D9-9C68732D1839}" name="Zeitumfang [in h]" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CDB463C-5A80-434B-B618-CDD133BFB09B}" name="Tabelle2" displayName="Tabelle2" ref="B5:E9" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2CDB463C-5A80-434B-B618-CDD133BFB09B}" name="Tabelle2" displayName="Tabelle2" ref="B5:E9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="B5:E9" xr:uid="{47CCC85B-3FDE-0044-BB7B-C7473962CE06}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{387E64BD-18A5-064A-A78C-9A47C6B9027C}" name="Kürzel" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{AC85B4AB-70A4-7440-A4B2-896B9EB1D780}" name="Wann?" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{5EF2DE9E-43B9-D64B-8A60-8FB51717CC17}" name="Was?" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{395417A9-73AD-C84D-BD83-A155DCD95A27}" name="Beschreibung" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{387E64BD-18A5-064A-A78C-9A47C6B9027C}" name="Kürzel" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{AC85B4AB-70A4-7440-A4B2-896B9EB1D780}" name="Wann?" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{5EF2DE9E-43B9-D64B-8A60-8FB51717CC17}" name="Was?" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{395417A9-73AD-C84D-BD83-A155DCD95A27}" name="Beschreibung" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{43E3993D-6B51-BE40-BD53-4AAF00A787D9}" name="Tabelle4" displayName="Tabelle4" ref="C5:P23" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{43E3993D-6B51-BE40-BD53-4AAF00A787D9}" name="Tabelle4" displayName="Tabelle4" ref="C5:P23" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="C5:P23" xr:uid="{B3E17D04-33B1-C944-9380-9D55598D73CB}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{D7C1018E-23F4-3A4D-91F6-17184710FBCC}" name="Arbeitspaket" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5F79E749-806A-034C-B9E9-0A93D53CC2FB}" name="KW " dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E8DF53F6-DB55-4140-BA3F-D41FAA030393}" name="   " dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{0C8C196A-D77B-4443-9CB5-A3DAD838B06D}" name="     " dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{6DFF614A-2494-654A-A334-4F29ADCA9DE8}" name=" " dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{4E2CAB60-C22D-3545-BF8F-8278E28A8B7C}" name="      " dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{FF0A02C2-9BC2-4149-B08E-B05C05A8D145}" name="       " dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{E7BEB80E-7F71-BD4D-8C8B-95B7ED6B66EB}" name="        " dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{F8D6A7C3-39A4-C34B-8D45-EC2A9BCA22A2}" name="         " dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{2EF3EAE7-3CA4-CB46-9F88-6000F292D806}" name="           " dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{E7D965C8-42E9-8049-B6C0-135E7A9B3D0C}" name="          " dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{9AA3FE54-0183-9245-B244-35441719B7E9}" name="            " dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{EEE3D362-F885-E347-9F2D-465C33850961}" name="             " dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{1EC8A2AA-B664-074F-AF5D-4911EB5C3A81}" name="                " dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D7C1018E-23F4-3A4D-91F6-17184710FBCC}" name="Arbeitspaket" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5F79E749-806A-034C-B9E9-0A93D53CC2FB}" name="KW " dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{E8DF53F6-DB55-4140-BA3F-D41FAA030393}" name="   " dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{0C8C196A-D77B-4443-9CB5-A3DAD838B06D}" name="     " dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{6DFF614A-2494-654A-A334-4F29ADCA9DE8}" name=" " dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{4E2CAB60-C22D-3545-BF8F-8278E28A8B7C}" name="      " dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{FF0A02C2-9BC2-4149-B08E-B05C05A8D145}" name="       " dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{E7BEB80E-7F71-BD4D-8C8B-95B7ED6B66EB}" name="        " dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{F8D6A7C3-39A4-C34B-8D45-EC2A9BCA22A2}" name="         " dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{2EF3EAE7-3CA4-CB46-9F88-6000F292D806}" name="           " dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{E7D965C8-42E9-8049-B6C0-135E7A9B3D0C}" name="          " dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{9AA3FE54-0183-9245-B244-35441719B7E9}" name="            " dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{EEE3D362-F885-E347-9F2D-465C33850961}" name="             " dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{1EC8A2AA-B664-074F-AF5D-4911EB5C3A81}" name="                " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9016,7 +9017,7 @@
     <col min="5" max="5" width="17.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="2" customWidth="1"/>
     <col min="7" max="9" width="10.83203125" style="5"/>
-    <col min="10" max="10" width="16" style="82" customWidth="1"/>
+    <col min="10" max="10" width="16" style="69" customWidth="1"/>
     <col min="11" max="13" width="3.33203125" style="5" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -9024,25 +9025,25 @@
     <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="J1" s="82"/>
+      <c r="D1" s="75"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="J2" s="82"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="J3" s="82"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="J3" s="69"/>
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
@@ -9054,24 +9055,24 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:13" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -9101,7 +9102,7 @@
       <c r="I9" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="J9" s="83" t="s">
+      <c r="J9" s="70" t="s">
         <v>47</v>
       </c>
       <c r="K9" s="16" t="s">
@@ -9110,7 +9111,7 @@
       <c r="L9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="74" t="s">
+      <c r="M9" s="61" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9133,20 +9134,20 @@
       <c r="F10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="60">
         <v>43903</v>
       </c>
-      <c r="H10" s="73">
+      <c r="H10" s="60">
         <v>43902</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="60">
         <v>43905</v>
       </c>
-      <c r="J10" s="84">
+      <c r="J10" s="71">
         <v>1</v>
       </c>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -9168,19 +9169,19 @@
       <c r="F11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="60">
         <v>43906</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="60">
         <v>43902</v>
       </c>
-      <c r="I11" s="73">
+      <c r="I11" s="60">
         <v>43905</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="72">
         <v>1.5</v>
       </c>
-      <c r="K11" s="75"/>
+      <c r="K11" s="62"/>
       <c r="L11" s="19"/>
       <c r="M11" s="11"/>
     </row>
@@ -9199,20 +9200,20 @@
       <c r="F12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="60">
         <v>43906</v>
       </c>
-      <c r="H12" s="73">
+      <c r="H12" s="60">
         <v>43902</v>
       </c>
-      <c r="I12" s="73">
+      <c r="I12" s="60">
         <v>43905</v>
       </c>
-      <c r="J12" s="85">
+      <c r="J12" s="72">
         <v>8</v>
       </c>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
       <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -9230,20 +9231,20 @@
       <c r="F13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="60">
         <v>43906</v>
       </c>
-      <c r="H13" s="73">
+      <c r="H13" s="60">
         <v>43902</v>
       </c>
-      <c r="I13" s="73">
+      <c r="I13" s="60">
         <v>43905</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="72">
         <v>5</v>
       </c>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -9261,19 +9262,19 @@
       <c r="F14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="60">
         <v>43906</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="60">
         <v>43902</v>
       </c>
-      <c r="I14" s="73">
+      <c r="I14" s="60">
         <v>43905</v>
       </c>
-      <c r="J14" s="85">
+      <c r="J14" s="72">
         <v>3</v>
       </c>
-      <c r="K14" s="75"/>
+      <c r="K14" s="62"/>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
     </row>
@@ -9292,20 +9293,20 @@
       <c r="F15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="60">
         <v>43906</v>
       </c>
-      <c r="H15" s="73">
+      <c r="H15" s="60">
         <v>43902</v>
       </c>
-      <c r="I15" s="73">
+      <c r="I15" s="60">
         <v>43905</v>
       </c>
-      <c r="J15" s="85">
+      <c r="J15" s="72">
         <v>16</v>
       </c>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -9323,20 +9324,20 @@
       <c r="F16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="60">
         <v>43906</v>
       </c>
-      <c r="H16" s="73">
+      <c r="H16" s="60">
         <v>43902</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="60">
         <v>43905</v>
       </c>
-      <c r="J16" s="85">
+      <c r="J16" s="72">
         <v>2.5</v>
       </c>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
@@ -9358,20 +9359,20 @@
       <c r="F17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="60">
         <v>43906</v>
       </c>
-      <c r="H17" s="73">
+      <c r="H17" s="60">
         <v>43902</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="60">
         <v>43905</v>
       </c>
-      <c r="J17" s="85">
+      <c r="J17" s="72">
         <v>5</v>
       </c>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
@@ -9389,20 +9390,20 @@
       <c r="F18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="73">
+      <c r="G18" s="60">
         <v>43906</v>
       </c>
-      <c r="H18" s="73">
+      <c r="H18" s="60">
         <v>43902</v>
       </c>
-      <c r="I18" s="73">
+      <c r="I18" s="60">
         <v>43905</v>
       </c>
-      <c r="J18" s="85">
+      <c r="J18" s="72">
         <v>1</v>
       </c>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
@@ -9420,20 +9421,20 @@
       <c r="F19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="73">
+      <c r="G19" s="60">
         <v>43906</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="60">
         <v>43902</v>
       </c>
-      <c r="I19" s="73">
+      <c r="I19" s="60">
         <v>43905</v>
       </c>
-      <c r="J19" s="85">
+      <c r="J19" s="72">
         <v>0.5</v>
       </c>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
@@ -9451,20 +9452,20 @@
       <c r="F20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="60">
         <v>43906</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="60">
         <v>43902</v>
       </c>
-      <c r="I20" s="73">
+      <c r="I20" s="60">
         <v>43905</v>
       </c>
-      <c r="J20" s="85">
+      <c r="J20" s="72">
         <v>1.5</v>
       </c>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
@@ -9486,20 +9487,20 @@
       <c r="F21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="60">
         <v>43906</v>
       </c>
-      <c r="H21" s="73">
+      <c r="H21" s="60">
         <v>43902</v>
       </c>
-      <c r="I21" s="73">
+      <c r="I21" s="60">
         <v>43905</v>
       </c>
-      <c r="J21" s="85">
+      <c r="J21" s="72">
         <v>1.5</v>
       </c>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
@@ -9517,20 +9518,20 @@
       <c r="F22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="73">
+      <c r="G22" s="60">
         <v>43903</v>
       </c>
-      <c r="H22" s="73">
+      <c r="H22" s="60">
         <v>43902</v>
       </c>
-      <c r="I22" s="73">
+      <c r="I22" s="60">
         <v>43905</v>
       </c>
-      <c r="J22" s="85">
+      <c r="J22" s="72">
         <v>0.1</v>
       </c>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
@@ -9552,20 +9553,20 @@
       <c r="F23" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G23" s="73">
+      <c r="G23" s="60">
         <v>43906</v>
       </c>
-      <c r="H23" s="73">
+      <c r="H23" s="60">
         <v>43902</v>
       </c>
-      <c r="I23" s="73">
+      <c r="I23" s="60">
         <v>43905</v>
       </c>
-      <c r="J23" s="85">
+      <c r="J23" s="72">
         <v>7</v>
       </c>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
@@ -9583,20 +9584,20 @@
       <c r="F24" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="60">
         <v>43906</v>
       </c>
-      <c r="H24" s="73">
+      <c r="H24" s="60">
         <v>43902</v>
       </c>
-      <c r="I24" s="73">
+      <c r="I24" s="60">
         <v>43905</v>
       </c>
-      <c r="J24" s="85">
+      <c r="J24" s="72">
         <v>0.5</v>
       </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
@@ -9614,20 +9615,20 @@
       <c r="F25" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G25" s="73">
+      <c r="G25" s="60">
         <v>43906</v>
       </c>
-      <c r="H25" s="73">
+      <c r="H25" s="60">
         <v>43902</v>
       </c>
-      <c r="I25" s="73">
+      <c r="I25" s="60">
         <v>43905</v>
       </c>
-      <c r="J25" s="85">
+      <c r="J25" s="72">
         <v>0.5</v>
       </c>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
@@ -9645,20 +9646,20 @@
       <c r="F26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="73">
+      <c r="G26" s="60">
         <v>43906</v>
       </c>
-      <c r="H26" s="73">
+      <c r="H26" s="60">
         <v>43902</v>
       </c>
-      <c r="I26" s="73">
+      <c r="I26" s="60">
         <v>43905</v>
       </c>
-      <c r="J26" s="85">
+      <c r="J26" s="72">
         <v>0.5</v>
       </c>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -9680,20 +9681,20 @@
       <c r="F27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="60">
         <v>43904</v>
       </c>
-      <c r="H27" s="73">
+      <c r="H27" s="60">
         <v>43902</v>
       </c>
-      <c r="I27" s="73">
+      <c r="I27" s="60">
         <v>43905</v>
       </c>
-      <c r="J27" s="85">
+      <c r="J27" s="72">
         <v>0.5</v>
       </c>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
       <c r="M27" s="11"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -9735,20 +9736,20 @@
       <c r="F28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="73">
+      <c r="G28" s="60">
         <v>43905</v>
       </c>
-      <c r="H28" s="73">
+      <c r="H28" s="60">
         <v>43902</v>
       </c>
-      <c r="I28" s="73">
+      <c r="I28" s="60">
         <v>43905</v>
       </c>
-      <c r="J28" s="85">
+      <c r="J28" s="72">
         <v>0.5</v>
       </c>
       <c r="K28" s="10"/>
-      <c r="L28" s="75"/>
+      <c r="L28" s="62"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -9766,20 +9767,20 @@
       <c r="F29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="73">
+      <c r="G29" s="60">
         <v>43905</v>
       </c>
-      <c r="H29" s="73">
+      <c r="H29" s="60">
         <v>43902</v>
       </c>
-      <c r="I29" s="73">
+      <c r="I29" s="60">
         <v>43905</v>
       </c>
-      <c r="J29" s="85">
+      <c r="J29" s="72">
         <v>0.5</v>
       </c>
       <c r="K29" s="10"/>
-      <c r="L29" s="75"/>
+      <c r="L29" s="62"/>
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -9797,21 +9798,21 @@
       <c r="F30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="73">
+      <c r="G30" s="60">
         <v>43905</v>
       </c>
-      <c r="H30" s="73">
+      <c r="H30" s="60">
         <v>43902</v>
       </c>
-      <c r="I30" s="73">
+      <c r="I30" s="60">
         <v>43905</v>
       </c>
-      <c r="J30" s="85">
+      <c r="J30" s="72">
         <v>0.25</v>
       </c>
       <c r="K30" s="9"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
@@ -9832,21 +9833,21 @@
       <c r="F31" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="73">
+      <c r="G31" s="60">
         <v>43905</v>
       </c>
-      <c r="H31" s="73">
+      <c r="H31" s="60">
         <v>43902</v>
       </c>
-      <c r="I31" s="73">
+      <c r="I31" s="60">
         <v>43905</v>
       </c>
-      <c r="J31" s="85">
+      <c r="J31" s="72">
         <v>6</v>
       </c>
       <c r="K31" s="9"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
@@ -9863,21 +9864,21 @@
       <c r="F32" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="73">
+      <c r="G32" s="60">
         <v>43905</v>
       </c>
-      <c r="H32" s="73">
+      <c r="H32" s="60">
         <v>43902</v>
       </c>
-      <c r="I32" s="73">
+      <c r="I32" s="60">
         <v>43905</v>
       </c>
-      <c r="J32" s="85">
+      <c r="J32" s="72">
         <v>2</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
@@ -9894,21 +9895,21 @@
       <c r="F33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="73">
+      <c r="G33" s="60">
         <v>43905</v>
       </c>
-      <c r="H33" s="73">
+      <c r="H33" s="60">
         <v>43902</v>
       </c>
-      <c r="I33" s="73">
+      <c r="I33" s="60">
         <v>43905</v>
       </c>
-      <c r="J33" s="85">
+      <c r="J33" s="72">
         <v>7</v>
       </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
@@ -9925,21 +9926,21 @@
       <c r="F34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="73">
+      <c r="G34" s="60">
         <v>43905</v>
       </c>
-      <c r="H34" s="73">
+      <c r="H34" s="60">
         <v>43902</v>
       </c>
-      <c r="I34" s="73">
+      <c r="I34" s="60">
         <v>43905</v>
       </c>
-      <c r="J34" s="85">
+      <c r="J34" s="72">
         <v>10</v>
       </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
@@ -9956,21 +9957,21 @@
       <c r="F35" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="73">
+      <c r="G35" s="60">
         <v>43909</v>
       </c>
-      <c r="H35" s="73">
+      <c r="H35" s="60">
         <v>43902</v>
       </c>
-      <c r="I35" s="73">
+      <c r="I35" s="60">
         <v>43909</v>
       </c>
-      <c r="J35" s="85">
+      <c r="J35" s="72">
         <v>2</v>
       </c>
       <c r="K35" s="9"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
@@ -9987,21 +9988,21 @@
       <c r="F36" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="73">
+      <c r="G36" s="60">
         <v>43909</v>
       </c>
-      <c r="H36" s="73">
+      <c r="H36" s="60">
         <v>43902</v>
       </c>
-      <c r="I36" s="73">
+      <c r="I36" s="60">
         <v>43909</v>
       </c>
-      <c r="J36" s="85">
+      <c r="J36" s="72">
         <v>1</v>
       </c>
       <c r="K36" s="9"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
@@ -10018,21 +10019,21 @@
       <c r="F37" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="73">
+      <c r="G37" s="60">
         <v>43909</v>
       </c>
-      <c r="H37" s="73">
+      <c r="H37" s="60">
         <v>43902</v>
       </c>
-      <c r="I37" s="73">
+      <c r="I37" s="60">
         <v>43909</v>
       </c>
-      <c r="J37" s="85">
+      <c r="J37" s="72">
         <v>2</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="17" t="s">
@@ -10053,21 +10054,21 @@
       <c r="F38" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G38" s="73">
+      <c r="G38" s="60">
         <v>43909</v>
       </c>
-      <c r="H38" s="73">
+      <c r="H38" s="60">
         <v>43905</v>
       </c>
-      <c r="I38" s="73">
+      <c r="I38" s="60">
         <v>43912</v>
       </c>
-      <c r="J38" s="85">
+      <c r="J38" s="72">
         <v>30</v>
       </c>
       <c r="K38" s="9"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
@@ -10084,21 +10085,21 @@
       <c r="F39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G39" s="73">
+      <c r="G39" s="60">
         <v>43909</v>
       </c>
-      <c r="H39" s="73">
+      <c r="H39" s="60">
         <v>43905</v>
       </c>
-      <c r="I39" s="73">
+      <c r="I39" s="60">
         <v>43912</v>
       </c>
-      <c r="J39" s="85">
+      <c r="J39" s="72">
         <v>2</v>
       </c>
       <c r="K39" s="9"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
@@ -10115,21 +10116,21 @@
       <c r="F40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="73">
+      <c r="G40" s="60">
         <v>43912</v>
       </c>
-      <c r="H40" s="73">
+      <c r="H40" s="60">
         <v>43905</v>
       </c>
-      <c r="I40" s="73">
+      <c r="I40" s="60">
         <v>43912</v>
       </c>
-      <c r="J40" s="85">
+      <c r="J40" s="72">
         <v>5</v>
       </c>
       <c r="K40" s="9"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
     </row>
     <row r="41" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
@@ -10146,21 +10147,21 @@
       <c r="F41" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="73">
+      <c r="G41" s="60">
         <v>43912</v>
       </c>
-      <c r="H41" s="73">
+      <c r="H41" s="60">
         <v>43905</v>
       </c>
-      <c r="I41" s="73">
+      <c r="I41" s="60">
         <v>43912</v>
       </c>
-      <c r="J41" s="85">
+      <c r="J41" s="72">
         <v>0.1</v>
       </c>
       <c r="K41" s="9"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
@@ -10181,21 +10182,21 @@
       <c r="F42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="73">
+      <c r="G42" s="60">
         <v>43907</v>
       </c>
-      <c r="H42" s="73">
+      <c r="H42" s="60">
         <v>43905</v>
       </c>
-      <c r="I42" s="73">
+      <c r="I42" s="60">
         <v>43912</v>
       </c>
-      <c r="J42" s="85">
+      <c r="J42" s="72">
         <v>0.1</v>
       </c>
       <c r="K42" s="9"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
@@ -10212,21 +10213,21 @@
       <c r="F43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="73">
+      <c r="G43" s="60">
         <v>43911</v>
       </c>
-      <c r="H43" s="73">
+      <c r="H43" s="60">
         <v>43905</v>
       </c>
-      <c r="I43" s="73">
+      <c r="I43" s="60">
         <v>43912</v>
       </c>
-      <c r="J43" s="85">
+      <c r="J43" s="72">
         <v>8</v>
       </c>
       <c r="K43" s="9"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
@@ -10243,21 +10244,21 @@
       <c r="F44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="73">
+      <c r="G44" s="60">
         <v>43912</v>
       </c>
-      <c r="H44" s="73">
+      <c r="H44" s="60">
         <v>43905</v>
       </c>
-      <c r="I44" s="73">
+      <c r="I44" s="60">
         <v>43912</v>
       </c>
-      <c r="J44" s="85">
+      <c r="J44" s="72">
         <v>1</v>
       </c>
       <c r="K44" s="9"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="62"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
@@ -10274,21 +10275,21 @@
       <c r="F45" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G45" s="73">
+      <c r="G45" s="60">
         <v>43912</v>
       </c>
-      <c r="H45" s="73">
+      <c r="H45" s="60">
         <v>43905</v>
       </c>
-      <c r="I45" s="73">
+      <c r="I45" s="60">
         <v>43912</v>
       </c>
-      <c r="J45" s="85">
+      <c r="J45" s="72">
         <v>1</v>
       </c>
       <c r="K45" s="9"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="62"/>
     </row>
     <row r="46" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
@@ -10309,21 +10310,21 @@
       <c r="F46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G46" s="73">
+      <c r="G46" s="60">
         <v>43912</v>
       </c>
-      <c r="H46" s="73">
+      <c r="H46" s="60">
         <v>43905</v>
       </c>
-      <c r="I46" s="73">
+      <c r="I46" s="60">
         <v>43912</v>
       </c>
-      <c r="J46" s="85">
+      <c r="J46" s="72">
         <v>0.5</v>
       </c>
       <c r="K46" s="9"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="62"/>
     </row>
     <row r="47" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
@@ -10340,21 +10341,21 @@
       <c r="F47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="73">
+      <c r="G47" s="60">
         <v>43912</v>
       </c>
-      <c r="H47" s="73">
+      <c r="H47" s="60">
         <v>43905</v>
       </c>
-      <c r="I47" s="73">
+      <c r="I47" s="60">
         <v>43912</v>
       </c>
-      <c r="J47" s="85">
+      <c r="J47" s="72">
         <v>0.5</v>
       </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="62"/>
     </row>
     <row r="48" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
@@ -10371,21 +10372,21 @@
       <c r="F48" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="G48" s="73">
+      <c r="G48" s="60">
         <v>43912</v>
       </c>
-      <c r="H48" s="73">
+      <c r="H48" s="60">
         <v>43905</v>
       </c>
-      <c r="I48" s="73">
+      <c r="I48" s="60">
         <v>43912</v>
       </c>
-      <c r="J48" s="85">
+      <c r="J48" s="72">
         <v>0.25</v>
       </c>
       <c r="K48" s="9"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="17" t="s">
@@ -10406,21 +10407,21 @@
       <c r="F49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G49" s="73">
+      <c r="G49" s="60">
         <v>43914</v>
       </c>
-      <c r="H49" s="73">
+      <c r="H49" s="60">
         <v>43913</v>
       </c>
-      <c r="I49" s="73">
+      <c r="I49" s="60">
         <v>43919</v>
       </c>
-      <c r="J49" s="85">
+      <c r="J49" s="72">
         <v>12</v>
       </c>
       <c r="K49" s="9"/>
-      <c r="L49" s="75"/>
-      <c r="M49" s="75"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
@@ -10437,21 +10438,21 @@
       <c r="F50" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="73">
+      <c r="G50" s="60">
         <v>43914</v>
       </c>
-      <c r="H50" s="73">
+      <c r="H50" s="60">
         <v>43913</v>
       </c>
-      <c r="I50" s="73">
+      <c r="I50" s="60">
         <v>43919</v>
       </c>
-      <c r="J50" s="85">
+      <c r="J50" s="72">
         <v>16</v>
       </c>
       <c r="K50" s="9"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
@@ -10466,21 +10467,21 @@
         <v>57</v>
       </c>
       <c r="F51" s="13"/>
-      <c r="G51" s="73">
+      <c r="G51" s="60">
         <v>43915</v>
       </c>
-      <c r="H51" s="73">
+      <c r="H51" s="60">
         <v>43913</v>
       </c>
-      <c r="I51" s="73">
+      <c r="I51" s="60">
         <v>43919</v>
       </c>
-      <c r="J51" s="85">
+      <c r="J51" s="72">
         <v>1</v>
       </c>
       <c r="K51" s="9"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="62"/>
     </row>
     <row r="52" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
@@ -10497,21 +10498,21 @@
       <c r="F52" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G52" s="73">
+      <c r="G52" s="60">
         <v>43915</v>
       </c>
-      <c r="H52" s="73">
+      <c r="H52" s="60">
         <v>43913</v>
       </c>
-      <c r="I52" s="73">
+      <c r="I52" s="60">
         <v>43919</v>
       </c>
-      <c r="J52" s="85">
+      <c r="J52" s="72">
         <v>1</v>
       </c>
       <c r="K52" s="9"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
@@ -10530,21 +10531,21 @@
         <v>56</v>
       </c>
       <c r="F53" s="13"/>
-      <c r="G53" s="73">
+      <c r="G53" s="60">
         <v>43916</v>
       </c>
-      <c r="H53" s="73">
+      <c r="H53" s="60">
         <v>43913</v>
       </c>
-      <c r="I53" s="73">
+      <c r="I53" s="60">
         <v>43919</v>
       </c>
-      <c r="J53" s="85">
+      <c r="J53" s="72">
         <v>6</v>
       </c>
       <c r="K53" s="9"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
@@ -10559,21 +10560,21 @@
         <v>56</v>
       </c>
       <c r="F54" s="13"/>
-      <c r="G54" s="73">
+      <c r="G54" s="60">
         <v>43917</v>
       </c>
-      <c r="H54" s="73">
+      <c r="H54" s="60">
         <v>43913</v>
       </c>
-      <c r="I54" s="73">
+      <c r="I54" s="60">
         <v>43919</v>
       </c>
-      <c r="J54" s="85">
+      <c r="J54" s="72">
         <v>7</v>
       </c>
       <c r="K54" s="9"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
@@ -10590,21 +10591,21 @@
       <c r="F55" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="73">
+      <c r="G55" s="60">
         <v>43918</v>
       </c>
-      <c r="H55" s="73">
+      <c r="H55" s="60">
         <v>43913</v>
       </c>
-      <c r="I55" s="73">
+      <c r="I55" s="60">
         <v>43919</v>
       </c>
-      <c r="J55" s="85">
+      <c r="J55" s="72">
         <v>2</v>
       </c>
       <c r="K55" s="9"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
@@ -10623,21 +10624,21 @@
         <v>60</v>
       </c>
       <c r="F56" s="13"/>
-      <c r="G56" s="73">
+      <c r="G56" s="60">
         <v>43918</v>
       </c>
-      <c r="H56" s="73">
+      <c r="H56" s="60">
         <v>43913</v>
       </c>
-      <c r="I56" s="73">
+      <c r="I56" s="60">
         <v>43919</v>
       </c>
-      <c r="J56" s="85">
+      <c r="J56" s="72">
         <v>16</v>
       </c>
       <c r="K56" s="9"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
@@ -10652,21 +10653,21 @@
         <v>60</v>
       </c>
       <c r="F57" s="13"/>
-      <c r="G57" s="73">
+      <c r="G57" s="60">
         <v>43918</v>
       </c>
-      <c r="H57" s="73">
+      <c r="H57" s="60">
         <v>43913</v>
       </c>
-      <c r="I57" s="73">
+      <c r="I57" s="60">
         <v>43919</v>
       </c>
-      <c r="J57" s="85">
+      <c r="J57" s="72">
         <v>12</v>
       </c>
       <c r="K57" s="9"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
+      <c r="L57" s="62"/>
+      <c r="M57" s="62"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
@@ -10681,21 +10682,21 @@
         <v>60</v>
       </c>
       <c r="F58" s="13"/>
-      <c r="G58" s="73">
+      <c r="G58" s="60">
         <v>43918</v>
       </c>
-      <c r="H58" s="73">
+      <c r="H58" s="60">
         <v>43913</v>
       </c>
-      <c r="I58" s="73">
+      <c r="I58" s="60">
         <v>43919</v>
       </c>
-      <c r="J58" s="85">
+      <c r="J58" s="72">
         <v>10</v>
       </c>
       <c r="K58" s="9"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
@@ -10716,21 +10717,21 @@
       <c r="F59" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G59" s="73">
+      <c r="G59" s="60">
         <v>43913</v>
       </c>
-      <c r="H59" s="73">
+      <c r="H59" s="60">
         <v>43913</v>
       </c>
-      <c r="I59" s="73">
+      <c r="I59" s="60">
         <v>43919</v>
       </c>
-      <c r="J59" s="85">
+      <c r="J59" s="72">
         <v>2</v>
       </c>
       <c r="K59" s="9"/>
-      <c r="L59" s="75"/>
-      <c r="M59" s="75"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
@@ -10745,21 +10746,21 @@
         <v>58</v>
       </c>
       <c r="F60" s="13"/>
-      <c r="G60" s="73">
+      <c r="G60" s="60">
         <v>43914</v>
       </c>
-      <c r="H60" s="73">
+      <c r="H60" s="60">
         <v>43913</v>
       </c>
-      <c r="I60" s="73">
+      <c r="I60" s="60">
         <v>43919</v>
       </c>
-      <c r="J60" s="85">
+      <c r="J60" s="72">
         <v>8</v>
       </c>
       <c r="K60" s="9"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
@@ -10776,21 +10777,21 @@
       <c r="F61" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G61" s="73">
+      <c r="G61" s="60">
         <v>43914</v>
       </c>
-      <c r="H61" s="73">
+      <c r="H61" s="60">
         <v>43913</v>
       </c>
-      <c r="I61" s="73">
+      <c r="I61" s="60">
         <v>43919</v>
       </c>
-      <c r="J61" s="85">
+      <c r="J61" s="72">
         <v>1</v>
       </c>
       <c r="K61" s="9"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
@@ -10811,21 +10812,21 @@
       <c r="F62" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G62" s="73">
+      <c r="G62" s="60">
         <v>43915</v>
       </c>
-      <c r="H62" s="73">
+      <c r="H62" s="60">
         <v>43913</v>
       </c>
-      <c r="I62" s="73">
+      <c r="I62" s="60">
         <v>43919</v>
       </c>
-      <c r="J62" s="85">
+      <c r="J62" s="72">
         <v>25</v>
       </c>
       <c r="K62" s="9"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
@@ -10842,21 +10843,21 @@
       <c r="F63" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G63" s="73">
+      <c r="G63" s="60">
         <v>43918</v>
       </c>
-      <c r="H63" s="73">
+      <c r="H63" s="60">
         <v>43913</v>
       </c>
-      <c r="I63" s="73">
+      <c r="I63" s="60">
         <v>43919</v>
       </c>
-      <c r="J63" s="85">
+      <c r="J63" s="72">
         <v>40</v>
       </c>
       <c r="K63" s="9"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
@@ -10873,21 +10874,21 @@
       <c r="F64" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G64" s="73">
+      <c r="G64" s="60">
         <v>43919</v>
       </c>
-      <c r="H64" s="73">
+      <c r="H64" s="60">
         <v>43913</v>
       </c>
-      <c r="I64" s="73">
+      <c r="I64" s="60">
         <v>43919</v>
       </c>
-      <c r="J64" s="85">
+      <c r="J64" s="72">
         <v>20</v>
       </c>
       <c r="K64" s="9"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
@@ -10904,21 +10905,21 @@
       <c r="F65" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G65" s="73">
+      <c r="G65" s="60">
         <v>43919</v>
       </c>
-      <c r="H65" s="73">
+      <c r="H65" s="60">
         <v>43913</v>
       </c>
-      <c r="I65" s="73">
+      <c r="I65" s="60">
         <v>43919</v>
       </c>
-      <c r="J65" s="85">
+      <c r="J65" s="72">
         <v>15</v>
       </c>
       <c r="K65" s="9"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
@@ -10937,21 +10938,21 @@
         <v>57</v>
       </c>
       <c r="F66" s="13"/>
-      <c r="G66" s="73">
+      <c r="G66" s="60">
         <v>43919</v>
       </c>
-      <c r="H66" s="73">
+      <c r="H66" s="60">
         <v>43913</v>
       </c>
-      <c r="I66" s="73">
+      <c r="I66" s="60">
         <v>43919</v>
       </c>
-      <c r="J66" s="85">
+      <c r="J66" s="72">
         <v>0.5</v>
       </c>
       <c r="K66" s="9"/>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="62"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
@@ -10966,21 +10967,21 @@
         <v>57</v>
       </c>
       <c r="F67" s="13"/>
-      <c r="G67" s="73">
+      <c r="G67" s="60">
         <v>43919</v>
       </c>
-      <c r="H67" s="73">
+      <c r="H67" s="60">
         <v>43913</v>
       </c>
-      <c r="I67" s="73">
+      <c r="I67" s="60">
         <v>43919</v>
       </c>
-      <c r="J67" s="85">
+      <c r="J67" s="72">
         <v>0.5</v>
       </c>
       <c r="K67" s="9"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
@@ -10995,21 +10996,21 @@
         <v>59</v>
       </c>
       <c r="F68" s="13"/>
-      <c r="G68" s="73">
+      <c r="G68" s="60">
         <v>43919</v>
       </c>
-      <c r="H68" s="73">
+      <c r="H68" s="60">
         <v>43913</v>
       </c>
-      <c r="I68" s="73">
+      <c r="I68" s="60">
         <v>43919</v>
       </c>
-      <c r="J68" s="85">
+      <c r="J68" s="72">
         <v>0.25</v>
       </c>
       <c r="K68" s="9"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="62"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
@@ -11028,21 +11029,21 @@
         <v>57</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="73">
+      <c r="G69" s="60">
         <v>43913</v>
       </c>
-      <c r="H69" s="73">
+      <c r="H69" s="60">
         <v>43913</v>
       </c>
-      <c r="I69" s="73">
+      <c r="I69" s="60">
         <v>43913</v>
       </c>
-      <c r="J69" s="85">
+      <c r="J69" s="72">
         <v>0.25</v>
       </c>
       <c r="K69" s="9"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="62"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
@@ -11059,21 +11060,21 @@
       <c r="F70" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G70" s="73">
+      <c r="G70" s="60">
         <v>43922</v>
       </c>
-      <c r="H70" s="73">
+      <c r="H70" s="60">
         <v>43920</v>
       </c>
-      <c r="I70" s="73">
+      <c r="I70" s="60">
         <v>43922</v>
       </c>
-      <c r="J70" s="85">
+      <c r="J70" s="72">
         <v>3</v>
       </c>
       <c r="K70" s="9"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="62"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
@@ -11090,21 +11091,21 @@
       <c r="F71" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G71" s="73">
+      <c r="G71" s="60">
         <v>43920</v>
       </c>
-      <c r="H71" s="73">
+      <c r="H71" s="60">
         <v>43920</v>
       </c>
-      <c r="I71" s="73">
+      <c r="I71" s="60">
         <v>43920</v>
       </c>
-      <c r="J71" s="85">
+      <c r="J71" s="72">
         <v>0.5</v>
       </c>
       <c r="K71" s="9"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
@@ -11119,21 +11120,21 @@
         <v>57</v>
       </c>
       <c r="F72" s="13"/>
-      <c r="G72" s="73">
+      <c r="G72" s="60">
         <v>43922</v>
       </c>
-      <c r="H72" s="73">
+      <c r="H72" s="60">
         <v>43920</v>
       </c>
-      <c r="I72" s="73">
+      <c r="I72" s="60">
         <v>43922</v>
       </c>
-      <c r="J72" s="85">
+      <c r="J72" s="72">
         <v>0.5</v>
       </c>
       <c r="K72" s="9"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
@@ -11154,21 +11155,21 @@
       <c r="F73" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G73" s="73">
+      <c r="G73" s="60">
         <v>43922</v>
       </c>
-      <c r="H73" s="73">
+      <c r="H73" s="60">
         <v>43920</v>
       </c>
-      <c r="I73" s="73">
+      <c r="I73" s="60">
         <v>43922</v>
       </c>
-      <c r="J73" s="85">
+      <c r="J73" s="72">
         <v>1</v>
       </c>
       <c r="K73" s="9"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
@@ -11187,21 +11188,21 @@
         <v>57</v>
       </c>
       <c r="F74" s="13"/>
-      <c r="G74" s="73">
+      <c r="G74" s="60">
         <v>43923</v>
       </c>
-      <c r="H74" s="73">
+      <c r="H74" s="60">
         <v>43923</v>
       </c>
-      <c r="I74" s="73">
+      <c r="I74" s="60">
         <v>43923</v>
       </c>
-      <c r="J74" s="85">
+      <c r="J74" s="72">
         <v>0.25</v>
       </c>
       <c r="K74" s="9"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="75"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
@@ -11216,21 +11217,21 @@
         <v>57</v>
       </c>
       <c r="F75" s="13"/>
-      <c r="G75" s="73">
+      <c r="G75" s="60">
         <v>43923</v>
       </c>
-      <c r="H75" s="73">
+      <c r="H75" s="60">
         <v>43923</v>
       </c>
-      <c r="I75" s="73">
+      <c r="I75" s="60">
         <v>43923</v>
       </c>
-      <c r="J75" s="85">
+      <c r="J75" s="72">
         <v>0.75</v>
       </c>
       <c r="K75" s="9"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="75"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
@@ -11245,21 +11246,21 @@
         <v>57</v>
       </c>
       <c r="F76" s="13"/>
-      <c r="G76" s="73">
+      <c r="G76" s="60">
         <v>43923</v>
       </c>
-      <c r="H76" s="73">
+      <c r="H76" s="60">
         <v>43923</v>
       </c>
-      <c r="I76" s="73">
+      <c r="I76" s="60">
         <v>43923</v>
       </c>
-      <c r="J76" s="85">
+      <c r="J76" s="72">
         <v>3</v>
       </c>
       <c r="K76" s="9"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="62"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
@@ -11274,21 +11275,21 @@
         <v>56</v>
       </c>
       <c r="F77" s="13"/>
-      <c r="G77" s="73">
+      <c r="G77" s="60">
         <v>43924</v>
       </c>
-      <c r="H77" s="73">
+      <c r="H77" s="60">
         <v>43923</v>
       </c>
-      <c r="I77" s="73">
+      <c r="I77" s="60">
         <v>43924</v>
       </c>
-      <c r="J77" s="85">
+      <c r="J77" s="72">
         <v>2</v>
       </c>
       <c r="K77" s="9"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="75"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="62"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
@@ -11307,21 +11308,21 @@
         <v>57</v>
       </c>
       <c r="F78" s="13"/>
-      <c r="G78" s="73">
+      <c r="G78" s="60">
         <v>43924</v>
       </c>
-      <c r="H78" s="73">
+      <c r="H78" s="60">
         <v>43923</v>
       </c>
-      <c r="I78" s="73">
+      <c r="I78" s="60">
         <v>43924</v>
       </c>
-      <c r="J78" s="85">
+      <c r="J78" s="72">
         <v>7</v>
       </c>
       <c r="K78" s="9"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="75"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
@@ -11336,21 +11337,21 @@
         <v>57</v>
       </c>
       <c r="F79" s="13"/>
-      <c r="G79" s="73">
+      <c r="G79" s="60">
         <v>43925</v>
       </c>
-      <c r="H79" s="73">
+      <c r="H79" s="60">
         <v>43923</v>
       </c>
-      <c r="I79" s="73">
+      <c r="I79" s="60">
         <v>43925</v>
       </c>
-      <c r="J79" s="85">
+      <c r="J79" s="72">
         <v>2</v>
       </c>
       <c r="K79" s="9"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
@@ -11365,21 +11366,21 @@
         <v>57</v>
       </c>
       <c r="F80" s="13"/>
-      <c r="G80" s="73">
+      <c r="G80" s="60">
         <v>43925</v>
       </c>
-      <c r="H80" s="73">
+      <c r="H80" s="60">
         <v>43922</v>
       </c>
-      <c r="I80" s="73">
+      <c r="I80" s="60">
         <v>43923</v>
       </c>
-      <c r="J80" s="85">
+      <c r="J80" s="72">
         <v>1</v>
       </c>
       <c r="K80" s="9"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="75"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
@@ -11396,21 +11397,21 @@
       <c r="F81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G81" s="73">
+      <c r="G81" s="60">
         <v>43926</v>
       </c>
-      <c r="H81" s="73">
+      <c r="H81" s="60">
         <v>43926</v>
       </c>
-      <c r="I81" s="73">
+      <c r="I81" s="60">
         <v>43926</v>
       </c>
-      <c r="J81" s="85">
+      <c r="J81" s="72">
         <v>2</v>
       </c>
       <c r="K81" s="9"/>
-      <c r="L81" s="75"/>
-      <c r="M81" s="75"/>
+      <c r="L81" s="62"/>
+      <c r="M81" s="62"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
@@ -11429,21 +11430,21 @@
         <v>57</v>
       </c>
       <c r="F82" s="13"/>
-      <c r="G82" s="73">
+      <c r="G82" s="60">
         <v>43926</v>
       </c>
-      <c r="H82" s="73">
+      <c r="H82" s="60">
         <v>43926</v>
       </c>
-      <c r="I82" s="73">
+      <c r="I82" s="60">
         <v>43926</v>
       </c>
-      <c r="J82" s="85">
+      <c r="J82" s="72">
         <v>0.5</v>
       </c>
       <c r="K82" s="9"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
+      <c r="L82" s="62"/>
+      <c r="M82" s="62"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
@@ -11458,21 +11459,21 @@
         <v>57</v>
       </c>
       <c r="F83" s="13"/>
-      <c r="G83" s="73">
+      <c r="G83" s="60">
         <v>43926</v>
       </c>
-      <c r="H83" s="73">
+      <c r="H83" s="60">
         <v>43926</v>
       </c>
-      <c r="I83" s="73">
+      <c r="I83" s="60">
         <v>43926</v>
       </c>
-      <c r="J83" s="85">
+      <c r="J83" s="72">
         <v>0.5</v>
       </c>
       <c r="K83" s="9"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
+      <c r="L83" s="62"/>
+      <c r="M83" s="62"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
@@ -11487,21 +11488,21 @@
         <v>59</v>
       </c>
       <c r="F84" s="13"/>
-      <c r="G84" s="73">
+      <c r="G84" s="60">
         <v>43926</v>
       </c>
-      <c r="H84" s="73">
+      <c r="H84" s="60">
         <v>43926</v>
       </c>
-      <c r="I84" s="73">
+      <c r="I84" s="60">
         <v>43926</v>
       </c>
-      <c r="J84" s="85">
+      <c r="J84" s="72">
         <v>0.25</v>
       </c>
       <c r="K84" s="9"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
+      <c r="L84" s="62"/>
+      <c r="M84" s="62"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
@@ -11520,21 +11521,21 @@
         <v>58</v>
       </c>
       <c r="F85" s="13"/>
-      <c r="G85" s="73">
+      <c r="G85" s="60">
         <v>43942</v>
       </c>
-      <c r="H85" s="73">
+      <c r="H85" s="60">
         <v>43923</v>
       </c>
-      <c r="I85" s="73">
+      <c r="I85" s="60">
         <v>43943</v>
       </c>
-      <c r="J85" s="85">
+      <c r="J85" s="72">
         <v>10</v>
       </c>
       <c r="K85" s="9"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
+      <c r="L85" s="62"/>
+      <c r="M85" s="62"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
@@ -11549,21 +11550,21 @@
         <v>58</v>
       </c>
       <c r="F86" s="13"/>
-      <c r="G86" s="73">
+      <c r="G86" s="60">
         <v>43942</v>
       </c>
-      <c r="H86" s="73">
+      <c r="H86" s="60">
         <v>43923</v>
       </c>
-      <c r="I86" s="73">
+      <c r="I86" s="60">
         <v>43943</v>
       </c>
-      <c r="J86" s="85">
+      <c r="J86" s="72">
         <v>10</v>
       </c>
       <c r="K86" s="9"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
+      <c r="L86" s="62"/>
+      <c r="M86" s="62"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
@@ -11578,21 +11579,21 @@
         <v>58</v>
       </c>
       <c r="F87" s="13"/>
-      <c r="G87" s="73">
+      <c r="G87" s="60">
         <v>43942</v>
       </c>
-      <c r="H87" s="73">
+      <c r="H87" s="60">
         <v>43923</v>
       </c>
-      <c r="I87" s="73">
+      <c r="I87" s="60">
         <v>43943</v>
       </c>
-      <c r="J87" s="85">
+      <c r="J87" s="72">
         <v>10</v>
       </c>
       <c r="K87" s="9"/>
-      <c r="L87" s="75"/>
-      <c r="M87" s="75"/>
+      <c r="L87" s="62"/>
+      <c r="M87" s="62"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
@@ -11607,21 +11608,21 @@
         <v>58</v>
       </c>
       <c r="F88" s="13"/>
-      <c r="G88" s="73">
+      <c r="G88" s="60">
         <v>43942</v>
       </c>
-      <c r="H88" s="73">
+      <c r="H88" s="60">
         <v>43923</v>
       </c>
-      <c r="I88" s="73">
+      <c r="I88" s="60">
         <v>43943</v>
       </c>
-      <c r="J88" s="85">
+      <c r="J88" s="72">
         <v>10</v>
       </c>
       <c r="K88" s="9"/>
-      <c r="L88" s="75"/>
-      <c r="M88" s="75"/>
+      <c r="L88" s="62"/>
+      <c r="M88" s="62"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
@@ -11638,21 +11639,21 @@
       <c r="F89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G89" s="73">
+      <c r="G89" s="60">
         <v>43942</v>
       </c>
-      <c r="H89" s="73">
+      <c r="H89" s="60">
         <v>43923</v>
       </c>
-      <c r="I89" s="73">
+      <c r="I89" s="60">
         <v>43943</v>
       </c>
-      <c r="J89" s="85">
+      <c r="J89" s="72">
         <v>18</v>
       </c>
       <c r="K89" s="9"/>
-      <c r="L89" s="75"/>
-      <c r="M89" s="75"/>
+      <c r="L89" s="62"/>
+      <c r="M89" s="62"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
@@ -11667,21 +11668,21 @@
         <v>59</v>
       </c>
       <c r="F90" s="13"/>
-      <c r="G90" s="73">
+      <c r="G90" s="60">
         <v>43942</v>
       </c>
-      <c r="H90" s="73">
+      <c r="H90" s="60">
         <v>43923</v>
       </c>
-      <c r="I90" s="73">
+      <c r="I90" s="60">
         <v>43943</v>
       </c>
-      <c r="J90" s="85">
+      <c r="J90" s="72">
         <v>350</v>
       </c>
       <c r="K90" s="9"/>
-      <c r="L90" s="75"/>
-      <c r="M90" s="75"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
@@ -11700,21 +11701,21 @@
         <v>60</v>
       </c>
       <c r="F91" s="13"/>
-      <c r="G91" s="73">
+      <c r="G91" s="60">
         <v>43930</v>
       </c>
-      <c r="H91" s="73">
+      <c r="H91" s="60">
         <v>43923</v>
       </c>
-      <c r="I91" s="73">
+      <c r="I91" s="60">
         <v>43943</v>
       </c>
-      <c r="J91" s="85">
+      <c r="J91" s="72">
         <v>40</v>
       </c>
       <c r="K91" s="9"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
+      <c r="L91" s="62"/>
+      <c r="M91" s="62"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
@@ -11729,21 +11730,21 @@
         <v>60</v>
       </c>
       <c r="F92" s="13"/>
-      <c r="G92" s="73">
+      <c r="G92" s="60">
         <v>43930</v>
       </c>
-      <c r="H92" s="73">
+      <c r="H92" s="60">
         <v>43923</v>
       </c>
-      <c r="I92" s="73">
+      <c r="I92" s="60">
         <v>43943</v>
       </c>
-      <c r="J92" s="85">
+      <c r="J92" s="72">
         <v>20</v>
       </c>
       <c r="K92" s="9"/>
-      <c r="L92" s="75"/>
-      <c r="M92" s="75"/>
+      <c r="L92" s="62"/>
+      <c r="M92" s="62"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
@@ -11758,21 +11759,21 @@
         <v>60</v>
       </c>
       <c r="F93" s="13"/>
-      <c r="G93" s="73">
+      <c r="G93" s="60">
         <v>43930</v>
       </c>
-      <c r="H93" s="73">
+      <c r="H93" s="60">
         <v>43923</v>
       </c>
-      <c r="I93" s="73">
+      <c r="I93" s="60">
         <v>43943</v>
       </c>
-      <c r="J93" s="85">
+      <c r="J93" s="72">
         <v>20</v>
       </c>
       <c r="K93" s="9"/>
-      <c r="L93" s="75"/>
-      <c r="M93" s="75"/>
+      <c r="L93" s="62"/>
+      <c r="M93" s="62"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
@@ -11787,21 +11788,21 @@
         <v>60</v>
       </c>
       <c r="F94" s="13"/>
-      <c r="G94" s="73">
+      <c r="G94" s="60">
         <v>43931</v>
       </c>
-      <c r="H94" s="73">
+      <c r="H94" s="60">
         <v>43923</v>
       </c>
-      <c r="I94" s="73">
+      <c r="I94" s="60">
         <v>43943</v>
       </c>
-      <c r="J94" s="85">
+      <c r="J94" s="72">
         <v>15</v>
       </c>
       <c r="K94" s="9"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
+      <c r="L94" s="62"/>
+      <c r="M94" s="62"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
@@ -11818,21 +11819,21 @@
       <c r="F95" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G95" s="73">
+      <c r="G95" s="60">
         <v>43941</v>
       </c>
-      <c r="H95" s="73">
+      <c r="H95" s="60">
         <v>43923</v>
       </c>
-      <c r="I95" s="73">
+      <c r="I95" s="60">
         <v>43943</v>
       </c>
-      <c r="J95" s="85">
+      <c r="J95" s="72">
         <v>100</v>
       </c>
       <c r="K95" s="9"/>
-      <c r="L95" s="75"/>
-      <c r="M95" s="75"/>
+      <c r="L95" s="62"/>
+      <c r="M95" s="62"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
@@ -11851,21 +11852,21 @@
         <v>57</v>
       </c>
       <c r="F96" s="13"/>
-      <c r="G96" s="73">
+      <c r="G96" s="60">
         <v>43943</v>
       </c>
-      <c r="H96" s="73">
+      <c r="H96" s="60">
         <v>43923</v>
       </c>
-      <c r="I96" s="73">
+      <c r="I96" s="60">
         <v>43943</v>
       </c>
-      <c r="J96" s="85">
+      <c r="J96" s="72">
         <v>0.5</v>
       </c>
       <c r="K96" s="9"/>
-      <c r="L96" s="75"/>
-      <c r="M96" s="75"/>
+      <c r="L96" s="62"/>
+      <c r="M96" s="62"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
@@ -11880,21 +11881,21 @@
         <v>57</v>
       </c>
       <c r="F97" s="13"/>
-      <c r="G97" s="73">
+      <c r="G97" s="60">
         <v>43943</v>
       </c>
-      <c r="H97" s="73">
+      <c r="H97" s="60">
         <v>43923</v>
       </c>
-      <c r="I97" s="73">
+      <c r="I97" s="60">
         <v>43943</v>
       </c>
-      <c r="J97" s="85">
+      <c r="J97" s="72">
         <v>0.5</v>
       </c>
       <c r="K97" s="9"/>
-      <c r="L97" s="75"/>
-      <c r="M97" s="75"/>
+      <c r="L97" s="62"/>
+      <c r="M97" s="62"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
@@ -11909,21 +11910,21 @@
         <v>59</v>
       </c>
       <c r="F98" s="13"/>
-      <c r="G98" s="73">
+      <c r="G98" s="60">
         <v>43943</v>
       </c>
-      <c r="H98" s="73">
+      <c r="H98" s="60">
         <v>43923</v>
       </c>
-      <c r="I98" s="73">
+      <c r="I98" s="60">
         <v>43943</v>
       </c>
-      <c r="J98" s="85">
+      <c r="J98" s="72">
         <v>0.25</v>
       </c>
       <c r="K98" s="9"/>
-      <c r="L98" s="75"/>
-      <c r="M98" s="75"/>
+      <c r="L98" s="62"/>
+      <c r="M98" s="62"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
@@ -11942,21 +11943,21 @@
         <v>57</v>
       </c>
       <c r="F99" s="13"/>
-      <c r="G99" s="73">
+      <c r="G99" s="60">
         <v>43935</v>
       </c>
-      <c r="H99" s="73">
+      <c r="H99" s="60">
         <v>43938</v>
       </c>
-      <c r="I99" s="73">
+      <c r="I99" s="60">
         <v>43938</v>
       </c>
-      <c r="J99" s="85">
+      <c r="J99" s="72">
         <v>0.25</v>
       </c>
       <c r="K99" s="9"/>
-      <c r="L99" s="75"/>
-      <c r="M99" s="75"/>
+      <c r="L99" s="62"/>
+      <c r="M99" s="62"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
@@ -11971,21 +11972,21 @@
         <v>57</v>
       </c>
       <c r="F100" s="13"/>
-      <c r="G100" s="73">
+      <c r="G100" s="60">
         <v>43941</v>
       </c>
-      <c r="H100" s="73">
+      <c r="H100" s="60">
         <v>43941</v>
       </c>
-      <c r="I100" s="73">
+      <c r="I100" s="60">
         <v>43942</v>
       </c>
-      <c r="J100" s="85">
+      <c r="J100" s="72">
         <v>3</v>
       </c>
       <c r="K100" s="9"/>
-      <c r="L100" s="75"/>
-      <c r="M100" s="75"/>
+      <c r="L100" s="62"/>
+      <c r="M100" s="62"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
@@ -12000,21 +12001,21 @@
         <v>57</v>
       </c>
       <c r="F101" s="13"/>
-      <c r="G101" s="73">
+      <c r="G101" s="60">
         <v>43941</v>
       </c>
-      <c r="H101" s="73">
+      <c r="H101" s="60">
         <v>43941</v>
       </c>
-      <c r="I101" s="73">
+      <c r="I101" s="60">
         <v>43942</v>
       </c>
-      <c r="J101" s="85">
+      <c r="J101" s="72">
         <v>0.5</v>
       </c>
       <c r="K101" s="9"/>
-      <c r="L101" s="75"/>
-      <c r="M101" s="75"/>
+      <c r="L101" s="62"/>
+      <c r="M101" s="62"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
@@ -12035,21 +12036,21 @@
       <c r="F102" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G102" s="73">
+      <c r="G102" s="60">
         <v>43941</v>
       </c>
-      <c r="H102" s="73">
+      <c r="H102" s="60">
         <v>43941</v>
       </c>
-      <c r="I102" s="73">
+      <c r="I102" s="60">
         <v>43942</v>
       </c>
-      <c r="J102" s="85">
+      <c r="J102" s="72">
         <v>0.5</v>
       </c>
       <c r="K102" s="9"/>
-      <c r="L102" s="75"/>
-      <c r="M102" s="75"/>
+      <c r="L102" s="62"/>
+      <c r="M102" s="62"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
@@ -12068,21 +12069,21 @@
         <v>57</v>
       </c>
       <c r="F103" s="13"/>
-      <c r="G103" s="73">
+      <c r="G103" s="60">
         <v>43944</v>
       </c>
-      <c r="H103" s="73">
+      <c r="H103" s="60">
         <v>43944</v>
       </c>
-      <c r="I103" s="73">
+      <c r="I103" s="60">
         <v>43944</v>
       </c>
-      <c r="J103" s="85">
+      <c r="J103" s="72">
         <v>1</v>
       </c>
       <c r="K103" s="9"/>
-      <c r="L103" s="75"/>
-      <c r="M103" s="75"/>
+      <c r="L103" s="62"/>
+      <c r="M103" s="62"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
@@ -12097,21 +12098,21 @@
         <v>57</v>
       </c>
       <c r="F104" s="13"/>
-      <c r="G104" s="73">
+      <c r="G104" s="60">
         <v>43944</v>
       </c>
-      <c r="H104" s="73">
+      <c r="H104" s="60">
         <v>43944</v>
       </c>
-      <c r="I104" s="73">
+      <c r="I104" s="60">
         <v>43944</v>
       </c>
-      <c r="J104" s="85">
+      <c r="J104" s="72">
         <v>0.25</v>
       </c>
       <c r="K104" s="9"/>
-      <c r="L104" s="75"/>
-      <c r="M104" s="75"/>
+      <c r="L104" s="62"/>
+      <c r="M104" s="62"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
@@ -12126,21 +12127,21 @@
         <v>57</v>
       </c>
       <c r="F105" s="13"/>
-      <c r="G105" s="73">
+      <c r="G105" s="60">
         <v>43944</v>
       </c>
-      <c r="H105" s="73">
+      <c r="H105" s="60">
         <v>43944</v>
       </c>
-      <c r="I105" s="73">
+      <c r="I105" s="60">
         <v>43944</v>
       </c>
-      <c r="J105" s="85">
+      <c r="J105" s="72">
         <v>0.75</v>
       </c>
       <c r="K105" s="9"/>
-      <c r="L105" s="75"/>
-      <c r="M105" s="75"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="62"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
@@ -12155,21 +12156,21 @@
         <v>56</v>
       </c>
       <c r="F106" s="13"/>
-      <c r="G106" s="73">
+      <c r="G106" s="60">
         <v>43944</v>
       </c>
-      <c r="H106" s="73">
+      <c r="H106" s="60">
         <v>43944</v>
       </c>
-      <c r="I106" s="73">
+      <c r="I106" s="60">
         <v>43945</v>
       </c>
-      <c r="J106" s="85">
+      <c r="J106" s="72">
         <v>3</v>
       </c>
       <c r="K106" s="9"/>
-      <c r="L106" s="75"/>
-      <c r="M106" s="75"/>
+      <c r="L106" s="62"/>
+      <c r="M106" s="62"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
@@ -12188,21 +12189,21 @@
         <v>59</v>
       </c>
       <c r="F107" s="13"/>
-      <c r="G107" s="73">
+      <c r="G107" s="60">
         <v>43944</v>
       </c>
-      <c r="H107" s="73">
+      <c r="H107" s="60">
         <v>43944</v>
       </c>
-      <c r="I107" s="73">
+      <c r="I107" s="60">
         <v>43945</v>
       </c>
-      <c r="J107" s="85">
+      <c r="J107" s="72">
         <v>8</v>
       </c>
       <c r="K107" s="9"/>
-      <c r="L107" s="75"/>
-      <c r="M107" s="75"/>
+      <c r="L107" s="62"/>
+      <c r="M107" s="62"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
@@ -12217,21 +12218,21 @@
         <v>57</v>
       </c>
       <c r="F108" s="13"/>
-      <c r="G108" s="73">
+      <c r="G108" s="60">
         <v>43945</v>
       </c>
-      <c r="H108" s="73">
+      <c r="H108" s="60">
         <v>43944</v>
       </c>
-      <c r="I108" s="73">
+      <c r="I108" s="60">
         <v>43957</v>
       </c>
-      <c r="J108" s="85">
+      <c r="J108" s="72">
         <v>3</v>
       </c>
       <c r="K108" s="9"/>
-      <c r="L108" s="75"/>
-      <c r="M108" s="75"/>
+      <c r="L108" s="62"/>
+      <c r="M108" s="62"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
@@ -12248,21 +12249,21 @@
       <c r="F109" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G109" s="73">
+      <c r="G109" s="60">
         <v>43956</v>
       </c>
-      <c r="H109" s="73">
+      <c r="H109" s="60">
         <v>43944</v>
       </c>
-      <c r="I109" s="73">
+      <c r="I109" s="60">
         <v>43957</v>
       </c>
-      <c r="J109" s="85">
+      <c r="J109" s="72">
         <v>400</v>
       </c>
       <c r="K109" s="9"/>
-      <c r="L109" s="75"/>
-      <c r="M109" s="75"/>
+      <c r="L109" s="62"/>
+      <c r="M109" s="62"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
@@ -12279,21 +12280,21 @@
       <c r="F110" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G110" s="73">
+      <c r="G110" s="60">
         <v>43956</v>
       </c>
-      <c r="H110" s="73">
+      <c r="H110" s="60">
         <v>43944</v>
       </c>
-      <c r="I110" s="73">
+      <c r="I110" s="60">
         <v>43957</v>
       </c>
-      <c r="J110" s="85">
+      <c r="J110" s="72">
         <v>45</v>
       </c>
       <c r="K110" s="9"/>
-      <c r="L110" s="75"/>
-      <c r="M110" s="75"/>
+      <c r="L110" s="62"/>
+      <c r="M110" s="62"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
@@ -12310,21 +12311,21 @@
       <c r="F111" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G111" s="73">
+      <c r="G111" s="60">
         <v>43956</v>
       </c>
-      <c r="H111" s="73">
+      <c r="H111" s="60">
         <v>43944</v>
       </c>
-      <c r="I111" s="73">
+      <c r="I111" s="60">
         <v>43957</v>
       </c>
-      <c r="J111" s="85">
+      <c r="J111" s="72">
         <v>50</v>
       </c>
       <c r="K111" s="9"/>
-      <c r="L111" s="75"/>
-      <c r="M111" s="75"/>
+      <c r="L111" s="62"/>
+      <c r="M111" s="62"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
@@ -12343,21 +12344,21 @@
         <v>57</v>
       </c>
       <c r="F112" s="13"/>
-      <c r="G112" s="73">
+      <c r="G112" s="60">
         <v>43956</v>
       </c>
-      <c r="H112" s="73">
+      <c r="H112" s="60">
         <v>43944</v>
       </c>
-      <c r="I112" s="73">
+      <c r="I112" s="60">
         <v>43957</v>
       </c>
-      <c r="J112" s="85">
+      <c r="J112" s="72">
         <v>0.25</v>
       </c>
       <c r="K112" s="9"/>
-      <c r="L112" s="75"/>
-      <c r="M112" s="75"/>
+      <c r="L112" s="62"/>
+      <c r="M112" s="62"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
@@ -12372,21 +12373,21 @@
         <v>57</v>
       </c>
       <c r="F113" s="13"/>
-      <c r="G113" s="73">
+      <c r="G113" s="60">
         <v>43951</v>
       </c>
-      <c r="H113" s="73">
+      <c r="H113" s="60">
         <v>43951</v>
       </c>
-      <c r="I113" s="73">
+      <c r="I113" s="60">
         <v>43951</v>
       </c>
-      <c r="J113" s="85">
+      <c r="J113" s="72">
         <v>3</v>
       </c>
       <c r="K113" s="9"/>
-      <c r="L113" s="75"/>
-      <c r="M113" s="75"/>
+      <c r="L113" s="62"/>
+      <c r="M113" s="62"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
@@ -12401,21 +12402,21 @@
         <v>57</v>
       </c>
       <c r="F114" s="13"/>
-      <c r="G114" s="73">
+      <c r="G114" s="60">
         <v>43956</v>
       </c>
-      <c r="H114" s="73">
+      <c r="H114" s="60">
         <v>43955</v>
       </c>
-      <c r="I114" s="73">
+      <c r="I114" s="60">
         <v>43956</v>
       </c>
-      <c r="J114" s="85">
+      <c r="J114" s="72">
         <v>0.5</v>
       </c>
       <c r="K114" s="9"/>
-      <c r="L114" s="75"/>
-      <c r="M114" s="75"/>
+      <c r="L114" s="62"/>
+      <c r="M114" s="62"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
@@ -12436,21 +12437,21 @@
       <c r="F115" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G115" s="73">
+      <c r="G115" s="60">
         <v>43956</v>
       </c>
-      <c r="H115" s="73">
+      <c r="H115" s="60">
         <v>43955</v>
       </c>
-      <c r="I115" s="73">
+      <c r="I115" s="60">
         <v>43956</v>
       </c>
-      <c r="J115" s="85">
+      <c r="J115" s="72">
         <v>0.5</v>
       </c>
       <c r="K115" s="9"/>
-      <c r="L115" s="75"/>
-      <c r="M115" s="75"/>
+      <c r="L115" s="62"/>
+      <c r="M115" s="62"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
@@ -12469,21 +12470,21 @@
         <v>57</v>
       </c>
       <c r="F116" s="13"/>
-      <c r="G116" s="73">
+      <c r="G116" s="60">
         <v>43956</v>
       </c>
-      <c r="H116" s="73">
+      <c r="H116" s="60">
         <v>43955</v>
       </c>
-      <c r="I116" s="73">
+      <c r="I116" s="60">
         <v>43956</v>
       </c>
-      <c r="J116" s="85">
+      <c r="J116" s="72">
         <v>1</v>
       </c>
       <c r="K116" s="9"/>
-      <c r="L116" s="75"/>
-      <c r="M116" s="75"/>
+      <c r="L116" s="62"/>
+      <c r="M116" s="62"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
@@ -12498,21 +12499,21 @@
         <v>57</v>
       </c>
       <c r="F117" s="13"/>
-      <c r="G117" s="73">
+      <c r="G117" s="60">
         <v>43958</v>
       </c>
-      <c r="H117" s="73">
+      <c r="H117" s="60">
         <v>43958</v>
       </c>
-      <c r="I117" s="73">
+      <c r="I117" s="60">
         <v>43958</v>
       </c>
-      <c r="J117" s="85">
+      <c r="J117" s="72">
         <v>0.25</v>
       </c>
       <c r="K117" s="9"/>
-      <c r="L117" s="75"/>
-      <c r="M117" s="75"/>
+      <c r="L117" s="62"/>
+      <c r="M117" s="62"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
@@ -12527,21 +12528,21 @@
         <v>57</v>
       </c>
       <c r="F118" s="13"/>
-      <c r="G118" s="73">
+      <c r="G118" s="60">
         <v>43958</v>
       </c>
-      <c r="H118" s="73">
+      <c r="H118" s="60">
         <v>43958</v>
       </c>
-      <c r="I118" s="73">
+      <c r="I118" s="60">
         <v>43958</v>
       </c>
-      <c r="J118" s="85">
+      <c r="J118" s="72">
         <v>0.75</v>
       </c>
       <c r="K118" s="9"/>
-      <c r="L118" s="75"/>
-      <c r="M118" s="75"/>
+      <c r="L118" s="62"/>
+      <c r="M118" s="62"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
@@ -12556,21 +12557,21 @@
         <v>56</v>
       </c>
       <c r="F119" s="13"/>
-      <c r="G119" s="73">
+      <c r="G119" s="60">
         <v>43958</v>
       </c>
-      <c r="H119" s="73">
+      <c r="H119" s="60">
         <v>43958</v>
       </c>
-      <c r="I119" s="73">
+      <c r="I119" s="60">
         <v>43958</v>
       </c>
-      <c r="J119" s="85">
+      <c r="J119" s="72">
         <v>3</v>
       </c>
       <c r="K119" s="9"/>
-      <c r="L119" s="75"/>
-      <c r="M119" s="75"/>
+      <c r="L119" s="62"/>
+      <c r="M119" s="62"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
@@ -12589,21 +12590,21 @@
         <v>59</v>
       </c>
       <c r="F120" s="13"/>
-      <c r="G120" s="73">
+      <c r="G120" s="60">
         <v>43959</v>
       </c>
-      <c r="H120" s="73">
+      <c r="H120" s="60">
         <v>43958</v>
       </c>
-      <c r="I120" s="73">
+      <c r="I120" s="60">
         <v>43959</v>
       </c>
-      <c r="J120" s="85">
+      <c r="J120" s="72">
         <v>80</v>
       </c>
       <c r="K120" s="9"/>
-      <c r="L120" s="75"/>
-      <c r="M120" s="75"/>
+      <c r="L120" s="62"/>
+      <c r="M120" s="62"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
@@ -12618,21 +12619,21 @@
         <v>56</v>
       </c>
       <c r="F121" s="13"/>
-      <c r="G121" s="73">
+      <c r="G121" s="60">
         <v>43959</v>
       </c>
-      <c r="H121" s="73">
+      <c r="H121" s="60">
         <v>43958</v>
       </c>
-      <c r="I121" s="73">
+      <c r="I121" s="60">
         <v>43959</v>
       </c>
-      <c r="J121" s="85">
+      <c r="J121" s="72">
         <v>80</v>
       </c>
       <c r="K121" s="9"/>
-      <c r="L121" s="75"/>
-      <c r="M121" s="75"/>
+      <c r="L121" s="62"/>
+      <c r="M121" s="62"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
@@ -12647,21 +12648,21 @@
         <v>58</v>
       </c>
       <c r="F122" s="13"/>
-      <c r="G122" s="73">
+      <c r="G122" s="60">
         <v>43972</v>
       </c>
-      <c r="H122" s="73">
+      <c r="H122" s="60">
         <v>43958</v>
       </c>
-      <c r="I122" s="73">
+      <c r="I122" s="60">
         <v>43973</v>
       </c>
-      <c r="J122" s="85">
+      <c r="J122" s="72">
         <v>70</v>
       </c>
       <c r="K122" s="9"/>
-      <c r="L122" s="75"/>
-      <c r="M122" s="75"/>
+      <c r="L122" s="62"/>
+      <c r="M122" s="62"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
@@ -12676,21 +12677,21 @@
         <v>57</v>
       </c>
       <c r="F123" s="13"/>
-      <c r="G123" s="73">
+      <c r="G123" s="60">
         <v>43972</v>
       </c>
-      <c r="H123" s="73">
+      <c r="H123" s="60">
         <v>43958</v>
       </c>
-      <c r="I123" s="73">
+      <c r="I123" s="60">
         <v>43973</v>
       </c>
-      <c r="J123" s="85">
+      <c r="J123" s="72">
         <v>13</v>
       </c>
       <c r="K123" s="9"/>
-      <c r="L123" s="75"/>
-      <c r="M123" s="75"/>
+      <c r="L123" s="62"/>
+      <c r="M123" s="62"/>
     </row>
     <row r="124" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
@@ -12705,21 +12706,21 @@
         <v>59</v>
       </c>
       <c r="F124" s="13"/>
-      <c r="G124" s="73">
+      <c r="G124" s="60">
         <v>43972</v>
       </c>
-      <c r="H124" s="73">
+      <c r="H124" s="60">
         <v>43958</v>
       </c>
-      <c r="I124" s="73">
+      <c r="I124" s="60">
         <v>43973</v>
       </c>
-      <c r="J124" s="85">
+      <c r="J124" s="72">
         <v>1</v>
       </c>
       <c r="K124" s="9"/>
-      <c r="L124" s="75"/>
-      <c r="M124" s="75"/>
+      <c r="L124" s="62"/>
+      <c r="M124" s="62"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
@@ -12734,21 +12735,21 @@
         <v>60</v>
       </c>
       <c r="F125" s="13"/>
-      <c r="G125" s="73">
+      <c r="G125" s="60">
         <v>43972</v>
       </c>
-      <c r="H125" s="73">
+      <c r="H125" s="60">
         <v>43958</v>
       </c>
-      <c r="I125" s="73">
+      <c r="I125" s="60">
         <v>43973</v>
       </c>
-      <c r="J125" s="85">
+      <c r="J125" s="72">
         <v>2</v>
       </c>
       <c r="K125" s="9"/>
-      <c r="L125" s="75"/>
-      <c r="M125" s="75"/>
+      <c r="L125" s="62"/>
+      <c r="M125" s="62"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
@@ -12763,21 +12764,21 @@
         <v>56</v>
       </c>
       <c r="F126" s="13"/>
-      <c r="G126" s="73">
+      <c r="G126" s="60">
         <v>43972</v>
       </c>
-      <c r="H126" s="73">
+      <c r="H126" s="60">
         <v>43958</v>
       </c>
-      <c r="I126" s="73">
+      <c r="I126" s="60">
         <v>43973</v>
       </c>
-      <c r="J126" s="85">
+      <c r="J126" s="72">
         <v>6</v>
       </c>
       <c r="K126" s="9"/>
-      <c r="L126" s="75"/>
-      <c r="M126" s="75"/>
+      <c r="L126" s="62"/>
+      <c r="M126" s="62"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
@@ -12792,21 +12793,21 @@
         <v>57</v>
       </c>
       <c r="F127" s="13"/>
-      <c r="G127" s="73">
+      <c r="G127" s="60">
         <v>43972</v>
       </c>
-      <c r="H127" s="73">
+      <c r="H127" s="60">
         <v>43958</v>
       </c>
-      <c r="I127" s="73">
+      <c r="I127" s="60">
         <v>43973</v>
       </c>
-      <c r="J127" s="85">
+      <c r="J127" s="72">
         <v>1</v>
       </c>
       <c r="K127" s="9"/>
-      <c r="L127" s="75"/>
-      <c r="M127" s="75"/>
+      <c r="L127" s="62"/>
+      <c r="M127" s="62"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="17"/>
@@ -12815,13 +12816,13 @@
       <c r="D128" s="18"/>
       <c r="E128" s="13"/>
       <c r="F128" s="13"/>
-      <c r="G128" s="73"/>
-      <c r="H128" s="73"/>
-      <c r="I128" s="73"/>
-      <c r="J128" s="85"/>
-      <c r="K128" s="86"/>
-      <c r="L128" s="86"/>
-      <c r="M128" s="86"/>
+      <c r="G128" s="60"/>
+      <c r="H128" s="60"/>
+      <c r="I128" s="60"/>
+      <c r="J128" s="72"/>
+      <c r="K128" s="73"/>
+      <c r="L128" s="73"/>
+      <c r="M128" s="73"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="17"/>
@@ -12830,13 +12831,13 @@
       <c r="D129" s="18"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
-      <c r="G129" s="73"/>
-      <c r="H129" s="73"/>
-      <c r="I129" s="73"/>
-      <c r="J129" s="85"/>
-      <c r="K129" s="86"/>
-      <c r="L129" s="86"/>
-      <c r="M129" s="86"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="60"/>
+      <c r="I129" s="60"/>
+      <c r="J129" s="72"/>
+      <c r="K129" s="73"/>
+      <c r="L129" s="73"/>
+      <c r="M129" s="73"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="17"/>
@@ -12845,7 +12846,7 @@
       <c r="D130" s="18"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
-      <c r="J130" s="85"/>
+      <c r="J130" s="72"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
@@ -12854,7 +12855,7 @@
       <c r="D131" s="18"/>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
-      <c r="J131" s="85"/>
+      <c r="J131" s="72"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
@@ -12863,7 +12864,7 @@
       <c r="D132" s="18"/>
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
-      <c r="J132" s="85"/>
+      <c r="J132" s="72"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="17"/>
@@ -12872,7 +12873,7 @@
       <c r="D133" s="18"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
-      <c r="J133" s="85"/>
+      <c r="J133" s="72"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -12881,7 +12882,7 @@
       <c r="D134" s="18"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
-      <c r="J134" s="85"/>
+      <c r="J134" s="72"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="17"/>
@@ -12890,7 +12891,7 @@
       <c r="D135" s="18"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
-      <c r="J135" s="85"/>
+      <c r="J135" s="72"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
@@ -12899,7 +12900,7 @@
       <c r="D136" s="18"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
-      <c r="J136" s="85"/>
+      <c r="J136" s="72"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
@@ -12908,7 +12909,7 @@
       <c r="D137" s="18"/>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
-      <c r="J137" s="85"/>
+      <c r="J137" s="72"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="17"/>
@@ -12917,7 +12918,7 @@
       <c r="D138" s="18"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
-      <c r="J138" s="85"/>
+      <c r="J138" s="72"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="17"/>
@@ -12926,7 +12927,7 @@
       <c r="D139" s="18"/>
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
-      <c r="J139" s="85"/>
+      <c r="J139" s="72"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="17"/>
@@ -12935,7 +12936,7 @@
       <c r="D140" s="18"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
-      <c r="J140" s="85"/>
+      <c r="J140" s="72"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -12944,7 +12945,7 @@
       <c r="D141" s="18"/>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
-      <c r="J141" s="85"/>
+      <c r="J141" s="72"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="17"/>
@@ -12953,7 +12954,7 @@
       <c r="D142" s="18"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
-      <c r="J142" s="85"/>
+      <c r="J142" s="72"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="17"/>
@@ -12962,7 +12963,7 @@
       <c r="D143" s="18"/>
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
-      <c r="J143" s="85"/>
+      <c r="J143" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12997,21 +12998,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
     </row>
     <row r="4" spans="2:7" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
@@ -13024,263 +13025,263 @@
       <c r="D5" s="21"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="46" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B7" s="54">
+      <c r="B7" s="47">
         <v>0</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="50">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="B8" s="54">
+      <c r="B8" s="47">
         <v>1</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="50">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="B9" s="54">
+      <c r="B9" s="47">
         <v>2</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="50">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="B10" s="54">
+      <c r="B10" s="47">
         <v>3</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="57"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="2:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="54">
+      <c r="B11" s="47">
         <v>4</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="57"/>
+      <c r="E11" s="50"/>
       <c r="G11" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="54">
+      <c r="B12" s="47">
         <v>5</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="57"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="2:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B13" s="54">
+      <c r="B13" s="47">
         <v>6</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="57"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="54">
+      <c r="B14" s="47">
         <v>7</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="57"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="54">
+      <c r="B15" s="47">
         <v>8</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="2:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="54">
+      <c r="B16" s="47">
         <v>9</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="2:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="B17" s="54">
+      <c r="B17" s="47">
         <v>10</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="57"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="54">
+      <c r="B18" s="47">
         <v>11</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="57"/>
+      <c r="E18" s="50"/>
     </row>
     <row r="19" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B19" s="54">
+      <c r="B19" s="47">
         <v>12</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="E19" s="57"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="2:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="B20" s="54">
+      <c r="B20" s="47">
         <v>13</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="49" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="57"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B21" s="54">
+      <c r="B21" s="47">
         <v>14</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B22" s="54">
+      <c r="B22" s="47">
         <v>15</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="2:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="B23" s="54">
+      <c r="B23" s="47">
         <v>16</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="E23" s="57"/>
+      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="54">
+      <c r="B24" s="47">
         <v>16</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="57"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="54">
+      <c r="B25" s="47">
         <v>17</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="57"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="54">
+      <c r="B26" s="47">
         <v>18</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="57"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="58">
+      <c r="B27" s="51">
         <v>19</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13314,23 +13315,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21"/>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
     </row>
     <row r="4" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
@@ -13338,72 +13339,72 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="36" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="38">
         <v>43923</v>
       </c>
       <c r="D6" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="39" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="38">
         <v>43944</v>
       </c>
       <c r="D7" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="39" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="38">
         <v>43958</v>
       </c>
       <c r="D8" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="39" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="41">
         <v>43973</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="43" t="s">
         <v>185</v>
       </c>
     </row>
@@ -13429,336 +13430,336 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="63" customWidth="1"/>
-    <col min="2" max="16384" width="30.83203125" style="63"/>
+    <col min="1" max="1" width="4.33203125" style="56" customWidth="1"/>
+    <col min="2" max="16384" width="30.83203125" style="56"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="61" t="s">
+      <c r="E3" s="54" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="F6" s="61" t="s">
+      <c r="F6" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="H6" s="61" t="s">
+      <c r="H6" s="54" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="54" t="s">
         <v>239</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="54" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="61" t="s">
+      <c r="G11" s="54" t="s">
         <v>211</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="54" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="I13" s="61" t="s">
+      <c r="I13" s="54" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="E15" s="61" t="s">
+      <c r="E15" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="I15" s="61" t="s">
+      <c r="I15" s="54" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="I17" s="61" t="s">
+      <c r="I17" s="54" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="E19" s="61" t="s">
+      <c r="E19" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="I19" s="61" t="s">
+      <c r="I19" s="54" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="G21" s="61" t="s">
+      <c r="G21" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="I21" s="61" t="s">
+      <c r="I21" s="54" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="H23" s="61" t="s">
+      <c r="H23" s="54" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="I25" s="54" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="61" t="s">
+      <c r="E27" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="I27" s="61" t="s">
+      <c r="I27" s="54" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="I29" s="61" t="s">
+      <c r="I29" s="54" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="61" t="s">
+      <c r="D31" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="H31" s="61" t="s">
+      <c r="H31" s="54" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="61" t="s">
+      <c r="H33" s="55"/>
+      <c r="I33" s="54" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="34" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="61" t="s">
+      <c r="E35" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="G35" s="62"/>
-      <c r="I35" s="61" t="s">
+      <c r="G35" s="55"/>
+      <c r="I35" s="54" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="36" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="I37" s="61" t="s">
+      <c r="I37" s="54" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="38" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="I39" s="61" t="s">
+      <c r="I39" s="54" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="61" t="s">
+      <c r="E41" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="I41" s="61" t="s">
+      <c r="I41" s="54" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="42" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="61" t="s">
+      <c r="E43" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="H43" s="61" t="s">
+      <c r="H43" s="54" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="44" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="I45" s="61" t="s">
+      <c r="I45" s="54" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="46" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="61" t="s">
+      <c r="E47" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="I47" s="61" t="s">
+      <c r="I47" s="54" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="48" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="61" t="s">
+      <c r="D49" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="I49" s="61" t="s">
+      <c r="I49" s="54" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="50" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="61" t="s">
+      <c r="E51" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="H51" s="61" t="s">
+      <c r="H51" s="54" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="52" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="61" t="s">
+      <c r="E53" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="I53" s="61" t="s">
+      <c r="I53" s="54" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="54" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="61" t="s">
+      <c r="E55" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="I55" s="61" t="s">
+      <c r="I55" s="54" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="56" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="61" t="s">
+      <c r="E57" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="I57" s="61" t="s">
+      <c r="I57" s="54" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="58" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="61" t="s">
+      <c r="E59" s="54" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="60" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="61" t="s">
+      <c r="D61" s="54" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="62" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="61" t="s">
+      <c r="E63" s="54" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="64" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="61" t="s">
+      <c r="E65" s="54" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="66" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="61" t="s">
+      <c r="E67" s="54" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="68" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="61" t="s">
+      <c r="E69" s="54" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="70" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="54" t="s">
         <v>218</v>
       </c>
     </row>
@@ -13773,8 +13774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE9744-0809-4941-A5CB-16561D601F32}">
   <dimension ref="B1:AY24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:AY24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:AY24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13796,592 +13797,592 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
     </row>
     <row r="2" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="AM3" s="64"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="AM3" s="57"/>
       <c r="AN3" s="20" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="4" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="AM4" s="65"/>
+      <c r="AM4" s="58"/>
       <c r="AN4" s="20" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="AM5" s="66"/>
+      <c r="AM5" s="59"/>
       <c r="AN5" s="20" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="6" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="70"/>
-      <c r="AP7" s="70"/>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="70"/>
-      <c r="AT7" s="70"/>
-      <c r="AU7" s="70"/>
-      <c r="AV7" s="70"/>
-      <c r="AW7" s="70"/>
-      <c r="AX7" s="70"/>
-      <c r="AY7" s="71"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="78"/>
+      <c r="Q7" s="78"/>
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="78"/>
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="78"/>
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="79"/>
     </row>
     <row r="8" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B8" s="26"/>
-      <c r="C8" s="72">
+      <c r="B8" s="25"/>
+      <c r="C8" s="77">
         <v>11</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72">
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77">
         <v>12</v>
       </c>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72">
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77">
         <v>13</v>
       </c>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72">
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77">
         <v>14</v>
       </c>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72">
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77">
         <v>15</v>
       </c>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72">
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
+      <c r="AJ8" s="77"/>
+      <c r="AK8" s="77"/>
+      <c r="AL8" s="77">
         <v>16</v>
       </c>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72">
+      <c r="AM8" s="77"/>
+      <c r="AN8" s="77"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="77"/>
+      <c r="AQ8" s="77"/>
+      <c r="AR8" s="77"/>
+      <c r="AS8" s="77">
         <v>17</v>
       </c>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
+      <c r="AT8" s="77"/>
+      <c r="AU8" s="77"/>
+      <c r="AV8" s="77"/>
+      <c r="AW8" s="77"/>
+      <c r="AX8" s="77"/>
+      <c r="AY8" s="77"/>
     </row>
     <row r="9" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B9" s="26"/>
-      <c r="C9" s="34" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="Q9" s="37" t="s">
+      <c r="Q9" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="S9" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="T9" s="35" t="s">
+      <c r="T9" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="U9" s="35" t="s">
+      <c r="U9" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="V9" s="35" t="s">
+      <c r="V9" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="W9" s="36" t="s">
+      <c r="W9" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="X9" s="38" t="s">
+      <c r="X9" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="Y9" s="39" t="s">
+      <c r="Y9" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="Z9" s="39" t="s">
+      <c r="Z9" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="AA9" s="39" t="s">
+      <c r="AA9" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AB9" s="39" t="s">
+      <c r="AB9" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AC9" s="39" t="s">
+      <c r="AC9" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="AD9" s="40" t="s">
+      <c r="AD9" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AE9" s="38" t="s">
+      <c r="AE9" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AF9" s="39" t="s">
+      <c r="AF9" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="AG9" s="39" t="s">
+      <c r="AG9" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="AH9" s="39" t="s">
+      <c r="AH9" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AI9" s="39" t="s">
+      <c r="AI9" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AJ9" s="39" t="s">
+      <c r="AJ9" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="AK9" s="40" t="s">
+      <c r="AK9" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AL9" s="38" t="s">
+      <c r="AL9" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AM9" s="39" t="s">
+      <c r="AM9" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="AN9" s="39" t="s">
+      <c r="AN9" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="AO9" s="39" t="s">
+      <c r="AO9" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AP9" s="39" t="s">
+      <c r="AP9" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AQ9" s="39" t="s">
+      <c r="AQ9" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="AR9" s="40" t="s">
+      <c r="AR9" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AS9" s="38" t="s">
+      <c r="AS9" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AT9" s="39" t="s">
+      <c r="AT9" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="AU9" s="39" t="s">
+      <c r="AU9" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="AV9" s="39" t="s">
+      <c r="AV9" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AW9" s="39" t="s">
+      <c r="AW9" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AX9" s="39" t="s">
+      <c r="AX9" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="AY9" s="40" t="s">
+      <c r="AY9" s="33" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="65"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="81"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="81"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="81"/>
+      <c r="AE10" s="81"/>
+      <c r="AF10" s="81"/>
+      <c r="AG10" s="81"/>
+      <c r="AH10" s="81"/>
+      <c r="AI10" s="81"/>
+      <c r="AJ10" s="81"/>
+      <c r="AK10" s="81"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="81"/>
+      <c r="AN10" s="81"/>
+      <c r="AO10" s="81"/>
+      <c r="AP10" s="81"/>
+      <c r="AQ10" s="81"/>
+      <c r="AR10" s="81"/>
+      <c r="AS10" s="81"/>
+      <c r="AT10" s="81"/>
+      <c r="AU10" s="81"/>
+      <c r="AV10" s="81"/>
+      <c r="AW10" s="81"/>
+      <c r="AX10" s="81"/>
+      <c r="AY10" s="81"/>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="23"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="23"/>
-      <c r="AP11" s="23"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="30"/>
-      <c r="AS11" s="31"/>
-      <c r="AT11" s="23"/>
-      <c r="AU11" s="23"/>
-      <c r="AV11" s="23"/>
-      <c r="AW11" s="23"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="30"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="81"/>
+      <c r="Y11" s="81"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="81"/>
+      <c r="AF11" s="81"/>
+      <c r="AG11" s="81"/>
+      <c r="AH11" s="81"/>
+      <c r="AI11" s="81"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="82"/>
+      <c r="AM11" s="81"/>
+      <c r="AN11" s="81"/>
+      <c r="AO11" s="81"/>
+      <c r="AP11" s="81"/>
+      <c r="AQ11" s="81"/>
+      <c r="AR11" s="81"/>
+      <c r="AS11" s="81"/>
+      <c r="AT11" s="81"/>
+      <c r="AU11" s="81"/>
+      <c r="AV11" s="81"/>
+      <c r="AW11" s="81"/>
+      <c r="AX11" s="81"/>
+      <c r="AY11" s="81"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="65"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="81"/>
+      <c r="Y12" s="81"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="81"/>
+      <c r="AC12" s="81"/>
+      <c r="AD12" s="81"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="81"/>
+      <c r="AG12" s="81"/>
+      <c r="AH12" s="81"/>
+      <c r="AI12" s="81"/>
+      <c r="AJ12" s="81"/>
+      <c r="AK12" s="81"/>
+      <c r="AL12" s="82"/>
+      <c r="AM12" s="81"/>
+      <c r="AN12" s="81"/>
+      <c r="AO12" s="81"/>
+      <c r="AP12" s="81"/>
+      <c r="AQ12" s="81"/>
+      <c r="AR12" s="81"/>
+      <c r="AS12" s="81"/>
+      <c r="AT12" s="81"/>
+      <c r="AU12" s="81"/>
+      <c r="AV12" s="81"/>
+      <c r="AW12" s="81"/>
+      <c r="AX12" s="81"/>
+      <c r="AY12" s="81"/>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="23"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="24"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="23"/>
       <c r="U13" s="23"/>
       <c r="V13" s="24"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="31"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="23"/>
       <c r="Y13" s="23"/>
       <c r="Z13" s="23"/>
       <c r="AA13" s="23"/>
       <c r="AB13" s="23"/>
       <c r="AC13" s="24"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="31"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="23"/>
       <c r="AF13" s="23"/>
       <c r="AG13" s="23"/>
       <c r="AH13" s="24"/>
       <c r="AI13" s="24"/>
       <c r="AJ13" s="24"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="33"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
       <c r="AM13" s="23"/>
       <c r="AN13" s="23"/>
       <c r="AO13" s="23"/>
       <c r="AP13" s="23"/>
       <c r="AQ13" s="24"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="31"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="23"/>
       <c r="AT13" s="23"/>
       <c r="AU13" s="23"/>
       <c r="AV13" s="23"/>
       <c r="AW13" s="23"/>
       <c r="AX13" s="24"/>
-      <c r="AY13" s="30"/>
+      <c r="AY13" s="24"/>
     </row>
     <row r="14" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="81"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="81"/>
+      <c r="U14" s="81"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="81"/>
+      <c r="Y14" s="81"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="81"/>
+      <c r="AC14" s="81"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="81"/>
+      <c r="AF14" s="81"/>
+      <c r="AG14" s="81"/>
+      <c r="AH14" s="81"/>
+      <c r="AI14" s="81"/>
+      <c r="AJ14" s="81"/>
+      <c r="AK14" s="81"/>
+      <c r="AL14" s="81"/>
+      <c r="AM14" s="81"/>
+      <c r="AN14" s="81"/>
+      <c r="AO14" s="81"/>
+      <c r="AP14" s="81"/>
+      <c r="AQ14" s="81"/>
+      <c r="AR14" s="81"/>
+      <c r="AS14" s="81"/>
+      <c r="AT14" s="81"/>
+      <c r="AU14" s="81"/>
+      <c r="AV14" s="81"/>
+      <c r="AW14" s="81"/>
+      <c r="AX14" s="81"/>
+      <c r="AY14" s="81"/>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B15" s="22"/>
@@ -14390,556 +14391,549 @@
       <c r="B16" s="22"/>
     </row>
     <row r="17" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="70"/>
-      <c r="AM17" s="70"/>
-      <c r="AN17" s="70"/>
-      <c r="AO17" s="70"/>
-      <c r="AP17" s="70"/>
-      <c r="AQ17" s="70"/>
-      <c r="AR17" s="70"/>
-      <c r="AS17" s="70"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="70"/>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="71"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="78"/>
+      <c r="T17" s="78"/>
+      <c r="U17" s="78"/>
+      <c r="V17" s="78"/>
+      <c r="W17" s="78"/>
+      <c r="X17" s="78"/>
+      <c r="Y17" s="78"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="78"/>
+      <c r="AB17" s="78"/>
+      <c r="AC17" s="78"/>
+      <c r="AD17" s="78"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="78"/>
+      <c r="AG17" s="78"/>
+      <c r="AH17" s="78"/>
+      <c r="AI17" s="78"/>
+      <c r="AJ17" s="78"/>
+      <c r="AK17" s="78"/>
+      <c r="AL17" s="78"/>
+      <c r="AM17" s="78"/>
+      <c r="AN17" s="78"/>
+      <c r="AO17" s="78"/>
+      <c r="AP17" s="78"/>
+      <c r="AQ17" s="78"/>
+      <c r="AR17" s="78"/>
+      <c r="AS17" s="78"/>
+      <c r="AT17" s="78"/>
+      <c r="AU17" s="78"/>
+      <c r="AV17" s="78"/>
+      <c r="AW17" s="78"/>
+      <c r="AX17" s="78"/>
+      <c r="AY17" s="79"/>
     </row>
     <row r="18" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B18" s="26"/>
-      <c r="C18" s="72">
+      <c r="B18" s="25"/>
+      <c r="C18" s="77">
         <v>17</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72">
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77">
         <v>18</v>
       </c>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72">
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77">
         <v>19</v>
       </c>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72">
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+      <c r="X18" s="77">
         <v>20</v>
       </c>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72">
+      <c r="Y18" s="77"/>
+      <c r="Z18" s="77"/>
+      <c r="AA18" s="77"/>
+      <c r="AB18" s="77"/>
+      <c r="AC18" s="77"/>
+      <c r="AD18" s="77"/>
+      <c r="AE18" s="77">
         <v>21</v>
       </c>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="72">
+      <c r="AF18" s="77"/>
+      <c r="AG18" s="77"/>
+      <c r="AH18" s="77"/>
+      <c r="AI18" s="77"/>
+      <c r="AJ18" s="77"/>
+      <c r="AK18" s="77"/>
+      <c r="AL18" s="77">
         <v>22</v>
       </c>
-      <c r="AM18" s="72"/>
-      <c r="AN18" s="72"/>
-      <c r="AO18" s="72"/>
-      <c r="AP18" s="72"/>
-      <c r="AQ18" s="72"/>
-      <c r="AR18" s="72"/>
-      <c r="AS18" s="72">
+      <c r="AM18" s="77"/>
+      <c r="AN18" s="77"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="77"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="77">
         <v>23</v>
       </c>
-      <c r="AT18" s="72"/>
-      <c r="AU18" s="72"/>
-      <c r="AV18" s="72"/>
-      <c r="AW18" s="72"/>
-      <c r="AX18" s="72"/>
-      <c r="AY18" s="72"/>
+      <c r="AT18" s="77"/>
+      <c r="AU18" s="77"/>
+      <c r="AV18" s="77"/>
+      <c r="AW18" s="77"/>
+      <c r="AX18" s="77"/>
+      <c r="AY18" s="77"/>
     </row>
     <row r="19" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B19" s="26"/>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G19" s="35" t="s">
+      <c r="G19" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="36" t="s">
+      <c r="I19" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="M19" s="35" t="s">
+      <c r="M19" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="N19" s="35" t="s">
+      <c r="N19" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="O19" s="35" t="s">
+      <c r="O19" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="P19" s="36" t="s">
+      <c r="P19" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="Q19" s="37" t="s">
+      <c r="Q19" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="R19" s="35" t="s">
+      <c r="R19" s="28" t="s">
         <v>180</v>
       </c>
-      <c r="S19" s="35" t="s">
+      <c r="S19" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="T19" s="35" t="s">
+      <c r="T19" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="U19" s="35" t="s">
+      <c r="U19" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="V19" s="35" t="s">
+      <c r="V19" s="28" t="s">
         <v>177</v>
       </c>
-      <c r="W19" s="36" t="s">
+      <c r="W19" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="X19" s="38" t="s">
+      <c r="X19" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="Y19" s="39" t="s">
+      <c r="Y19" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="Z19" s="39" t="s">
+      <c r="Z19" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="AA19" s="39" t="s">
+      <c r="AA19" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AB19" s="39" t="s">
+      <c r="AB19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AC19" s="39" t="s">
+      <c r="AC19" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="AD19" s="40" t="s">
+      <c r="AD19" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AE19" s="38" t="s">
+      <c r="AE19" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AF19" s="39" t="s">
+      <c r="AF19" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="AG19" s="39" t="s">
+      <c r="AG19" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="AH19" s="39" t="s">
+      <c r="AH19" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AI19" s="39" t="s">
+      <c r="AI19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AJ19" s="39" t="s">
+      <c r="AJ19" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="AK19" s="40" t="s">
+      <c r="AK19" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AL19" s="38" t="s">
+      <c r="AL19" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AM19" s="39" t="s">
+      <c r="AM19" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="AN19" s="39" t="s">
+      <c r="AN19" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="AO19" s="39" t="s">
+      <c r="AO19" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AP19" s="39" t="s">
+      <c r="AP19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AQ19" s="39" t="s">
+      <c r="AQ19" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="AR19" s="40" t="s">
+      <c r="AR19" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="AS19" s="38" t="s">
+      <c r="AS19" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AT19" s="39" t="s">
+      <c r="AT19" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="AU19" s="39" t="s">
+      <c r="AU19" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="AV19" s="39" t="s">
+      <c r="AV19" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="AW19" s="39" t="s">
+      <c r="AW19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AX19" s="39" t="s">
+      <c r="AX19" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="AY19" s="40" t="s">
+      <c r="AY19" s="33" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="65"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="81"/>
+      <c r="Y20" s="81"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="81"/>
+      <c r="AG20" s="81"/>
+      <c r="AH20" s="81"/>
+      <c r="AI20" s="81"/>
+      <c r="AJ20" s="81"/>
+      <c r="AK20" s="81"/>
+      <c r="AL20" s="81"/>
+      <c r="AM20" s="81"/>
+      <c r="AN20" s="81"/>
+      <c r="AO20" s="81"/>
+      <c r="AP20" s="81"/>
+      <c r="AQ20" s="81"/>
+      <c r="AR20" s="81"/>
+      <c r="AS20" s="81"/>
+      <c r="AT20" s="81"/>
+      <c r="AU20" s="81"/>
+      <c r="AV20" s="81"/>
+      <c r="AW20" s="81"/>
+      <c r="AX20" s="81"/>
+      <c r="AY20" s="81"/>
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
-      <c r="AB21" s="23"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="23"/>
-      <c r="AG21" s="23"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="23"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="23"/>
-      <c r="AN21" s="23"/>
-      <c r="AO21" s="23"/>
-      <c r="AP21" s="23"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="31"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="81"/>
+      <c r="AA21" s="81"/>
+      <c r="AB21" s="81"/>
+      <c r="AC21" s="81"/>
+      <c r="AD21" s="81"/>
+      <c r="AE21" s="81"/>
+      <c r="AF21" s="81"/>
+      <c r="AG21" s="81"/>
+      <c r="AH21" s="81"/>
+      <c r="AI21" s="81"/>
+      <c r="AJ21" s="81"/>
+      <c r="AK21" s="81"/>
+      <c r="AL21" s="82"/>
+      <c r="AM21" s="82"/>
+      <c r="AN21" s="82"/>
+      <c r="AO21" s="82"/>
+      <c r="AP21" s="82"/>
+      <c r="AQ21" s="82"/>
+      <c r="AR21" s="82"/>
+      <c r="AS21" s="23"/>
       <c r="AT21" s="23"/>
       <c r="AU21" s="23"/>
       <c r="AV21" s="23"/>
       <c r="AW21" s="23"/>
       <c r="AX21" s="24"/>
-      <c r="AY21" s="30"/>
+      <c r="AY21" s="24"/>
     </row>
     <row r="22" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="81"/>
+      <c r="Y22" s="81"/>
+      <c r="Z22" s="81"/>
+      <c r="AA22" s="81"/>
+      <c r="AB22" s="81"/>
+      <c r="AC22" s="81"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="81"/>
+      <c r="AF22" s="81"/>
+      <c r="AG22" s="81"/>
+      <c r="AH22" s="81"/>
+      <c r="AI22" s="81"/>
+      <c r="AJ22" s="81"/>
+      <c r="AK22" s="81"/>
+      <c r="AL22" s="81"/>
+      <c r="AM22" s="81"/>
+      <c r="AN22" s="81"/>
+      <c r="AO22" s="81"/>
+      <c r="AP22" s="81"/>
+      <c r="AQ22" s="81"/>
+      <c r="AR22" s="81"/>
+      <c r="AS22" s="81"/>
+      <c r="AT22" s="81"/>
+      <c r="AU22" s="81"/>
+      <c r="AV22" s="81"/>
+      <c r="AW22" s="81"/>
+      <c r="AX22" s="81"/>
+      <c r="AY22" s="81"/>
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="32"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
       <c r="M23" s="23"/>
       <c r="N23" s="24"/>
       <c r="O23" s="24"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
       <c r="S23" s="23"/>
       <c r="T23" s="23"/>
       <c r="U23" s="23"/>
       <c r="V23" s="24"/>
-      <c r="W23" s="30"/>
-      <c r="X23" s="31"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
       <c r="Z23" s="23"/>
       <c r="AA23" s="23"/>
       <c r="AB23" s="23"/>
       <c r="AC23" s="24"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="31"/>
+      <c r="AD23" s="24"/>
+      <c r="AE23" s="23"/>
       <c r="AF23" s="23"/>
       <c r="AG23" s="23"/>
       <c r="AH23" s="24"/>
       <c r="AI23" s="23"/>
       <c r="AJ23" s="24"/>
-      <c r="AK23" s="30"/>
-      <c r="AL23" s="31"/>
+      <c r="AK23" s="24"/>
+      <c r="AL23" s="23"/>
       <c r="AM23" s="23"/>
       <c r="AN23" s="23"/>
       <c r="AO23" s="23"/>
       <c r="AP23" s="23"/>
       <c r="AQ23" s="24"/>
-      <c r="AR23" s="30"/>
-      <c r="AS23" s="31"/>
+      <c r="AR23" s="24"/>
+      <c r="AS23" s="23"/>
       <c r="AT23" s="23"/>
       <c r="AU23" s="23"/>
       <c r="AV23" s="23"/>
       <c r="AW23" s="23"/>
       <c r="AX23" s="24"/>
-      <c r="AY23" s="30"/>
+      <c r="AY23" s="24"/>
     </row>
     <row r="24" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="81"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="81"/>
+      <c r="Z24" s="81"/>
+      <c r="AA24" s="81"/>
+      <c r="AB24" s="81"/>
+      <c r="AC24" s="81"/>
+      <c r="AD24" s="81"/>
+      <c r="AE24" s="81"/>
+      <c r="AF24" s="81"/>
+      <c r="AG24" s="81"/>
+      <c r="AH24" s="81"/>
+      <c r="AI24" s="81"/>
+      <c r="AJ24" s="81"/>
+      <c r="AK24" s="81"/>
+      <c r="AL24" s="81"/>
+      <c r="AM24" s="81"/>
+      <c r="AN24" s="81"/>
+      <c r="AO24" s="81"/>
+      <c r="AP24" s="81"/>
+      <c r="AQ24" s="81"/>
+      <c r="AR24" s="81"/>
+      <c r="AS24" s="81"/>
+      <c r="AT24" s="81"/>
+      <c r="AU24" s="81"/>
+      <c r="AV24" s="81"/>
+      <c r="AW24" s="81"/>
+      <c r="AX24" s="81"/>
+      <c r="AY24" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AS18:AY18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AK18"/>
-    <mergeCell ref="AL18:AR18"/>
     <mergeCell ref="B1:H3"/>
     <mergeCell ref="C17:AY17"/>
     <mergeCell ref="C7:AY7"/>
@@ -14950,6 +14944,13 @@
     <mergeCell ref="AE8:AK8"/>
     <mergeCell ref="AL8:AR8"/>
     <mergeCell ref="AS8:AY8"/>
+    <mergeCell ref="AS18:AY18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AK18"/>
+    <mergeCell ref="AL18:AR18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14960,7 +14961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFCCAC9-9A31-EE4D-B135-C26B3FEDBEDE}">
   <dimension ref="C2:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -14974,119 +14975,119 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="76" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
     </row>
     <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="66" t="s">
         <v>395</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="F5" s="79" t="s">
+      <c r="F5" s="66" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="H5" s="79" t="s">
+      <c r="H5" s="66" t="s">
         <v>407</v>
       </c>
-      <c r="I5" s="79" t="s">
+      <c r="I5" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="J5" s="79" t="s">
+      <c r="J5" s="66" t="s">
         <v>409</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="66" t="s">
         <v>410</v>
       </c>
-      <c r="L5" s="79" t="s">
+      <c r="L5" s="66" t="s">
         <v>411</v>
       </c>
-      <c r="M5" s="79" t="s">
+      <c r="M5" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="N5" s="79" t="s">
+      <c r="N5" s="66" t="s">
         <v>413</v>
       </c>
-      <c r="O5" s="79" t="s">
+      <c r="O5" s="66" t="s">
         <v>414</v>
       </c>
-      <c r="P5" s="80" t="s">
+      <c r="P5" s="67" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C6" s="78"/>
-      <c r="D6" s="81">
+      <c r="C6" s="65"/>
+      <c r="D6" s="68">
         <v>11</v>
       </c>
-      <c r="E6" s="81">
+      <c r="E6" s="68">
         <v>12</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="68">
         <v>13</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="68">
         <v>14</v>
       </c>
-      <c r="H6" s="81">
+      <c r="H6" s="68">
         <v>15</v>
       </c>
-      <c r="I6" s="81">
+      <c r="I6" s="68">
         <v>16</v>
       </c>
-      <c r="J6" s="81">
+      <c r="J6" s="68">
         <v>17</v>
       </c>
-      <c r="K6" s="81">
+      <c r="K6" s="68">
         <v>18</v>
       </c>
-      <c r="L6" s="81">
+      <c r="L6" s="68">
         <v>19</v>
       </c>
-      <c r="M6" s="81">
+      <c r="M6" s="68">
         <v>20</v>
       </c>
-      <c r="N6" s="81">
+      <c r="N6" s="68">
         <v>21</v>
       </c>
-      <c r="O6" s="81">
+      <c r="O6" s="68">
         <v>22</v>
       </c>
-      <c r="P6" s="80">
+      <c r="P6" s="67">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="65" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="11"/>
@@ -15101,295 +15102,295 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="77"/>
+      <c r="P7" s="64"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="77"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="64"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="65" t="s">
         <v>403</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="77"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="64"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="65" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="77"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="64"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="65" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="77"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="64"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="65" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="77"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="64"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="77"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="77"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="64"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="77"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="64"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="77"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="64"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="75"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="75"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="77"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="64"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="75"/>
+      <c r="K18" s="62"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="75"/>
+      <c r="M18" s="62"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="77"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="64"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="65" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="77"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="64"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="77"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="64"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="77"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="64"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="77"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="64"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="65" t="s">
         <v>385</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="77"/>
+      <c r="P23" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
+++ b/doc/Projektplan d6 DHBW Horb SS 2020 Software-Engineering.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneblessing/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinneblessing/Desktop/DHBW Horb Informatik/Semester 4/Software Engineering Project/KW 11/Abgabe Aufgabenblatt 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91A12B8-70C3-E04B-B664-7E322C3F2191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ED0BE93-0699-0C40-988B-2B31EEE71DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="4" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="1" xr2:uid="{A32CAD05-6F7A-274E-87F0-44CF01CF1296}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Kapazitätsplan" sheetId="6" r:id="rId5"/>
     <sheet name="Projektablaufplan" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="420">
   <si>
     <t>Punkt</t>
   </si>
@@ -257,9 +259,6 @@
     <t>Ermittlung von Fragen an den Kunden, Abgrenzung von Muss-. Soll- und Luxuskriterien. Vorstellen der vorbereiteten Fragen in der Gruppe, um ggf. zu ergänzen. Kontakt mit Kunden bezüglich Terminfindung</t>
   </si>
   <si>
-    <t>Review: 2.4.</t>
-  </si>
-  <si>
     <t>04</t>
   </si>
   <si>
@@ -464,9 +463,6 @@
     <t>Pflichtenheft gemäß Gliederungsanforderungen erstellen, Glossar aktualisieren</t>
   </si>
   <si>
-    <t>Designbeschreibung erarbeiten, Umsetzen des Prototyps gemäß Addendum, Präsentation der Lösung auf der Webseite der Gruppe, Dokumentation, Aufsetzen der benötigten Hilfs-Software</t>
-  </si>
-  <si>
     <t>Definitions- und Entwurfsphase</t>
   </si>
   <si>
@@ -797,9 +793,6 @@
     <t>Designbeschreibung (AP 08)</t>
   </si>
   <si>
-    <t>Designbeschreibung erarbeiten, Designbeschreibung in Prototyp implementieren</t>
-  </si>
-  <si>
     <t>Softwarestudie (AP 09)</t>
   </si>
   <si>
@@ -1293,6 +1286,18 @@
   </si>
   <si>
     <t>110</t>
+  </si>
+  <si>
+    <t>Entwicklungsumgebungen</t>
+  </si>
+  <si>
+    <t>Bekanntwerden und Finden von geeigneten Entwicklungsumgebungen sowie Installation</t>
+  </si>
+  <si>
+    <t>Designbeschreibung erarbeiten, Designbeschreibung in Prototyp implementieren und Umsetzen des Prototyps gemäß Addendum, Lösung auf Webseite, Doku</t>
+  </si>
+  <si>
+    <t>Kickoff-Meeting, erste UML-Diagramme, Hilfssoftware besorgen</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1715,9 +1720,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1841,24 +1843,6 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1873,6 +1857,31 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8635,8 +8644,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46FC5A7D-7D56-E84F-95CA-A245A9FDF478}" name="Tabelle1" displayName="Tabelle1" ref="A9:M143" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
-  <autoFilter ref="A9:M143" xr:uid="{109ED2A2-0E09-0744-9F44-72DD29D2292E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{46FC5A7D-7D56-E84F-95CA-A245A9FDF478}" name="Tabelle1" displayName="Tabelle1" ref="A9:M144" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
+  <autoFilter ref="A9:M144" xr:uid="{109ED2A2-0E09-0744-9F44-72DD29D2292E}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{34A5A00D-E502-DA4D-A634-229AA03E811F}" name="Punkt" dataDxfId="46"/>
     <tableColumn id="2" xr3:uid="{B74C8400-C1A2-F240-BE82-AE2D61297B9B}" name="Arbeitspaket" dataDxfId="45"/>
@@ -9002,10 +9011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B665E9DA-39F6-D247-ABB9-2DB3926674E9}">
-  <dimension ref="A1:AG143"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K127" sqref="K127:M127"/>
+    <sheetView topLeftCell="B101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121:J128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9017,7 +9026,7 @@
     <col min="5" max="5" width="17.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="2" customWidth="1"/>
     <col min="7" max="9" width="10.83203125" style="5"/>
-    <col min="10" max="10" width="16" style="69" customWidth="1"/>
+    <col min="10" max="10" width="16" style="68" customWidth="1"/>
     <col min="11" max="13" width="3.33203125" style="5" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -9025,25 +9034,25 @@
     <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="75" t="s">
+      <c r="C1" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="J1" s="69"/>
+      <c r="D1" s="79"/>
+      <c r="J1" s="68"/>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="J2" s="69"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="J3" s="69"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="J3" s="68"/>
     </row>
     <row r="4" spans="1:13" ht="20" x14ac:dyDescent="0.2">
       <c r="C4" s="2"/>
@@ -9055,24 +9064,24 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
+      <c r="A6" s="78" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
     </row>
     <row r="8" spans="1:13" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
@@ -9097,12 +9106,12 @@
         <v>4</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="J9" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="J9" s="69" t="s">
         <v>47</v>
       </c>
       <c r="K9" s="16" t="s">
@@ -9111,8 +9120,8 @@
       <c r="L9" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="M9" s="61" t="s">
-        <v>400</v>
+      <c r="M9" s="60" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -9134,20 +9143,20 @@
       <c r="F10" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="59">
         <v>43903</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="59">
         <v>43902</v>
       </c>
-      <c r="I10" s="60">
+      <c r="I10" s="59">
         <v>43905</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="70">
         <v>1</v>
       </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -9169,25 +9178,25 @@
       <c r="F11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="60">
+      <c r="G11" s="59">
         <v>43906</v>
       </c>
-      <c r="H11" s="60">
+      <c r="H11" s="59">
         <v>43902</v>
       </c>
-      <c r="I11" s="60">
+      <c r="I11" s="59">
         <v>43905</v>
       </c>
-      <c r="J11" s="72">
+      <c r="J11" s="71">
         <v>1.5</v>
       </c>
-      <c r="K11" s="62"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="19"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -9200,25 +9209,25 @@
       <c r="F12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="59">
         <v>43906</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="59">
         <v>43902</v>
       </c>
-      <c r="I12" s="60">
+      <c r="I12" s="59">
         <v>43905</v>
       </c>
-      <c r="J12" s="72">
+      <c r="J12" s="71">
         <v>8</v>
       </c>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
       <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -9231,25 +9240,25 @@
       <c r="F13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="59">
         <v>43906</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="59">
         <v>43902</v>
       </c>
-      <c r="I13" s="60">
+      <c r="I13" s="59">
         <v>43905</v>
       </c>
-      <c r="J13" s="72">
+      <c r="J13" s="71">
         <v>5</v>
       </c>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -9262,25 +9271,25 @@
       <c r="F14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="59">
         <v>43906</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="59">
         <v>43902</v>
       </c>
-      <c r="I14" s="60">
+      <c r="I14" s="59">
         <v>43905</v>
       </c>
-      <c r="J14" s="72">
+      <c r="J14" s="71">
         <v>3</v>
       </c>
-      <c r="K14" s="62"/>
+      <c r="K14" s="61"/>
       <c r="L14" s="10"/>
       <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -9293,25 +9302,25 @@
       <c r="F15" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="59">
         <v>43906</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="59">
         <v>43902</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I15" s="59">
         <v>43905</v>
       </c>
-      <c r="J15" s="72">
+      <c r="J15" s="71">
         <v>16</v>
       </c>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -9324,25 +9333,25 @@
       <c r="F16" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="59">
         <v>43906</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="59">
         <v>43902</v>
       </c>
-      <c r="I16" s="60">
+      <c r="I16" s="59">
         <v>43905</v>
       </c>
-      <c r="J16" s="72">
+      <c r="J16" s="71">
         <v>2.5</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>49</v>
@@ -9359,25 +9368,25 @@
       <c r="F17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="59">
         <v>43906</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="59">
         <v>43902</v>
       </c>
-      <c r="I17" s="60">
+      <c r="I17" s="59">
         <v>43905</v>
       </c>
-      <c r="J17" s="72">
+      <c r="J17" s="71">
         <v>5</v>
       </c>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -9390,25 +9399,25 @@
       <c r="F18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="59">
         <v>43906</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="59">
         <v>43902</v>
       </c>
-      <c r="I18" s="60">
+      <c r="I18" s="59">
         <v>43905</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="71">
         <v>1</v>
       </c>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -9421,25 +9430,25 @@
       <c r="F19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="59">
         <v>43906</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="59">
         <v>43902</v>
       </c>
-      <c r="I19" s="60">
+      <c r="I19" s="59">
         <v>43905</v>
       </c>
-      <c r="J19" s="72">
+      <c r="J19" s="71">
         <v>0.5</v>
       </c>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -9452,25 +9461,25 @@
       <c r="F20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="60">
+      <c r="G20" s="59">
         <v>43906</v>
       </c>
-      <c r="H20" s="60">
+      <c r="H20" s="59">
         <v>43902</v>
       </c>
-      <c r="I20" s="60">
+      <c r="I20" s="59">
         <v>43905</v>
       </c>
-      <c r="J20" s="72">
+      <c r="J20" s="71">
         <v>1.5</v>
       </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>49</v>
@@ -9487,25 +9496,25 @@
       <c r="F21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="60">
+      <c r="G21" s="59">
         <v>43906</v>
       </c>
-      <c r="H21" s="60">
+      <c r="H21" s="59">
         <v>43902</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="59">
         <v>43905</v>
       </c>
-      <c r="J21" s="72">
+      <c r="J21" s="71">
         <v>1.5</v>
       </c>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -9518,25 +9527,25 @@
       <c r="F22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="60">
+      <c r="G22" s="59">
         <v>43903</v>
       </c>
-      <c r="H22" s="60">
+      <c r="H22" s="59">
         <v>43902</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="59">
         <v>43905</v>
       </c>
-      <c r="J22" s="72">
-        <v>0.1</v>
-      </c>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
+      <c r="J22" s="71">
+        <v>0.25</v>
+      </c>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>49</v>
@@ -9551,27 +9560,27 @@
         <v>59</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="G23" s="60">
+        <v>393</v>
+      </c>
+      <c r="G23" s="59">
         <v>43906</v>
       </c>
-      <c r="H23" s="60">
+      <c r="H23" s="59">
         <v>43902</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="59">
         <v>43905</v>
       </c>
-      <c r="J23" s="72">
+      <c r="J23" s="71">
         <v>7</v>
       </c>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -9582,27 +9591,27 @@
         <v>59</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="G24" s="60">
+        <v>393</v>
+      </c>
+      <c r="G24" s="59">
         <v>43906</v>
       </c>
-      <c r="H24" s="60">
+      <c r="H24" s="59">
         <v>43902</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="59">
         <v>43905</v>
       </c>
-      <c r="J24" s="72">
+      <c r="J24" s="71">
         <v>0.5</v>
       </c>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -9613,27 +9622,27 @@
         <v>59</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="G25" s="60">
+        <v>393</v>
+      </c>
+      <c r="G25" s="59">
         <v>43906</v>
       </c>
-      <c r="H25" s="60">
+      <c r="H25" s="59">
         <v>43902</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="59">
         <v>43905</v>
       </c>
-      <c r="J25" s="72">
+      <c r="J25" s="71">
         <v>0.5</v>
       </c>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -9646,25 +9655,25 @@
       <c r="F26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="60">
+      <c r="G26" s="59">
         <v>43906</v>
       </c>
-      <c r="H26" s="60">
+      <c r="H26" s="59">
         <v>43902</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="59">
         <v>43905</v>
       </c>
-      <c r="J26" s="72">
+      <c r="J26" s="71">
         <v>0.5</v>
       </c>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B27" s="17" t="s">
         <v>49</v>
@@ -9681,20 +9690,20 @@
       <c r="F27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="60">
+      <c r="G27" s="59">
         <v>43904</v>
       </c>
-      <c r="H27" s="60">
+      <c r="H27" s="59">
         <v>43902</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="59">
         <v>43905</v>
       </c>
-      <c r="J27" s="72">
+      <c r="J27" s="71">
         <v>0.5</v>
       </c>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
       <c r="M27" s="11"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -9719,7 +9728,7 @@
     </row>
     <row r="28" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B28" s="17" t="s">
         <v>63</v>
@@ -9736,25 +9745,25 @@
       <c r="F28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="60">
+      <c r="G28" s="59">
         <v>43905</v>
       </c>
-      <c r="H28" s="60">
+      <c r="H28" s="59">
         <v>43902</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="59">
         <v>43905</v>
       </c>
-      <c r="J28" s="72">
+      <c r="J28" s="71">
         <v>0.5</v>
       </c>
       <c r="K28" s="10"/>
-      <c r="L28" s="62"/>
+      <c r="L28" s="61"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -9767,25 +9776,25 @@
       <c r="F29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="60">
+      <c r="G29" s="59">
         <v>43905</v>
       </c>
-      <c r="H29" s="60">
+      <c r="H29" s="59">
         <v>43902</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="59">
         <v>43905</v>
       </c>
-      <c r="J29" s="72">
+      <c r="J29" s="71">
         <v>0.5</v>
       </c>
       <c r="K29" s="10"/>
-      <c r="L29" s="62"/>
+      <c r="L29" s="61"/>
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:33" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -9798,25 +9807,25 @@
       <c r="F30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G30" s="60">
+      <c r="G30" s="59">
         <v>43905</v>
       </c>
-      <c r="H30" s="60">
+      <c r="H30" s="59">
         <v>43902</v>
       </c>
-      <c r="I30" s="60">
+      <c r="I30" s="59">
         <v>43905</v>
       </c>
-      <c r="J30" s="72">
+      <c r="J30" s="71">
         <v>0.25</v>
       </c>
       <c r="K30" s="9"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B31" s="17" t="s">
         <v>49</v>
@@ -9825,7 +9834,7 @@
         <v>32</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="13" t="s">
         <v>58</v>
@@ -9833,56 +9842,56 @@
       <c r="F31" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="60">
+      <c r="G31" s="59">
         <v>43905</v>
       </c>
-      <c r="H31" s="60">
+      <c r="H31" s="59">
         <v>43902</v>
       </c>
-      <c r="I31" s="60">
+      <c r="I31" s="59">
         <v>43905</v>
       </c>
-      <c r="J31" s="72">
+      <c r="J31" s="71">
         <v>6</v>
       </c>
       <c r="K31" s="9"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G32" s="60">
+        <v>101</v>
+      </c>
+      <c r="G32" s="59">
         <v>43905</v>
       </c>
-      <c r="H32" s="60">
+      <c r="H32" s="59">
         <v>43902</v>
       </c>
-      <c r="I32" s="60">
+      <c r="I32" s="59">
         <v>43905</v>
       </c>
-      <c r="J32" s="72">
+      <c r="J32" s="71">
         <v>2</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -9895,25 +9904,25 @@
       <c r="F33" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="60">
+      <c r="G33" s="59">
         <v>43905</v>
       </c>
-      <c r="H33" s="60">
+      <c r="H33" s="59">
         <v>43902</v>
       </c>
-      <c r="I33" s="60">
+      <c r="I33" s="59">
         <v>43905</v>
       </c>
-      <c r="J33" s="72">
+      <c r="J33" s="71">
         <v>7</v>
       </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -9926,25 +9935,25 @@
       <c r="F34" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G34" s="60">
+      <c r="G34" s="59">
         <v>43905</v>
       </c>
-      <c r="H34" s="60">
+      <c r="H34" s="59">
         <v>43902</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="59">
         <v>43905</v>
       </c>
-      <c r="J34" s="72">
+      <c r="J34" s="71">
         <v>10</v>
       </c>
       <c r="K34" s="9"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -9955,27 +9964,27 @@
         <v>56</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="60">
+        <v>101</v>
+      </c>
+      <c r="G35" s="59">
         <v>43909</v>
       </c>
-      <c r="H35" s="60">
+      <c r="H35" s="59">
         <v>43902</v>
       </c>
-      <c r="I35" s="60">
+      <c r="I35" s="59">
         <v>43909</v>
       </c>
-      <c r="J35" s="72">
+      <c r="J35" s="71">
         <v>2</v>
       </c>
       <c r="K35" s="9"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -9986,27 +9995,27 @@
         <v>56</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="60">
+        <v>101</v>
+      </c>
+      <c r="G36" s="59">
         <v>43909</v>
       </c>
-      <c r="H36" s="60">
+      <c r="H36" s="59">
         <v>43902</v>
       </c>
-      <c r="I36" s="60">
+      <c r="I36" s="59">
         <v>43909</v>
       </c>
-      <c r="J36" s="72">
+      <c r="J36" s="71">
         <v>1</v>
       </c>
       <c r="K36" s="9"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -10017,98 +10026,100 @@
         <v>57</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" s="60">
+        <v>101</v>
+      </c>
+      <c r="G37" s="59">
         <v>43909</v>
       </c>
-      <c r="H37" s="60">
+      <c r="H37" s="59">
         <v>43902</v>
       </c>
-      <c r="I37" s="60">
+      <c r="I37" s="59">
         <v>43909</v>
       </c>
-      <c r="J37" s="72">
+      <c r="J37" s="71">
         <v>2</v>
       </c>
       <c r="K37" s="9"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>290</v>
-      </c>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+    </row>
+    <row r="38" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
-        <v>61</v>
+        <v>400</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>29</v>
+        <v>416</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>86</v>
+        <v>417</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="G38" s="60">
-        <v>43909</v>
-      </c>
-      <c r="H38" s="60">
+        <v>101</v>
+      </c>
+      <c r="G38" s="84">
         <v>43905</v>
       </c>
-      <c r="I38" s="60">
-        <v>43912</v>
-      </c>
-      <c r="J38" s="72">
-        <v>30</v>
-      </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
+      <c r="H38" s="84">
+        <v>43902</v>
+      </c>
+      <c r="I38" s="84">
+        <v>43905</v>
+      </c>
+      <c r="J38" s="71">
+        <v>12</v>
+      </c>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="11"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="17" t="s">
-        <v>291</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
+        <v>287</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="D39" s="18" t="s">
-        <v>397</v>
+        <v>85</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="60">
+        <v>393</v>
+      </c>
+      <c r="G39" s="59">
         <v>43909</v>
       </c>
-      <c r="H39" s="60">
+      <c r="H39" s="59">
         <v>43905</v>
       </c>
-      <c r="I39" s="60">
+      <c r="I39" s="59">
         <v>43912</v>
       </c>
-      <c r="J39" s="72">
-        <v>2</v>
+      <c r="J39" s="71">
+        <v>30</v>
       </c>
       <c r="K39" s="9"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
       <c r="D40" s="18" t="s">
-        <v>30</v>
+        <v>394</v>
       </c>
       <c r="E40" s="13" t="s">
         <v>58</v>
@@ -10116,65 +10127,61 @@
       <c r="F40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G40" s="60">
+      <c r="G40" s="59">
+        <v>43909</v>
+      </c>
+      <c r="H40" s="59">
+        <v>43905</v>
+      </c>
+      <c r="I40" s="59">
         <v>43912</v>
       </c>
-      <c r="H40" s="60">
-        <v>43905</v>
-      </c>
-      <c r="I40" s="60">
-        <v>43912</v>
-      </c>
-      <c r="J40" s="72">
-        <v>5</v>
+      <c r="J40" s="71">
+        <v>2</v>
       </c>
       <c r="K40" s="9"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-    </row>
-    <row r="41" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="17" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
       <c r="D41" s="18" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="60">
+        <v>58</v>
+      </c>
+      <c r="G41" s="59">
         <v>43912</v>
       </c>
-      <c r="H41" s="60">
+      <c r="H41" s="59">
         <v>43905</v>
       </c>
-      <c r="I41" s="60">
+      <c r="I41" s="59">
         <v>43912</v>
       </c>
-      <c r="J41" s="72">
-        <v>0.1</v>
+      <c r="J41" s="71">
+        <v>5</v>
       </c>
       <c r="K41" s="9"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+    </row>
+    <row r="42" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>75</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
       <c r="D42" s="18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E42" s="13" t="s">
         <v>57</v>
@@ -10182,61 +10189,65 @@
       <c r="F42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G42" s="60">
-        <v>43907</v>
-      </c>
-      <c r="H42" s="60">
+      <c r="G42" s="59">
+        <v>43912</v>
+      </c>
+      <c r="H42" s="59">
         <v>43905</v>
       </c>
-      <c r="I42" s="60">
+      <c r="I42" s="59">
         <v>43912</v>
       </c>
-      <c r="J42" s="72">
-        <v>0.1</v>
+      <c r="J42" s="71">
+        <v>0.25</v>
       </c>
       <c r="K42" s="9"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="17" t="s">
-        <v>295</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+        <v>291</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>74</v>
+      </c>
       <c r="D43" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="60">
-        <v>43911</v>
-      </c>
-      <c r="H43" s="60">
+        <v>57</v>
+      </c>
+      <c r="G43" s="59">
+        <v>43907</v>
+      </c>
+      <c r="H43" s="59">
         <v>43905</v>
       </c>
-      <c r="I43" s="60">
+      <c r="I43" s="59">
         <v>43912</v>
       </c>
-      <c r="J43" s="72">
-        <v>8</v>
+      <c r="J43" s="71">
+        <v>0.25</v>
       </c>
       <c r="K43" s="9"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="17" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
       <c r="D44" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>58</v>
@@ -10244,96 +10255,96 @@
       <c r="F44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G44" s="60">
+      <c r="G44" s="59">
+        <v>43911</v>
+      </c>
+      <c r="H44" s="59">
+        <v>43905</v>
+      </c>
+      <c r="I44" s="59">
         <v>43912</v>
       </c>
-      <c r="H44" s="60">
-        <v>43905</v>
-      </c>
-      <c r="I44" s="60">
-        <v>43912</v>
-      </c>
-      <c r="J44" s="72">
-        <v>1</v>
+      <c r="J44" s="71">
+        <v>8</v>
       </c>
       <c r="K44" s="9"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="17" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
       <c r="D45" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E45" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G45" s="60">
+        <v>58</v>
+      </c>
+      <c r="G45" s="59">
         <v>43912</v>
       </c>
-      <c r="H45" s="60">
+      <c r="H45" s="59">
         <v>43905</v>
       </c>
-      <c r="I45" s="60">
+      <c r="I45" s="59">
         <v>43912</v>
       </c>
-      <c r="J45" s="72">
+      <c r="J45" s="71">
         <v>1</v>
       </c>
       <c r="K45" s="9"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-    </row>
-    <row r="46" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>62</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="18" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G46" s="60">
+        <v>101</v>
+      </c>
+      <c r="G46" s="59">
         <v>43912</v>
       </c>
-      <c r="H46" s="60">
+      <c r="H46" s="59">
         <v>43905</v>
       </c>
-      <c r="I46" s="60">
+      <c r="I46" s="59">
         <v>43912</v>
       </c>
-      <c r="J46" s="72">
-        <v>0.5</v>
+      <c r="J46" s="71">
+        <v>1</v>
       </c>
       <c r="K46" s="9"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
     </row>
     <row r="47" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
+        <v>295</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="D47" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" s="13" t="s">
         <v>57</v>
@@ -10341,2488 +10352,2504 @@
       <c r="F47" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G47" s="60">
+      <c r="G47" s="59">
         <v>43912</v>
       </c>
-      <c r="H47" s="60">
+      <c r="H47" s="59">
         <v>43905</v>
       </c>
-      <c r="I47" s="60">
+      <c r="I47" s="59">
         <v>43912</v>
       </c>
-      <c r="J47" s="72">
+      <c r="J47" s="71">
         <v>0.5</v>
       </c>
       <c r="K47" s="9"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
     </row>
     <row r="48" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="D48" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="59">
+        <v>43912</v>
+      </c>
+      <c r="H48" s="59">
+        <v>43905</v>
+      </c>
+      <c r="I48" s="59">
+        <v>43912</v>
+      </c>
+      <c r="J48" s="71">
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="9"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+    </row>
+    <row r="49" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="G48" s="60">
+      <c r="F49" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="G49" s="59">
         <v>43912</v>
       </c>
-      <c r="H48" s="60">
+      <c r="H49" s="59">
         <v>43905</v>
       </c>
-      <c r="I48" s="60">
+      <c r="I49" s="59">
         <v>43912</v>
       </c>
-      <c r="J48" s="72">
+      <c r="J49" s="71">
         <v>0.25</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" s="60">
-        <v>43914</v>
-      </c>
-      <c r="H49" s="60">
-        <v>43913</v>
-      </c>
-      <c r="I49" s="60">
-        <v>43919</v>
-      </c>
-      <c r="J49" s="72">
-        <v>12</v>
-      </c>
       <c r="K49" s="9"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+        <v>298</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="D50" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E50" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G50" s="60">
+        <v>101</v>
+      </c>
+      <c r="G50" s="59">
         <v>43914</v>
       </c>
-      <c r="H50" s="60">
+      <c r="H50" s="59">
         <v>43913</v>
       </c>
-      <c r="I50" s="60">
+      <c r="I50" s="59">
         <v>43919</v>
       </c>
-      <c r="J50" s="72">
-        <v>16</v>
+      <c r="J50" s="71">
+        <v>12</v>
       </c>
       <c r="K50" s="9"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="17" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
       <c r="D51" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="60">
-        <v>43915</v>
-      </c>
-      <c r="H51" s="60">
+      <c r="F51" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" s="59">
+        <v>43914</v>
+      </c>
+      <c r="H51" s="59">
         <v>43913</v>
       </c>
-      <c r="I51" s="60">
+      <c r="I51" s="59">
         <v>43919</v>
       </c>
-      <c r="J51" s="72">
-        <v>1</v>
+      <c r="J51" s="71">
+        <v>16</v>
       </c>
       <c r="K51" s="9"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-    </row>
-    <row r="52" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
       <c r="D52" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="60">
+      <c r="F52" s="13"/>
+      <c r="G52" s="59">
         <v>43915</v>
       </c>
-      <c r="H52" s="60">
+      <c r="H52" s="59">
         <v>43913</v>
       </c>
-      <c r="I52" s="60">
+      <c r="I52" s="59">
         <v>43919</v>
       </c>
-      <c r="J52" s="72">
+      <c r="J52" s="71">
         <v>1</v>
       </c>
       <c r="K52" s="9"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+    </row>
+    <row r="53" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>99</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="18" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="13"/>
-      <c r="G53" s="60">
-        <v>43916</v>
-      </c>
-      <c r="H53" s="60">
+        <v>57</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G53" s="59">
+        <v>43915</v>
+      </c>
+      <c r="H53" s="59">
         <v>43913</v>
       </c>
-      <c r="I53" s="60">
+      <c r="I53" s="59">
         <v>43919</v>
       </c>
-      <c r="J53" s="72">
-        <v>6</v>
+      <c r="J53" s="71">
+        <v>1</v>
       </c>
       <c r="K53" s="9"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+        <v>302</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>98</v>
+      </c>
       <c r="D54" s="18" t="s">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="E54" s="13" t="s">
         <v>56</v>
       </c>
       <c r="F54" s="13"/>
-      <c r="G54" s="60">
-        <v>43917</v>
-      </c>
-      <c r="H54" s="60">
+      <c r="G54" s="59">
+        <v>43916</v>
+      </c>
+      <c r="H54" s="59">
         <v>43913</v>
       </c>
-      <c r="I54" s="60">
+      <c r="I54" s="59">
         <v>43919</v>
       </c>
-      <c r="J54" s="72">
-        <v>7</v>
+      <c r="J54" s="71">
+        <v>6</v>
       </c>
       <c r="K54" s="9"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="17" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
       <c r="D55" s="18" t="s">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G55" s="60">
-        <v>43918</v>
-      </c>
-      <c r="H55" s="60">
+      <c r="F55" s="13"/>
+      <c r="G55" s="59">
+        <v>43917</v>
+      </c>
+      <c r="H55" s="59">
         <v>43913</v>
       </c>
-      <c r="I55" s="60">
+      <c r="I55" s="59">
         <v>43919</v>
       </c>
-      <c r="J55" s="72">
-        <v>2</v>
+      <c r="J55" s="71">
+        <v>7</v>
       </c>
       <c r="K55" s="9"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>104</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="13"/>
-      <c r="G56" s="60">
+        <v>56</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G56" s="59">
         <v>43918</v>
       </c>
-      <c r="H56" s="60">
+      <c r="H56" s="59">
         <v>43913</v>
       </c>
-      <c r="I56" s="60">
+      <c r="I56" s="59">
         <v>43919</v>
       </c>
-      <c r="J56" s="72">
-        <v>16</v>
+      <c r="J56" s="71">
+        <v>2</v>
       </c>
       <c r="K56" s="9"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="17" t="s">
-        <v>309</v>
-      </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
+        <v>305</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>103</v>
+      </c>
       <c r="D57" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F57" s="13"/>
-      <c r="G57" s="60">
+      <c r="G57" s="59">
         <v>43918</v>
       </c>
-      <c r="H57" s="60">
+      <c r="H57" s="59">
         <v>43913</v>
       </c>
-      <c r="I57" s="60">
+      <c r="I57" s="59">
         <v>43919</v>
       </c>
-      <c r="J57" s="72">
-        <v>12</v>
+      <c r="J57" s="71">
+        <v>16</v>
       </c>
       <c r="K57" s="9"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
       <c r="D58" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E58" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F58" s="13"/>
-      <c r="G58" s="60">
+      <c r="G58" s="59">
         <v>43918</v>
       </c>
-      <c r="H58" s="60">
+      <c r="H58" s="59">
         <v>43913</v>
       </c>
-      <c r="I58" s="60">
+      <c r="I58" s="59">
         <v>43919</v>
       </c>
-      <c r="J58" s="72">
-        <v>10</v>
+      <c r="J58" s="71">
+        <v>12</v>
       </c>
       <c r="K58" s="9"/>
-      <c r="L58" s="62"/>
-      <c r="M58" s="62"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>109</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59" s="60">
+        <v>60</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="59">
+        <v>43918</v>
+      </c>
+      <c r="H59" s="59">
         <v>43913</v>
       </c>
-      <c r="H59" s="60">
-        <v>43913</v>
-      </c>
-      <c r="I59" s="60">
+      <c r="I59" s="59">
         <v>43919</v>
       </c>
-      <c r="J59" s="72">
-        <v>2</v>
+      <c r="J59" s="71">
+        <v>10</v>
       </c>
       <c r="K59" s="9"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+        <v>308</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="D60" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="60">
-        <v>43914</v>
-      </c>
-      <c r="H60" s="60">
+        <v>57</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G60" s="59">
         <v>43913</v>
       </c>
-      <c r="I60" s="60">
+      <c r="H60" s="59">
+        <v>43913</v>
+      </c>
+      <c r="I60" s="59">
         <v>43919</v>
       </c>
-      <c r="J60" s="72">
-        <v>8</v>
+      <c r="J60" s="71">
+        <v>2</v>
       </c>
       <c r="K60" s="9"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="17" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G61" s="60">
+        <v>58</v>
+      </c>
+      <c r="F61" s="13"/>
+      <c r="G61" s="59">
         <v>43914</v>
       </c>
-      <c r="H61" s="60">
+      <c r="H61" s="59">
         <v>43913</v>
       </c>
-      <c r="I61" s="60">
+      <c r="I61" s="59">
         <v>43919</v>
       </c>
-      <c r="J61" s="72">
-        <v>1</v>
+      <c r="J61" s="71">
+        <v>8</v>
       </c>
       <c r="K61" s="9"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>210</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G62" s="60">
-        <v>43915</v>
-      </c>
-      <c r="H62" s="60">
+        <v>101</v>
+      </c>
+      <c r="G62" s="59">
+        <v>43914</v>
+      </c>
+      <c r="H62" s="59">
         <v>43913</v>
       </c>
-      <c r="I62" s="60">
+      <c r="I62" s="59">
         <v>43919</v>
       </c>
-      <c r="J62" s="72">
-        <v>25</v>
+      <c r="J62" s="71">
+        <v>1</v>
       </c>
       <c r="K62" s="9"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
-        <v>315</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+        <v>311</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>208</v>
+      </c>
       <c r="D63" s="18" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G63" s="60">
-        <v>43918</v>
-      </c>
-      <c r="H63" s="60">
+        <v>101</v>
+      </c>
+      <c r="G63" s="59">
+        <v>43915</v>
+      </c>
+      <c r="H63" s="59">
         <v>43913</v>
       </c>
-      <c r="I63" s="60">
+      <c r="I63" s="59">
         <v>43919</v>
       </c>
-      <c r="J63" s="72">
-        <v>40</v>
+      <c r="J63" s="71">
+        <v>25</v>
       </c>
       <c r="K63" s="9"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G64" s="60">
+        <v>101</v>
+      </c>
+      <c r="G64" s="59">
+        <v>43918</v>
+      </c>
+      <c r="H64" s="59">
+        <v>43913</v>
+      </c>
+      <c r="I64" s="59">
         <v>43919</v>
       </c>
-      <c r="H64" s="60">
-        <v>43913</v>
-      </c>
-      <c r="I64" s="60">
-        <v>43919</v>
-      </c>
-      <c r="J64" s="72">
-        <v>20</v>
+      <c r="J64" s="71">
+        <v>40</v>
       </c>
       <c r="K64" s="9"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="18" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G65" s="60">
+        <v>101</v>
+      </c>
+      <c r="G65" s="59">
         <v>43919</v>
       </c>
-      <c r="H65" s="60">
+      <c r="H65" s="59">
         <v>43913</v>
       </c>
-      <c r="I65" s="60">
+      <c r="I65" s="59">
         <v>43919</v>
       </c>
-      <c r="J65" s="72">
-        <v>15</v>
+      <c r="J65" s="71">
+        <v>20</v>
       </c>
       <c r="K65" s="9"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="B66" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>62</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
       <c r="D66" s="18" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="60">
+        <v>59</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="59">
         <v>43919</v>
       </c>
-      <c r="H66" s="60">
+      <c r="H66" s="59">
         <v>43913</v>
       </c>
-      <c r="I66" s="60">
+      <c r="I66" s="59">
         <v>43919</v>
       </c>
-      <c r="J66" s="72">
-        <v>0.5</v>
+      <c r="J66" s="71">
+        <v>15</v>
       </c>
       <c r="K66" s="9"/>
-      <c r="L66" s="62"/>
-      <c r="M66" s="62"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+        <v>315</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="D67" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F67" s="13"/>
-      <c r="G67" s="60">
+      <c r="G67" s="59">
         <v>43919</v>
       </c>
-      <c r="H67" s="60">
+      <c r="H67" s="59">
         <v>43913</v>
       </c>
-      <c r="I67" s="60">
+      <c r="I67" s="59">
         <v>43919</v>
       </c>
-      <c r="J67" s="72">
+      <c r="J67" s="71">
         <v>0.5</v>
       </c>
       <c r="K67" s="9"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
       <c r="D68" s="18" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F68" s="13"/>
-      <c r="G68" s="60">
+      <c r="G68" s="59">
         <v>43919</v>
       </c>
-      <c r="H68" s="60">
+      <c r="H68" s="59">
         <v>43913</v>
       </c>
-      <c r="I68" s="60">
+      <c r="I68" s="59">
         <v>43919</v>
       </c>
-      <c r="J68" s="72">
-        <v>0.25</v>
+      <c r="J68" s="71">
+        <v>0.5</v>
       </c>
       <c r="K68" s="9"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="62"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>119</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
       <c r="D69" s="18" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F69" s="13"/>
-      <c r="G69" s="60">
+      <c r="G69" s="59">
+        <v>43919</v>
+      </c>
+      <c r="H69" s="59">
         <v>43913</v>
       </c>
-      <c r="H69" s="60">
-        <v>43913</v>
-      </c>
-      <c r="I69" s="60">
-        <v>43913</v>
-      </c>
-      <c r="J69" s="72">
+      <c r="I69" s="59">
+        <v>43919</v>
+      </c>
+      <c r="J69" s="71">
         <v>0.25</v>
       </c>
       <c r="K69" s="9"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+        <v>318</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="D70" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G70" s="60">
-        <v>43922</v>
-      </c>
-      <c r="H70" s="60">
-        <v>43920</v>
-      </c>
-      <c r="I70" s="60">
-        <v>43922</v>
-      </c>
-      <c r="J70" s="72">
-        <v>3</v>
+      <c r="F70" s="13"/>
+      <c r="G70" s="59">
+        <v>43913</v>
+      </c>
+      <c r="H70" s="59">
+        <v>43913</v>
+      </c>
+      <c r="I70" s="59">
+        <v>43913</v>
+      </c>
+      <c r="J70" s="71">
+        <v>0.25</v>
       </c>
       <c r="K70" s="9"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="17" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
       <c r="D71" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E71" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G71" s="60">
+        <v>101</v>
+      </c>
+      <c r="G71" s="59">
+        <v>43922</v>
+      </c>
+      <c r="H71" s="59">
         <v>43920</v>
       </c>
-      <c r="H71" s="60">
-        <v>43920</v>
-      </c>
-      <c r="I71" s="60">
-        <v>43920</v>
-      </c>
-      <c r="J71" s="72">
-        <v>0.5</v>
+      <c r="I71" s="59">
+        <v>43922</v>
+      </c>
+      <c r="J71" s="71">
+        <v>3</v>
       </c>
       <c r="K71" s="9"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="17" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F72" s="13"/>
-      <c r="G72" s="60">
-        <v>43922</v>
-      </c>
-      <c r="H72" s="60">
+      <c r="F72" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G72" s="59">
         <v>43920</v>
       </c>
-      <c r="I72" s="60">
-        <v>43922</v>
-      </c>
-      <c r="J72" s="72">
+      <c r="H72" s="59">
+        <v>43920</v>
+      </c>
+      <c r="I72" s="59">
+        <v>43920</v>
+      </c>
+      <c r="J72" s="71">
         <v>0.5</v>
       </c>
       <c r="K72" s="9"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="62"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>129</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="18" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F73" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G73" s="60">
+      <c r="F73" s="13"/>
+      <c r="G73" s="59">
         <v>43922</v>
       </c>
-      <c r="H73" s="60">
+      <c r="H73" s="59">
         <v>43920</v>
       </c>
-      <c r="I73" s="60">
+      <c r="I73" s="59">
         <v>43922</v>
       </c>
-      <c r="J73" s="72">
-        <v>1</v>
+      <c r="J73" s="71">
+        <v>0.5</v>
       </c>
       <c r="K73" s="9"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="62"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>128</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F74" s="13"/>
-      <c r="G74" s="60">
-        <v>43923</v>
-      </c>
-      <c r="H74" s="60">
-        <v>43923</v>
-      </c>
-      <c r="I74" s="60">
-        <v>43923</v>
-      </c>
-      <c r="J74" s="72">
-        <v>0.25</v>
+      <c r="F74" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G74" s="59">
+        <v>43922</v>
+      </c>
+      <c r="H74" s="59">
+        <v>43920</v>
+      </c>
+      <c r="I74" s="59">
+        <v>43922</v>
+      </c>
+      <c r="J74" s="71">
+        <v>1</v>
       </c>
       <c r="K74" s="9"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
+        <v>323</v>
+      </c>
+      <c r="B75" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="D75" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E75" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F75" s="13"/>
-      <c r="G75" s="60">
+      <c r="G75" s="59">
         <v>43923</v>
       </c>
-      <c r="H75" s="60">
+      <c r="H75" s="59">
         <v>43923</v>
       </c>
-      <c r="I75" s="60">
+      <c r="I75" s="59">
         <v>43923</v>
       </c>
-      <c r="J75" s="72">
-        <v>0.75</v>
+      <c r="J75" s="71">
+        <v>0.25</v>
       </c>
       <c r="K75" s="9"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="17" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
       <c r="D76" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F76" s="13"/>
-      <c r="G76" s="60">
+      <c r="G76" s="59">
         <v>43923</v>
       </c>
-      <c r="H76" s="60">
+      <c r="H76" s="59">
         <v>43923</v>
       </c>
-      <c r="I76" s="60">
+      <c r="I76" s="59">
         <v>43923</v>
       </c>
-      <c r="J76" s="72">
-        <v>3</v>
+      <c r="J76" s="71">
+        <v>0.75</v>
       </c>
       <c r="K76" s="9"/>
-      <c r="L76" s="62"/>
-      <c r="M76" s="62"/>
+      <c r="L76" s="61"/>
+      <c r="M76" s="61"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
       <c r="D77" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E77" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F77" s="13"/>
-      <c r="G77" s="60">
-        <v>43924</v>
-      </c>
-      <c r="H77" s="60">
+      <c r="G77" s="59">
         <v>43923</v>
       </c>
-      <c r="I77" s="60">
-        <v>43924</v>
-      </c>
-      <c r="J77" s="72">
-        <v>2</v>
+      <c r="H77" s="59">
+        <v>43923</v>
+      </c>
+      <c r="I77" s="59">
+        <v>43923</v>
+      </c>
+      <c r="J77" s="71">
+        <v>3</v>
       </c>
       <c r="K77" s="9"/>
-      <c r="L77" s="62"/>
-      <c r="M77" s="62"/>
+      <c r="L77" s="61"/>
+      <c r="M77" s="61"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="17" t="s">
-        <v>330</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="17" t="s">
-        <v>148</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="18" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F78" s="13"/>
-      <c r="G78" s="60">
+      <c r="G78" s="59">
         <v>43924</v>
       </c>
-      <c r="H78" s="60">
+      <c r="H78" s="59">
         <v>43923</v>
       </c>
-      <c r="I78" s="60">
+      <c r="I78" s="59">
         <v>43924</v>
       </c>
-      <c r="J78" s="72">
-        <v>7</v>
+      <c r="J78" s="71">
+        <v>2</v>
       </c>
       <c r="K78" s="9"/>
-      <c r="L78" s="62"/>
-      <c r="M78" s="62"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="61"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
+        <v>327</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="D79" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F79" s="13"/>
-      <c r="G79" s="60">
-        <v>43925</v>
-      </c>
-      <c r="H79" s="60">
+      <c r="G79" s="59">
+        <v>43924</v>
+      </c>
+      <c r="H79" s="59">
         <v>43923</v>
       </c>
-      <c r="I79" s="60">
-        <v>43925</v>
-      </c>
-      <c r="J79" s="72">
-        <v>2</v>
+      <c r="I79" s="59">
+        <v>43924</v>
+      </c>
+      <c r="J79" s="71">
+        <v>7</v>
       </c>
       <c r="K79" s="9"/>
-      <c r="L79" s="62"/>
-      <c r="M79" s="62"/>
+      <c r="L79" s="61"/>
+      <c r="M79" s="61"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F80" s="13"/>
-      <c r="G80" s="60">
+      <c r="G80" s="59">
         <v>43925</v>
       </c>
-      <c r="H80" s="60">
-        <v>43922</v>
-      </c>
-      <c r="I80" s="60">
+      <c r="H80" s="59">
         <v>43923</v>
       </c>
-      <c r="J80" s="72">
-        <v>1</v>
+      <c r="I80" s="59">
+        <v>43925</v>
+      </c>
+      <c r="J80" s="71">
+        <v>2</v>
       </c>
       <c r="K80" s="9"/>
-      <c r="L80" s="62"/>
-      <c r="M80" s="62"/>
+      <c r="L80" s="61"/>
+      <c r="M80" s="61"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B81" s="17"/>
       <c r="C81" s="17"/>
       <c r="D81" s="18" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G81" s="60">
-        <v>43926</v>
-      </c>
-      <c r="H81" s="60">
-        <v>43926</v>
-      </c>
-      <c r="I81" s="60">
-        <v>43926</v>
-      </c>
-      <c r="J81" s="72">
-        <v>2</v>
+      <c r="F81" s="13"/>
+      <c r="G81" s="59">
+        <v>43925</v>
+      </c>
+      <c r="H81" s="59">
+        <v>43922</v>
+      </c>
+      <c r="I81" s="59">
+        <v>43923</v>
+      </c>
+      <c r="J81" s="71">
+        <v>1</v>
       </c>
       <c r="K81" s="9"/>
-      <c r="L81" s="62"/>
-      <c r="M81" s="62"/>
+      <c r="L81" s="61"/>
+      <c r="M81" s="61"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>62</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="18" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="E82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F82" s="13"/>
-      <c r="G82" s="60">
+      <c r="F82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G82" s="59">
         <v>43926</v>
       </c>
-      <c r="H82" s="60">
+      <c r="H82" s="59">
         <v>43926</v>
       </c>
-      <c r="I82" s="60">
+      <c r="I82" s="59">
         <v>43926</v>
       </c>
-      <c r="J82" s="72">
-        <v>0.5</v>
+      <c r="J82" s="71">
+        <v>2</v>
       </c>
       <c r="K82" s="9"/>
-      <c r="L82" s="62"/>
-      <c r="M82" s="62"/>
+      <c r="L82" s="61"/>
+      <c r="M82" s="61"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+        <v>331</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="D83" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E83" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F83" s="13"/>
-      <c r="G83" s="60">
+      <c r="G83" s="59">
         <v>43926</v>
       </c>
-      <c r="H83" s="60">
+      <c r="H83" s="59">
         <v>43926</v>
       </c>
-      <c r="I83" s="60">
+      <c r="I83" s="59">
         <v>43926</v>
       </c>
-      <c r="J83" s="72">
+      <c r="J83" s="71">
         <v>0.5</v>
       </c>
       <c r="K83" s="9"/>
-      <c r="L83" s="62"/>
-      <c r="M83" s="62"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="17" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="18" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F84" s="13"/>
-      <c r="G84" s="60">
+      <c r="G84" s="59">
         <v>43926</v>
       </c>
-      <c r="H84" s="60">
+      <c r="H84" s="59">
         <v>43926</v>
       </c>
-      <c r="I84" s="60">
+      <c r="I84" s="59">
         <v>43926</v>
       </c>
-      <c r="J84" s="72">
-        <v>0.25</v>
+      <c r="J84" s="71">
+        <v>0.5</v>
       </c>
       <c r="K84" s="9"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="62"/>
+      <c r="L84" s="61"/>
+      <c r="M84" s="61"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="17" t="s">
-        <v>337</v>
-      </c>
-      <c r="B85" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>159</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
       <c r="D85" s="18" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F85" s="13"/>
-      <c r="G85" s="60">
-        <v>43942</v>
-      </c>
-      <c r="H85" s="60">
-        <v>43923</v>
-      </c>
-      <c r="I85" s="60">
-        <v>43943</v>
-      </c>
-      <c r="J85" s="72">
-        <v>10</v>
+      <c r="G85" s="59">
+        <v>43926</v>
+      </c>
+      <c r="H85" s="59">
+        <v>43926</v>
+      </c>
+      <c r="I85" s="59">
+        <v>43926</v>
+      </c>
+      <c r="J85" s="71">
+        <v>0.25</v>
       </c>
       <c r="K85" s="9"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="62"/>
+      <c r="L85" s="61"/>
+      <c r="M85" s="61"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
+        <v>334</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>157</v>
+      </c>
       <c r="D86" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E86" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F86" s="13"/>
-      <c r="G86" s="60">
+      <c r="G86" s="59">
         <v>43942</v>
       </c>
-      <c r="H86" s="60">
+      <c r="H86" s="59">
         <v>43923</v>
       </c>
-      <c r="I86" s="60">
+      <c r="I86" s="59">
         <v>43943</v>
       </c>
-      <c r="J86" s="72">
+      <c r="J86" s="71">
         <v>10</v>
       </c>
       <c r="K86" s="9"/>
-      <c r="L86" s="62"/>
-      <c r="M86" s="62"/>
+      <c r="L86" s="61"/>
+      <c r="M86" s="61"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B87" s="17"/>
       <c r="C87" s="17"/>
       <c r="D87" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F87" s="13"/>
-      <c r="G87" s="60">
+      <c r="G87" s="59">
         <v>43942</v>
       </c>
-      <c r="H87" s="60">
+      <c r="H87" s="59">
         <v>43923</v>
       </c>
-      <c r="I87" s="60">
+      <c r="I87" s="59">
         <v>43943</v>
       </c>
-      <c r="J87" s="72">
+      <c r="J87" s="71">
         <v>10</v>
       </c>
       <c r="K87" s="9"/>
-      <c r="L87" s="62"/>
-      <c r="M87" s="62"/>
+      <c r="L87" s="61"/>
+      <c r="M87" s="61"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B88" s="17"/>
       <c r="C88" s="17"/>
       <c r="D88" s="18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E88" s="13" t="s">
         <v>58</v>
       </c>
       <c r="F88" s="13"/>
-      <c r="G88" s="60">
+      <c r="G88" s="59">
         <v>43942</v>
       </c>
-      <c r="H88" s="60">
+      <c r="H88" s="59">
         <v>43923</v>
       </c>
-      <c r="I88" s="60">
+      <c r="I88" s="59">
         <v>43943</v>
       </c>
-      <c r="J88" s="72">
+      <c r="J88" s="71">
         <v>10</v>
       </c>
       <c r="K88" s="9"/>
-      <c r="L88" s="62"/>
-      <c r="M88" s="62"/>
+      <c r="L88" s="61"/>
+      <c r="M88" s="61"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B89" s="17"/>
       <c r="C89" s="17"/>
       <c r="D89" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G89" s="60">
+      <c r="F89" s="13"/>
+      <c r="G89" s="59">
         <v>43942</v>
       </c>
-      <c r="H89" s="60">
+      <c r="H89" s="59">
         <v>43923</v>
       </c>
-      <c r="I89" s="60">
+      <c r="I89" s="59">
         <v>43943</v>
       </c>
-      <c r="J89" s="72">
-        <v>18</v>
+      <c r="J89" s="71">
+        <v>10</v>
       </c>
       <c r="K89" s="9"/>
-      <c r="L89" s="62"/>
-      <c r="M89" s="62"/>
+      <c r="L89" s="61"/>
+      <c r="M89" s="61"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B90" s="17"/>
       <c r="C90" s="17"/>
       <c r="D90" s="18" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F90" s="13"/>
-      <c r="G90" s="60">
+        <v>56</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G90" s="59">
         <v>43942</v>
       </c>
-      <c r="H90" s="60">
+      <c r="H90" s="59">
         <v>43923</v>
       </c>
-      <c r="I90" s="60">
+      <c r="I90" s="59">
         <v>43943</v>
       </c>
-      <c r="J90" s="72">
-        <v>350</v>
+      <c r="J90" s="71">
+        <v>18</v>
       </c>
       <c r="K90" s="9"/>
-      <c r="L90" s="62"/>
-      <c r="M90" s="62"/>
+      <c r="L90" s="61"/>
+      <c r="M90" s="61"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>378</v>
-      </c>
-      <c r="C91" s="17" t="s">
-        <v>162</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
       <c r="D91" s="18" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F91" s="13"/>
-      <c r="G91" s="60">
-        <v>43930</v>
-      </c>
-      <c r="H91" s="60">
+      <c r="G91" s="59">
+        <v>43942</v>
+      </c>
+      <c r="H91" s="59">
         <v>43923</v>
       </c>
-      <c r="I91" s="60">
+      <c r="I91" s="59">
         <v>43943</v>
       </c>
-      <c r="J91" s="72">
-        <v>40</v>
+      <c r="J91" s="71">
+        <v>350</v>
       </c>
       <c r="K91" s="9"/>
-      <c r="L91" s="62"/>
-      <c r="M91" s="62"/>
+      <c r="L91" s="61"/>
+      <c r="M91" s="61"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
+        <v>340</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>160</v>
+      </c>
       <c r="D92" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F92" s="13"/>
-      <c r="G92" s="60">
+      <c r="G92" s="59">
         <v>43930</v>
       </c>
-      <c r="H92" s="60">
+      <c r="H92" s="59">
         <v>43923</v>
       </c>
-      <c r="I92" s="60">
+      <c r="I92" s="59">
         <v>43943</v>
       </c>
-      <c r="J92" s="72">
-        <v>20</v>
+      <c r="J92" s="71">
+        <v>40</v>
       </c>
       <c r="K92" s="9"/>
-      <c r="L92" s="62"/>
-      <c r="M92" s="62"/>
+      <c r="L92" s="61"/>
+      <c r="M92" s="61"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B93" s="17"/>
       <c r="C93" s="17"/>
       <c r="D93" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E93" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F93" s="13"/>
-      <c r="G93" s="60">
+      <c r="G93" s="59">
         <v>43930</v>
       </c>
-      <c r="H93" s="60">
+      <c r="H93" s="59">
         <v>43923</v>
       </c>
-      <c r="I93" s="60">
+      <c r="I93" s="59">
         <v>43943</v>
       </c>
-      <c r="J93" s="72">
+      <c r="J93" s="71">
         <v>20</v>
       </c>
       <c r="K93" s="9"/>
-      <c r="L93" s="62"/>
-      <c r="M93" s="62"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="61"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B94" s="17"/>
       <c r="C94" s="17"/>
       <c r="D94" s="18" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E94" s="13" t="s">
         <v>60</v>
       </c>
       <c r="F94" s="13"/>
-      <c r="G94" s="60">
-        <v>43931</v>
-      </c>
-      <c r="H94" s="60">
+      <c r="G94" s="59">
+        <v>43930</v>
+      </c>
+      <c r="H94" s="59">
         <v>43923</v>
       </c>
-      <c r="I94" s="60">
+      <c r="I94" s="59">
         <v>43943</v>
       </c>
-      <c r="J94" s="72">
-        <v>15</v>
+      <c r="J94" s="71">
+        <v>20</v>
       </c>
       <c r="K94" s="9"/>
-      <c r="L94" s="62"/>
-      <c r="M94" s="62"/>
+      <c r="L94" s="61"/>
+      <c r="M94" s="61"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B95" s="17"/>
       <c r="C95" s="17"/>
       <c r="D95" s="18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E95" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G95" s="60">
-        <v>43941</v>
-      </c>
-      <c r="H95" s="60">
+      <c r="F95" s="13"/>
+      <c r="G95" s="59">
+        <v>43931</v>
+      </c>
+      <c r="H95" s="59">
         <v>43923</v>
       </c>
-      <c r="I95" s="60">
+      <c r="I95" s="59">
         <v>43943</v>
       </c>
-      <c r="J95" s="72">
-        <v>100</v>
+      <c r="J95" s="71">
+        <v>15</v>
       </c>
       <c r="K95" s="9"/>
-      <c r="L95" s="62"/>
-      <c r="M95" s="62"/>
+      <c r="L95" s="61"/>
+      <c r="M95" s="61"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="B96" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>62</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
       <c r="D96" s="18" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F96" s="13"/>
-      <c r="G96" s="60">
+        <v>60</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G96" s="59">
+        <v>43941</v>
+      </c>
+      <c r="H96" s="59">
+        <v>43923</v>
+      </c>
+      <c r="I96" s="59">
         <v>43943</v>
       </c>
-      <c r="H96" s="60">
-        <v>43923</v>
-      </c>
-      <c r="I96" s="60">
-        <v>43943</v>
-      </c>
-      <c r="J96" s="72">
-        <v>0.5</v>
+      <c r="J96" s="71">
+        <v>100</v>
       </c>
       <c r="K96" s="9"/>
-      <c r="L96" s="62"/>
-      <c r="M96" s="62"/>
+      <c r="L96" s="61"/>
+      <c r="M96" s="61"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>349</v>
-      </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
+        <v>345</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C97" s="17" t="s">
+        <v>62</v>
+      </c>
       <c r="D97" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E97" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F97" s="13"/>
-      <c r="G97" s="60">
+      <c r="G97" s="59">
         <v>43943</v>
       </c>
-      <c r="H97" s="60">
+      <c r="H97" s="59">
         <v>43923</v>
       </c>
-      <c r="I97" s="60">
+      <c r="I97" s="59">
         <v>43943</v>
       </c>
-      <c r="J97" s="72">
+      <c r="J97" s="71">
         <v>0.5</v>
       </c>
       <c r="K97" s="9"/>
-      <c r="L97" s="62"/>
-      <c r="M97" s="62"/>
+      <c r="L97" s="61"/>
+      <c r="M97" s="61"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B98" s="17"/>
       <c r="C98" s="17"/>
       <c r="D98" s="18" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F98" s="13"/>
-      <c r="G98" s="60">
+      <c r="G98" s="59">
         <v>43943</v>
       </c>
-      <c r="H98" s="60">
+      <c r="H98" s="59">
         <v>43923</v>
       </c>
-      <c r="I98" s="60">
+      <c r="I98" s="59">
         <v>43943</v>
       </c>
-      <c r="J98" s="72">
-        <v>0.25</v>
+      <c r="J98" s="71">
+        <v>0.5</v>
       </c>
       <c r="K98" s="9"/>
-      <c r="L98" s="62"/>
-      <c r="M98" s="62"/>
+      <c r="L98" s="61"/>
+      <c r="M98" s="61"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="B99" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>119</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
       <c r="D99" s="18" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F99" s="13"/>
-      <c r="G99" s="60">
-        <v>43935</v>
-      </c>
-      <c r="H99" s="60">
-        <v>43938</v>
-      </c>
-      <c r="I99" s="60">
-        <v>43938</v>
-      </c>
-      <c r="J99" s="72">
+      <c r="G99" s="59">
+        <v>43943</v>
+      </c>
+      <c r="H99" s="59">
+        <v>43923</v>
+      </c>
+      <c r="I99" s="59">
+        <v>43943</v>
+      </c>
+      <c r="J99" s="71">
         <v>0.25</v>
       </c>
       <c r="K99" s="9"/>
-      <c r="L99" s="62"/>
-      <c r="M99" s="62"/>
+      <c r="L99" s="61"/>
+      <c r="M99" s="61"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
+        <v>348</v>
+      </c>
+      <c r="B100" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="D100" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E100" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F100" s="13"/>
-      <c r="G100" s="60">
-        <v>43941</v>
-      </c>
-      <c r="H100" s="60">
-        <v>43941</v>
-      </c>
-      <c r="I100" s="60">
-        <v>43942</v>
-      </c>
-      <c r="J100" s="72">
-        <v>3</v>
+      <c r="G100" s="59">
+        <v>43935</v>
+      </c>
+      <c r="H100" s="59">
+        <v>43938</v>
+      </c>
+      <c r="I100" s="59">
+        <v>43938</v>
+      </c>
+      <c r="J100" s="71">
+        <v>0.25</v>
       </c>
       <c r="K100" s="9"/>
-      <c r="L100" s="62"/>
-      <c r="M100" s="62"/>
+      <c r="L100" s="61"/>
+      <c r="M100" s="61"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B101" s="17"/>
       <c r="C101" s="17"/>
       <c r="D101" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E101" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F101" s="13"/>
-      <c r="G101" s="60">
+      <c r="G101" s="59">
         <v>43941</v>
       </c>
-      <c r="H101" s="60">
+      <c r="H101" s="59">
         <v>43941</v>
       </c>
-      <c r="I101" s="60">
+      <c r="I101" s="59">
         <v>43942</v>
       </c>
-      <c r="J101" s="72">
-        <v>0.5</v>
+      <c r="J101" s="71">
+        <v>3</v>
       </c>
       <c r="K101" s="9"/>
-      <c r="L101" s="62"/>
-      <c r="M101" s="62"/>
+      <c r="L101" s="61"/>
+      <c r="M101" s="61"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="B102" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C102" s="17" t="s">
-        <v>129</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
       <c r="D102" s="18" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E102" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F102" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G102" s="60">
+      <c r="F102" s="13"/>
+      <c r="G102" s="59">
         <v>43941</v>
       </c>
-      <c r="H102" s="60">
+      <c r="H102" s="59">
         <v>43941</v>
       </c>
-      <c r="I102" s="60">
+      <c r="I102" s="59">
         <v>43942</v>
       </c>
-      <c r="J102" s="72">
+      <c r="J102" s="71">
         <v>0.5</v>
       </c>
       <c r="K102" s="9"/>
-      <c r="L102" s="62"/>
-      <c r="M102" s="62"/>
+      <c r="L102" s="61"/>
+      <c r="M102" s="61"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="17" t="s">
-        <v>417</v>
+        <v>351</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C103" s="17" t="s">
         <v>128</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E103" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="60">
-        <v>43944</v>
-      </c>
-      <c r="H103" s="60">
-        <v>43944</v>
-      </c>
-      <c r="I103" s="60">
-        <v>43944</v>
-      </c>
-      <c r="J103" s="72">
-        <v>1</v>
+      <c r="F103" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G103" s="59">
+        <v>43941</v>
+      </c>
+      <c r="H103" s="59">
+        <v>43941</v>
+      </c>
+      <c r="I103" s="59">
+        <v>43942</v>
+      </c>
+      <c r="J103" s="71">
+        <v>0.5</v>
       </c>
       <c r="K103" s="9"/>
-      <c r="L103" s="62"/>
-      <c r="M103" s="62"/>
+      <c r="L103" s="61"/>
+      <c r="M103" s="61"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="17" t="s">
-        <v>355</v>
-      </c>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
+        <v>414</v>
+      </c>
+      <c r="B104" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="D104" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E104" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F104" s="13"/>
-      <c r="G104" s="60">
+      <c r="G104" s="59">
         <v>43944</v>
       </c>
-      <c r="H104" s="60">
+      <c r="H104" s="59">
         <v>43944</v>
       </c>
-      <c r="I104" s="60">
+      <c r="I104" s="59">
         <v>43944</v>
       </c>
-      <c r="J104" s="72">
-        <v>0.25</v>
+      <c r="J104" s="71">
+        <v>1</v>
       </c>
       <c r="K104" s="9"/>
-      <c r="L104" s="62"/>
-      <c r="M104" s="62"/>
+      <c r="L104" s="61"/>
+      <c r="M104" s="61"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B105" s="17"/>
       <c r="C105" s="17"/>
       <c r="D105" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F105" s="13"/>
-      <c r="G105" s="60">
+      <c r="G105" s="59">
         <v>43944</v>
       </c>
-      <c r="H105" s="60">
+      <c r="H105" s="59">
         <v>43944</v>
       </c>
-      <c r="I105" s="60">
+      <c r="I105" s="59">
         <v>43944</v>
       </c>
-      <c r="J105" s="72">
-        <v>0.75</v>
+      <c r="J105" s="71">
+        <v>0.25</v>
       </c>
       <c r="K105" s="9"/>
-      <c r="L105" s="62"/>
-      <c r="M105" s="62"/>
+      <c r="L105" s="61"/>
+      <c r="M105" s="61"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B106" s="17"/>
       <c r="C106" s="17"/>
       <c r="D106" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F106" s="13"/>
-      <c r="G106" s="60">
+      <c r="G106" s="59">
         <v>43944</v>
       </c>
-      <c r="H106" s="60">
+      <c r="H106" s="59">
         <v>43944</v>
       </c>
-      <c r="I106" s="60">
-        <v>43945</v>
-      </c>
-      <c r="J106" s="72">
-        <v>3</v>
+      <c r="I106" s="59">
+        <v>43944</v>
+      </c>
+      <c r="J106" s="71">
+        <v>0.75</v>
       </c>
       <c r="K106" s="9"/>
-      <c r="L106" s="62"/>
-      <c r="M106" s="62"/>
+      <c r="L106" s="61"/>
+      <c r="M106" s="61"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
-        <v>358</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>380</v>
-      </c>
-      <c r="C107" s="17" t="s">
-        <v>168</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
       <c r="D107" s="18" t="s">
-        <v>381</v>
+        <v>134</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F107" s="13"/>
-      <c r="G107" s="60">
+      <c r="G107" s="59">
         <v>43944</v>
       </c>
-      <c r="H107" s="60">
+      <c r="H107" s="59">
         <v>43944</v>
       </c>
-      <c r="I107" s="60">
+      <c r="I107" s="59">
         <v>43945</v>
       </c>
-      <c r="J107" s="72">
-        <v>8</v>
+      <c r="J107" s="71">
+        <v>3</v>
       </c>
       <c r="K107" s="9"/>
-      <c r="L107" s="62"/>
-      <c r="M107" s="62"/>
+      <c r="L107" s="61"/>
+      <c r="M107" s="61"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
-        <v>359</v>
-      </c>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
+        <v>355</v>
+      </c>
+      <c r="B108" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>166</v>
+      </c>
       <c r="D108" s="18" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F108" s="13"/>
-      <c r="G108" s="60">
+      <c r="G108" s="59">
+        <v>43944</v>
+      </c>
+      <c r="H108" s="59">
+        <v>43944</v>
+      </c>
+      <c r="I108" s="59">
         <v>43945</v>
       </c>
-      <c r="H108" s="60">
-        <v>43944</v>
-      </c>
-      <c r="I108" s="60">
-        <v>43957</v>
-      </c>
-      <c r="J108" s="72">
-        <v>3</v>
+      <c r="J108" s="71">
+        <v>8</v>
       </c>
       <c r="K108" s="9"/>
-      <c r="L108" s="62"/>
-      <c r="M108" s="62"/>
+      <c r="L108" s="61"/>
+      <c r="M108" s="61"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
       <c r="D109" s="18" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E109" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G109" s="60">
-        <v>43956</v>
-      </c>
-      <c r="H109" s="60">
+        <v>57</v>
+      </c>
+      <c r="F109" s="13"/>
+      <c r="G109" s="59">
+        <v>43945</v>
+      </c>
+      <c r="H109" s="59">
         <v>43944</v>
       </c>
-      <c r="I109" s="60">
+      <c r="I109" s="59">
         <v>43957</v>
       </c>
-      <c r="J109" s="72">
-        <v>400</v>
+      <c r="J109" s="71">
+        <v>3</v>
       </c>
       <c r="K109" s="9"/>
-      <c r="L109" s="62"/>
-      <c r="M109" s="62"/>
+      <c r="L109" s="61"/>
+      <c r="M109" s="61"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
       <c r="D110" s="18" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E110" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G110" s="60">
+        <v>101</v>
+      </c>
+      <c r="G110" s="59">
         <v>43956</v>
       </c>
-      <c r="H110" s="60">
+      <c r="H110" s="59">
         <v>43944</v>
       </c>
-      <c r="I110" s="60">
+      <c r="I110" s="59">
         <v>43957</v>
       </c>
-      <c r="J110" s="72">
-        <v>45</v>
+      <c r="J110" s="71">
+        <v>400</v>
       </c>
       <c r="K110" s="9"/>
-      <c r="L110" s="62"/>
-      <c r="M110" s="62"/>
+      <c r="L110" s="61"/>
+      <c r="M110" s="61"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
       <c r="D111" s="18" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G111" s="60">
+        <v>101</v>
+      </c>
+      <c r="G111" s="59">
         <v>43956</v>
       </c>
-      <c r="H111" s="60">
+      <c r="H111" s="59">
         <v>43944</v>
       </c>
-      <c r="I111" s="60">
+      <c r="I111" s="59">
         <v>43957</v>
       </c>
-      <c r="J111" s="72">
-        <v>50</v>
+      <c r="J111" s="71">
+        <v>45</v>
       </c>
       <c r="K111" s="9"/>
-      <c r="L111" s="62"/>
-      <c r="M111" s="62"/>
+      <c r="L111" s="61"/>
+      <c r="M111" s="61"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
-        <v>363</v>
-      </c>
-      <c r="B112" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C112" s="17" t="s">
-        <v>119</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
       <c r="D112" s="18" t="s">
-        <v>122</v>
+        <v>381</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F112" s="13"/>
-      <c r="G112" s="60">
+        <v>60</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G112" s="59">
         <v>43956</v>
       </c>
-      <c r="H112" s="60">
+      <c r="H112" s="59">
         <v>43944</v>
       </c>
-      <c r="I112" s="60">
+      <c r="I112" s="59">
         <v>43957</v>
       </c>
-      <c r="J112" s="72">
-        <v>0.25</v>
+      <c r="J112" s="71">
+        <v>50</v>
       </c>
       <c r="K112" s="9"/>
-      <c r="L112" s="62"/>
-      <c r="M112" s="62"/>
+      <c r="L112" s="61"/>
+      <c r="M112" s="61"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
-        <v>364</v>
-      </c>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
+        <v>360</v>
+      </c>
+      <c r="B113" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>118</v>
+      </c>
       <c r="D113" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E113" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F113" s="13"/>
-      <c r="G113" s="60">
-        <v>43951</v>
-      </c>
-      <c r="H113" s="60">
-        <v>43951</v>
-      </c>
-      <c r="I113" s="60">
-        <v>43951</v>
-      </c>
-      <c r="J113" s="72">
-        <v>3</v>
+      <c r="G113" s="59">
+        <v>43956</v>
+      </c>
+      <c r="H113" s="59">
+        <v>43944</v>
+      </c>
+      <c r="I113" s="59">
+        <v>43957</v>
+      </c>
+      <c r="J113" s="71">
+        <v>0.25</v>
       </c>
       <c r="K113" s="9"/>
-      <c r="L113" s="62"/>
-      <c r="M113" s="62"/>
+      <c r="L113" s="61"/>
+      <c r="M113" s="61"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
       <c r="D114" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E114" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F114" s="13"/>
-      <c r="G114" s="60">
-        <v>43956</v>
-      </c>
-      <c r="H114" s="60">
-        <v>43955</v>
-      </c>
-      <c r="I114" s="60">
-        <v>43956</v>
-      </c>
-      <c r="J114" s="72">
-        <v>0.5</v>
+      <c r="G114" s="59">
+        <v>43951</v>
+      </c>
+      <c r="H114" s="59">
+        <v>43951</v>
+      </c>
+      <c r="I114" s="59">
+        <v>43951</v>
+      </c>
+      <c r="J114" s="71">
+        <v>3</v>
       </c>
       <c r="K114" s="9"/>
-      <c r="L114" s="62"/>
-      <c r="M114" s="62"/>
+      <c r="L114" s="61"/>
+      <c r="M114" s="61"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="B115" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C115" s="17" t="s">
-        <v>129</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
       <c r="D115" s="18" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F115" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G115" s="60">
+      <c r="F115" s="13"/>
+      <c r="G115" s="59">
         <v>43956</v>
       </c>
-      <c r="H115" s="60">
+      <c r="H115" s="59">
         <v>43955</v>
       </c>
-      <c r="I115" s="60">
+      <c r="I115" s="59">
         <v>43956</v>
       </c>
-      <c r="J115" s="72">
+      <c r="J115" s="71">
         <v>0.5</v>
       </c>
       <c r="K115" s="9"/>
-      <c r="L115" s="62"/>
-      <c r="M115" s="62"/>
+      <c r="L115" s="61"/>
+      <c r="M115" s="61"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C116" s="17" t="s">
         <v>128</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E116" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F116" s="13"/>
-      <c r="G116" s="60">
+      <c r="F116" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G116" s="59">
         <v>43956</v>
       </c>
-      <c r="H116" s="60">
+      <c r="H116" s="59">
         <v>43955</v>
       </c>
-      <c r="I116" s="60">
+      <c r="I116" s="59">
         <v>43956</v>
       </c>
-      <c r="J116" s="72">
-        <v>1</v>
+      <c r="J116" s="71">
+        <v>0.5</v>
       </c>
       <c r="K116" s="9"/>
-      <c r="L116" s="62"/>
-      <c r="M116" s="62"/>
+      <c r="L116" s="61"/>
+      <c r="M116" s="61"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
+        <v>364</v>
+      </c>
+      <c r="B117" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="17" t="s">
+        <v>127</v>
+      </c>
       <c r="D117" s="18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E117" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F117" s="13"/>
-      <c r="G117" s="60">
-        <v>43958</v>
-      </c>
-      <c r="H117" s="60">
-        <v>43958</v>
-      </c>
-      <c r="I117" s="60">
-        <v>43958</v>
-      </c>
-      <c r="J117" s="72">
-        <v>0.25</v>
+      <c r="G117" s="59">
+        <v>43956</v>
+      </c>
+      <c r="H117" s="59">
+        <v>43955</v>
+      </c>
+      <c r="I117" s="59">
+        <v>43956</v>
+      </c>
+      <c r="J117" s="71">
+        <v>1</v>
       </c>
       <c r="K117" s="9"/>
-      <c r="L117" s="62"/>
-      <c r="M117" s="62"/>
+      <c r="L117" s="61"/>
+      <c r="M117" s="61"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
       <c r="D118" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E118" s="13" t="s">
         <v>57</v>
       </c>
       <c r="F118" s="13"/>
-      <c r="G118" s="60">
+      <c r="G118" s="59">
         <v>43958</v>
       </c>
-      <c r="H118" s="60">
+      <c r="H118" s="59">
         <v>43958</v>
       </c>
-      <c r="I118" s="60">
+      <c r="I118" s="59">
         <v>43958</v>
       </c>
-      <c r="J118" s="72">
-        <v>0.75</v>
+      <c r="J118" s="71">
+        <v>0.25</v>
       </c>
       <c r="K118" s="9"/>
-      <c r="L118" s="62"/>
-      <c r="M118" s="62"/>
+      <c r="L118" s="61"/>
+      <c r="M118" s="61"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
       <c r="D119" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E119" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F119" s="13"/>
-      <c r="G119" s="60">
+      <c r="G119" s="59">
         <v>43958</v>
       </c>
-      <c r="H119" s="60">
+      <c r="H119" s="59">
         <v>43958</v>
       </c>
-      <c r="I119" s="60">
+      <c r="I119" s="59">
         <v>43958</v>
       </c>
-      <c r="J119" s="72">
-        <v>3</v>
+      <c r="J119" s="71">
+        <v>0.75</v>
       </c>
       <c r="K119" s="9"/>
-      <c r="L119" s="62"/>
-      <c r="M119" s="62"/>
+      <c r="L119" s="61"/>
+      <c r="M119" s="61"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
-        <v>370</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="C120" s="17" t="s">
-        <v>189</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
       <c r="D120" s="18" t="s">
-        <v>386</v>
+        <v>134</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F120" s="13"/>
-      <c r="G120" s="60">
-        <v>43959</v>
-      </c>
-      <c r="H120" s="60">
+      <c r="G120" s="59">
         <v>43958</v>
       </c>
-      <c r="I120" s="60">
-        <v>43959</v>
-      </c>
-      <c r="J120" s="72">
-        <v>80</v>
+      <c r="H120" s="59">
+        <v>43958</v>
+      </c>
+      <c r="I120" s="59">
+        <v>43958</v>
+      </c>
+      <c r="J120" s="71">
+        <v>3</v>
       </c>
       <c r="K120" s="9"/>
-      <c r="L120" s="62"/>
-      <c r="M120" s="62"/>
+      <c r="L120" s="61"/>
+      <c r="M120" s="61"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
+        <v>367</v>
+      </c>
+      <c r="B121" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C121" s="17" t="s">
+        <v>187</v>
+      </c>
       <c r="D121" s="18" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="E121" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F121" s="13"/>
-      <c r="G121" s="60">
+      <c r="G121" s="59">
         <v>43959</v>
       </c>
-      <c r="H121" s="60">
+      <c r="H121" s="59">
         <v>43958</v>
       </c>
-      <c r="I121" s="60">
+      <c r="I121" s="59">
         <v>43959</v>
       </c>
-      <c r="J121" s="72">
+      <c r="J121" s="71">
         <v>80</v>
       </c>
       <c r="K121" s="9"/>
-      <c r="L121" s="62"/>
-      <c r="M121" s="62"/>
+      <c r="L121" s="61"/>
+      <c r="M121" s="61"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
       <c r="D122" s="18" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F122" s="13"/>
-      <c r="G122" s="60">
-        <v>43972</v>
-      </c>
-      <c r="H122" s="60">
+      <c r="G122" s="59">
+        <v>43959</v>
+      </c>
+      <c r="H122" s="59">
         <v>43958</v>
       </c>
-      <c r="I122" s="60">
-        <v>43973</v>
-      </c>
-      <c r="J122" s="72">
-        <v>70</v>
+      <c r="I122" s="59">
+        <v>43959</v>
+      </c>
+      <c r="J122" s="71">
+        <v>80</v>
       </c>
       <c r="K122" s="9"/>
-      <c r="L122" s="62"/>
-      <c r="M122" s="62"/>
+      <c r="L122" s="61"/>
+      <c r="M122" s="61"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
       <c r="D123" s="18" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E123" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F123" s="13"/>
-      <c r="G123" s="60">
+      <c r="G123" s="59">
         <v>43972</v>
       </c>
-      <c r="H123" s="60">
+      <c r="H123" s="59">
         <v>43958</v>
       </c>
-      <c r="I123" s="60">
+      <c r="I123" s="59">
         <v>43973</v>
       </c>
-      <c r="J123" s="72">
-        <v>13</v>
+      <c r="J123" s="71">
+        <v>70</v>
       </c>
       <c r="K123" s="9"/>
-      <c r="L123" s="62"/>
-      <c r="M123" s="62"/>
-    </row>
-    <row r="124" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L123" s="61"/>
+      <c r="M123" s="61"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
       <c r="D124" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E124" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F124" s="13"/>
-      <c r="G124" s="60">
+      <c r="G124" s="59">
         <v>43972</v>
       </c>
-      <c r="H124" s="60">
+      <c r="H124" s="59">
         <v>43958</v>
       </c>
-      <c r="I124" s="60">
+      <c r="I124" s="59">
         <v>43973</v>
       </c>
-      <c r="J124" s="72">
-        <v>1</v>
+      <c r="J124" s="71">
+        <v>13</v>
       </c>
       <c r="K124" s="9"/>
-      <c r="L124" s="62"/>
-      <c r="M124" s="62"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L124" s="61"/>
+      <c r="M124" s="61"/>
+    </row>
+    <row r="125" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
       <c r="D125" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F125" s="13"/>
-      <c r="G125" s="60">
+      <c r="G125" s="59">
         <v>43972</v>
       </c>
-      <c r="H125" s="60">
+      <c r="H125" s="59">
         <v>43958</v>
       </c>
-      <c r="I125" s="60">
+      <c r="I125" s="59">
         <v>43973</v>
       </c>
-      <c r="J125" s="72">
-        <v>2</v>
+      <c r="J125" s="71">
+        <v>1</v>
       </c>
       <c r="K125" s="9"/>
-      <c r="L125" s="62"/>
-      <c r="M125" s="62"/>
+      <c r="L125" s="61"/>
+      <c r="M125" s="61"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
       <c r="D126" s="18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E126" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F126" s="13"/>
-      <c r="G126" s="60">
+      <c r="G126" s="59">
         <v>43972</v>
       </c>
-      <c r="H126" s="60">
+      <c r="H126" s="59">
         <v>43958</v>
       </c>
-      <c r="I126" s="60">
+      <c r="I126" s="59">
         <v>43973</v>
       </c>
-      <c r="J126" s="72">
-        <v>6</v>
+      <c r="J126" s="71">
+        <v>2</v>
       </c>
       <c r="K126" s="9"/>
-      <c r="L126" s="62"/>
-      <c r="M126" s="62"/>
+      <c r="L126" s="61"/>
+      <c r="M126" s="61"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
       <c r="D127" s="18" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F127" s="13"/>
-      <c r="G127" s="60">
+      <c r="G127" s="59">
         <v>43972</v>
       </c>
-      <c r="H127" s="60">
+      <c r="H127" s="59">
         <v>43958</v>
       </c>
-      <c r="I127" s="60">
+      <c r="I127" s="59">
         <v>43973</v>
       </c>
-      <c r="J127" s="72">
-        <v>1</v>
+      <c r="J127" s="71">
+        <v>6</v>
       </c>
       <c r="K127" s="9"/>
-      <c r="L127" s="62"/>
-      <c r="M127" s="62"/>
+      <c r="L127" s="61"/>
+      <c r="M127" s="61"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A128" s="17"/>
+      <c r="A128" s="17" t="s">
+        <v>374</v>
+      </c>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="13"/>
+      <c r="D128" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F128" s="13"/>
-      <c r="G128" s="60"/>
-      <c r="H128" s="60"/>
-      <c r="I128" s="60"/>
-      <c r="J128" s="72"/>
-      <c r="K128" s="73"/>
-      <c r="L128" s="73"/>
-      <c r="M128" s="73"/>
+      <c r="G128" s="59">
+        <v>43972</v>
+      </c>
+      <c r="H128" s="59">
+        <v>43958</v>
+      </c>
+      <c r="I128" s="59">
+        <v>43973</v>
+      </c>
+      <c r="J128" s="71">
+        <v>1</v>
+      </c>
+      <c r="K128" s="9"/>
+      <c r="L128" s="61"/>
+      <c r="M128" s="61"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="17"/>
@@ -12831,13 +12858,13 @@
       <c r="D129" s="18"/>
       <c r="E129" s="13"/>
       <c r="F129" s="13"/>
-      <c r="G129" s="60"/>
-      <c r="H129" s="60"/>
-      <c r="I129" s="60"/>
-      <c r="J129" s="72"/>
-      <c r="K129" s="73"/>
-      <c r="L129" s="73"/>
-      <c r="M129" s="73"/>
+      <c r="G129" s="59"/>
+      <c r="H129" s="59"/>
+      <c r="I129" s="59"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="72"/>
+      <c r="L129" s="72"/>
+      <c r="M129" s="72"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="17"/>
@@ -12846,7 +12873,13 @@
       <c r="D130" s="18"/>
       <c r="E130" s="13"/>
       <c r="F130" s="13"/>
-      <c r="J130" s="72"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="59"/>
+      <c r="I130" s="59"/>
+      <c r="J130" s="71"/>
+      <c r="K130" s="72"/>
+      <c r="L130" s="72"/>
+      <c r="M130" s="72"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="17"/>
@@ -12855,7 +12888,7 @@
       <c r="D131" s="18"/>
       <c r="E131" s="13"/>
       <c r="F131" s="13"/>
-      <c r="J131" s="72"/>
+      <c r="J131" s="71"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="17"/>
@@ -12864,7 +12897,7 @@
       <c r="D132" s="18"/>
       <c r="E132" s="13"/>
       <c r="F132" s="13"/>
-      <c r="J132" s="72"/>
+      <c r="J132" s="71"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="17"/>
@@ -12873,7 +12906,7 @@
       <c r="D133" s="18"/>
       <c r="E133" s="13"/>
       <c r="F133" s="13"/>
-      <c r="J133" s="72"/>
+      <c r="J133" s="71"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="17"/>
@@ -12882,7 +12915,7 @@
       <c r="D134" s="18"/>
       <c r="E134" s="13"/>
       <c r="F134" s="13"/>
-      <c r="J134" s="72"/>
+      <c r="J134" s="71"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="17"/>
@@ -12891,7 +12924,7 @@
       <c r="D135" s="18"/>
       <c r="E135" s="13"/>
       <c r="F135" s="13"/>
-      <c r="J135" s="72"/>
+      <c r="J135" s="71"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="17"/>
@@ -12900,7 +12933,7 @@
       <c r="D136" s="18"/>
       <c r="E136" s="13"/>
       <c r="F136" s="13"/>
-      <c r="J136" s="72"/>
+      <c r="J136" s="71"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="17"/>
@@ -12909,7 +12942,7 @@
       <c r="D137" s="18"/>
       <c r="E137" s="13"/>
       <c r="F137" s="13"/>
-      <c r="J137" s="72"/>
+      <c r="J137" s="71"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="17"/>
@@ -12918,7 +12951,7 @@
       <c r="D138" s="18"/>
       <c r="E138" s="13"/>
       <c r="F138" s="13"/>
-      <c r="J138" s="72"/>
+      <c r="J138" s="71"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="17"/>
@@ -12927,7 +12960,7 @@
       <c r="D139" s="18"/>
       <c r="E139" s="13"/>
       <c r="F139" s="13"/>
-      <c r="J139" s="72"/>
+      <c r="J139" s="71"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="17"/>
@@ -12936,7 +12969,7 @@
       <c r="D140" s="18"/>
       <c r="E140" s="13"/>
       <c r="F140" s="13"/>
-      <c r="J140" s="72"/>
+      <c r="J140" s="71"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="17"/>
@@ -12945,7 +12978,7 @@
       <c r="D141" s="18"/>
       <c r="E141" s="13"/>
       <c r="F141" s="13"/>
-      <c r="J141" s="72"/>
+      <c r="J141" s="71"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="17"/>
@@ -12954,7 +12987,7 @@
       <c r="D142" s="18"/>
       <c r="E142" s="13"/>
       <c r="F142" s="13"/>
-      <c r="J142" s="72"/>
+      <c r="J142" s="71"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="17"/>
@@ -12963,7 +12996,16 @@
       <c r="D143" s="18"/>
       <c r="E143" s="13"/>
       <c r="F143" s="13"/>
-      <c r="J143" s="72"/>
+      <c r="J143" s="71"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A144" s="17"/>
+      <c r="B144" s="17"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="13"/>
+      <c r="F144" s="13"/>
+      <c r="J144" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -12981,10 +13023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5AFD6F-0D1B-F346-A025-C4EDD3D59A1D}">
-  <dimension ref="B1:G27"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12997,291 +13039,308 @@
     <col min="6" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="76" t="s">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-    </row>
-    <row r="4" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+    </row>
+    <row r="4" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
     </row>
-    <row r="5" spans="2:7" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B5" s="21"/>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="44" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B7" s="47">
+    <row r="7" spans="2:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="B7" s="46">
         <v>0</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="49">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="136" x14ac:dyDescent="0.2">
+      <c r="B8" s="46">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" ht="136" x14ac:dyDescent="0.2">
-      <c r="B8" s="47">
-        <v>1</v>
-      </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="50">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="B9" s="47">
+      <c r="E8" s="49">
+        <v>85.75</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="B9" s="46">
         <v>2</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="102" x14ac:dyDescent="0.2">
-      <c r="B10" s="47">
+      <c r="E9" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="102" x14ac:dyDescent="0.2">
+      <c r="B10" s="46">
         <v>3</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="49" t="s">
+      <c r="D10" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="2:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="B11" s="47">
+      <c r="E10" s="49">
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="B11" s="46">
         <v>4</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="G11" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="E11" s="49">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="B12" s="46">
         <v>5</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="85" x14ac:dyDescent="0.2">
+      <c r="B13" s="46">
+        <v>6</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="50"/>
-    </row>
-    <row r="13" spans="2:7" ht="85" x14ac:dyDescent="0.2">
-      <c r="B13" s="47">
-        <v>6</v>
-      </c>
-      <c r="C13" s="48" t="s">
+      <c r="D13" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="E13" s="49">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="46">
+        <v>7</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="50"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="47">
-        <v>7</v>
-      </c>
-      <c r="C14" s="48" t="s">
+      <c r="D14" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="E14" s="49">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B15" s="46">
+        <v>8</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="E15" s="49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="46">
+        <v>9</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="2:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="B15" s="47">
-        <v>8</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="49" t="s">
+      <c r="D16" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="E16" s="49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="119" x14ac:dyDescent="0.2">
+      <c r="B17" s="46">
+        <v>10</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B18" s="46">
+        <v>11</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B19" s="46">
+        <v>12</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="B20" s="46">
+        <v>13</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="49">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="B21" s="46">
+        <v>14</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="49">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="B22" s="46">
+        <v>15</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>376</v>
+      </c>
+      <c r="E22" s="49">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="B23" s="50">
+        <v>16</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="86" t="s">
+        <v>390</v>
+      </c>
+      <c r="E23" s="52">
         <v>253</v>
       </c>
-      <c r="E15" s="50"/>
-    </row>
-    <row r="16" spans="2:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="B16" s="47">
-        <v>9</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="E16" s="50"/>
-    </row>
-    <row r="17" spans="2:5" ht="119" x14ac:dyDescent="0.2">
-      <c r="B17" s="47">
-        <v>10</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B18" s="47">
-        <v>11</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="50"/>
-    </row>
-    <row r="19" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B19" s="47">
-        <v>12</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="50"/>
-    </row>
-    <row r="20" spans="2:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="B20" s="47">
-        <v>13</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="D20" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="50"/>
-    </row>
-    <row r="21" spans="2:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="B21" s="47">
-        <v>14</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="50"/>
-    </row>
-    <row r="22" spans="2:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="B22" s="47">
-        <v>15</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>379</v>
-      </c>
-      <c r="E22" s="50"/>
-    </row>
-    <row r="23" spans="2:5" ht="68" x14ac:dyDescent="0.2">
-      <c r="B23" s="47">
-        <v>16</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="E23" s="50"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="47">
-        <v>16</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="50"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="47">
-        <v>17</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="50"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="47">
-        <v>18</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="50"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="51">
-        <v>19</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="53"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13315,23 +13374,23 @@
   <sheetData>
     <row r="1" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21"/>
-      <c r="C1" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="C1" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="21"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
     </row>
     <row r="3" spans="2:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="21"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
     </row>
     <row r="4" spans="2:5" ht="20" x14ac:dyDescent="0.2">
       <c r="B4" s="21"/>
@@ -13339,73 +13398,73 @@
       <c r="D4" s="21"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="D5" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" s="38">
+      <c r="B6" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="37">
         <v>43923</v>
       </c>
       <c r="D6" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="37">
+        <v>43944</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" s="37">
+        <v>43958</v>
+      </c>
+      <c r="D8" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="37" t="s">
+    <row r="9" spans="2:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="C7" s="38">
-        <v>43944</v>
-      </c>
-      <c r="D7" s="23" t="s">
+      <c r="C9" s="40">
+        <v>43973</v>
+      </c>
+      <c r="D9" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E9" s="42" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="38">
-        <v>43958</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="C9" s="41">
-        <v>43973</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -13430,337 +13489,337 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="30.83203125" defaultRowHeight="48" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="30.83203125" style="56"/>
+    <col min="1" max="1" width="4.33203125" style="55" customWidth="1"/>
+    <col min="2" max="16384" width="30.83203125" style="55"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="54" t="s">
-        <v>191</v>
+      <c r="E3" s="53" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>190</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>168</v>
+      <c r="H6" s="53" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="54" t="s">
-        <v>239</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="F9" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>219</v>
+      <c r="B9" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>246</v>
-      </c>
-      <c r="G11" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="I11" s="54" t="s">
-        <v>220</v>
+      <c r="B11" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="54" t="s">
-        <v>241</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>221</v>
+      <c r="B13" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="F15" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="I15" s="54" t="s">
-        <v>222</v>
+      <c r="B15" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="I15" s="53" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="54" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="54" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>221</v>
+      <c r="B17" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>214</v>
-      </c>
-      <c r="I19" s="54" t="s">
-        <v>223</v>
+      <c r="B19" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>215</v>
-      </c>
-      <c r="I21" s="54" t="s">
-        <v>224</v>
+      <c r="E21" s="53" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="I21" s="53" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="54" t="s">
-        <v>162</v>
+      <c r="E23" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="I25" s="54" t="s">
-        <v>225</v>
+      <c r="D25" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="I25" s="53" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E27" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>226</v>
+      <c r="E27" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E29" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="I29" s="54" t="s">
-        <v>227</v>
+      <c r="E29" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29" s="53" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>201</v>
+      <c r="D31" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="H31" s="53" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="54" t="s">
-        <v>228</v>
+      <c r="D33" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="H33" s="54"/>
+      <c r="I33" s="53" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="G35" s="55"/>
-      <c r="I35" s="54" t="s">
-        <v>229</v>
+      <c r="E35" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="54"/>
+      <c r="I35" s="53" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="53" t="s">
         <v>200</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="38" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="54" t="s">
-        <v>257</v>
-      </c>
-      <c r="I39" s="54" t="s">
-        <v>123</v>
+      <c r="D39" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="I39" s="53" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="54" t="s">
-        <v>258</v>
-      </c>
-      <c r="I41" s="54" t="s">
-        <v>203</v>
+      <c r="E41" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="I41" s="53" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E43" s="54" t="s">
-        <v>259</v>
-      </c>
-      <c r="H43" s="54" t="s">
-        <v>230</v>
+      <c r="E43" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E45" s="54" t="s">
-        <v>260</v>
-      </c>
-      <c r="I45" s="54" t="s">
-        <v>231</v>
+      <c r="E45" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="I45" s="53" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E47" s="54" t="s">
-        <v>256</v>
-      </c>
-      <c r="I47" s="54" t="s">
-        <v>232</v>
+      <c r="E47" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="I47" s="53" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="54" t="s">
-        <v>251</v>
-      </c>
-      <c r="I49" s="54" t="s">
-        <v>233</v>
+      <c r="D49" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="I49" s="53" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="50" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E51" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="H51" s="54" t="s">
-        <v>234</v>
+      <c r="E51" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="H51" s="53" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E53" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="I53" s="54" t="s">
-        <v>235</v>
+      <c r="E53" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="I53" s="53" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="55" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E55" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="I55" s="54" t="s">
-        <v>236</v>
+      <c r="E55" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="I55" s="53" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E57" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="I57" s="54" t="s">
-        <v>237</v>
+      <c r="E57" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="I57" s="53" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E59" s="54" t="s">
-        <v>209</v>
+      <c r="E59" s="53" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="54" t="s">
-        <v>255</v>
+      <c r="D61" s="53" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E63" s="54" t="s">
-        <v>148</v>
+      <c r="E63" s="53" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="4:9" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="65" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E65" s="54" t="s">
-        <v>216</v>
+      <c r="E65" s="53" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E67" s="54" t="s">
-        <v>217</v>
+      <c r="E67" s="53" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="68" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="69" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E69" s="54" t="s">
-        <v>150</v>
+      <c r="E69" s="53" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="71" spans="5:5" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E71" s="54" t="s">
-        <v>218</v>
+      <c r="E71" s="53" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -13774,8 +13833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BE9744-0809-4941-A5CB-16561D601F32}">
   <dimension ref="B1:AY24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:AY24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AJ23" sqref="AJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13797,592 +13856,592 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B1" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="80" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="AM3" s="57"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="AM3" s="56"/>
       <c r="AN3" s="20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="AM4" s="58"/>
+      <c r="AM4" s="57"/>
       <c r="AN4" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="AM5" s="59"/>
+      <c r="AM5" s="58"/>
       <c r="AN5" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="81"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="81"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="81"/>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81"/>
+      <c r="AK7" s="81"/>
+      <c r="AL7" s="81"/>
+      <c r="AM7" s="81"/>
+      <c r="AN7" s="81"/>
+      <c r="AO7" s="81"/>
+      <c r="AP7" s="81"/>
+      <c r="AQ7" s="81"/>
+      <c r="AR7" s="81"/>
+      <c r="AS7" s="81"/>
+      <c r="AT7" s="81"/>
+      <c r="AU7" s="81"/>
+      <c r="AV7" s="81"/>
+      <c r="AW7" s="81"/>
+      <c r="AX7" s="81"/>
+      <c r="AY7" s="82"/>
+    </row>
+    <row r="8" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B8" s="24"/>
+      <c r="C8" s="83">
+        <v>11</v>
+      </c>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83">
+        <v>12</v>
+      </c>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83">
+        <v>13</v>
+      </c>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="83"/>
+      <c r="X8" s="83">
+        <v>14</v>
+      </c>
+      <c r="Y8" s="83"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="83"/>
+      <c r="AB8" s="83"/>
+      <c r="AC8" s="83"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83">
+        <v>15</v>
+      </c>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
+      <c r="AI8" s="83"/>
+      <c r="AJ8" s="83"/>
+      <c r="AK8" s="83"/>
+      <c r="AL8" s="83">
+        <v>16</v>
+      </c>
+      <c r="AM8" s="83"/>
+      <c r="AN8" s="83"/>
+      <c r="AO8" s="83"/>
+      <c r="AP8" s="83"/>
+      <c r="AQ8" s="83"/>
+      <c r="AR8" s="83"/>
+      <c r="AS8" s="83">
+        <v>17</v>
+      </c>
+      <c r="AT8" s="83"/>
+      <c r="AU8" s="83"/>
+      <c r="AV8" s="83"/>
+      <c r="AW8" s="83"/>
+      <c r="AX8" s="83"/>
+      <c r="AY8" s="83"/>
+    </row>
+    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B9" s="24"/>
+      <c r="C9" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
-      <c r="Q7" s="78"/>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="78"/>
-      <c r="AF7" s="78"/>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="78"/>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
-      <c r="AQ7" s="78"/>
-      <c r="AR7" s="78"/>
-      <c r="AS7" s="78"/>
-      <c r="AT7" s="78"/>
-      <c r="AU7" s="78"/>
-      <c r="AV7" s="78"/>
-      <c r="AW7" s="78"/>
-      <c r="AX7" s="78"/>
-      <c r="AY7" s="79"/>
-    </row>
-    <row r="8" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B8" s="25"/>
-      <c r="C8" s="77">
-        <v>11</v>
-      </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77">
-        <v>12</v>
-      </c>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77">
-        <v>13</v>
-      </c>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="77">
-        <v>14</v>
-      </c>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="77"/>
-      <c r="AE8" s="77">
-        <v>15</v>
-      </c>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="77"/>
-      <c r="AJ8" s="77"/>
-      <c r="AK8" s="77"/>
-      <c r="AL8" s="77">
-        <v>16</v>
-      </c>
-      <c r="AM8" s="77"/>
-      <c r="AN8" s="77"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="77"/>
-      <c r="AQ8" s="77"/>
-      <c r="AR8" s="77"/>
-      <c r="AS8" s="77">
-        <v>17</v>
-      </c>
-      <c r="AT8" s="77"/>
-      <c r="AU8" s="77"/>
-      <c r="AV8" s="77"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="77"/>
-      <c r="AY8" s="77"/>
-    </row>
-    <row r="9" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B9" s="25"/>
-      <c r="C9" s="27" t="s">
+      <c r="H9" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="28" t="s">
+      <c r="M9" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="O9" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="P9" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="H9" s="28" t="s">
+      <c r="Q9" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="R9" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="S9" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="K9" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="M9" s="28" t="s">
+      <c r="T9" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="U9" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="V9" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="N9" s="28" t="s">
+      <c r="W9" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="O9" s="28" t="s">
+      <c r="X9" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="P9" s="29" t="s">
+      <c r="Y9" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="Q9" s="30" t="s">
+      <c r="Z9" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="R9" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="S9" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="T9" s="28" t="s">
+      <c r="AA9" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB9" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC9" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="U9" s="28" t="s">
+      <c r="AD9" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="AE9" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="W9" s="29" t="s">
+      <c r="AF9" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="X9" s="31" t="s">
+      <c r="AG9" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="Y9" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z9" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA9" s="32" t="s">
+      <c r="AH9" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI9" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ9" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="AB9" s="32" t="s">
+      <c r="AK9" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AC9" s="32" t="s">
+      <c r="AL9" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="AD9" s="33" t="s">
+      <c r="AM9" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="AE9" s="31" t="s">
+      <c r="AN9" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AF9" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG9" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH9" s="32" t="s">
+      <c r="AO9" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP9" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ9" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="AI9" s="32" t="s">
+      <c r="AR9" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AJ9" s="32" t="s">
+      <c r="AS9" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="AK9" s="33" t="s">
+      <c r="AT9" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="AL9" s="31" t="s">
+      <c r="AU9" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AM9" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AN9" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO9" s="32" t="s">
+      <c r="AV9" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW9" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX9" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="AP9" s="32" t="s">
+      <c r="AY9" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AQ9" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR9" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS9" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT9" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU9" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV9" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW9" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="AX9" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY9" s="33" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="10" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
-      <c r="O10" s="81"/>
-      <c r="P10" s="81"/>
-      <c r="Q10" s="81"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="81"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="81"/>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="81"/>
-      <c r="AC10" s="81"/>
-      <c r="AD10" s="81"/>
-      <c r="AE10" s="81"/>
-      <c r="AF10" s="81"/>
-      <c r="AG10" s="81"/>
-      <c r="AH10" s="81"/>
-      <c r="AI10" s="81"/>
-      <c r="AJ10" s="81"/>
-      <c r="AK10" s="81"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="81"/>
-      <c r="AN10" s="81"/>
-      <c r="AO10" s="81"/>
-      <c r="AP10" s="81"/>
-      <c r="AQ10" s="81"/>
-      <c r="AR10" s="81"/>
-      <c r="AS10" s="81"/>
-      <c r="AT10" s="81"/>
-      <c r="AU10" s="81"/>
-      <c r="AV10" s="81"/>
-      <c r="AW10" s="81"/>
-      <c r="AX10" s="81"/>
-      <c r="AY10" s="81"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="75"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
     </row>
     <row r="11" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="81"/>
-      <c r="Y11" s="81"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="81"/>
-      <c r="AF11" s="81"/>
-      <c r="AG11" s="81"/>
-      <c r="AH11" s="81"/>
-      <c r="AI11" s="81"/>
-      <c r="AJ11" s="82"/>
-      <c r="AK11" s="82"/>
-      <c r="AL11" s="82"/>
-      <c r="AM11" s="81"/>
-      <c r="AN11" s="81"/>
-      <c r="AO11" s="81"/>
-      <c r="AP11" s="81"/>
-      <c r="AQ11" s="81"/>
-      <c r="AR11" s="81"/>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="81"/>
-      <c r="AU11" s="81"/>
-      <c r="AV11" s="81"/>
-      <c r="AW11" s="81"/>
-      <c r="AX11" s="81"/>
-      <c r="AY11" s="81"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="74"/>
+      <c r="AB11" s="74"/>
+      <c r="AC11" s="74"/>
+      <c r="AD11" s="74"/>
+      <c r="AE11" s="74"/>
+      <c r="AF11" s="74"/>
+      <c r="AG11" s="74"/>
+      <c r="AH11" s="74"/>
+      <c r="AI11" s="74"/>
+      <c r="AJ11" s="75"/>
+      <c r="AK11" s="75"/>
+      <c r="AL11" s="75"/>
+      <c r="AM11" s="74"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="74"/>
+      <c r="AP11" s="74"/>
+      <c r="AQ11" s="74"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="74"/>
+      <c r="AX11" s="74"/>
+      <c r="AY11" s="74"/>
     </row>
     <row r="12" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="81"/>
-      <c r="Y12" s="81"/>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="81"/>
-      <c r="AC12" s="81"/>
-      <c r="AD12" s="81"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="81"/>
-      <c r="AG12" s="81"/>
-      <c r="AH12" s="81"/>
-      <c r="AI12" s="81"/>
-      <c r="AJ12" s="81"/>
-      <c r="AK12" s="81"/>
-      <c r="AL12" s="82"/>
-      <c r="AM12" s="81"/>
-      <c r="AN12" s="81"/>
-      <c r="AO12" s="81"/>
-      <c r="AP12" s="81"/>
-      <c r="AQ12" s="81"/>
-      <c r="AR12" s="81"/>
-      <c r="AS12" s="81"/>
-      <c r="AT12" s="81"/>
-      <c r="AU12" s="81"/>
-      <c r="AV12" s="81"/>
-      <c r="AW12" s="81"/>
-      <c r="AX12" s="81"/>
-      <c r="AY12" s="81"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="74"/>
+      <c r="AL12" s="75"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="74"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="74"/>
     </row>
     <row r="13" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B13" s="83" t="s">
+      <c r="B13" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="23"/>
-      <c r="AN13" s="23"/>
-      <c r="AO13" s="23"/>
-      <c r="AP13" s="23"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="23"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23"/>
-      <c r="AV13" s="23"/>
-      <c r="AW13" s="23"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="74"/>
+      <c r="AG13" s="74"/>
+      <c r="AH13" s="74"/>
+      <c r="AI13" s="74"/>
+      <c r="AJ13" s="74"/>
+      <c r="AK13" s="75"/>
+      <c r="AL13" s="75"/>
+      <c r="AM13" s="74"/>
+      <c r="AN13" s="74"/>
+      <c r="AO13" s="74"/>
+      <c r="AP13" s="74"/>
+      <c r="AQ13" s="74"/>
+      <c r="AR13" s="74"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="74"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="74"/>
+      <c r="AW13" s="74"/>
+      <c r="AX13" s="74"/>
+      <c r="AY13" s="74"/>
     </row>
     <row r="14" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="81"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="81"/>
-      <c r="T14" s="81"/>
-      <c r="U14" s="81"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="81"/>
-      <c r="Y14" s="81"/>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="81"/>
-      <c r="AC14" s="81"/>
-      <c r="AD14" s="81"/>
-      <c r="AE14" s="81"/>
-      <c r="AF14" s="81"/>
-      <c r="AG14" s="81"/>
-      <c r="AH14" s="81"/>
-      <c r="AI14" s="81"/>
-      <c r="AJ14" s="81"/>
-      <c r="AK14" s="81"/>
-      <c r="AL14" s="81"/>
-      <c r="AM14" s="81"/>
-      <c r="AN14" s="81"/>
-      <c r="AO14" s="81"/>
-      <c r="AP14" s="81"/>
-      <c r="AQ14" s="81"/>
-      <c r="AR14" s="81"/>
-      <c r="AS14" s="81"/>
-      <c r="AT14" s="81"/>
-      <c r="AU14" s="81"/>
-      <c r="AV14" s="81"/>
-      <c r="AW14" s="81"/>
-      <c r="AX14" s="81"/>
-      <c r="AY14" s="81"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="74"/>
+      <c r="AL14" s="74"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="74"/>
+      <c r="AP14" s="74"/>
+      <c r="AQ14" s="74"/>
+      <c r="AR14" s="74"/>
+      <c r="AS14" s="74"/>
+      <c r="AT14" s="74"/>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
     </row>
     <row r="15" spans="2:51" x14ac:dyDescent="0.2">
       <c r="B15" s="22"/>
@@ -14391,549 +14450,556 @@
       <c r="B16" s="22"/>
     </row>
     <row r="17" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="81"/>
+      <c r="X17" s="81"/>
+      <c r="Y17" s="81"/>
+      <c r="Z17" s="81"/>
+      <c r="AA17" s="81"/>
+      <c r="AB17" s="81"/>
+      <c r="AC17" s="81"/>
+      <c r="AD17" s="81"/>
+      <c r="AE17" s="81"/>
+      <c r="AF17" s="81"/>
+      <c r="AG17" s="81"/>
+      <c r="AH17" s="81"/>
+      <c r="AI17" s="81"/>
+      <c r="AJ17" s="81"/>
+      <c r="AK17" s="81"/>
+      <c r="AL17" s="81"/>
+      <c r="AM17" s="81"/>
+      <c r="AN17" s="81"/>
+      <c r="AO17" s="81"/>
+      <c r="AP17" s="81"/>
+      <c r="AQ17" s="81"/>
+      <c r="AR17" s="81"/>
+      <c r="AS17" s="81"/>
+      <c r="AT17" s="81"/>
+      <c r="AU17" s="81"/>
+      <c r="AV17" s="81"/>
+      <c r="AW17" s="81"/>
+      <c r="AX17" s="81"/>
+      <c r="AY17" s="82"/>
+    </row>
+    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B18" s="24"/>
+      <c r="C18" s="83">
+        <v>17</v>
+      </c>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83">
+        <v>18</v>
+      </c>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83">
+        <v>19</v>
+      </c>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83">
+        <v>20</v>
+      </c>
+      <c r="Y18" s="83"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="83"/>
+      <c r="AB18" s="83"/>
+      <c r="AC18" s="83"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83">
+        <v>21</v>
+      </c>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
+      <c r="AI18" s="83"/>
+      <c r="AJ18" s="83"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="83">
+        <v>22</v>
+      </c>
+      <c r="AM18" s="83"/>
+      <c r="AN18" s="83"/>
+      <c r="AO18" s="83"/>
+      <c r="AP18" s="83"/>
+      <c r="AQ18" s="83"/>
+      <c r="AR18" s="83"/>
+      <c r="AS18" s="83">
+        <v>23</v>
+      </c>
+      <c r="AT18" s="83"/>
+      <c r="AU18" s="83"/>
+      <c r="AV18" s="83"/>
+      <c r="AW18" s="83"/>
+      <c r="AX18" s="83"/>
+      <c r="AY18" s="83"/>
+    </row>
+    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
+      <c r="B19" s="24"/>
+      <c r="C19" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" s="27" t="s">
         <v>174</v>
       </c>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="78"/>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="78"/>
-      <c r="R17" s="78"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
-      <c r="W17" s="78"/>
-      <c r="X17" s="78"/>
-      <c r="Y17" s="78"/>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="78"/>
-      <c r="AB17" s="78"/>
-      <c r="AC17" s="78"/>
-      <c r="AD17" s="78"/>
-      <c r="AE17" s="78"/>
-      <c r="AF17" s="78"/>
-      <c r="AG17" s="78"/>
-      <c r="AH17" s="78"/>
-      <c r="AI17" s="78"/>
-      <c r="AJ17" s="78"/>
-      <c r="AK17" s="78"/>
-      <c r="AL17" s="78"/>
-      <c r="AM17" s="78"/>
-      <c r="AN17" s="78"/>
-      <c r="AO17" s="78"/>
-      <c r="AP17" s="78"/>
-      <c r="AQ17" s="78"/>
-      <c r="AR17" s="78"/>
-      <c r="AS17" s="78"/>
-      <c r="AT17" s="78"/>
-      <c r="AU17" s="78"/>
-      <c r="AV17" s="78"/>
-      <c r="AW17" s="78"/>
-      <c r="AX17" s="78"/>
-      <c r="AY17" s="79"/>
-    </row>
-    <row r="18" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B18" s="25"/>
-      <c r="C18" s="77">
-        <v>17</v>
-      </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77">
-        <v>18</v>
-      </c>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77">
-        <v>19</v>
-      </c>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
-      <c r="X18" s="77">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="77"/>
-      <c r="Z18" s="77"/>
-      <c r="AA18" s="77"/>
-      <c r="AB18" s="77"/>
-      <c r="AC18" s="77"/>
-      <c r="AD18" s="77"/>
-      <c r="AE18" s="77">
-        <v>21</v>
-      </c>
-      <c r="AF18" s="77"/>
-      <c r="AG18" s="77"/>
-      <c r="AH18" s="77"/>
-      <c r="AI18" s="77"/>
-      <c r="AJ18" s="77"/>
-      <c r="AK18" s="77"/>
-      <c r="AL18" s="77">
-        <v>22</v>
-      </c>
-      <c r="AM18" s="77"/>
-      <c r="AN18" s="77"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="77"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="77">
-        <v>23</v>
-      </c>
-      <c r="AT18" s="77"/>
-      <c r="AU18" s="77"/>
-      <c r="AV18" s="77"/>
-      <c r="AW18" s="77"/>
-      <c r="AX18" s="77"/>
-      <c r="AY18" s="77"/>
-    </row>
-    <row r="19" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B19" s="25"/>
-      <c r="C19" s="27" t="s">
+      <c r="H19" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="28" t="s">
+      <c r="M19" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="O19" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="G19" s="28" t="s">
+      <c r="P19" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="Q19" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="R19" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="S19" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="K19" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="M19" s="28" t="s">
+      <c r="T19" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="U19" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="V19" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="N19" s="28" t="s">
+      <c r="W19" s="28" t="s">
         <v>176</v>
       </c>
-      <c r="O19" s="28" t="s">
+      <c r="X19" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="P19" s="29" t="s">
+      <c r="Y19" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="Q19" s="30" t="s">
+      <c r="Z19" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="R19" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="S19" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="T19" s="28" t="s">
+      <c r="AA19" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB19" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC19" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="U19" s="28" t="s">
+      <c r="AD19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="V19" s="28" t="s">
+      <c r="AE19" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="W19" s="29" t="s">
+      <c r="AF19" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="X19" s="31" t="s">
+      <c r="AG19" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="Y19" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z19" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA19" s="32" t="s">
+      <c r="AH19" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI19" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ19" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="AB19" s="32" t="s">
+      <c r="AK19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AC19" s="32" t="s">
+      <c r="AL19" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="AD19" s="33" t="s">
+      <c r="AM19" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="AE19" s="31" t="s">
+      <c r="AN19" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AF19" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG19" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH19" s="32" t="s">
+      <c r="AO19" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AP19" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AQ19" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="AI19" s="32" t="s">
+      <c r="AR19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AJ19" s="32" t="s">
+      <c r="AS19" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="AK19" s="33" t="s">
+      <c r="AT19" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="AL19" s="31" t="s">
+      <c r="AU19" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="AM19" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AN19" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO19" s="32" t="s">
+      <c r="AV19" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW19" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX19" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="AP19" s="32" t="s">
+      <c r="AY19" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="AQ19" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="AR19" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="AS19" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT19" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="AU19" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="AV19" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW19" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="AX19" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="AY19" s="33" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="20" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="82"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="81"/>
-      <c r="X20" s="81"/>
-      <c r="Y20" s="81"/>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="81"/>
-      <c r="AG20" s="81"/>
-      <c r="AH20" s="81"/>
-      <c r="AI20" s="81"/>
-      <c r="AJ20" s="81"/>
-      <c r="AK20" s="81"/>
-      <c r="AL20" s="81"/>
-      <c r="AM20" s="81"/>
-      <c r="AN20" s="81"/>
-      <c r="AO20" s="81"/>
-      <c r="AP20" s="81"/>
-      <c r="AQ20" s="81"/>
-      <c r="AR20" s="81"/>
-      <c r="AS20" s="81"/>
-      <c r="AT20" s="81"/>
-      <c r="AU20" s="81"/>
-      <c r="AV20" s="81"/>
-      <c r="AW20" s="81"/>
-      <c r="AX20" s="81"/>
-      <c r="AY20" s="81"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="74"/>
+      <c r="AH20" s="74"/>
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="74"/>
+      <c r="AK20" s="74"/>
+      <c r="AL20" s="75"/>
+      <c r="AM20" s="75"/>
+      <c r="AN20" s="75"/>
+      <c r="AO20" s="75"/>
+      <c r="AP20" s="75"/>
+      <c r="AQ20" s="75"/>
+      <c r="AR20" s="75"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="74"/>
+      <c r="AX20" s="74"/>
+      <c r="AY20" s="74"/>
     </row>
     <row r="21" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="81"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="81"/>
-      <c r="U21" s="81"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="81"/>
-      <c r="AA21" s="81"/>
-      <c r="AB21" s="81"/>
-      <c r="AC21" s="81"/>
-      <c r="AD21" s="81"/>
-      <c r="AE21" s="81"/>
-      <c r="AF21" s="81"/>
-      <c r="AG21" s="81"/>
-      <c r="AH21" s="81"/>
-      <c r="AI21" s="81"/>
-      <c r="AJ21" s="81"/>
-      <c r="AK21" s="81"/>
-      <c r="AL21" s="82"/>
-      <c r="AM21" s="82"/>
-      <c r="AN21" s="82"/>
-      <c r="AO21" s="82"/>
-      <c r="AP21" s="82"/>
-      <c r="AQ21" s="82"/>
-      <c r="AR21" s="82"/>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="23"/>
-      <c r="AU21" s="23"/>
-      <c r="AV21" s="23"/>
-      <c r="AW21" s="23"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
+      <c r="T21" s="74"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="74"/>
+      <c r="AA21" s="74"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="74"/>
+      <c r="AH21" s="74"/>
+      <c r="AI21" s="74"/>
+      <c r="AJ21" s="74"/>
+      <c r="AK21" s="74"/>
+      <c r="AL21" s="75"/>
+      <c r="AM21" s="75"/>
+      <c r="AN21" s="75"/>
+      <c r="AO21" s="75"/>
+      <c r="AP21" s="75"/>
+      <c r="AQ21" s="75"/>
+      <c r="AR21" s="75"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
     </row>
     <row r="22" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
-      <c r="Q22" s="81"/>
-      <c r="R22" s="81"/>
-      <c r="S22" s="81"/>
-      <c r="T22" s="81"/>
-      <c r="U22" s="81"/>
-      <c r="V22" s="81"/>
-      <c r="W22" s="81"/>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="81"/>
-      <c r="Z22" s="81"/>
-      <c r="AA22" s="81"/>
-      <c r="AB22" s="81"/>
-      <c r="AC22" s="81"/>
-      <c r="AD22" s="81"/>
-      <c r="AE22" s="81"/>
-      <c r="AF22" s="81"/>
-      <c r="AG22" s="81"/>
-      <c r="AH22" s="81"/>
-      <c r="AI22" s="81"/>
-      <c r="AJ22" s="81"/>
-      <c r="AK22" s="81"/>
-      <c r="AL22" s="81"/>
-      <c r="AM22" s="81"/>
-      <c r="AN22" s="81"/>
-      <c r="AO22" s="81"/>
-      <c r="AP22" s="81"/>
-      <c r="AQ22" s="81"/>
-      <c r="AR22" s="81"/>
-      <c r="AS22" s="81"/>
-      <c r="AT22" s="81"/>
-      <c r="AU22" s="81"/>
-      <c r="AV22" s="81"/>
-      <c r="AW22" s="81"/>
-      <c r="AX22" s="81"/>
-      <c r="AY22" s="81"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
+      <c r="T22" s="74"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="74"/>
+      <c r="AG22" s="74"/>
+      <c r="AH22" s="74"/>
+      <c r="AI22" s="74"/>
+      <c r="AJ22" s="74"/>
+      <c r="AK22" s="74"/>
+      <c r="AL22" s="75"/>
+      <c r="AM22" s="75"/>
+      <c r="AN22" s="75"/>
+      <c r="AO22" s="75"/>
+      <c r="AP22" s="75"/>
+      <c r="AQ22" s="75"/>
+      <c r="AR22" s="75"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="74"/>
+      <c r="AX22" s="74"/>
+      <c r="AY22" s="74"/>
     </row>
     <row r="23" spans="2:51" x14ac:dyDescent="0.2">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="23"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="23"/>
-      <c r="AM23" s="23"/>
-      <c r="AN23" s="23"/>
-      <c r="AO23" s="23"/>
-      <c r="AP23" s="23"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="23"/>
-      <c r="AT23" s="23"/>
-      <c r="AU23" s="23"/>
-      <c r="AV23" s="23"/>
-      <c r="AW23" s="23"/>
-      <c r="AX23" s="24"/>
-      <c r="AY23" s="24"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="74"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="74"/>
+      <c r="AH23" s="74"/>
+      <c r="AI23" s="74"/>
+      <c r="AJ23" s="74"/>
+      <c r="AK23" s="74"/>
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="75"/>
+      <c r="AN23" s="75"/>
+      <c r="AO23" s="75"/>
+      <c r="AP23" s="75"/>
+      <c r="AQ23" s="75"/>
+      <c r="AR23" s="75"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="74"/>
+      <c r="AX23" s="74"/>
+      <c r="AY23" s="74"/>
     </row>
     <row r="24" spans="2:51" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
-      <c r="Q24" s="81"/>
-      <c r="R24" s="81"/>
-      <c r="S24" s="81"/>
-      <c r="T24" s="81"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="81"/>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="81"/>
-      <c r="AD24" s="81"/>
-      <c r="AE24" s="81"/>
-      <c r="AF24" s="81"/>
-      <c r="AG24" s="81"/>
-      <c r="AH24" s="81"/>
-      <c r="AI24" s="81"/>
-      <c r="AJ24" s="81"/>
-      <c r="AK24" s="81"/>
-      <c r="AL24" s="81"/>
-      <c r="AM24" s="81"/>
-      <c r="AN24" s="81"/>
-      <c r="AO24" s="81"/>
-      <c r="AP24" s="81"/>
-      <c r="AQ24" s="81"/>
-      <c r="AR24" s="81"/>
-      <c r="AS24" s="81"/>
-      <c r="AT24" s="81"/>
-      <c r="AU24" s="81"/>
-      <c r="AV24" s="81"/>
-      <c r="AW24" s="81"/>
-      <c r="AX24" s="81"/>
-      <c r="AY24" s="81"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="74"/>
+      <c r="AG24" s="74"/>
+      <c r="AH24" s="74"/>
+      <c r="AI24" s="74"/>
+      <c r="AJ24" s="74"/>
+      <c r="AK24" s="74"/>
+      <c r="AL24" s="75"/>
+      <c r="AM24" s="75"/>
+      <c r="AN24" s="75"/>
+      <c r="AO24" s="75"/>
+      <c r="AP24" s="75"/>
+      <c r="AQ24" s="75"/>
+      <c r="AR24" s="75"/>
+      <c r="AS24" s="74"/>
+      <c r="AT24" s="74"/>
+      <c r="AU24" s="74"/>
+      <c r="AV24" s="74"/>
+      <c r="AW24" s="74"/>
+      <c r="AX24" s="74"/>
+      <c r="AY24" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AS18:AY18"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:W18"/>
+    <mergeCell ref="X18:AD18"/>
+    <mergeCell ref="AE18:AK18"/>
+    <mergeCell ref="AL18:AR18"/>
     <mergeCell ref="B1:H3"/>
     <mergeCell ref="C17:AY17"/>
     <mergeCell ref="C7:AY7"/>
@@ -14944,13 +15010,6 @@
     <mergeCell ref="AE8:AK8"/>
     <mergeCell ref="AL8:AR8"/>
     <mergeCell ref="AS8:AY8"/>
-    <mergeCell ref="AS18:AY18"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:W18"/>
-    <mergeCell ref="X18:AD18"/>
-    <mergeCell ref="AE18:AK18"/>
-    <mergeCell ref="AL18:AR18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14975,119 +15034,119 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="80" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C5" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>392</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="F5" s="65" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="H5" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-    </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-    </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-    </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C5" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>395</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>400</v>
-      </c>
-      <c r="F5" s="66" t="s">
+      <c r="I5" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="J5" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="K5" s="65" t="s">
         <v>407</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="L5" s="65" t="s">
         <v>408</v>
       </c>
-      <c r="J5" s="66" t="s">
+      <c r="M5" s="65" t="s">
         <v>409</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="N5" s="65" t="s">
         <v>410</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="O5" s="65" t="s">
         <v>411</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="P5" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="N5" s="66" t="s">
-        <v>413</v>
-      </c>
-      <c r="O5" s="66" t="s">
-        <v>414</v>
-      </c>
-      <c r="P5" s="67" t="s">
-        <v>415</v>
-      </c>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C6" s="65"/>
-      <c r="D6" s="68">
+      <c r="C6" s="64"/>
+      <c r="D6" s="67">
         <v>11</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="67">
         <v>12</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="67">
         <v>13</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="67">
         <v>14</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="67">
         <v>15</v>
       </c>
-      <c r="I6" s="68">
+      <c r="I6" s="67">
         <v>16</v>
       </c>
-      <c r="J6" s="68">
+      <c r="J6" s="67">
         <v>17</v>
       </c>
-      <c r="K6" s="68">
+      <c r="K6" s="67">
         <v>18</v>
       </c>
-      <c r="L6" s="68">
+      <c r="L6" s="67">
         <v>19</v>
       </c>
-      <c r="M6" s="68">
+      <c r="M6" s="67">
         <v>20</v>
       </c>
-      <c r="N6" s="68">
+      <c r="N6" s="67">
         <v>21</v>
       </c>
-      <c r="O6" s="68">
+      <c r="O6" s="67">
         <v>22</v>
       </c>
-      <c r="P6" s="67">
+      <c r="P6" s="66">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="64" t="s">
         <v>63</v>
       </c>
       <c r="D7" s="11"/>
@@ -15102,295 +15161,295 @@
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="64"/>
+      <c r="P7" s="63"/>
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="63"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="64"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="63"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C9" s="65" t="s">
-        <v>403</v>
+      <c r="C9" s="64" t="s">
+        <v>400</v>
       </c>
       <c r="D9" s="11"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="64"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="63"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>61</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="64"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="63"/>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C11" s="65" t="s">
-        <v>74</v>
+      <c r="C11" s="64" t="s">
+        <v>73</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="64"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="63"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C12" s="65" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="62"/>
+      <c r="C12" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="61"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="64"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="63"/>
     </row>
     <row r="13" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C13" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="62"/>
+      <c r="C13" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="61"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="64"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="63"/>
     </row>
     <row r="14" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C14" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
+      <c r="C14" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="64"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="63"/>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C15" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="C15" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="64"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="63"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C16" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
+      <c r="C16" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="64"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="63"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C17" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
+      <c r="C17" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="61"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="62"/>
+      <c r="M17" s="61"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="64"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="63"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C18" s="65" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
+      <c r="C18" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="62"/>
+      <c r="K18" s="61"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="62"/>
+      <c r="M18" s="61"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="64"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="63"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C19" s="65" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
+      <c r="C19" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="64"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="63"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C20" s="65" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="C20" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="64"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="63"/>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C21" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="C21" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="64"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="63"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C22" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
+      <c r="C22" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="64"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="63"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="C23" s="65" t="s">
-        <v>385</v>
-      </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
+      <c r="C23" s="64" t="s">
+        <v>382</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
-      <c r="P23" s="64"/>
+      <c r="P23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
